--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#LISTITEM</t>
   </si>
   <si>
     <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
@@ -1044,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:BF65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C114" activeCellId="0" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5773,10 +5776,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
@@ -5834,10 +5837,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
@@ -5895,10 +5898,10 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
@@ -6021,7 +6024,7 @@
         <v>34</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
@@ -6082,7 +6085,7 @@
         <v>63</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -6143,7 +6146,7 @@
         <v>63</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
@@ -6266,7 +6269,7 @@
         <v>34</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -6327,7 +6330,7 @@
         <v>63</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -6388,7 +6391,7 @@
         <v>63</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CV_2017-Mars_ATC" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CV.fails" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CV_2017-Mars_ATC" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" name="ampm" vbProcedure="false">[2]Formulas!$C$31:$C$72</definedName>
@@ -59,9 +60,9 @@
     <definedName function="false" hidden="false" name="WeekNo" vbProcedure="false">[2]Formulas!$A$21:$A$27</definedName>
     <definedName function="false" hidden="false" name="year" vbProcedure="false">[2]Formulas!$H$6</definedName>
     <definedName function="false" hidden="false" name="_DAY1" vbProcedure="false">[1]W1!$C$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="GAIN" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="GAIN2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MONINT" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="GAIN" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="GAIN2" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MONINT" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -72,8 +73,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">DONT PUT IN COMMAS HERE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">as it breaks the csv !!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="160">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -213,306 +247,321 @@
     <t xml:space="preserve">SUBSECTION</t>
   </si>
   <si>
+    <t xml:space="preserve">Fr:Solution Architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE EG presales - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: 09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (PaaS, CaaS, DevOps, micro-services)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP CMS - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect/Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP OCBU - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech Lead/Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Research Labs - UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS Google App Engine, OpenShift, Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages and Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi, BeagleBone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization (vSphere/PySphere, KVM-Qemu, VirtualBox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluency in French, basic fluency in Italian, Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ. Of Hull,  UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Firth prize for electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running, cycling, Roller blading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solution Architect</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr:Solution Architecte</t>
-  </si>
-  <si>
     <t xml:space="preserve">HPE EG presales – Grenoble, France</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloudNative  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: 09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISTITEM</t>
+    <t xml:space="preserve">CloudNative in HPE Customer Innovation Center</t>
   </si>
   <si>
     <t xml:space="preserve">Cloud Native (Container Orchestration, Docker, Unikernels)  presentations and labs</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hands-on GCE, AWS, Azure, DigitalOcean</t>
   </si>
   <si>
     <t xml:space="preserve">Fr: Evangelisme Conteneurs (Docker)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cloud Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP CMS - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect/Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP OCBU - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech Lead/Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of Technical Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Research Labs - UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaaS Google App Engine, OpenShift, Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages and Paradigms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi, BeagleBone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization (vSphere/PySphere, KVM-Qemu, VirtualBox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluency in French, basic fluency in Italian, Spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Of Hull,  UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Firth prize for electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport / Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running, cycling, Roller blading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATC</t>
   </si>
   <si>
@@ -529,9 +578,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pre-sales technical expert in areas of NFV, Cloud, Virtualization, Containers, SDN, Networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE EG presales - Grenoble France</t>
   </si>
   <si>
     <t xml:space="preserve">NFV  in HPE Customer Innovation Center</t>
@@ -1059,7 +1105,7 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1304,11 +1350,11 @@
         <v>30</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="12"/>
     </row>
@@ -1317,92 +1363,88 @@
         <v>38</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
     </row>
     <row r="23" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
@@ -1420,7 +1462,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="26"/>
@@ -1431,7 +1473,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -1439,10 +1481,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -1450,10 +1492,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -1461,10 +1503,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -1472,20 +1514,20 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
@@ -1494,10 +1536,10 @@
       <c r="A31" s="0"/>
       <c r="B31" s="0"/>
       <c r="C31" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="0"/>
@@ -1505,50 +1547,50 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="26"/>
@@ -1570,7 +1612,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
@@ -1582,7 +1624,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="0"/>
@@ -1590,60 +1632,60 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" s="14"/>
       <c r="G40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -1652,10 +1694,10 @@
       <c r="A46" s="0"/>
       <c r="B46" s="0"/>
       <c r="C46" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="0"/>
@@ -1716,10 +1758,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -1779,10 +1821,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -1908,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
@@ -1972,7 +2014,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -2033,10 +2075,10 @@
       <c r="A52" s="0"/>
       <c r="B52" s="0"/>
       <c r="C52" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="0"/>
@@ -2097,10 +2139,10 @@
       <c r="A53" s="0"/>
       <c r="B53" s="0"/>
       <c r="C53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="0"/>
@@ -2161,10 +2203,10 @@
       <c r="A54" s="0"/>
       <c r="B54" s="0"/>
       <c r="C54" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="0"/>
@@ -2225,10 +2267,10 @@
       <c r="A55" s="0"/>
       <c r="B55" s="0"/>
       <c r="C55" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="0"/>
@@ -2289,10 +2331,10 @@
       <c r="A56" s="0"/>
       <c r="B56" s="0"/>
       <c r="C56" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="0"/>
@@ -2353,10 +2395,10 @@
       <c r="A57" s="0"/>
       <c r="B57" s="0"/>
       <c r="C57" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="0"/>
@@ -2417,10 +2459,10 @@
       <c r="A58" s="0"/>
       <c r="B58" s="0"/>
       <c r="C58" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="0"/>
@@ -2481,10 +2523,10 @@
       <c r="A59" s="0"/>
       <c r="B59" s="0"/>
       <c r="C59" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="0"/>
@@ -2608,7 +2650,7 @@
         <v>30</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
@@ -2618,47 +2660,47 @@
         <v>38</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
@@ -2678,7 +2720,7 @@
         <v>30</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
@@ -2688,37 +2730,37 @@
         <v>38</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
@@ -2738,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="29"/>
@@ -2761,27 +2803,27 @@
         <v>30</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -2852,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
@@ -2910,30 +2952,30 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -2953,17 +2995,17 @@
         <v>30</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -2972,10 +3014,10 @@
       <c r="A87" s="0"/>
       <c r="B87" s="0"/>
       <c r="C87" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -3100,7 +3142,7 @@
         <v>30</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="0"/>
@@ -3159,10 +3201,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -3183,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="29"/>
@@ -3207,17 +3249,17 @@
         <v>30</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E94" s="12"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
@@ -3226,10 +3268,10 @@
       <c r="A96" s="0"/>
       <c r="B96" s="0"/>
       <c r="C96" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="0"/>
@@ -3288,30 +3330,30 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
@@ -3332,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="29"/>
@@ -3356,107 +3398,107 @@
         <v>30</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E103" s="12"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
@@ -3477,27 +3519,27 @@
         <v>30</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -3518,27 +3560,27 @@
         <v>30</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -3638,6 +3680,2586 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="G24" s="26"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="G25" s="26"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="G26" s="26"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="26"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
+      <c r="S46" s="0"/>
+      <c r="T46" s="0"/>
+      <c r="U46" s="0"/>
+      <c r="V46" s="0"/>
+      <c r="W46" s="0"/>
+      <c r="X46" s="0"/>
+      <c r="Y46" s="0"/>
+      <c r="Z46" s="0"/>
+      <c r="AA46" s="0"/>
+      <c r="AB46" s="0"/>
+      <c r="AC46" s="0"/>
+      <c r="AD46" s="0"/>
+      <c r="AE46" s="0"/>
+      <c r="AF46" s="0"/>
+      <c r="AG46" s="0"/>
+      <c r="AH46" s="0"/>
+      <c r="AI46" s="0"/>
+      <c r="AJ46" s="0"/>
+      <c r="AK46" s="0"/>
+      <c r="AL46" s="0"/>
+      <c r="AM46" s="0"/>
+      <c r="AN46" s="0"/>
+      <c r="AO46" s="0"/>
+      <c r="AP46" s="0"/>
+      <c r="AQ46" s="0"/>
+      <c r="AR46" s="0"/>
+      <c r="AS46" s="0"/>
+      <c r="AT46" s="0"/>
+      <c r="AU46" s="0"/>
+      <c r="AV46" s="0"/>
+      <c r="AW46" s="0"/>
+      <c r="AX46" s="0"/>
+      <c r="AY46" s="0"/>
+      <c r="AZ46" s="0"/>
+      <c r="BA46" s="0"/>
+      <c r="BB46" s="0"/>
+      <c r="BC46" s="0"/>
+      <c r="BD46" s="0"/>
+      <c r="BE46" s="0"/>
+      <c r="BF46" s="0"/>
+    </row>
+    <row r="47" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="0"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7"/>
+      <c r="BF47" s="7"/>
+    </row>
+    <row r="48" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="0"/>
+      <c r="V48" s="0"/>
+      <c r="W48" s="0"/>
+      <c r="X48" s="0"/>
+      <c r="Y48" s="0"/>
+      <c r="Z48" s="0"/>
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+      <c r="AE48" s="0"/>
+      <c r="AF48" s="0"/>
+      <c r="AG48" s="0"/>
+      <c r="AH48" s="0"/>
+      <c r="AI48" s="0"/>
+      <c r="AJ48" s="0"/>
+      <c r="AK48" s="0"/>
+      <c r="AL48" s="0"/>
+      <c r="AM48" s="0"/>
+      <c r="AN48" s="0"/>
+      <c r="AO48" s="0"/>
+      <c r="AP48" s="0"/>
+      <c r="AQ48" s="0"/>
+      <c r="AR48" s="0"/>
+      <c r="AS48" s="0"/>
+      <c r="AT48" s="0"/>
+      <c r="AU48" s="0"/>
+      <c r="AV48" s="0"/>
+      <c r="AW48" s="0"/>
+      <c r="AX48" s="0"/>
+      <c r="AY48" s="0"/>
+      <c r="AZ48" s="0"/>
+      <c r="BA48" s="0"/>
+      <c r="BB48" s="0"/>
+      <c r="BC48" s="0"/>
+      <c r="BD48" s="0"/>
+      <c r="BE48" s="0"/>
+      <c r="BF48" s="0"/>
+    </row>
+    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
+      <c r="X49" s="0"/>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AF49" s="0"/>
+      <c r="AG49" s="0"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
+      <c r="AN49" s="0"/>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+      <c r="AU49" s="0"/>
+      <c r="AV49" s="0"/>
+      <c r="AW49" s="0"/>
+      <c r="AX49" s="0"/>
+      <c r="AY49" s="0"/>
+      <c r="AZ49" s="0"/>
+      <c r="BA49" s="0"/>
+      <c r="BB49" s="0"/>
+      <c r="BC49" s="0"/>
+      <c r="BD49" s="0"/>
+      <c r="BE49" s="0"/>
+      <c r="BF49" s="0"/>
+    </row>
+    <row r="50" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0"/>
+      <c r="X50" s="0"/>
+      <c r="Y50" s="0"/>
+      <c r="Z50" s="0"/>
+      <c r="AA50" s="0"/>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+      <c r="AE50" s="0"/>
+      <c r="AF50" s="0"/>
+      <c r="AG50" s="0"/>
+      <c r="AH50" s="0"/>
+      <c r="AI50" s="0"/>
+      <c r="AJ50" s="0"/>
+      <c r="AK50" s="0"/>
+      <c r="AL50" s="0"/>
+      <c r="AM50" s="0"/>
+      <c r="AN50" s="0"/>
+      <c r="AO50" s="0"/>
+      <c r="AP50" s="0"/>
+      <c r="AQ50" s="0"/>
+      <c r="AR50" s="0"/>
+      <c r="AS50" s="0"/>
+      <c r="AT50" s="0"/>
+      <c r="AU50" s="0"/>
+      <c r="AV50" s="0"/>
+      <c r="AW50" s="0"/>
+      <c r="AX50" s="0"/>
+      <c r="AY50" s="0"/>
+      <c r="AZ50" s="0"/>
+      <c r="BA50" s="0"/>
+      <c r="BB50" s="0"/>
+      <c r="BC50" s="0"/>
+      <c r="BD50" s="0"/>
+      <c r="BE50" s="0"/>
+      <c r="BF50" s="0"/>
+    </row>
+    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+      <c r="AE51" s="0"/>
+      <c r="AF51" s="0"/>
+      <c r="AG51" s="0"/>
+      <c r="AH51" s="0"/>
+      <c r="AI51" s="0"/>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="0"/>
+      <c r="AN51" s="0"/>
+      <c r="AO51" s="0"/>
+      <c r="AP51" s="0"/>
+      <c r="AQ51" s="0"/>
+      <c r="AR51" s="0"/>
+      <c r="AS51" s="0"/>
+      <c r="AT51" s="0"/>
+      <c r="AU51" s="0"/>
+      <c r="AV51" s="0"/>
+      <c r="AW51" s="0"/>
+      <c r="AX51" s="0"/>
+      <c r="AY51" s="0"/>
+      <c r="AZ51" s="0"/>
+      <c r="BA51" s="0"/>
+      <c r="BB51" s="0"/>
+      <c r="BC51" s="0"/>
+      <c r="BD51" s="0"/>
+      <c r="BE51" s="0"/>
+      <c r="BF51" s="0"/>
+    </row>
+    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="U52" s="0"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+      <c r="AE52" s="0"/>
+      <c r="AF52" s="0"/>
+      <c r="AG52" s="0"/>
+      <c r="AH52" s="0"/>
+      <c r="AI52" s="0"/>
+      <c r="AJ52" s="0"/>
+      <c r="AK52" s="0"/>
+      <c r="AL52" s="0"/>
+      <c r="AM52" s="0"/>
+      <c r="AN52" s="0"/>
+      <c r="AO52" s="0"/>
+      <c r="AP52" s="0"/>
+      <c r="AQ52" s="0"/>
+      <c r="AR52" s="0"/>
+      <c r="AS52" s="0"/>
+      <c r="AT52" s="0"/>
+      <c r="AU52" s="0"/>
+      <c r="AV52" s="0"/>
+      <c r="AW52" s="0"/>
+      <c r="AX52" s="0"/>
+      <c r="AY52" s="0"/>
+      <c r="AZ52" s="0"/>
+      <c r="BA52" s="0"/>
+      <c r="BB52" s="0"/>
+      <c r="BC52" s="0"/>
+      <c r="BD52" s="0"/>
+      <c r="BE52" s="0"/>
+      <c r="BF52" s="0"/>
+    </row>
+    <row r="53" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="0"/>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0"/>
+      <c r="X53" s="0"/>
+      <c r="Y53" s="0"/>
+      <c r="Z53" s="0"/>
+      <c r="AA53" s="0"/>
+      <c r="AB53" s="0"/>
+      <c r="AC53" s="0"/>
+      <c r="AD53" s="0"/>
+      <c r="AE53" s="0"/>
+      <c r="AF53" s="0"/>
+      <c r="AG53" s="0"/>
+      <c r="AH53" s="0"/>
+      <c r="AI53" s="0"/>
+      <c r="AJ53" s="0"/>
+      <c r="AK53" s="0"/>
+      <c r="AL53" s="0"/>
+      <c r="AM53" s="0"/>
+      <c r="AN53" s="0"/>
+      <c r="AO53" s="0"/>
+      <c r="AP53" s="0"/>
+      <c r="AQ53" s="0"/>
+      <c r="AR53" s="0"/>
+      <c r="AS53" s="0"/>
+      <c r="AT53" s="0"/>
+      <c r="AU53" s="0"/>
+      <c r="AV53" s="0"/>
+      <c r="AW53" s="0"/>
+      <c r="AX53" s="0"/>
+      <c r="AY53" s="0"/>
+      <c r="AZ53" s="0"/>
+      <c r="BA53" s="0"/>
+      <c r="BB53" s="0"/>
+      <c r="BC53" s="0"/>
+      <c r="BD53" s="0"/>
+      <c r="BE53" s="0"/>
+      <c r="BF53" s="0"/>
+    </row>
+    <row r="54" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
+      <c r="S54" s="0"/>
+      <c r="T54" s="0"/>
+      <c r="U54" s="0"/>
+      <c r="V54" s="0"/>
+      <c r="W54" s="0"/>
+      <c r="X54" s="0"/>
+      <c r="Y54" s="0"/>
+      <c r="Z54" s="0"/>
+      <c r="AA54" s="0"/>
+      <c r="AB54" s="0"/>
+      <c r="AC54" s="0"/>
+      <c r="AD54" s="0"/>
+      <c r="AE54" s="0"/>
+      <c r="AF54" s="0"/>
+      <c r="AG54" s="0"/>
+      <c r="AH54" s="0"/>
+      <c r="AI54" s="0"/>
+      <c r="AJ54" s="0"/>
+      <c r="AK54" s="0"/>
+      <c r="AL54" s="0"/>
+      <c r="AM54" s="0"/>
+      <c r="AN54" s="0"/>
+      <c r="AO54" s="0"/>
+      <c r="AP54" s="0"/>
+      <c r="AQ54" s="0"/>
+      <c r="AR54" s="0"/>
+      <c r="AS54" s="0"/>
+      <c r="AT54" s="0"/>
+      <c r="AU54" s="0"/>
+      <c r="AV54" s="0"/>
+      <c r="AW54" s="0"/>
+      <c r="AX54" s="0"/>
+      <c r="AY54" s="0"/>
+      <c r="AZ54" s="0"/>
+      <c r="BA54" s="0"/>
+      <c r="BB54" s="0"/>
+      <c r="BC54" s="0"/>
+      <c r="BD54" s="0"/>
+      <c r="BE54" s="0"/>
+      <c r="BF54" s="0"/>
+    </row>
+    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+      <c r="C55" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="0"/>
+      <c r="V55" s="0"/>
+      <c r="W55" s="0"/>
+      <c r="X55" s="0"/>
+      <c r="Y55" s="0"/>
+      <c r="Z55" s="0"/>
+      <c r="AA55" s="0"/>
+      <c r="AB55" s="0"/>
+      <c r="AC55" s="0"/>
+      <c r="AD55" s="0"/>
+      <c r="AE55" s="0"/>
+      <c r="AF55" s="0"/>
+      <c r="AG55" s="0"/>
+      <c r="AH55" s="0"/>
+      <c r="AI55" s="0"/>
+      <c r="AJ55" s="0"/>
+      <c r="AK55" s="0"/>
+      <c r="AL55" s="0"/>
+      <c r="AM55" s="0"/>
+      <c r="AN55" s="0"/>
+      <c r="AO55" s="0"/>
+      <c r="AP55" s="0"/>
+      <c r="AQ55" s="0"/>
+      <c r="AR55" s="0"/>
+      <c r="AS55" s="0"/>
+      <c r="AT55" s="0"/>
+      <c r="AU55" s="0"/>
+      <c r="AV55" s="0"/>
+      <c r="AW55" s="0"/>
+      <c r="AX55" s="0"/>
+      <c r="AY55" s="0"/>
+      <c r="AZ55" s="0"/>
+      <c r="BA55" s="0"/>
+      <c r="BB55" s="0"/>
+      <c r="BC55" s="0"/>
+      <c r="BD55" s="0"/>
+      <c r="BE55" s="0"/>
+      <c r="BF55" s="0"/>
+    </row>
+    <row r="56" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="0"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="0"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0"/>
+      <c r="X56" s="0"/>
+      <c r="Y56" s="0"/>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0"/>
+      <c r="AB56" s="0"/>
+      <c r="AC56" s="0"/>
+      <c r="AD56" s="0"/>
+      <c r="AE56" s="0"/>
+      <c r="AF56" s="0"/>
+      <c r="AG56" s="0"/>
+      <c r="AH56" s="0"/>
+      <c r="AI56" s="0"/>
+      <c r="AJ56" s="0"/>
+      <c r="AK56" s="0"/>
+      <c r="AL56" s="0"/>
+      <c r="AM56" s="0"/>
+      <c r="AN56" s="0"/>
+      <c r="AO56" s="0"/>
+      <c r="AP56" s="0"/>
+      <c r="AQ56" s="0"/>
+      <c r="AR56" s="0"/>
+      <c r="AS56" s="0"/>
+      <c r="AT56" s="0"/>
+      <c r="AU56" s="0"/>
+      <c r="AV56" s="0"/>
+      <c r="AW56" s="0"/>
+      <c r="AX56" s="0"/>
+      <c r="AY56" s="0"/>
+      <c r="AZ56" s="0"/>
+      <c r="BA56" s="0"/>
+      <c r="BB56" s="0"/>
+      <c r="BC56" s="0"/>
+      <c r="BD56" s="0"/>
+      <c r="BE56" s="0"/>
+      <c r="BF56" s="0"/>
+    </row>
+    <row r="57" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
+      <c r="C57" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
+      <c r="T57" s="0"/>
+      <c r="U57" s="0"/>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0"/>
+      <c r="X57" s="0"/>
+      <c r="Y57" s="0"/>
+      <c r="Z57" s="0"/>
+      <c r="AA57" s="0"/>
+      <c r="AB57" s="0"/>
+      <c r="AC57" s="0"/>
+      <c r="AD57" s="0"/>
+      <c r="AE57" s="0"/>
+      <c r="AF57" s="0"/>
+      <c r="AG57" s="0"/>
+      <c r="AH57" s="0"/>
+      <c r="AI57" s="0"/>
+      <c r="AJ57" s="0"/>
+      <c r="AK57" s="0"/>
+      <c r="AL57" s="0"/>
+      <c r="AM57" s="0"/>
+      <c r="AN57" s="0"/>
+      <c r="AO57" s="0"/>
+      <c r="AP57" s="0"/>
+      <c r="AQ57" s="0"/>
+      <c r="AR57" s="0"/>
+      <c r="AS57" s="0"/>
+      <c r="AT57" s="0"/>
+      <c r="AU57" s="0"/>
+      <c r="AV57" s="0"/>
+      <c r="AW57" s="0"/>
+      <c r="AX57" s="0"/>
+      <c r="AY57" s="0"/>
+      <c r="AZ57" s="0"/>
+      <c r="BA57" s="0"/>
+      <c r="BB57" s="0"/>
+      <c r="BC57" s="0"/>
+      <c r="BD57" s="0"/>
+      <c r="BE57" s="0"/>
+      <c r="BF57" s="0"/>
+    </row>
+    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="0"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
+      <c r="AB58" s="0"/>
+      <c r="AC58" s="0"/>
+      <c r="AD58" s="0"/>
+      <c r="AE58" s="0"/>
+      <c r="AF58" s="0"/>
+      <c r="AG58" s="0"/>
+      <c r="AH58" s="0"/>
+      <c r="AI58" s="0"/>
+      <c r="AJ58" s="0"/>
+      <c r="AK58" s="0"/>
+      <c r="AL58" s="0"/>
+      <c r="AM58" s="0"/>
+      <c r="AN58" s="0"/>
+      <c r="AO58" s="0"/>
+      <c r="AP58" s="0"/>
+      <c r="AQ58" s="0"/>
+      <c r="AR58" s="0"/>
+      <c r="AS58" s="0"/>
+      <c r="AT58" s="0"/>
+      <c r="AU58" s="0"/>
+      <c r="AV58" s="0"/>
+      <c r="AW58" s="0"/>
+      <c r="AX58" s="0"/>
+      <c r="AY58" s="0"/>
+      <c r="AZ58" s="0"/>
+      <c r="BA58" s="0"/>
+      <c r="BB58" s="0"/>
+      <c r="BC58" s="0"/>
+      <c r="BD58" s="0"/>
+      <c r="BE58" s="0"/>
+      <c r="BF58" s="0"/>
+    </row>
+    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="0"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
+      <c r="X59" s="0"/>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
+      <c r="AB59" s="0"/>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
+      <c r="AE59" s="0"/>
+      <c r="AF59" s="0"/>
+      <c r="AG59" s="0"/>
+      <c r="AH59" s="0"/>
+      <c r="AI59" s="0"/>
+      <c r="AJ59" s="0"/>
+      <c r="AK59" s="0"/>
+      <c r="AL59" s="0"/>
+      <c r="AM59" s="0"/>
+      <c r="AN59" s="0"/>
+      <c r="AO59" s="0"/>
+      <c r="AP59" s="0"/>
+      <c r="AQ59" s="0"/>
+      <c r="AR59" s="0"/>
+      <c r="AS59" s="0"/>
+      <c r="AT59" s="0"/>
+      <c r="AU59" s="0"/>
+      <c r="AV59" s="0"/>
+      <c r="AW59" s="0"/>
+      <c r="AX59" s="0"/>
+      <c r="AY59" s="0"/>
+      <c r="AZ59" s="0"/>
+      <c r="BA59" s="0"/>
+      <c r="BB59" s="0"/>
+      <c r="BC59" s="0"/>
+      <c r="BD59" s="0"/>
+      <c r="BE59" s="0"/>
+      <c r="BF59" s="0"/>
+    </row>
+    <row r="60" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="0"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
+      <c r="X60" s="0"/>
+      <c r="Y60" s="0"/>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0"/>
+      <c r="AB60" s="0"/>
+      <c r="AC60" s="0"/>
+      <c r="AD60" s="0"/>
+      <c r="AE60" s="0"/>
+      <c r="AF60" s="0"/>
+      <c r="AG60" s="0"/>
+      <c r="AH60" s="0"/>
+      <c r="AI60" s="0"/>
+      <c r="AJ60" s="0"/>
+      <c r="AK60" s="0"/>
+      <c r="AL60" s="0"/>
+      <c r="AM60" s="0"/>
+      <c r="AN60" s="0"/>
+      <c r="AO60" s="0"/>
+      <c r="AP60" s="0"/>
+      <c r="AQ60" s="0"/>
+      <c r="AR60" s="0"/>
+      <c r="AS60" s="0"/>
+      <c r="AT60" s="0"/>
+      <c r="AU60" s="0"/>
+      <c r="AV60" s="0"/>
+      <c r="AW60" s="0"/>
+      <c r="AX60" s="0"/>
+      <c r="AY60" s="0"/>
+      <c r="AZ60" s="0"/>
+      <c r="BA60" s="0"/>
+      <c r="BB60" s="0"/>
+      <c r="BC60" s="0"/>
+      <c r="BD60" s="0"/>
+      <c r="BE60" s="0"/>
+      <c r="BF60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="14"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="14"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="12"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="7"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
+      <c r="AT79" s="7"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="7"/>
+      <c r="AW79" s="7"/>
+      <c r="AX79" s="7"/>
+      <c r="AY79" s="7"/>
+      <c r="AZ79" s="7"/>
+      <c r="BA79" s="7"/>
+      <c r="BB79" s="7"/>
+      <c r="BC79" s="7"/>
+      <c r="BD79" s="7"/>
+      <c r="BE79" s="7"/>
+      <c r="BF79" s="7"/>
+    </row>
+    <row r="80" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
+      <c r="B80" s="0"/>
+      <c r="C80" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
+      <c r="K80" s="0"/>
+      <c r="L80" s="0"/>
+      <c r="M80" s="0"/>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
+      <c r="R80" s="0"/>
+      <c r="S80" s="0"/>
+      <c r="T80" s="0"/>
+      <c r="U80" s="0"/>
+      <c r="V80" s="0"/>
+      <c r="W80" s="0"/>
+      <c r="X80" s="0"/>
+      <c r="Y80" s="0"/>
+      <c r="Z80" s="0"/>
+      <c r="AA80" s="0"/>
+      <c r="AB80" s="0"/>
+      <c r="AC80" s="0"/>
+      <c r="AD80" s="0"/>
+      <c r="AE80" s="0"/>
+      <c r="AF80" s="0"/>
+      <c r="AG80" s="0"/>
+      <c r="AH80" s="0"/>
+      <c r="AI80" s="0"/>
+      <c r="AJ80" s="0"/>
+      <c r="AK80" s="0"/>
+      <c r="AL80" s="0"/>
+      <c r="AM80" s="0"/>
+      <c r="AN80" s="0"/>
+      <c r="AO80" s="0"/>
+      <c r="AP80" s="0"/>
+      <c r="AQ80" s="0"/>
+      <c r="AR80" s="0"/>
+      <c r="AS80" s="0"/>
+      <c r="AT80" s="0"/>
+      <c r="AU80" s="0"/>
+      <c r="AV80" s="0"/>
+      <c r="AW80" s="0"/>
+      <c r="AX80" s="0"/>
+      <c r="AY80" s="0"/>
+      <c r="AZ80" s="0"/>
+      <c r="BA80" s="0"/>
+      <c r="BB80" s="0"/>
+      <c r="BC80" s="0"/>
+      <c r="BD80" s="0"/>
+      <c r="BE80" s="0"/>
+      <c r="BF80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0"/>
+      <c r="B87" s="0"/>
+      <c r="C87" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="0"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="0"/>
+      <c r="I87" s="0"/>
+      <c r="J87" s="0"/>
+      <c r="K87" s="0"/>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
+      <c r="R87" s="0"/>
+      <c r="S87" s="0"/>
+      <c r="T87" s="0"/>
+      <c r="U87" s="0"/>
+      <c r="V87" s="0"/>
+      <c r="W87" s="0"/>
+      <c r="X87" s="0"/>
+      <c r="Y87" s="0"/>
+      <c r="Z87" s="0"/>
+      <c r="AA87" s="0"/>
+      <c r="AB87" s="0"/>
+      <c r="AC87" s="0"/>
+      <c r="AD87" s="0"/>
+      <c r="AE87" s="0"/>
+      <c r="AF87" s="0"/>
+      <c r="AG87" s="0"/>
+      <c r="AH87" s="0"/>
+      <c r="AI87" s="0"/>
+      <c r="AJ87" s="0"/>
+      <c r="AK87" s="0"/>
+      <c r="AL87" s="0"/>
+      <c r="AM87" s="0"/>
+      <c r="AN87" s="0"/>
+      <c r="AO87" s="0"/>
+      <c r="AP87" s="0"/>
+      <c r="AQ87" s="0"/>
+      <c r="AR87" s="0"/>
+      <c r="AS87" s="0"/>
+      <c r="AT87" s="0"/>
+      <c r="AU87" s="0"/>
+      <c r="AV87" s="0"/>
+      <c r="AW87" s="0"/>
+      <c r="AX87" s="0"/>
+      <c r="AY87" s="0"/>
+      <c r="AZ87" s="0"/>
+      <c r="BA87" s="0"/>
+      <c r="BB87" s="0"/>
+      <c r="BC87" s="0"/>
+      <c r="BD87" s="0"/>
+      <c r="BE87" s="0"/>
+      <c r="BF87" s="0"/>
+    </row>
+    <row r="88" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="7"/>
+      <c r="AW88" s="7"/>
+      <c r="AX88" s="7"/>
+      <c r="AY88" s="7"/>
+      <c r="AZ88" s="7"/>
+      <c r="BA88" s="7"/>
+      <c r="BB88" s="7"/>
+      <c r="BC88" s="7"/>
+      <c r="BD88" s="7"/>
+      <c r="BE88" s="7"/>
+      <c r="BF88" s="7"/>
+    </row>
+    <row r="89" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0"/>
+      <c r="B89" s="0"/>
+      <c r="C89" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="0"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="0"/>
+      <c r="I89" s="0"/>
+      <c r="J89" s="0"/>
+      <c r="K89" s="0"/>
+      <c r="L89" s="0"/>
+      <c r="M89" s="0"/>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
+      <c r="R89" s="0"/>
+      <c r="S89" s="0"/>
+      <c r="T89" s="0"/>
+      <c r="U89" s="0"/>
+      <c r="V89" s="0"/>
+      <c r="W89" s="0"/>
+      <c r="X89" s="0"/>
+      <c r="Y89" s="0"/>
+      <c r="Z89" s="0"/>
+      <c r="AA89" s="0"/>
+      <c r="AB89" s="0"/>
+      <c r="AC89" s="0"/>
+      <c r="AD89" s="0"/>
+      <c r="AE89" s="0"/>
+      <c r="AF89" s="0"/>
+      <c r="AG89" s="0"/>
+      <c r="AH89" s="0"/>
+      <c r="AI89" s="0"/>
+      <c r="AJ89" s="0"/>
+      <c r="AK89" s="0"/>
+      <c r="AL89" s="0"/>
+      <c r="AM89" s="0"/>
+      <c r="AN89" s="0"/>
+      <c r="AO89" s="0"/>
+      <c r="AP89" s="0"/>
+      <c r="AQ89" s="0"/>
+      <c r="AR89" s="0"/>
+      <c r="AS89" s="0"/>
+      <c r="AT89" s="0"/>
+      <c r="AU89" s="0"/>
+      <c r="AV89" s="0"/>
+      <c r="AW89" s="0"/>
+      <c r="AX89" s="0"/>
+      <c r="AY89" s="0"/>
+      <c r="AZ89" s="0"/>
+      <c r="BA89" s="0"/>
+      <c r="BB89" s="0"/>
+      <c r="BC89" s="0"/>
+      <c r="BD89" s="0"/>
+      <c r="BE89" s="0"/>
+      <c r="BF89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
+      <c r="B96" s="0"/>
+      <c r="C96" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="0"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="P96" s="0"/>
+      <c r="Q96" s="0"/>
+      <c r="R96" s="0"/>
+      <c r="S96" s="0"/>
+      <c r="T96" s="0"/>
+      <c r="U96" s="0"/>
+      <c r="V96" s="0"/>
+      <c r="W96" s="0"/>
+      <c r="X96" s="0"/>
+      <c r="Y96" s="0"/>
+      <c r="Z96" s="0"/>
+      <c r="AA96" s="0"/>
+      <c r="AB96" s="0"/>
+      <c r="AC96" s="0"/>
+      <c r="AD96" s="0"/>
+      <c r="AE96" s="0"/>
+      <c r="AF96" s="0"/>
+      <c r="AG96" s="0"/>
+      <c r="AH96" s="0"/>
+      <c r="AI96" s="0"/>
+      <c r="AJ96" s="0"/>
+      <c r="AK96" s="0"/>
+      <c r="AL96" s="0"/>
+      <c r="AM96" s="0"/>
+      <c r="AN96" s="0"/>
+      <c r="AO96" s="0"/>
+      <c r="AP96" s="0"/>
+      <c r="AQ96" s="0"/>
+      <c r="AR96" s="0"/>
+      <c r="AS96" s="0"/>
+      <c r="AT96" s="0"/>
+      <c r="AU96" s="0"/>
+      <c r="AV96" s="0"/>
+      <c r="AW96" s="0"/>
+      <c r="AX96" s="0"/>
+      <c r="AY96" s="0"/>
+      <c r="AZ96" s="0"/>
+      <c r="BA96" s="0"/>
+      <c r="BB96" s="0"/>
+      <c r="BC96" s="0"/>
+      <c r="BD96" s="0"/>
+      <c r="BE96" s="0"/>
+      <c r="BF96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="31"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="24"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="24"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="12"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D104" r:id="rId2" display="https://mjbright.github.io/Talks"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:BF65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3756,18 +6378,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,7 +6445,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
@@ -3871,7 +6493,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -3899,11 +6521,11 @@
         <v>30</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -3912,59 +6534,59 @@
         <v>38</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -3974,10 +6596,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -3987,14 +6609,14 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -4014,7 +6636,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -4025,7 +6647,7 @@
         <v>38</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -4033,10 +6655,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -4044,10 +6666,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -4055,10 +6677,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
@@ -4066,20 +6688,20 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="14"/>
       <c r="G31" s="12"/>
@@ -4088,10 +6710,10 @@
       <c r="A32" s="0"/>
       <c r="B32" s="0"/>
       <c r="C32" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="0"/>
@@ -4099,50 +6721,50 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="26"/>
@@ -4164,7 +6786,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="12"/>
@@ -4176,7 +6798,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="0"/>
@@ -4184,60 +6806,60 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
@@ -4246,10 +6868,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -4310,10 +6932,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -4373,10 +6995,10 @@
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -4502,7 +7124,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -4566,7 +7188,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="0"/>
@@ -4627,10 +7249,10 @@
       <c r="A53" s="0"/>
       <c r="B53" s="0"/>
       <c r="C53" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="0"/>
@@ -4691,10 +7313,10 @@
       <c r="A54" s="0"/>
       <c r="B54" s="0"/>
       <c r="C54" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="0"/>
@@ -4755,10 +7377,10 @@
       <c r="A55" s="0"/>
       <c r="B55" s="0"/>
       <c r="C55" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="0"/>
@@ -4819,10 +7441,10 @@
       <c r="A56" s="0"/>
       <c r="B56" s="0"/>
       <c r="C56" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="0"/>
@@ -4883,10 +7505,10 @@
       <c r="A57" s="0"/>
       <c r="B57" s="0"/>
       <c r="C57" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="0"/>
@@ -4947,10 +7569,10 @@
       <c r="A58" s="0"/>
       <c r="B58" s="0"/>
       <c r="C58" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="0"/>
@@ -5011,10 +7633,10 @@
       <c r="A59" s="0"/>
       <c r="B59" s="0"/>
       <c r="C59" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="0"/>
@@ -5075,10 +7697,10 @@
       <c r="A60" s="0"/>
       <c r="B60" s="0"/>
       <c r="C60" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="0"/>
@@ -5202,7 +7824,7 @@
         <v>30</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
@@ -5212,47 +7834,47 @@
         <v>38</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
@@ -5272,7 +7894,7 @@
         <v>30</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
@@ -5282,37 +7904,37 @@
         <v>38</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
@@ -5332,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="29"/>
@@ -5355,27 +7977,27 @@
         <v>30</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
@@ -5446,7 +8068,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -5504,30 +8126,30 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -5547,17 +8169,17 @@
         <v>30</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
@@ -5566,10 +8188,10 @@
       <c r="A88" s="0"/>
       <c r="B88" s="0"/>
       <c r="C88" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -5694,7 +8316,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -5753,10 +8375,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -5777,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="29"/>
@@ -5801,17 +8423,17 @@
         <v>30</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E96" s="12"/>
       <c r="G96" s="12"/>
@@ -5820,10 +8442,10 @@
       <c r="A97" s="0"/>
       <c r="B97" s="0"/>
       <c r="C97" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="0"/>
@@ -5882,30 +8504,30 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
@@ -5926,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C102" s="31"/>
       <c r="D102" s="29"/>
@@ -5950,107 +8572,107 @@
         <v>30</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
@@ -6071,27 +8693,27 @@
         <v>30</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
@@ -6112,27 +8734,27 @@
         <v>30</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="161">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
   </si>
   <si>
     <t xml:space="preserve">Cloud Engineer</t>
@@ -1105,7 +1108,7 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1446,6 +1449,2594 @@
       </c>
       <c r="G22" s="12"/>
     </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="G25" s="26"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="G26" s="26"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="26"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="0"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
+      <c r="X47" s="0"/>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
+      <c r="AB47" s="0"/>
+      <c r="AC47" s="0"/>
+      <c r="AD47" s="0"/>
+      <c r="AE47" s="0"/>
+      <c r="AF47" s="0"/>
+      <c r="AG47" s="0"/>
+      <c r="AH47" s="0"/>
+      <c r="AI47" s="0"/>
+      <c r="AJ47" s="0"/>
+      <c r="AK47" s="0"/>
+      <c r="AL47" s="0"/>
+      <c r="AM47" s="0"/>
+      <c r="AN47" s="0"/>
+      <c r="AO47" s="0"/>
+      <c r="AP47" s="0"/>
+      <c r="AQ47" s="0"/>
+      <c r="AR47" s="0"/>
+      <c r="AS47" s="0"/>
+      <c r="AT47" s="0"/>
+      <c r="AU47" s="0"/>
+      <c r="AV47" s="0"/>
+      <c r="AW47" s="0"/>
+      <c r="AX47" s="0"/>
+      <c r="AY47" s="0"/>
+      <c r="AZ47" s="0"/>
+      <c r="BA47" s="0"/>
+      <c r="BB47" s="0"/>
+      <c r="BC47" s="0"/>
+      <c r="BD47" s="0"/>
+      <c r="BE47" s="0"/>
+      <c r="BF47" s="0"/>
+    </row>
+    <row r="48" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="0"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7"/>
+      <c r="BC48" s="7"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7"/>
+      <c r="BF48" s="7"/>
+    </row>
+    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
+      <c r="X49" s="0"/>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AF49" s="0"/>
+      <c r="AG49" s="0"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
+      <c r="AN49" s="0"/>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+      <c r="AU49" s="0"/>
+      <c r="AV49" s="0"/>
+      <c r="AW49" s="0"/>
+      <c r="AX49" s="0"/>
+      <c r="AY49" s="0"/>
+      <c r="AZ49" s="0"/>
+      <c r="BA49" s="0"/>
+      <c r="BB49" s="0"/>
+      <c r="BC49" s="0"/>
+      <c r="BD49" s="0"/>
+      <c r="BE49" s="0"/>
+      <c r="BF49" s="0"/>
+    </row>
+    <row r="50" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0"/>
+      <c r="X50" s="0"/>
+      <c r="Y50" s="0"/>
+      <c r="Z50" s="0"/>
+      <c r="AA50" s="0"/>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+      <c r="AE50" s="0"/>
+      <c r="AF50" s="0"/>
+      <c r="AG50" s="0"/>
+      <c r="AH50" s="0"/>
+      <c r="AI50" s="0"/>
+      <c r="AJ50" s="0"/>
+      <c r="AK50" s="0"/>
+      <c r="AL50" s="0"/>
+      <c r="AM50" s="0"/>
+      <c r="AN50" s="0"/>
+      <c r="AO50" s="0"/>
+      <c r="AP50" s="0"/>
+      <c r="AQ50" s="0"/>
+      <c r="AR50" s="0"/>
+      <c r="AS50" s="0"/>
+      <c r="AT50" s="0"/>
+      <c r="AU50" s="0"/>
+      <c r="AV50" s="0"/>
+      <c r="AW50" s="0"/>
+      <c r="AX50" s="0"/>
+      <c r="AY50" s="0"/>
+      <c r="AZ50" s="0"/>
+      <c r="BA50" s="0"/>
+      <c r="BB50" s="0"/>
+      <c r="BC50" s="0"/>
+      <c r="BD50" s="0"/>
+      <c r="BE50" s="0"/>
+      <c r="BF50" s="0"/>
+    </row>
+    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+      <c r="AE51" s="0"/>
+      <c r="AF51" s="0"/>
+      <c r="AG51" s="0"/>
+      <c r="AH51" s="0"/>
+      <c r="AI51" s="0"/>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="0"/>
+      <c r="AN51" s="0"/>
+      <c r="AO51" s="0"/>
+      <c r="AP51" s="0"/>
+      <c r="AQ51" s="0"/>
+      <c r="AR51" s="0"/>
+      <c r="AS51" s="0"/>
+      <c r="AT51" s="0"/>
+      <c r="AU51" s="0"/>
+      <c r="AV51" s="0"/>
+      <c r="AW51" s="0"/>
+      <c r="AX51" s="0"/>
+      <c r="AY51" s="0"/>
+      <c r="AZ51" s="0"/>
+      <c r="BA51" s="0"/>
+      <c r="BB51" s="0"/>
+      <c r="BC51" s="0"/>
+      <c r="BD51" s="0"/>
+      <c r="BE51" s="0"/>
+      <c r="BF51" s="0"/>
+    </row>
+    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="U52" s="0"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+      <c r="AE52" s="0"/>
+      <c r="AF52" s="0"/>
+      <c r="AG52" s="0"/>
+      <c r="AH52" s="0"/>
+      <c r="AI52" s="0"/>
+      <c r="AJ52" s="0"/>
+      <c r="AK52" s="0"/>
+      <c r="AL52" s="0"/>
+      <c r="AM52" s="0"/>
+      <c r="AN52" s="0"/>
+      <c r="AO52" s="0"/>
+      <c r="AP52" s="0"/>
+      <c r="AQ52" s="0"/>
+      <c r="AR52" s="0"/>
+      <c r="AS52" s="0"/>
+      <c r="AT52" s="0"/>
+      <c r="AU52" s="0"/>
+      <c r="AV52" s="0"/>
+      <c r="AW52" s="0"/>
+      <c r="AX52" s="0"/>
+      <c r="AY52" s="0"/>
+      <c r="AZ52" s="0"/>
+      <c r="BA52" s="0"/>
+      <c r="BB52" s="0"/>
+      <c r="BC52" s="0"/>
+      <c r="BD52" s="0"/>
+      <c r="BE52" s="0"/>
+      <c r="BF52" s="0"/>
+    </row>
+    <row r="53" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="0"/>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0"/>
+      <c r="X53" s="0"/>
+      <c r="Y53" s="0"/>
+      <c r="Z53" s="0"/>
+      <c r="AA53" s="0"/>
+      <c r="AB53" s="0"/>
+      <c r="AC53" s="0"/>
+      <c r="AD53" s="0"/>
+      <c r="AE53" s="0"/>
+      <c r="AF53" s="0"/>
+      <c r="AG53" s="0"/>
+      <c r="AH53" s="0"/>
+      <c r="AI53" s="0"/>
+      <c r="AJ53" s="0"/>
+      <c r="AK53" s="0"/>
+      <c r="AL53" s="0"/>
+      <c r="AM53" s="0"/>
+      <c r="AN53" s="0"/>
+      <c r="AO53" s="0"/>
+      <c r="AP53" s="0"/>
+      <c r="AQ53" s="0"/>
+      <c r="AR53" s="0"/>
+      <c r="AS53" s="0"/>
+      <c r="AT53" s="0"/>
+      <c r="AU53" s="0"/>
+      <c r="AV53" s="0"/>
+      <c r="AW53" s="0"/>
+      <c r="AX53" s="0"/>
+      <c r="AY53" s="0"/>
+      <c r="AZ53" s="0"/>
+      <c r="BA53" s="0"/>
+      <c r="BB53" s="0"/>
+      <c r="BC53" s="0"/>
+      <c r="BD53" s="0"/>
+      <c r="BE53" s="0"/>
+      <c r="BF53" s="0"/>
+    </row>
+    <row r="54" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
+      <c r="S54" s="0"/>
+      <c r="T54" s="0"/>
+      <c r="U54" s="0"/>
+      <c r="V54" s="0"/>
+      <c r="W54" s="0"/>
+      <c r="X54" s="0"/>
+      <c r="Y54" s="0"/>
+      <c r="Z54" s="0"/>
+      <c r="AA54" s="0"/>
+      <c r="AB54" s="0"/>
+      <c r="AC54" s="0"/>
+      <c r="AD54" s="0"/>
+      <c r="AE54" s="0"/>
+      <c r="AF54" s="0"/>
+      <c r="AG54" s="0"/>
+      <c r="AH54" s="0"/>
+      <c r="AI54" s="0"/>
+      <c r="AJ54" s="0"/>
+      <c r="AK54" s="0"/>
+      <c r="AL54" s="0"/>
+      <c r="AM54" s="0"/>
+      <c r="AN54" s="0"/>
+      <c r="AO54" s="0"/>
+      <c r="AP54" s="0"/>
+      <c r="AQ54" s="0"/>
+      <c r="AR54" s="0"/>
+      <c r="AS54" s="0"/>
+      <c r="AT54" s="0"/>
+      <c r="AU54" s="0"/>
+      <c r="AV54" s="0"/>
+      <c r="AW54" s="0"/>
+      <c r="AX54" s="0"/>
+      <c r="AY54" s="0"/>
+      <c r="AZ54" s="0"/>
+      <c r="BA54" s="0"/>
+      <c r="BB54" s="0"/>
+      <c r="BC54" s="0"/>
+      <c r="BD54" s="0"/>
+      <c r="BE54" s="0"/>
+      <c r="BF54" s="0"/>
+    </row>
+    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+      <c r="C55" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="0"/>
+      <c r="V55" s="0"/>
+      <c r="W55" s="0"/>
+      <c r="X55" s="0"/>
+      <c r="Y55" s="0"/>
+      <c r="Z55" s="0"/>
+      <c r="AA55" s="0"/>
+      <c r="AB55" s="0"/>
+      <c r="AC55" s="0"/>
+      <c r="AD55" s="0"/>
+      <c r="AE55" s="0"/>
+      <c r="AF55" s="0"/>
+      <c r="AG55" s="0"/>
+      <c r="AH55" s="0"/>
+      <c r="AI55" s="0"/>
+      <c r="AJ55" s="0"/>
+      <c r="AK55" s="0"/>
+      <c r="AL55" s="0"/>
+      <c r="AM55" s="0"/>
+      <c r="AN55" s="0"/>
+      <c r="AO55" s="0"/>
+      <c r="AP55" s="0"/>
+      <c r="AQ55" s="0"/>
+      <c r="AR55" s="0"/>
+      <c r="AS55" s="0"/>
+      <c r="AT55" s="0"/>
+      <c r="AU55" s="0"/>
+      <c r="AV55" s="0"/>
+      <c r="AW55" s="0"/>
+      <c r="AX55" s="0"/>
+      <c r="AY55" s="0"/>
+      <c r="AZ55" s="0"/>
+      <c r="BA55" s="0"/>
+      <c r="BB55" s="0"/>
+      <c r="BC55" s="0"/>
+      <c r="BD55" s="0"/>
+      <c r="BE55" s="0"/>
+      <c r="BF55" s="0"/>
+    </row>
+    <row r="56" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="0"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="0"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0"/>
+      <c r="X56" s="0"/>
+      <c r="Y56" s="0"/>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0"/>
+      <c r="AB56" s="0"/>
+      <c r="AC56" s="0"/>
+      <c r="AD56" s="0"/>
+      <c r="AE56" s="0"/>
+      <c r="AF56" s="0"/>
+      <c r="AG56" s="0"/>
+      <c r="AH56" s="0"/>
+      <c r="AI56" s="0"/>
+      <c r="AJ56" s="0"/>
+      <c r="AK56" s="0"/>
+      <c r="AL56" s="0"/>
+      <c r="AM56" s="0"/>
+      <c r="AN56" s="0"/>
+      <c r="AO56" s="0"/>
+      <c r="AP56" s="0"/>
+      <c r="AQ56" s="0"/>
+      <c r="AR56" s="0"/>
+      <c r="AS56" s="0"/>
+      <c r="AT56" s="0"/>
+      <c r="AU56" s="0"/>
+      <c r="AV56" s="0"/>
+      <c r="AW56" s="0"/>
+      <c r="AX56" s="0"/>
+      <c r="AY56" s="0"/>
+      <c r="AZ56" s="0"/>
+      <c r="BA56" s="0"/>
+      <c r="BB56" s="0"/>
+      <c r="BC56" s="0"/>
+      <c r="BD56" s="0"/>
+      <c r="BE56" s="0"/>
+      <c r="BF56" s="0"/>
+    </row>
+    <row r="57" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
+      <c r="C57" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
+      <c r="T57" s="0"/>
+      <c r="U57" s="0"/>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0"/>
+      <c r="X57" s="0"/>
+      <c r="Y57" s="0"/>
+      <c r="Z57" s="0"/>
+      <c r="AA57" s="0"/>
+      <c r="AB57" s="0"/>
+      <c r="AC57" s="0"/>
+      <c r="AD57" s="0"/>
+      <c r="AE57" s="0"/>
+      <c r="AF57" s="0"/>
+      <c r="AG57" s="0"/>
+      <c r="AH57" s="0"/>
+      <c r="AI57" s="0"/>
+      <c r="AJ57" s="0"/>
+      <c r="AK57" s="0"/>
+      <c r="AL57" s="0"/>
+      <c r="AM57" s="0"/>
+      <c r="AN57" s="0"/>
+      <c r="AO57" s="0"/>
+      <c r="AP57" s="0"/>
+      <c r="AQ57" s="0"/>
+      <c r="AR57" s="0"/>
+      <c r="AS57" s="0"/>
+      <c r="AT57" s="0"/>
+      <c r="AU57" s="0"/>
+      <c r="AV57" s="0"/>
+      <c r="AW57" s="0"/>
+      <c r="AX57" s="0"/>
+      <c r="AY57" s="0"/>
+      <c r="AZ57" s="0"/>
+      <c r="BA57" s="0"/>
+      <c r="BB57" s="0"/>
+      <c r="BC57" s="0"/>
+      <c r="BD57" s="0"/>
+      <c r="BE57" s="0"/>
+      <c r="BF57" s="0"/>
+    </row>
+    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="0"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
+      <c r="AB58" s="0"/>
+      <c r="AC58" s="0"/>
+      <c r="AD58" s="0"/>
+      <c r="AE58" s="0"/>
+      <c r="AF58" s="0"/>
+      <c r="AG58" s="0"/>
+      <c r="AH58" s="0"/>
+      <c r="AI58" s="0"/>
+      <c r="AJ58" s="0"/>
+      <c r="AK58" s="0"/>
+      <c r="AL58" s="0"/>
+      <c r="AM58" s="0"/>
+      <c r="AN58" s="0"/>
+      <c r="AO58" s="0"/>
+      <c r="AP58" s="0"/>
+      <c r="AQ58" s="0"/>
+      <c r="AR58" s="0"/>
+      <c r="AS58" s="0"/>
+      <c r="AT58" s="0"/>
+      <c r="AU58" s="0"/>
+      <c r="AV58" s="0"/>
+      <c r="AW58" s="0"/>
+      <c r="AX58" s="0"/>
+      <c r="AY58" s="0"/>
+      <c r="AZ58" s="0"/>
+      <c r="BA58" s="0"/>
+      <c r="BB58" s="0"/>
+      <c r="BC58" s="0"/>
+      <c r="BD58" s="0"/>
+      <c r="BE58" s="0"/>
+      <c r="BF58" s="0"/>
+    </row>
+    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="0"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
+      <c r="X59" s="0"/>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
+      <c r="AB59" s="0"/>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
+      <c r="AE59" s="0"/>
+      <c r="AF59" s="0"/>
+      <c r="AG59" s="0"/>
+      <c r="AH59" s="0"/>
+      <c r="AI59" s="0"/>
+      <c r="AJ59" s="0"/>
+      <c r="AK59" s="0"/>
+      <c r="AL59" s="0"/>
+      <c r="AM59" s="0"/>
+      <c r="AN59" s="0"/>
+      <c r="AO59" s="0"/>
+      <c r="AP59" s="0"/>
+      <c r="AQ59" s="0"/>
+      <c r="AR59" s="0"/>
+      <c r="AS59" s="0"/>
+      <c r="AT59" s="0"/>
+      <c r="AU59" s="0"/>
+      <c r="AV59" s="0"/>
+      <c r="AW59" s="0"/>
+      <c r="AX59" s="0"/>
+      <c r="AY59" s="0"/>
+      <c r="AZ59" s="0"/>
+      <c r="BA59" s="0"/>
+      <c r="BB59" s="0"/>
+      <c r="BC59" s="0"/>
+      <c r="BD59" s="0"/>
+      <c r="BE59" s="0"/>
+      <c r="BF59" s="0"/>
+    </row>
+    <row r="60" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="0"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
+      <c r="X60" s="0"/>
+      <c r="Y60" s="0"/>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0"/>
+      <c r="AB60" s="0"/>
+      <c r="AC60" s="0"/>
+      <c r="AD60" s="0"/>
+      <c r="AE60" s="0"/>
+      <c r="AF60" s="0"/>
+      <c r="AG60" s="0"/>
+      <c r="AH60" s="0"/>
+      <c r="AI60" s="0"/>
+      <c r="AJ60" s="0"/>
+      <c r="AK60" s="0"/>
+      <c r="AL60" s="0"/>
+      <c r="AM60" s="0"/>
+      <c r="AN60" s="0"/>
+      <c r="AO60" s="0"/>
+      <c r="AP60" s="0"/>
+      <c r="AQ60" s="0"/>
+      <c r="AR60" s="0"/>
+      <c r="AS60" s="0"/>
+      <c r="AT60" s="0"/>
+      <c r="AU60" s="0"/>
+      <c r="AV60" s="0"/>
+      <c r="AW60" s="0"/>
+      <c r="AX60" s="0"/>
+      <c r="AY60" s="0"/>
+      <c r="AZ60" s="0"/>
+      <c r="BA60" s="0"/>
+      <c r="BB60" s="0"/>
+      <c r="BC60" s="0"/>
+      <c r="BD60" s="0"/>
+      <c r="BE60" s="0"/>
+      <c r="BF60" s="0"/>
+    </row>
+    <row r="61" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="0"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="0"/>
+      <c r="U61" s="0"/>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0"/>
+      <c r="X61" s="0"/>
+      <c r="Y61" s="0"/>
+      <c r="Z61" s="0"/>
+      <c r="AA61" s="0"/>
+      <c r="AB61" s="0"/>
+      <c r="AC61" s="0"/>
+      <c r="AD61" s="0"/>
+      <c r="AE61" s="0"/>
+      <c r="AF61" s="0"/>
+      <c r="AG61" s="0"/>
+      <c r="AH61" s="0"/>
+      <c r="AI61" s="0"/>
+      <c r="AJ61" s="0"/>
+      <c r="AK61" s="0"/>
+      <c r="AL61" s="0"/>
+      <c r="AM61" s="0"/>
+      <c r="AN61" s="0"/>
+      <c r="AO61" s="0"/>
+      <c r="AP61" s="0"/>
+      <c r="AQ61" s="0"/>
+      <c r="AR61" s="0"/>
+      <c r="AS61" s="0"/>
+      <c r="AT61" s="0"/>
+      <c r="AU61" s="0"/>
+      <c r="AV61" s="0"/>
+      <c r="AW61" s="0"/>
+      <c r="AX61" s="0"/>
+      <c r="AY61" s="0"/>
+      <c r="AZ61" s="0"/>
+      <c r="BA61" s="0"/>
+      <c r="BB61" s="0"/>
+      <c r="BC61" s="0"/>
+      <c r="BD61" s="0"/>
+      <c r="BE61" s="0"/>
+      <c r="BF61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="14"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="14"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="12"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
+      <c r="AT80" s="7"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7"/>
+      <c r="AW80" s="7"/>
+      <c r="AX80" s="7"/>
+      <c r="AY80" s="7"/>
+      <c r="AZ80" s="7"/>
+      <c r="BA80" s="7"/>
+      <c r="BB80" s="7"/>
+      <c r="BC80" s="7"/>
+      <c r="BD80" s="7"/>
+      <c r="BE80" s="7"/>
+      <c r="BF80" s="7"/>
+    </row>
+    <row r="81" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
+      <c r="B81" s="0"/>
+      <c r="C81" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
+      <c r="S81" s="0"/>
+      <c r="T81" s="0"/>
+      <c r="U81" s="0"/>
+      <c r="V81" s="0"/>
+      <c r="W81" s="0"/>
+      <c r="X81" s="0"/>
+      <c r="Y81" s="0"/>
+      <c r="Z81" s="0"/>
+      <c r="AA81" s="0"/>
+      <c r="AB81" s="0"/>
+      <c r="AC81" s="0"/>
+      <c r="AD81" s="0"/>
+      <c r="AE81" s="0"/>
+      <c r="AF81" s="0"/>
+      <c r="AG81" s="0"/>
+      <c r="AH81" s="0"/>
+      <c r="AI81" s="0"/>
+      <c r="AJ81" s="0"/>
+      <c r="AK81" s="0"/>
+      <c r="AL81" s="0"/>
+      <c r="AM81" s="0"/>
+      <c r="AN81" s="0"/>
+      <c r="AO81" s="0"/>
+      <c r="AP81" s="0"/>
+      <c r="AQ81" s="0"/>
+      <c r="AR81" s="0"/>
+      <c r="AS81" s="0"/>
+      <c r="AT81" s="0"/>
+      <c r="AU81" s="0"/>
+      <c r="AV81" s="0"/>
+      <c r="AW81" s="0"/>
+      <c r="AX81" s="0"/>
+      <c r="AY81" s="0"/>
+      <c r="AZ81" s="0"/>
+      <c r="BA81" s="0"/>
+      <c r="BB81" s="0"/>
+      <c r="BC81" s="0"/>
+      <c r="BD81" s="0"/>
+      <c r="BE81" s="0"/>
+      <c r="BF81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="0"/>
+      <c r="C88" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
+      <c r="K88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="0"/>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
+      <c r="S88" s="0"/>
+      <c r="T88" s="0"/>
+      <c r="U88" s="0"/>
+      <c r="V88" s="0"/>
+      <c r="W88" s="0"/>
+      <c r="X88" s="0"/>
+      <c r="Y88" s="0"/>
+      <c r="Z88" s="0"/>
+      <c r="AA88" s="0"/>
+      <c r="AB88" s="0"/>
+      <c r="AC88" s="0"/>
+      <c r="AD88" s="0"/>
+      <c r="AE88" s="0"/>
+      <c r="AF88" s="0"/>
+      <c r="AG88" s="0"/>
+      <c r="AH88" s="0"/>
+      <c r="AI88" s="0"/>
+      <c r="AJ88" s="0"/>
+      <c r="AK88" s="0"/>
+      <c r="AL88" s="0"/>
+      <c r="AM88" s="0"/>
+      <c r="AN88" s="0"/>
+      <c r="AO88" s="0"/>
+      <c r="AP88" s="0"/>
+      <c r="AQ88" s="0"/>
+      <c r="AR88" s="0"/>
+      <c r="AS88" s="0"/>
+      <c r="AT88" s="0"/>
+      <c r="AU88" s="0"/>
+      <c r="AV88" s="0"/>
+      <c r="AW88" s="0"/>
+      <c r="AX88" s="0"/>
+      <c r="AY88" s="0"/>
+      <c r="AZ88" s="0"/>
+      <c r="BA88" s="0"/>
+      <c r="BB88" s="0"/>
+      <c r="BC88" s="0"/>
+      <c r="BD88" s="0"/>
+      <c r="BE88" s="0"/>
+      <c r="BF88" s="0"/>
+    </row>
+    <row r="89" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="7"/>
+      <c r="AS89" s="7"/>
+      <c r="AT89" s="7"/>
+      <c r="AU89" s="7"/>
+      <c r="AV89" s="7"/>
+      <c r="AW89" s="7"/>
+      <c r="AX89" s="7"/>
+      <c r="AY89" s="7"/>
+      <c r="AZ89" s="7"/>
+      <c r="BA89" s="7"/>
+      <c r="BB89" s="7"/>
+      <c r="BC89" s="7"/>
+      <c r="BD89" s="7"/>
+      <c r="BE89" s="7"/>
+      <c r="BF89" s="7"/>
+    </row>
+    <row r="90" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="0"/>
+      <c r="C90" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="0"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="0"/>
+      <c r="I90" s="0"/>
+      <c r="J90" s="0"/>
+      <c r="K90" s="0"/>
+      <c r="L90" s="0"/>
+      <c r="M90" s="0"/>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
+      <c r="R90" s="0"/>
+      <c r="S90" s="0"/>
+      <c r="T90" s="0"/>
+      <c r="U90" s="0"/>
+      <c r="V90" s="0"/>
+      <c r="W90" s="0"/>
+      <c r="X90" s="0"/>
+      <c r="Y90" s="0"/>
+      <c r="Z90" s="0"/>
+      <c r="AA90" s="0"/>
+      <c r="AB90" s="0"/>
+      <c r="AC90" s="0"/>
+      <c r="AD90" s="0"/>
+      <c r="AE90" s="0"/>
+      <c r="AF90" s="0"/>
+      <c r="AG90" s="0"/>
+      <c r="AH90" s="0"/>
+      <c r="AI90" s="0"/>
+      <c r="AJ90" s="0"/>
+      <c r="AK90" s="0"/>
+      <c r="AL90" s="0"/>
+      <c r="AM90" s="0"/>
+      <c r="AN90" s="0"/>
+      <c r="AO90" s="0"/>
+      <c r="AP90" s="0"/>
+      <c r="AQ90" s="0"/>
+      <c r="AR90" s="0"/>
+      <c r="AS90" s="0"/>
+      <c r="AT90" s="0"/>
+      <c r="AU90" s="0"/>
+      <c r="AV90" s="0"/>
+      <c r="AW90" s="0"/>
+      <c r="AX90" s="0"/>
+      <c r="AY90" s="0"/>
+      <c r="AZ90" s="0"/>
+      <c r="BA90" s="0"/>
+      <c r="BB90" s="0"/>
+      <c r="BC90" s="0"/>
+      <c r="BD90" s="0"/>
+      <c r="BE90" s="0"/>
+      <c r="BF90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="30"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0"/>
+      <c r="U97" s="0"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0"/>
+      <c r="X97" s="0"/>
+      <c r="Y97" s="0"/>
+      <c r="Z97" s="0"/>
+      <c r="AA97" s="0"/>
+      <c r="AB97" s="0"/>
+      <c r="AC97" s="0"/>
+      <c r="AD97" s="0"/>
+      <c r="AE97" s="0"/>
+      <c r="AF97" s="0"/>
+      <c r="AG97" s="0"/>
+      <c r="AH97" s="0"/>
+      <c r="AI97" s="0"/>
+      <c r="AJ97" s="0"/>
+      <c r="AK97" s="0"/>
+      <c r="AL97" s="0"/>
+      <c r="AM97" s="0"/>
+      <c r="AN97" s="0"/>
+      <c r="AO97" s="0"/>
+      <c r="AP97" s="0"/>
+      <c r="AQ97" s="0"/>
+      <c r="AR97" s="0"/>
+      <c r="AS97" s="0"/>
+      <c r="AT97" s="0"/>
+      <c r="AU97" s="0"/>
+      <c r="AV97" s="0"/>
+      <c r="AW97" s="0"/>
+      <c r="AX97" s="0"/>
+      <c r="AY97" s="0"/>
+      <c r="AZ97" s="0"/>
+      <c r="BA97" s="0"/>
+      <c r="BB97" s="0"/>
+      <c r="BC97" s="0"/>
+      <c r="BD97" s="0"/>
+      <c r="BE97" s="0"/>
+      <c r="BF97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="31"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" s="24"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="12"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D105" r:id="rId1" display="https://mjbright.github.io/Talks"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:BF65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
     <row r="23" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
         <v>45</v>
@@ -1462,7 +4053,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="26"/>
@@ -1473,7 +4064,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -1484,7 +4075,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -1506,7 +4097,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -1517,7 +4108,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="12"/>
@@ -1527,7 +4118,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
@@ -1539,7 +4130,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="0"/>
@@ -1550,7 +4141,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="12"/>
@@ -1560,7 +4151,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
@@ -1570,7 +4161,7 @@
         <v>58</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
@@ -1580,7 +4171,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
@@ -1590,7 +4181,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="26"/>
@@ -1612,7 +4203,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
@@ -1624,7 +4215,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="0"/>
@@ -1635,7 +4226,7 @@
         <v>52</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" s="14"/>
       <c r="G40" s="12"/>
@@ -1645,7 +4236,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
@@ -1655,7 +4246,7 @@
         <v>58</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
@@ -1665,7 +4256,7 @@
         <v>58</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
@@ -1675,7 +4266,7 @@
         <v>58</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
@@ -1685,7 +4276,7 @@
         <v>58</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -1697,7 +4288,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="0"/>
@@ -1761,7 +4352,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -1824,7 +4415,7 @@
         <v>58</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -1950,7 +4541,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
@@ -2014,7 +4605,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -2078,7 +4669,7 @@
         <v>52</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="0"/>
@@ -2142,7 +4733,7 @@
         <v>55</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="0"/>
@@ -2206,7 +4797,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="0"/>
@@ -2270,7 +4861,7 @@
         <v>58</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="0"/>
@@ -2334,7 +4925,7 @@
         <v>58</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="0"/>
@@ -2398,7 +4989,7 @@
         <v>58</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="0"/>
@@ -2462,7 +5053,7 @@
         <v>58</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="0"/>
@@ -2526,7 +5117,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="0"/>
@@ -2650,7 +5241,7 @@
         <v>30</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
@@ -2660,7 +5251,7 @@
         <v>38</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
@@ -2670,7 +5261,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
@@ -2680,7 +5271,7 @@
         <v>55</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
@@ -2690,7 +5281,7 @@
         <v>58</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
@@ -2700,7 +5291,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
@@ -2720,7 +5311,7 @@
         <v>30</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
@@ -2730,7 +5321,7 @@
         <v>38</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
@@ -2740,7 +5331,7 @@
         <v>52</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
@@ -2750,7 +5341,7 @@
         <v>55</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
@@ -2760,7 +5351,7 @@
         <v>58</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
@@ -2780,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="29"/>
@@ -2803,7 +5394,7 @@
         <v>30</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="12"/>
@@ -2813,7 +5404,7 @@
         <v>58</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
@@ -2823,7 +5414,7 @@
         <v>58</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -2894,7 +5485,7 @@
         <v>30</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
@@ -2955,7 +5546,7 @@
         <v>58</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -2965,7 +5556,7 @@
         <v>58</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
@@ -2975,7 +5566,7 @@
         <v>58</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -2995,7 +5586,7 @@
         <v>30</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
@@ -3005,7 +5596,7 @@
         <v>58</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -3017,7 +5608,7 @@
         <v>58</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -3142,7 +5733,7 @@
         <v>30</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="0"/>
@@ -3204,7 +5795,7 @@
         <v>58</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -3225,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="29"/>
@@ -3249,17 +5840,17 @@
         <v>30</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E94" s="12"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
@@ -3271,7 +5862,7 @@
         <v>52</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="0"/>
@@ -3333,7 +5924,7 @@
         <v>55</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
@@ -3343,7 +5934,7 @@
         <v>58</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
@@ -3353,7 +5944,7 @@
         <v>58</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
@@ -3374,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="29"/>
@@ -3398,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E103" s="12"/>
       <c r="G103" s="12"/>
@@ -3408,7 +5999,7 @@
         <v>58</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
@@ -3418,7 +6009,7 @@
         <v>58</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
@@ -3428,7 +6019,7 @@
         <v>58</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
@@ -3438,7 +6029,7 @@
         <v>58</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
@@ -3448,7 +6039,7 @@
         <v>58</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
@@ -3458,7 +6049,7 @@
         <v>58</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
@@ -3468,37 +6059,37 @@
         <v>58</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
@@ -3519,7 +6110,7 @@
         <v>30</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
@@ -3529,7 +6120,7 @@
         <v>58</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
@@ -3539,7 +6130,7 @@
         <v>58</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -3560,7 +6151,7 @@
         <v>30</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
@@ -3570,7 +6161,7 @@
         <v>58</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -3580,2586 +6171,7 @@
         <v>58</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="12"/>
-      <c r="G121" s="12"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="12"/>
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D104" r:id="rId1" display="https://mjbright.github.io/Talks"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:BF65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="E14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="G24" s="26"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="G25" s="26"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="G26" s="26"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="G27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="G28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="G36" s="26"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
-      <c r="M46" s="0"/>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
-      <c r="R46" s="0"/>
-      <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="0"/>
-      <c r="V46" s="0"/>
-      <c r="W46" s="0"/>
-      <c r="X46" s="0"/>
-      <c r="Y46" s="0"/>
-      <c r="Z46" s="0"/>
-      <c r="AA46" s="0"/>
-      <c r="AB46" s="0"/>
-      <c r="AC46" s="0"/>
-      <c r="AD46" s="0"/>
-      <c r="AE46" s="0"/>
-      <c r="AF46" s="0"/>
-      <c r="AG46" s="0"/>
-      <c r="AH46" s="0"/>
-      <c r="AI46" s="0"/>
-      <c r="AJ46" s="0"/>
-      <c r="AK46" s="0"/>
-      <c r="AL46" s="0"/>
-      <c r="AM46" s="0"/>
-      <c r="AN46" s="0"/>
-      <c r="AO46" s="0"/>
-      <c r="AP46" s="0"/>
-      <c r="AQ46" s="0"/>
-      <c r="AR46" s="0"/>
-      <c r="AS46" s="0"/>
-      <c r="AT46" s="0"/>
-      <c r="AU46" s="0"/>
-      <c r="AV46" s="0"/>
-      <c r="AW46" s="0"/>
-      <c r="AX46" s="0"/>
-      <c r="AY46" s="0"/>
-      <c r="AZ46" s="0"/>
-      <c r="BA46" s="0"/>
-      <c r="BB46" s="0"/>
-      <c r="BC46" s="0"/>
-      <c r="BD46" s="0"/>
-      <c r="BE46" s="0"/>
-      <c r="BF46" s="0"/>
-    </row>
-    <row r="47" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="0"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
-      <c r="AJ47" s="7"/>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
-      <c r="AM47" s="7"/>
-      <c r="AN47" s="7"/>
-      <c r="AO47" s="7"/>
-      <c r="AP47" s="7"/>
-      <c r="AQ47" s="7"/>
-      <c r="AR47" s="7"/>
-      <c r="AS47" s="7"/>
-      <c r="AT47" s="7"/>
-      <c r="AU47" s="7"/>
-      <c r="AV47" s="7"/>
-      <c r="AW47" s="7"/>
-      <c r="AX47" s="7"/>
-      <c r="AY47" s="7"/>
-      <c r="AZ47" s="7"/>
-      <c r="BA47" s="7"/>
-      <c r="BB47" s="7"/>
-      <c r="BC47" s="7"/>
-      <c r="BD47" s="7"/>
-      <c r="BE47" s="7"/>
-      <c r="BF47" s="7"/>
-    </row>
-    <row r="48" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-      <c r="B48" s="0"/>
-      <c r="C48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="0"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="0"/>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
-      <c r="K48" s="0"/>
-      <c r="L48" s="0"/>
-      <c r="M48" s="0"/>
-      <c r="N48" s="0"/>
-      <c r="O48" s="0"/>
-      <c r="P48" s="0"/>
-      <c r="Q48" s="0"/>
-      <c r="R48" s="0"/>
-      <c r="S48" s="0"/>
-      <c r="T48" s="0"/>
-      <c r="U48" s="0"/>
-      <c r="V48" s="0"/>
-      <c r="W48" s="0"/>
-      <c r="X48" s="0"/>
-      <c r="Y48" s="0"/>
-      <c r="Z48" s="0"/>
-      <c r="AA48" s="0"/>
-      <c r="AB48" s="0"/>
-      <c r="AC48" s="0"/>
-      <c r="AD48" s="0"/>
-      <c r="AE48" s="0"/>
-      <c r="AF48" s="0"/>
-      <c r="AG48" s="0"/>
-      <c r="AH48" s="0"/>
-      <c r="AI48" s="0"/>
-      <c r="AJ48" s="0"/>
-      <c r="AK48" s="0"/>
-      <c r="AL48" s="0"/>
-      <c r="AM48" s="0"/>
-      <c r="AN48" s="0"/>
-      <c r="AO48" s="0"/>
-      <c r="AP48" s="0"/>
-      <c r="AQ48" s="0"/>
-      <c r="AR48" s="0"/>
-      <c r="AS48" s="0"/>
-      <c r="AT48" s="0"/>
-      <c r="AU48" s="0"/>
-      <c r="AV48" s="0"/>
-      <c r="AW48" s="0"/>
-      <c r="AX48" s="0"/>
-      <c r="AY48" s="0"/>
-      <c r="AZ48" s="0"/>
-      <c r="BA48" s="0"/>
-      <c r="BB48" s="0"/>
-      <c r="BC48" s="0"/>
-      <c r="BD48" s="0"/>
-      <c r="BE48" s="0"/>
-      <c r="BF48" s="0"/>
-    </row>
-    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="0"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="0"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0"/>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
-      <c r="AB49" s="0"/>
-      <c r="AC49" s="0"/>
-      <c r="AD49" s="0"/>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0"/>
-      <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
-      <c r="AM49" s="0"/>
-      <c r="AN49" s="0"/>
-      <c r="AO49" s="0"/>
-      <c r="AP49" s="0"/>
-      <c r="AQ49" s="0"/>
-      <c r="AR49" s="0"/>
-      <c r="AS49" s="0"/>
-      <c r="AT49" s="0"/>
-      <c r="AU49" s="0"/>
-      <c r="AV49" s="0"/>
-      <c r="AW49" s="0"/>
-      <c r="AX49" s="0"/>
-      <c r="AY49" s="0"/>
-      <c r="AZ49" s="0"/>
-      <c r="BA49" s="0"/>
-      <c r="BB49" s="0"/>
-      <c r="BC49" s="0"/>
-      <c r="BD49" s="0"/>
-      <c r="BE49" s="0"/>
-      <c r="BF49" s="0"/>
-    </row>
-    <row r="50" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="0"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="0"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0"/>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
-      <c r="AB50" s="0"/>
-      <c r="AC50" s="0"/>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
-      <c r="AM50" s="0"/>
-      <c r="AN50" s="0"/>
-      <c r="AO50" s="0"/>
-      <c r="AP50" s="0"/>
-      <c r="AQ50" s="0"/>
-      <c r="AR50" s="0"/>
-      <c r="AS50" s="0"/>
-      <c r="AT50" s="0"/>
-      <c r="AU50" s="0"/>
-      <c r="AV50" s="0"/>
-      <c r="AW50" s="0"/>
-      <c r="AX50" s="0"/>
-      <c r="AY50" s="0"/>
-      <c r="AZ50" s="0"/>
-      <c r="BA50" s="0"/>
-      <c r="BB50" s="0"/>
-      <c r="BC50" s="0"/>
-      <c r="BD50" s="0"/>
-      <c r="BE50" s="0"/>
-      <c r="BF50" s="0"/>
-    </row>
-    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="0"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
-      <c r="AB51" s="0"/>
-      <c r="AC51" s="0"/>
-      <c r="AD51" s="0"/>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AG51" s="0"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
-      <c r="AL51" s="0"/>
-      <c r="AM51" s="0"/>
-      <c r="AN51" s="0"/>
-      <c r="AO51" s="0"/>
-      <c r="AP51" s="0"/>
-      <c r="AQ51" s="0"/>
-      <c r="AR51" s="0"/>
-      <c r="AS51" s="0"/>
-      <c r="AT51" s="0"/>
-      <c r="AU51" s="0"/>
-      <c r="AV51" s="0"/>
-      <c r="AW51" s="0"/>
-      <c r="AX51" s="0"/>
-      <c r="AY51" s="0"/>
-      <c r="AZ51" s="0"/>
-      <c r="BA51" s="0"/>
-      <c r="BB51" s="0"/>
-      <c r="BC51" s="0"/>
-      <c r="BD51" s="0"/>
-      <c r="BE51" s="0"/>
-      <c r="BF51" s="0"/>
-    </row>
-    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
-      <c r="C52" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="0"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
-      <c r="AO52" s="0"/>
-      <c r="AP52" s="0"/>
-      <c r="AQ52" s="0"/>
-      <c r="AR52" s="0"/>
-      <c r="AS52" s="0"/>
-      <c r="AT52" s="0"/>
-      <c r="AU52" s="0"/>
-      <c r="AV52" s="0"/>
-      <c r="AW52" s="0"/>
-      <c r="AX52" s="0"/>
-      <c r="AY52" s="0"/>
-      <c r="AZ52" s="0"/>
-      <c r="BA52" s="0"/>
-      <c r="BB52" s="0"/>
-      <c r="BC52" s="0"/>
-      <c r="BD52" s="0"/>
-      <c r="BE52" s="0"/>
-      <c r="BF52" s="0"/>
-    </row>
-    <row r="53" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="0"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0"/>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
-      <c r="AB53" s="0"/>
-      <c r="AC53" s="0"/>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0"/>
-      <c r="AI53" s="0"/>
-      <c r="AJ53" s="0"/>
-      <c r="AK53" s="0"/>
-      <c r="AL53" s="0"/>
-      <c r="AM53" s="0"/>
-      <c r="AN53" s="0"/>
-      <c r="AO53" s="0"/>
-      <c r="AP53" s="0"/>
-      <c r="AQ53" s="0"/>
-      <c r="AR53" s="0"/>
-      <c r="AS53" s="0"/>
-      <c r="AT53" s="0"/>
-      <c r="AU53" s="0"/>
-      <c r="AV53" s="0"/>
-      <c r="AW53" s="0"/>
-      <c r="AX53" s="0"/>
-      <c r="AY53" s="0"/>
-      <c r="AZ53" s="0"/>
-      <c r="BA53" s="0"/>
-      <c r="BB53" s="0"/>
-      <c r="BC53" s="0"/>
-      <c r="BD53" s="0"/>
-      <c r="BE53" s="0"/>
-      <c r="BF53" s="0"/>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="0"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
-      <c r="AB54" s="0"/>
-      <c r="AC54" s="0"/>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0"/>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
-      <c r="AK54" s="0"/>
-      <c r="AL54" s="0"/>
-      <c r="AM54" s="0"/>
-      <c r="AN54" s="0"/>
-      <c r="AO54" s="0"/>
-      <c r="AP54" s="0"/>
-      <c r="AQ54" s="0"/>
-      <c r="AR54" s="0"/>
-      <c r="AS54" s="0"/>
-      <c r="AT54" s="0"/>
-      <c r="AU54" s="0"/>
-      <c r="AV54" s="0"/>
-      <c r="AW54" s="0"/>
-      <c r="AX54" s="0"/>
-      <c r="AY54" s="0"/>
-      <c r="AZ54" s="0"/>
-      <c r="BA54" s="0"/>
-      <c r="BB54" s="0"/>
-      <c r="BC54" s="0"/>
-      <c r="BD54" s="0"/>
-      <c r="BE54" s="0"/>
-      <c r="BF54" s="0"/>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="0"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
-      <c r="AB55" s="0"/>
-      <c r="AC55" s="0"/>
-      <c r="AD55" s="0"/>
-      <c r="AE55" s="0"/>
-      <c r="AF55" s="0"/>
-      <c r="AG55" s="0"/>
-      <c r="AH55" s="0"/>
-      <c r="AI55" s="0"/>
-      <c r="AJ55" s="0"/>
-      <c r="AK55" s="0"/>
-      <c r="AL55" s="0"/>
-      <c r="AM55" s="0"/>
-      <c r="AN55" s="0"/>
-      <c r="AO55" s="0"/>
-      <c r="AP55" s="0"/>
-      <c r="AQ55" s="0"/>
-      <c r="AR55" s="0"/>
-      <c r="AS55" s="0"/>
-      <c r="AT55" s="0"/>
-      <c r="AU55" s="0"/>
-      <c r="AV55" s="0"/>
-      <c r="AW55" s="0"/>
-      <c r="AX55" s="0"/>
-      <c r="AY55" s="0"/>
-      <c r="AZ55" s="0"/>
-      <c r="BA55" s="0"/>
-      <c r="BB55" s="0"/>
-      <c r="BC55" s="0"/>
-      <c r="BD55" s="0"/>
-      <c r="BE55" s="0"/>
-      <c r="BF55" s="0"/>
-    </row>
-    <row r="56" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="0"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="0"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0"/>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
-      <c r="AB56" s="0"/>
-      <c r="AC56" s="0"/>
-      <c r="AD56" s="0"/>
-      <c r="AE56" s="0"/>
-      <c r="AF56" s="0"/>
-      <c r="AG56" s="0"/>
-      <c r="AH56" s="0"/>
-      <c r="AI56" s="0"/>
-      <c r="AJ56" s="0"/>
-      <c r="AK56" s="0"/>
-      <c r="AL56" s="0"/>
-      <c r="AM56" s="0"/>
-      <c r="AN56" s="0"/>
-      <c r="AO56" s="0"/>
-      <c r="AP56" s="0"/>
-      <c r="AQ56" s="0"/>
-      <c r="AR56" s="0"/>
-      <c r="AS56" s="0"/>
-      <c r="AT56" s="0"/>
-      <c r="AU56" s="0"/>
-      <c r="AV56" s="0"/>
-      <c r="AW56" s="0"/>
-      <c r="AX56" s="0"/>
-      <c r="AY56" s="0"/>
-      <c r="AZ56" s="0"/>
-      <c r="BA56" s="0"/>
-      <c r="BB56" s="0"/>
-      <c r="BC56" s="0"/>
-      <c r="BD56" s="0"/>
-      <c r="BE56" s="0"/>
-      <c r="BF56" s="0"/>
-    </row>
-    <row r="57" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
-      <c r="C57" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="0"/>
-      <c r="V57" s="0"/>
-      <c r="W57" s="0"/>
-      <c r="X57" s="0"/>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AA57" s="0"/>
-      <c r="AB57" s="0"/>
-      <c r="AC57" s="0"/>
-      <c r="AD57" s="0"/>
-      <c r="AE57" s="0"/>
-      <c r="AF57" s="0"/>
-      <c r="AG57" s="0"/>
-      <c r="AH57" s="0"/>
-      <c r="AI57" s="0"/>
-      <c r="AJ57" s="0"/>
-      <c r="AK57" s="0"/>
-      <c r="AL57" s="0"/>
-      <c r="AM57" s="0"/>
-      <c r="AN57" s="0"/>
-      <c r="AO57" s="0"/>
-      <c r="AP57" s="0"/>
-      <c r="AQ57" s="0"/>
-      <c r="AR57" s="0"/>
-      <c r="AS57" s="0"/>
-      <c r="AT57" s="0"/>
-      <c r="AU57" s="0"/>
-      <c r="AV57" s="0"/>
-      <c r="AW57" s="0"/>
-      <c r="AX57" s="0"/>
-      <c r="AY57" s="0"/>
-      <c r="AZ57" s="0"/>
-      <c r="BA57" s="0"/>
-      <c r="BB57" s="0"/>
-      <c r="BC57" s="0"/>
-      <c r="BD57" s="0"/>
-      <c r="BE57" s="0"/>
-      <c r="BF57" s="0"/>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="0"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="0"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0"/>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
-      <c r="AB58" s="0"/>
-      <c r="AC58" s="0"/>
-      <c r="AD58" s="0"/>
-      <c r="AE58" s="0"/>
-      <c r="AF58" s="0"/>
-      <c r="AG58" s="0"/>
-      <c r="AH58" s="0"/>
-      <c r="AI58" s="0"/>
-      <c r="AJ58" s="0"/>
-      <c r="AK58" s="0"/>
-      <c r="AL58" s="0"/>
-      <c r="AM58" s="0"/>
-      <c r="AN58" s="0"/>
-      <c r="AO58" s="0"/>
-      <c r="AP58" s="0"/>
-      <c r="AQ58" s="0"/>
-      <c r="AR58" s="0"/>
-      <c r="AS58" s="0"/>
-      <c r="AT58" s="0"/>
-      <c r="AU58" s="0"/>
-      <c r="AV58" s="0"/>
-      <c r="AW58" s="0"/>
-      <c r="AX58" s="0"/>
-      <c r="AY58" s="0"/>
-      <c r="AZ58" s="0"/>
-      <c r="BA58" s="0"/>
-      <c r="BB58" s="0"/>
-      <c r="BC58" s="0"/>
-      <c r="BD58" s="0"/>
-      <c r="BE58" s="0"/>
-      <c r="BF58" s="0"/>
-    </row>
-    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="0"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="0"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0"/>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
-      <c r="AB59" s="0"/>
-      <c r="AC59" s="0"/>
-      <c r="AD59" s="0"/>
-      <c r="AE59" s="0"/>
-      <c r="AF59" s="0"/>
-      <c r="AG59" s="0"/>
-      <c r="AH59" s="0"/>
-      <c r="AI59" s="0"/>
-      <c r="AJ59" s="0"/>
-      <c r="AK59" s="0"/>
-      <c r="AL59" s="0"/>
-      <c r="AM59" s="0"/>
-      <c r="AN59" s="0"/>
-      <c r="AO59" s="0"/>
-      <c r="AP59" s="0"/>
-      <c r="AQ59" s="0"/>
-      <c r="AR59" s="0"/>
-      <c r="AS59" s="0"/>
-      <c r="AT59" s="0"/>
-      <c r="AU59" s="0"/>
-      <c r="AV59" s="0"/>
-      <c r="AW59" s="0"/>
-      <c r="AX59" s="0"/>
-      <c r="AY59" s="0"/>
-      <c r="AZ59" s="0"/>
-      <c r="BA59" s="0"/>
-      <c r="BB59" s="0"/>
-      <c r="BC59" s="0"/>
-      <c r="BD59" s="0"/>
-      <c r="BE59" s="0"/>
-      <c r="BF59" s="0"/>
-    </row>
-    <row r="60" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="0"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="0"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0"/>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
-      <c r="AB60" s="0"/>
-      <c r="AC60" s="0"/>
-      <c r="AD60" s="0"/>
-      <c r="AE60" s="0"/>
-      <c r="AF60" s="0"/>
-      <c r="AG60" s="0"/>
-      <c r="AH60" s="0"/>
-      <c r="AI60" s="0"/>
-      <c r="AJ60" s="0"/>
-      <c r="AK60" s="0"/>
-      <c r="AL60" s="0"/>
-      <c r="AM60" s="0"/>
-      <c r="AN60" s="0"/>
-      <c r="AO60" s="0"/>
-      <c r="AP60" s="0"/>
-      <c r="AQ60" s="0"/>
-      <c r="AR60" s="0"/>
-      <c r="AS60" s="0"/>
-      <c r="AT60" s="0"/>
-      <c r="AU60" s="0"/>
-      <c r="AV60" s="0"/>
-      <c r="AW60" s="0"/>
-      <c r="AX60" s="0"/>
-      <c r="AY60" s="0"/>
-      <c r="AZ60" s="0"/>
-      <c r="BA60" s="0"/>
-      <c r="BB60" s="0"/>
-      <c r="BC60" s="0"/>
-      <c r="BD60" s="0"/>
-      <c r="BE60" s="0"/>
-      <c r="BF60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="14"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="14"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="12"/>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="24"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="7"/>
-      <c r="AD79" s="7"/>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="7"/>
-      <c r="AG79" s="7"/>
-      <c r="AH79" s="7"/>
-      <c r="AI79" s="7"/>
-      <c r="AJ79" s="7"/>
-      <c r="AK79" s="7"/>
-      <c r="AL79" s="7"/>
-      <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
-      <c r="AO79" s="7"/>
-      <c r="AP79" s="7"/>
-      <c r="AQ79" s="7"/>
-      <c r="AR79" s="7"/>
-      <c r="AS79" s="7"/>
-      <c r="AT79" s="7"/>
-      <c r="AU79" s="7"/>
-      <c r="AV79" s="7"/>
-      <c r="AW79" s="7"/>
-      <c r="AX79" s="7"/>
-      <c r="AY79" s="7"/>
-      <c r="AZ79" s="7"/>
-      <c r="BA79" s="7"/>
-      <c r="BB79" s="7"/>
-      <c r="BC79" s="7"/>
-      <c r="BD79" s="7"/>
-      <c r="BE79" s="7"/>
-      <c r="BF79" s="7"/>
-    </row>
-    <row r="80" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
-      <c r="J80" s="0"/>
-      <c r="K80" s="0"/>
-      <c r="L80" s="0"/>
-      <c r="M80" s="0"/>
-      <c r="N80" s="0"/>
-      <c r="O80" s="0"/>
-      <c r="P80" s="0"/>
-      <c r="Q80" s="0"/>
-      <c r="R80" s="0"/>
-      <c r="S80" s="0"/>
-      <c r="T80" s="0"/>
-      <c r="U80" s="0"/>
-      <c r="V80" s="0"/>
-      <c r="W80" s="0"/>
-      <c r="X80" s="0"/>
-      <c r="Y80" s="0"/>
-      <c r="Z80" s="0"/>
-      <c r="AA80" s="0"/>
-      <c r="AB80" s="0"/>
-      <c r="AC80" s="0"/>
-      <c r="AD80" s="0"/>
-      <c r="AE80" s="0"/>
-      <c r="AF80" s="0"/>
-      <c r="AG80" s="0"/>
-      <c r="AH80" s="0"/>
-      <c r="AI80" s="0"/>
-      <c r="AJ80" s="0"/>
-      <c r="AK80" s="0"/>
-      <c r="AL80" s="0"/>
-      <c r="AM80" s="0"/>
-      <c r="AN80" s="0"/>
-      <c r="AO80" s="0"/>
-      <c r="AP80" s="0"/>
-      <c r="AQ80" s="0"/>
-      <c r="AR80" s="0"/>
-      <c r="AS80" s="0"/>
-      <c r="AT80" s="0"/>
-      <c r="AU80" s="0"/>
-      <c r="AV80" s="0"/>
-      <c r="AW80" s="0"/>
-      <c r="AX80" s="0"/>
-      <c r="AY80" s="0"/>
-      <c r="AZ80" s="0"/>
-      <c r="BA80" s="0"/>
-      <c r="BB80" s="0"/>
-      <c r="BC80" s="0"/>
-      <c r="BD80" s="0"/>
-      <c r="BE80" s="0"/>
-      <c r="BF80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="12"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0"/>
-      <c r="B87" s="0"/>
-      <c r="C87" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="0"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="0"/>
-      <c r="I87" s="0"/>
-      <c r="J87" s="0"/>
-      <c r="K87" s="0"/>
-      <c r="L87" s="0"/>
-      <c r="M87" s="0"/>
-      <c r="N87" s="0"/>
-      <c r="O87" s="0"/>
-      <c r="P87" s="0"/>
-      <c r="Q87" s="0"/>
-      <c r="R87" s="0"/>
-      <c r="S87" s="0"/>
-      <c r="T87" s="0"/>
-      <c r="U87" s="0"/>
-      <c r="V87" s="0"/>
-      <c r="W87" s="0"/>
-      <c r="X87" s="0"/>
-      <c r="Y87" s="0"/>
-      <c r="Z87" s="0"/>
-      <c r="AA87" s="0"/>
-      <c r="AB87" s="0"/>
-      <c r="AC87" s="0"/>
-      <c r="AD87" s="0"/>
-      <c r="AE87" s="0"/>
-      <c r="AF87" s="0"/>
-      <c r="AG87" s="0"/>
-      <c r="AH87" s="0"/>
-      <c r="AI87" s="0"/>
-      <c r="AJ87" s="0"/>
-      <c r="AK87" s="0"/>
-      <c r="AL87" s="0"/>
-      <c r="AM87" s="0"/>
-      <c r="AN87" s="0"/>
-      <c r="AO87" s="0"/>
-      <c r="AP87" s="0"/>
-      <c r="AQ87" s="0"/>
-      <c r="AR87" s="0"/>
-      <c r="AS87" s="0"/>
-      <c r="AT87" s="0"/>
-      <c r="AU87" s="0"/>
-      <c r="AV87" s="0"/>
-      <c r="AW87" s="0"/>
-      <c r="AX87" s="0"/>
-      <c r="AY87" s="0"/>
-      <c r="AZ87" s="0"/>
-      <c r="BA87" s="0"/>
-      <c r="BB87" s="0"/>
-      <c r="BC87" s="0"/>
-      <c r="BD87" s="0"/>
-      <c r="BE87" s="0"/>
-      <c r="BF87" s="0"/>
-    </row>
-    <row r="88" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="7"/>
-      <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="7"/>
-      <c r="AG88" s="7"/>
-      <c r="AH88" s="7"/>
-      <c r="AI88" s="7"/>
-      <c r="AJ88" s="7"/>
-      <c r="AK88" s="7"/>
-      <c r="AL88" s="7"/>
-      <c r="AM88" s="7"/>
-      <c r="AN88" s="7"/>
-      <c r="AO88" s="7"/>
-      <c r="AP88" s="7"/>
-      <c r="AQ88" s="7"/>
-      <c r="AR88" s="7"/>
-      <c r="AS88" s="7"/>
-      <c r="AT88" s="7"/>
-      <c r="AU88" s="7"/>
-      <c r="AV88" s="7"/>
-      <c r="AW88" s="7"/>
-      <c r="AX88" s="7"/>
-      <c r="AY88" s="7"/>
-      <c r="AZ88" s="7"/>
-      <c r="BA88" s="7"/>
-      <c r="BB88" s="7"/>
-      <c r="BC88" s="7"/>
-      <c r="BD88" s="7"/>
-      <c r="BE88" s="7"/>
-      <c r="BF88" s="7"/>
-    </row>
-    <row r="89" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0"/>
-      <c r="B89" s="0"/>
-      <c r="C89" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="0"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="0"/>
-      <c r="I89" s="0"/>
-      <c r="J89" s="0"/>
-      <c r="K89" s="0"/>
-      <c r="L89" s="0"/>
-      <c r="M89" s="0"/>
-      <c r="N89" s="0"/>
-      <c r="O89" s="0"/>
-      <c r="P89" s="0"/>
-      <c r="Q89" s="0"/>
-      <c r="R89" s="0"/>
-      <c r="S89" s="0"/>
-      <c r="T89" s="0"/>
-      <c r="U89" s="0"/>
-      <c r="V89" s="0"/>
-      <c r="W89" s="0"/>
-      <c r="X89" s="0"/>
-      <c r="Y89" s="0"/>
-      <c r="Z89" s="0"/>
-      <c r="AA89" s="0"/>
-      <c r="AB89" s="0"/>
-      <c r="AC89" s="0"/>
-      <c r="AD89" s="0"/>
-      <c r="AE89" s="0"/>
-      <c r="AF89" s="0"/>
-      <c r="AG89" s="0"/>
-      <c r="AH89" s="0"/>
-      <c r="AI89" s="0"/>
-      <c r="AJ89" s="0"/>
-      <c r="AK89" s="0"/>
-      <c r="AL89" s="0"/>
-      <c r="AM89" s="0"/>
-      <c r="AN89" s="0"/>
-      <c r="AO89" s="0"/>
-      <c r="AP89" s="0"/>
-      <c r="AQ89" s="0"/>
-      <c r="AR89" s="0"/>
-      <c r="AS89" s="0"/>
-      <c r="AT89" s="0"/>
-      <c r="AU89" s="0"/>
-      <c r="AV89" s="0"/>
-      <c r="AW89" s="0"/>
-      <c r="AX89" s="0"/>
-      <c r="AY89" s="0"/>
-      <c r="AZ89" s="0"/>
-      <c r="BA89" s="0"/>
-      <c r="BB89" s="0"/>
-      <c r="BC89" s="0"/>
-      <c r="BD89" s="0"/>
-      <c r="BE89" s="0"/>
-      <c r="BF89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="0"/>
-      <c r="N96" s="0"/>
-      <c r="O96" s="0"/>
-      <c r="P96" s="0"/>
-      <c r="Q96" s="0"/>
-      <c r="R96" s="0"/>
-      <c r="S96" s="0"/>
-      <c r="T96" s="0"/>
-      <c r="U96" s="0"/>
-      <c r="V96" s="0"/>
-      <c r="W96" s="0"/>
-      <c r="X96" s="0"/>
-      <c r="Y96" s="0"/>
-      <c r="Z96" s="0"/>
-      <c r="AA96" s="0"/>
-      <c r="AB96" s="0"/>
-      <c r="AC96" s="0"/>
-      <c r="AD96" s="0"/>
-      <c r="AE96" s="0"/>
-      <c r="AF96" s="0"/>
-      <c r="AG96" s="0"/>
-      <c r="AH96" s="0"/>
-      <c r="AI96" s="0"/>
-      <c r="AJ96" s="0"/>
-      <c r="AK96" s="0"/>
-      <c r="AL96" s="0"/>
-      <c r="AM96" s="0"/>
-      <c r="AN96" s="0"/>
-      <c r="AO96" s="0"/>
-      <c r="AP96" s="0"/>
-      <c r="AQ96" s="0"/>
-      <c r="AR96" s="0"/>
-      <c r="AS96" s="0"/>
-      <c r="AT96" s="0"/>
-      <c r="AU96" s="0"/>
-      <c r="AV96" s="0"/>
-      <c r="AW96" s="0"/>
-      <c r="AX96" s="0"/>
-      <c r="AY96" s="0"/>
-      <c r="AZ96" s="0"/>
-      <c r="BA96" s="0"/>
-      <c r="BB96" s="0"/>
-      <c r="BC96" s="0"/>
-      <c r="BD96" s="0"/>
-      <c r="BE96" s="0"/>
-      <c r="BF96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="G113" s="12"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>143</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -6378,18 +6390,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,7 +6457,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
@@ -6493,7 +6505,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -6521,7 +6533,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
@@ -6547,7 +6559,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="15" t="s">
@@ -6586,7 +6598,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -6599,7 +6611,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -6612,11 +6624,11 @@
         <v>58</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -6636,7 +6648,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -6647,7 +6659,7 @@
         <v>38</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -6658,7 +6670,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -6680,7 +6692,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
@@ -6691,7 +6703,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
@@ -6701,7 +6713,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="14"/>
       <c r="G31" s="12"/>
@@ -6713,7 +6725,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="0"/>
@@ -6724,7 +6736,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
@@ -6734,7 +6746,7 @@
         <v>58</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
@@ -6744,7 +6756,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
@@ -6754,7 +6766,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
@@ -6764,7 +6776,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="26"/>
@@ -6786,7 +6798,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="12"/>
@@ -6798,7 +6810,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="0"/>
@@ -6809,7 +6821,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
@@ -6819,7 +6831,7 @@
         <v>55</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
@@ -6829,7 +6841,7 @@
         <v>58</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
@@ -6839,7 +6851,7 @@
         <v>58</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
@@ -6849,7 +6861,7 @@
         <v>58</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -6859,7 +6871,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
@@ -6871,7 +6883,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -6935,7 +6947,7 @@
         <v>58</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -6998,7 +7010,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -7124,7 +7136,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -7188,7 +7200,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="0"/>
@@ -7252,7 +7264,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="0"/>
@@ -7316,7 +7328,7 @@
         <v>55</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="0"/>
@@ -7380,7 +7392,7 @@
         <v>58</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="0"/>
@@ -7444,7 +7456,7 @@
         <v>58</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="0"/>
@@ -7508,7 +7520,7 @@
         <v>58</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="0"/>
@@ -7572,7 +7584,7 @@
         <v>58</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="0"/>
@@ -7636,7 +7648,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="0"/>
@@ -7700,7 +7712,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="0"/>
@@ -7824,7 +7836,7 @@
         <v>30</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
@@ -7834,7 +7846,7 @@
         <v>38</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
@@ -7844,7 +7856,7 @@
         <v>52</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
@@ -7854,7 +7866,7 @@
         <v>55</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
@@ -7864,7 +7876,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
@@ -7874,7 +7886,7 @@
         <v>58</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
@@ -7894,7 +7906,7 @@
         <v>30</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
@@ -7904,7 +7916,7 @@
         <v>38</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
@@ -7914,7 +7926,7 @@
         <v>52</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
@@ -7924,7 +7936,7 @@
         <v>55</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
@@ -7934,7 +7946,7 @@
         <v>58</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
@@ -7954,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="29"/>
@@ -7977,7 +7989,7 @@
         <v>30</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
@@ -7987,7 +7999,7 @@
         <v>58</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -7997,7 +8009,7 @@
         <v>58</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
@@ -8068,7 +8080,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -8129,7 +8141,7 @@
         <v>58</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
@@ -8139,7 +8151,7 @@
         <v>58</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -8149,7 +8161,7 @@
         <v>58</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -8169,7 +8181,7 @@
         <v>30</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -8179,7 +8191,7 @@
         <v>58</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
@@ -8191,7 +8203,7 @@
         <v>58</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -8316,7 +8328,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -8378,7 +8390,7 @@
         <v>58</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -8399,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="29"/>
@@ -8423,17 +8435,17 @@
         <v>30</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E96" s="12"/>
       <c r="G96" s="12"/>
@@ -8445,7 +8457,7 @@
         <v>52</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="0"/>
@@ -8507,7 +8519,7 @@
         <v>55</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
@@ -8517,7 +8529,7 @@
         <v>58</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
@@ -8527,7 +8539,7 @@
         <v>58</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
@@ -8548,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C102" s="31"/>
       <c r="D102" s="29"/>
@@ -8572,7 +8584,7 @@
         <v>30</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
@@ -8582,7 +8594,7 @@
         <v>58</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
@@ -8592,7 +8604,7 @@
         <v>58</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
@@ -8602,7 +8614,7 @@
         <v>58</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
@@ -8612,7 +8624,7 @@
         <v>58</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
@@ -8622,7 +8634,7 @@
         <v>58</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
@@ -8632,7 +8644,7 @@
         <v>58</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
@@ -8642,37 +8654,37 @@
         <v>58</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
@@ -8693,7 +8705,7 @@
         <v>30</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
@@ -8703,7 +8715,7 @@
         <v>58</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -8713,7 +8725,7 @@
         <v>58</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
@@ -8734,7 +8746,7 @@
         <v>30</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -8744,7 +8756,7 @@
         <v>58</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -8754,7 +8766,7 @@
         <v>58</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="162">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -250,337 +250,340 @@
     <t xml:space="preserve">Fr:Solution Architecte</t>
   </si>
   <si>
+    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE  EG presales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: 09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP CMS - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect/Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP OCBU - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech Lead/Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Research Labs - UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS Google App Engine, OpenShift, Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages and Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi, BeagleBone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization (vSphere/PySphere, KVM-Qemu, VirtualBox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluency in French, basic fluency in Italian, Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ. Of Hull,  UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Firth prize for electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running, cycling, Roller blading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE EG presales – Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloudNative in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (Container Orchestration, Docker, Unikernels)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on GCE, AWS, Azure, DigitalOcean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Evangelisme Conteneurs (Docker)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:OpenStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:OpenStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect, Container advocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical expert in areas of NFV, Cloud, Virtualization, Containers, SDN, Networking</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPE EG presales - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect, HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: 09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (PaaS, CaaS, DevOps, micro-services)  presentations and labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP CMS - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect/Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP OCBU - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech Lead/Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of Technical Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Research Labs - UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaaS Google App Engine, OpenShift, Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages and Paradigms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi, BeagleBone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization (vSphere/PySphere, KVM-Qemu, VirtualBox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluency in French, basic fluency in Italian, Spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Of Hull,  UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Firth prize for electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport / Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running, cycling, Roller blading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE EG presales – Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloudNative in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (Container Orchestration, Docker, Unikernels)  presentations and labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on GCE, AWS, Azure, DigitalOcean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Evangelisme Conteneurs (Docker)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenStack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:OpenStack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:OpenStack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect, Container advocate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical expert in areas of NFV, Cloud, Virtualization, Containers, SDN, Networking</t>
   </si>
   <si>
     <t xml:space="preserve">NFV  in HPE Customer Innovation Center</t>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6546,7 +6549,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="21" t="s">
@@ -6559,7 +6562,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="15" t="s">
@@ -6598,7 +6601,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -6611,7 +6614,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="166">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -190,6 +190,18 @@
     <t xml:space="preserve">Es:http://mjbright.github.io</t>
   </si>
   <si>
+    <t xml:space="preserve">LINKEDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/mjbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking to work from Grenoble as Solution Architect around Cloud Native, Container technologies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michael Bright</t>
   </si>
   <si>
@@ -259,7 +271,7 @@
     <t xml:space="preserve">ROLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Cloud Native Solution Architect, HPE  EG presales</t>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
   </si>
   <si>
     <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
@@ -922,7 +934,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1013,21 +1025,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="WeeklyCalendar"/>
-      <sheetName val="Formulas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Sport-06"/>
       <sheetName val="Sport"/>
       <sheetName val="KDO"/>
@@ -1103,6 +1100,21 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="WeeklyCalendar"/>
+      <sheetName val="Formulas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1111,20 +1123,21 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,174 +1274,175 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="E14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="B15" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="21" t="s">
-        <v>48</v>
-      </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="0" t="s">
+      <c r="D19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="12"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>60</v>
@@ -1441,77 +1455,78 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="12"/>
+      <c r="F23" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="24"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="0" t="s">
+        <v>67</v>
+      </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="G25" s="26"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>66</v>
-      </c>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="14"/>
-      <c r="G26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>67</v>
+      <c r="C27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
       <c r="I27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>53</v>
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -1519,328 +1534,223 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="26"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
+      <c r="G31" s="26"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="0"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="14"/>
+      <c r="F34" s="0"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="G37" s="26"/>
-      <c r="I37" s="27"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="24"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>77</v>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="E39" s="14"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="G39" s="26"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="0"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>79</v>
+      <c r="C41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>67</v>
+    <row r="42" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="E42" s="14"/>
+      <c r="F42" s="0"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="E47" s="14"/>
-      <c r="F47" s="0"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="0"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="0"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0"/>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
-      <c r="AB47" s="0"/>
-      <c r="AC47" s="0"/>
-      <c r="AD47" s="0"/>
-      <c r="AE47" s="0"/>
-      <c r="AF47" s="0"/>
-      <c r="AG47" s="0"/>
-      <c r="AH47" s="0"/>
-      <c r="AI47" s="0"/>
-      <c r="AJ47" s="0"/>
-      <c r="AK47" s="0"/>
-      <c r="AL47" s="0"/>
-      <c r="AM47" s="0"/>
-      <c r="AN47" s="0"/>
-      <c r="AO47" s="0"/>
-      <c r="AP47" s="0"/>
-      <c r="AQ47" s="0"/>
-      <c r="AR47" s="0"/>
-      <c r="AS47" s="0"/>
-      <c r="AT47" s="0"/>
-      <c r="AU47" s="0"/>
-      <c r="AV47" s="0"/>
-      <c r="AW47" s="0"/>
-      <c r="AX47" s="0"/>
-      <c r="AY47" s="0"/>
-      <c r="AZ47" s="0"/>
-      <c r="BA47" s="0"/>
-      <c r="BB47" s="0"/>
-      <c r="BC47" s="0"/>
-      <c r="BD47" s="0"/>
-      <c r="BE47" s="0"/>
-      <c r="BF47" s="0"/>
-    </row>
-    <row r="48" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-      <c r="B48" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="14"/>
-      <c r="F48" s="0"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="7"/>
-      <c r="AJ48" s="7"/>
-      <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
-      <c r="AM48" s="7"/>
-      <c r="AN48" s="7"/>
-      <c r="AO48" s="7"/>
-      <c r="AP48" s="7"/>
-      <c r="AQ48" s="7"/>
-      <c r="AR48" s="7"/>
-      <c r="AS48" s="7"/>
-      <c r="AT48" s="7"/>
-      <c r="AU48" s="7"/>
-      <c r="AV48" s="7"/>
-      <c r="AW48" s="7"/>
-      <c r="AX48" s="7"/>
-      <c r="AY48" s="7"/>
-      <c r="AZ48" s="7"/>
-      <c r="BA48" s="7"/>
-      <c r="BB48" s="7"/>
-      <c r="BC48" s="7"/>
-      <c r="BD48" s="7"/>
-      <c r="BE48" s="7"/>
-      <c r="BF48" s="7"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -1897,76 +1807,77 @@
       <c r="BE49" s="0"/>
       <c r="BF49" s="0"/>
     </row>
-    <row r="50" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="24"/>
+    <row r="50" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="0"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0"/>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
-      <c r="AB50" s="0"/>
-      <c r="AC50" s="0"/>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
-      <c r="AM50" s="0"/>
-      <c r="AN50" s="0"/>
-      <c r="AO50" s="0"/>
-      <c r="AP50" s="0"/>
-      <c r="AQ50" s="0"/>
-      <c r="AR50" s="0"/>
-      <c r="AS50" s="0"/>
-      <c r="AT50" s="0"/>
-      <c r="AU50" s="0"/>
-      <c r="AV50" s="0"/>
-      <c r="AW50" s="0"/>
-      <c r="AX50" s="0"/>
-      <c r="AY50" s="0"/>
-      <c r="AZ50" s="0"/>
-      <c r="BA50" s="0"/>
-      <c r="BB50" s="0"/>
-      <c r="BC50" s="0"/>
-      <c r="BD50" s="0"/>
-      <c r="BE50" s="0"/>
-      <c r="BF50" s="0"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="7"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="7"/>
+      <c r="BF50" s="7"/>
     </row>
     <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
       <c r="B51" s="0"/>
-      <c r="C51" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>87</v>
+      <c r="C51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -2023,1142 +1934,499 @@
       <c r="BE51" s="0"/>
       <c r="BF51" s="0"/>
     </row>
-    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
-      <c r="C52" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>78</v>
-      </c>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="0"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
-      <c r="AO52" s="0"/>
-      <c r="AP52" s="0"/>
-      <c r="AQ52" s="0"/>
-      <c r="AR52" s="0"/>
-      <c r="AS52" s="0"/>
-      <c r="AT52" s="0"/>
-      <c r="AU52" s="0"/>
-      <c r="AV52" s="0"/>
-      <c r="AW52" s="0"/>
-      <c r="AX52" s="0"/>
-      <c r="AY52" s="0"/>
-      <c r="AZ52" s="0"/>
-      <c r="BA52" s="0"/>
-      <c r="BB52" s="0"/>
-      <c r="BC52" s="0"/>
-      <c r="BD52" s="0"/>
-      <c r="BE52" s="0"/>
-      <c r="BF52" s="0"/>
-    </row>
-    <row r="53" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>88</v>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="E53" s="14"/>
-      <c r="F53" s="0"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="0"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0"/>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
-      <c r="AB53" s="0"/>
-      <c r="AC53" s="0"/>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0"/>
-      <c r="AI53" s="0"/>
-      <c r="AJ53" s="0"/>
-      <c r="AK53" s="0"/>
-      <c r="AL53" s="0"/>
-      <c r="AM53" s="0"/>
-      <c r="AN53" s="0"/>
-      <c r="AO53" s="0"/>
-      <c r="AP53" s="0"/>
-      <c r="AQ53" s="0"/>
-      <c r="AR53" s="0"/>
-      <c r="AS53" s="0"/>
-      <c r="AT53" s="0"/>
-      <c r="AU53" s="0"/>
-      <c r="AV53" s="0"/>
-      <c r="AW53" s="0"/>
-      <c r="AX53" s="0"/>
-      <c r="AY53" s="0"/>
-      <c r="AZ53" s="0"/>
-      <c r="BA53" s="0"/>
-      <c r="BB53" s="0"/>
-      <c r="BC53" s="0"/>
-      <c r="BD53" s="0"/>
-      <c r="BE53" s="0"/>
-      <c r="BF53" s="0"/>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>79</v>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="E54" s="14"/>
-      <c r="F54" s="0"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="0"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
-      <c r="AB54" s="0"/>
-      <c r="AC54" s="0"/>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0"/>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
-      <c r="AK54" s="0"/>
-      <c r="AL54" s="0"/>
-      <c r="AM54" s="0"/>
-      <c r="AN54" s="0"/>
-      <c r="AO54" s="0"/>
-      <c r="AP54" s="0"/>
-      <c r="AQ54" s="0"/>
-      <c r="AR54" s="0"/>
-      <c r="AS54" s="0"/>
-      <c r="AT54" s="0"/>
-      <c r="AU54" s="0"/>
-      <c r="AV54" s="0"/>
-      <c r="AW54" s="0"/>
-      <c r="AX54" s="0"/>
-      <c r="AY54" s="0"/>
-      <c r="AZ54" s="0"/>
-      <c r="BA54" s="0"/>
-      <c r="BB54" s="0"/>
-      <c r="BC54" s="0"/>
-      <c r="BD54" s="0"/>
-      <c r="BE54" s="0"/>
-      <c r="BF54" s="0"/>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E55" s="14"/>
-      <c r="F55" s="0"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="0"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
-      <c r="AB55" s="0"/>
-      <c r="AC55" s="0"/>
-      <c r="AD55" s="0"/>
-      <c r="AE55" s="0"/>
-      <c r="AF55" s="0"/>
-      <c r="AG55" s="0"/>
-      <c r="AH55" s="0"/>
-      <c r="AI55" s="0"/>
-      <c r="AJ55" s="0"/>
-      <c r="AK55" s="0"/>
-      <c r="AL55" s="0"/>
-      <c r="AM55" s="0"/>
-      <c r="AN55" s="0"/>
-      <c r="AO55" s="0"/>
-      <c r="AP55" s="0"/>
-      <c r="AQ55" s="0"/>
-      <c r="AR55" s="0"/>
-      <c r="AS55" s="0"/>
-      <c r="AT55" s="0"/>
-      <c r="AU55" s="0"/>
-      <c r="AV55" s="0"/>
-      <c r="AW55" s="0"/>
-      <c r="AX55" s="0"/>
-      <c r="AY55" s="0"/>
-      <c r="AZ55" s="0"/>
-      <c r="BA55" s="0"/>
-      <c r="BB55" s="0"/>
-      <c r="BC55" s="0"/>
-      <c r="BD55" s="0"/>
-      <c r="BE55" s="0"/>
-      <c r="BF55" s="0"/>
-    </row>
-    <row r="56" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="E56" s="14"/>
-      <c r="F56" s="0"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="0"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="0"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0"/>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
-      <c r="AB56" s="0"/>
-      <c r="AC56" s="0"/>
-      <c r="AD56" s="0"/>
-      <c r="AE56" s="0"/>
-      <c r="AF56" s="0"/>
-      <c r="AG56" s="0"/>
-      <c r="AH56" s="0"/>
-      <c r="AI56" s="0"/>
-      <c r="AJ56" s="0"/>
-      <c r="AK56" s="0"/>
-      <c r="AL56" s="0"/>
-      <c r="AM56" s="0"/>
-      <c r="AN56" s="0"/>
-      <c r="AO56" s="0"/>
-      <c r="AP56" s="0"/>
-      <c r="AQ56" s="0"/>
-      <c r="AR56" s="0"/>
-      <c r="AS56" s="0"/>
-      <c r="AT56" s="0"/>
-      <c r="AU56" s="0"/>
-      <c r="AV56" s="0"/>
-      <c r="AW56" s="0"/>
-      <c r="AX56" s="0"/>
-      <c r="AY56" s="0"/>
-      <c r="AZ56" s="0"/>
-      <c r="BA56" s="0"/>
-      <c r="BB56" s="0"/>
-      <c r="BC56" s="0"/>
-      <c r="BD56" s="0"/>
-      <c r="BE56" s="0"/>
-      <c r="BF56" s="0"/>
-    </row>
-    <row r="57" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="14"/>
-      <c r="F57" s="0"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="0"/>
-      <c r="V57" s="0"/>
-      <c r="W57" s="0"/>
-      <c r="X57" s="0"/>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AA57" s="0"/>
-      <c r="AB57" s="0"/>
-      <c r="AC57" s="0"/>
-      <c r="AD57" s="0"/>
-      <c r="AE57" s="0"/>
-      <c r="AF57" s="0"/>
-      <c r="AG57" s="0"/>
-      <c r="AH57" s="0"/>
-      <c r="AI57" s="0"/>
-      <c r="AJ57" s="0"/>
-      <c r="AK57" s="0"/>
-      <c r="AL57" s="0"/>
-      <c r="AM57" s="0"/>
-      <c r="AN57" s="0"/>
-      <c r="AO57" s="0"/>
-      <c r="AP57" s="0"/>
-      <c r="AQ57" s="0"/>
-      <c r="AR57" s="0"/>
-      <c r="AS57" s="0"/>
-      <c r="AT57" s="0"/>
-      <c r="AU57" s="0"/>
-      <c r="AV57" s="0"/>
-      <c r="AW57" s="0"/>
-      <c r="AX57" s="0"/>
-      <c r="AY57" s="0"/>
-      <c r="AZ57" s="0"/>
-      <c r="BA57" s="0"/>
-      <c r="BB57" s="0"/>
-      <c r="BC57" s="0"/>
-      <c r="BD57" s="0"/>
-      <c r="BE57" s="0"/>
-      <c r="BF57" s="0"/>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="14"/>
-      <c r="F58" s="0"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="0"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="0"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0"/>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
-      <c r="AB58" s="0"/>
-      <c r="AC58" s="0"/>
-      <c r="AD58" s="0"/>
-      <c r="AE58" s="0"/>
-      <c r="AF58" s="0"/>
-      <c r="AG58" s="0"/>
-      <c r="AH58" s="0"/>
-      <c r="AI58" s="0"/>
-      <c r="AJ58" s="0"/>
-      <c r="AK58" s="0"/>
-      <c r="AL58" s="0"/>
-      <c r="AM58" s="0"/>
-      <c r="AN58" s="0"/>
-      <c r="AO58" s="0"/>
-      <c r="AP58" s="0"/>
-      <c r="AQ58" s="0"/>
-      <c r="AR58" s="0"/>
-      <c r="AS58" s="0"/>
-      <c r="AT58" s="0"/>
-      <c r="AU58" s="0"/>
-      <c r="AV58" s="0"/>
-      <c r="AW58" s="0"/>
-      <c r="AX58" s="0"/>
-      <c r="AY58" s="0"/>
-      <c r="AZ58" s="0"/>
-      <c r="BA58" s="0"/>
-      <c r="BB58" s="0"/>
-      <c r="BC58" s="0"/>
-      <c r="BD58" s="0"/>
-      <c r="BE58" s="0"/>
-      <c r="BF58" s="0"/>
-    </row>
-    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="14"/>
-      <c r="F59" s="0"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="0"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="0"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0"/>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
-      <c r="AB59" s="0"/>
-      <c r="AC59" s="0"/>
-      <c r="AD59" s="0"/>
-      <c r="AE59" s="0"/>
-      <c r="AF59" s="0"/>
-      <c r="AG59" s="0"/>
-      <c r="AH59" s="0"/>
-      <c r="AI59" s="0"/>
-      <c r="AJ59" s="0"/>
-      <c r="AK59" s="0"/>
-      <c r="AL59" s="0"/>
-      <c r="AM59" s="0"/>
-      <c r="AN59" s="0"/>
-      <c r="AO59" s="0"/>
-      <c r="AP59" s="0"/>
-      <c r="AQ59" s="0"/>
-      <c r="AR59" s="0"/>
-      <c r="AS59" s="0"/>
-      <c r="AT59" s="0"/>
-      <c r="AU59" s="0"/>
-      <c r="AV59" s="0"/>
-      <c r="AW59" s="0"/>
-      <c r="AX59" s="0"/>
-      <c r="AY59" s="0"/>
-      <c r="AZ59" s="0"/>
-      <c r="BA59" s="0"/>
-      <c r="BB59" s="0"/>
-      <c r="BC59" s="0"/>
-      <c r="BD59" s="0"/>
-      <c r="BE59" s="0"/>
-      <c r="BF59" s="0"/>
-    </row>
-    <row r="60" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="14"/>
-      <c r="F60" s="0"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="0"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="0"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0"/>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
-      <c r="AB60" s="0"/>
-      <c r="AC60" s="0"/>
-      <c r="AD60" s="0"/>
-      <c r="AE60" s="0"/>
-      <c r="AF60" s="0"/>
-      <c r="AG60" s="0"/>
-      <c r="AH60" s="0"/>
-      <c r="AI60" s="0"/>
-      <c r="AJ60" s="0"/>
-      <c r="AK60" s="0"/>
-      <c r="AL60" s="0"/>
-      <c r="AM60" s="0"/>
-      <c r="AN60" s="0"/>
-      <c r="AO60" s="0"/>
-      <c r="AP60" s="0"/>
-      <c r="AQ60" s="0"/>
-      <c r="AR60" s="0"/>
-      <c r="AS60" s="0"/>
-      <c r="AT60" s="0"/>
-      <c r="AU60" s="0"/>
-      <c r="AV60" s="0"/>
-      <c r="AW60" s="0"/>
-      <c r="AX60" s="0"/>
-      <c r="AY60" s="0"/>
-      <c r="AZ60" s="0"/>
-      <c r="BA60" s="0"/>
-      <c r="BB60" s="0"/>
-      <c r="BC60" s="0"/>
-      <c r="BD60" s="0"/>
-      <c r="BE60" s="0"/>
-      <c r="BF60" s="0"/>
-    </row>
-    <row r="61" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="24"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="E61" s="14"/>
-      <c r="F61" s="0"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="0"/>
-      <c r="N61" s="0"/>
-      <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-      <c r="U61" s="0"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
-      <c r="X61" s="0"/>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0"/>
-      <c r="AA61" s="0"/>
-      <c r="AB61" s="0"/>
-      <c r="AC61" s="0"/>
-      <c r="AD61" s="0"/>
-      <c r="AE61" s="0"/>
-      <c r="AF61" s="0"/>
-      <c r="AG61" s="0"/>
-      <c r="AH61" s="0"/>
-      <c r="AI61" s="0"/>
-      <c r="AJ61" s="0"/>
-      <c r="AK61" s="0"/>
-      <c r="AL61" s="0"/>
-      <c r="AM61" s="0"/>
-      <c r="AN61" s="0"/>
-      <c r="AO61" s="0"/>
-      <c r="AP61" s="0"/>
-      <c r="AQ61" s="0"/>
-      <c r="AR61" s="0"/>
-      <c r="AS61" s="0"/>
-      <c r="AT61" s="0"/>
-      <c r="AU61" s="0"/>
-      <c r="AV61" s="0"/>
-      <c r="AW61" s="0"/>
-      <c r="AX61" s="0"/>
-      <c r="AY61" s="0"/>
-      <c r="AZ61" s="0"/>
-      <c r="BA61" s="0"/>
-      <c r="BB61" s="0"/>
-      <c r="BC61" s="0"/>
-      <c r="BD61" s="0"/>
-      <c r="BE61" s="0"/>
-      <c r="BF61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>95</v>
+      <c r="C62" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="A63" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>97</v>
+      <c r="C64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>88</v>
+      <c r="C65" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>98</v>
+        <v>56</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>99</v>
+        <v>59</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="24"/>
+      <c r="C68" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>100</v>
+      <c r="C69" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="A70" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>102</v>
+      <c r="C71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>103</v>
+      <c r="C72" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>104</v>
+        <v>56</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="24"/>
+      <c r="C74" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="E74" s="14"/>
       <c r="G74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="16"/>
+      <c r="C75" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="14"/>
       <c r="G75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
       <c r="D76" s="24"/>
-      <c r="E76" s="12"/>
+      <c r="E76" s="14"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="A77" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="12"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="A78" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>108</v>
+        <v>34</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="24"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="7"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="7"/>
-      <c r="AD80" s="7"/>
-      <c r="AE80" s="7"/>
-      <c r="AF80" s="7"/>
-      <c r="AG80" s="7"/>
-      <c r="AH80" s="7"/>
-      <c r="AI80" s="7"/>
-      <c r="AJ80" s="7"/>
-      <c r="AK80" s="7"/>
-      <c r="AL80" s="7"/>
-      <c r="AM80" s="7"/>
-      <c r="AN80" s="7"/>
-      <c r="AO80" s="7"/>
-      <c r="AP80" s="7"/>
-      <c r="AQ80" s="7"/>
-      <c r="AR80" s="7"/>
-      <c r="AS80" s="7"/>
-      <c r="AT80" s="7"/>
-      <c r="AU80" s="7"/>
-      <c r="AV80" s="7"/>
-      <c r="AW80" s="7"/>
-      <c r="AX80" s="7"/>
-      <c r="AY80" s="7"/>
-      <c r="AZ80" s="7"/>
-      <c r="BA80" s="7"/>
-      <c r="BB80" s="7"/>
-      <c r="BC80" s="7"/>
-      <c r="BD80" s="7"/>
-      <c r="BE80" s="7"/>
-      <c r="BF80" s="7"/>
-    </row>
-    <row r="81" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>109</v>
+        <v>62</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
-      <c r="J81" s="0"/>
-      <c r="K81" s="0"/>
-      <c r="L81" s="0"/>
-      <c r="M81" s="0"/>
-      <c r="N81" s="0"/>
-      <c r="O81" s="0"/>
-      <c r="P81" s="0"/>
-      <c r="Q81" s="0"/>
-      <c r="R81" s="0"/>
-      <c r="S81" s="0"/>
-      <c r="T81" s="0"/>
-      <c r="U81" s="0"/>
-      <c r="V81" s="0"/>
-      <c r="W81" s="0"/>
-      <c r="X81" s="0"/>
-      <c r="Y81" s="0"/>
-      <c r="Z81" s="0"/>
-      <c r="AA81" s="0"/>
-      <c r="AB81" s="0"/>
-      <c r="AC81" s="0"/>
-      <c r="AD81" s="0"/>
-      <c r="AE81" s="0"/>
-      <c r="AF81" s="0"/>
-      <c r="AG81" s="0"/>
-      <c r="AH81" s="0"/>
-      <c r="AI81" s="0"/>
-      <c r="AJ81" s="0"/>
-      <c r="AK81" s="0"/>
-      <c r="AL81" s="0"/>
-      <c r="AM81" s="0"/>
-      <c r="AN81" s="0"/>
-      <c r="AO81" s="0"/>
-      <c r="AP81" s="0"/>
-      <c r="AQ81" s="0"/>
-      <c r="AR81" s="0"/>
-      <c r="AS81" s="0"/>
-      <c r="AT81" s="0"/>
-      <c r="AU81" s="0"/>
-      <c r="AV81" s="0"/>
-      <c r="AW81" s="0"/>
-      <c r="AX81" s="0"/>
-      <c r="AY81" s="0"/>
-      <c r="AZ81" s="0"/>
-      <c r="BA81" s="0"/>
-      <c r="BB81" s="0"/>
-      <c r="BC81" s="0"/>
-      <c r="BD81" s="0"/>
-      <c r="BE81" s="0"/>
-      <c r="BF81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="82" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="7"/>
+      <c r="AY82" s="7"/>
+      <c r="AZ82" s="7"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7"/>
+      <c r="BC82" s="7"/>
+      <c r="BD82" s="7"/>
+      <c r="BE82" s="7"/>
+      <c r="BF82" s="7"/>
+    </row>
+    <row r="83" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0"/>
+      <c r="B83" s="0"/>
       <c r="C83" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>111</v>
+        <v>34</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="0"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0"/>
+      <c r="U83" s="0"/>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0"/>
+      <c r="X83" s="0"/>
+      <c r="Y83" s="0"/>
+      <c r="Z83" s="0"/>
+      <c r="AA83" s="0"/>
+      <c r="AB83" s="0"/>
+      <c r="AC83" s="0"/>
+      <c r="AD83" s="0"/>
+      <c r="AE83" s="0"/>
+      <c r="AF83" s="0"/>
+      <c r="AG83" s="0"/>
+      <c r="AH83" s="0"/>
+      <c r="AI83" s="0"/>
+      <c r="AJ83" s="0"/>
+      <c r="AK83" s="0"/>
+      <c r="AL83" s="0"/>
+      <c r="AM83" s="0"/>
+      <c r="AN83" s="0"/>
+      <c r="AO83" s="0"/>
+      <c r="AP83" s="0"/>
+      <c r="AQ83" s="0"/>
+      <c r="AR83" s="0"/>
+      <c r="AS83" s="0"/>
+      <c r="AT83" s="0"/>
+      <c r="AU83" s="0"/>
+      <c r="AV83" s="0"/>
+      <c r="AW83" s="0"/>
+      <c r="AX83" s="0"/>
+      <c r="AY83" s="0"/>
+      <c r="AZ83" s="0"/>
+      <c r="BA83" s="0"/>
+      <c r="BB83" s="0"/>
+      <c r="BC83" s="0"/>
+      <c r="BD83" s="0"/>
+      <c r="BE83" s="0"/>
+      <c r="BF83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="24"/>
+      <c r="C85" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>113</v>
+        <v>62</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>114</v>
-      </c>
+      <c r="A87" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>115</v>
+        <v>34</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="0"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="0"/>
-      <c r="I88" s="0"/>
-      <c r="J88" s="0"/>
-      <c r="K88" s="0"/>
-      <c r="L88" s="0"/>
-      <c r="M88" s="0"/>
-      <c r="N88" s="0"/>
-      <c r="O88" s="0"/>
-      <c r="P88" s="0"/>
-      <c r="Q88" s="0"/>
-      <c r="R88" s="0"/>
-      <c r="S88" s="0"/>
-      <c r="T88" s="0"/>
-      <c r="U88" s="0"/>
-      <c r="V88" s="0"/>
-      <c r="W88" s="0"/>
-      <c r="X88" s="0"/>
-      <c r="Y88" s="0"/>
-      <c r="Z88" s="0"/>
-      <c r="AA88" s="0"/>
-      <c r="AB88" s="0"/>
-      <c r="AC88" s="0"/>
-      <c r="AD88" s="0"/>
-      <c r="AE88" s="0"/>
-      <c r="AF88" s="0"/>
-      <c r="AG88" s="0"/>
-      <c r="AH88" s="0"/>
-      <c r="AI88" s="0"/>
-      <c r="AJ88" s="0"/>
-      <c r="AK88" s="0"/>
-      <c r="AL88" s="0"/>
-      <c r="AM88" s="0"/>
-      <c r="AN88" s="0"/>
-      <c r="AO88" s="0"/>
-      <c r="AP88" s="0"/>
-      <c r="AQ88" s="0"/>
-      <c r="AR88" s="0"/>
-      <c r="AS88" s="0"/>
-      <c r="AT88" s="0"/>
-      <c r="AU88" s="0"/>
-      <c r="AV88" s="0"/>
-      <c r="AW88" s="0"/>
-      <c r="AX88" s="0"/>
-      <c r="AY88" s="0"/>
-      <c r="AZ88" s="0"/>
-      <c r="BA88" s="0"/>
-      <c r="BB88" s="0"/>
-      <c r="BC88" s="0"/>
-      <c r="BD88" s="0"/>
-      <c r="BE88" s="0"/>
-      <c r="BF88" s="0"/>
-    </row>
-    <row r="89" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="24"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="7"/>
-      <c r="AD89" s="7"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="7"/>
-      <c r="AG89" s="7"/>
-      <c r="AH89" s="7"/>
-      <c r="AI89" s="7"/>
-      <c r="AJ89" s="7"/>
-      <c r="AK89" s="7"/>
-      <c r="AL89" s="7"/>
-      <c r="AM89" s="7"/>
-      <c r="AN89" s="7"/>
-      <c r="AO89" s="7"/>
-      <c r="AP89" s="7"/>
-      <c r="AQ89" s="7"/>
-      <c r="AR89" s="7"/>
-      <c r="AS89" s="7"/>
-      <c r="AT89" s="7"/>
-      <c r="AU89" s="7"/>
-      <c r="AV89" s="7"/>
-      <c r="AW89" s="7"/>
-      <c r="AX89" s="7"/>
-      <c r="AY89" s="7"/>
-      <c r="AZ89" s="7"/>
-      <c r="BA89" s="7"/>
-      <c r="BB89" s="7"/>
-      <c r="BC89" s="7"/>
-      <c r="BD89" s="7"/>
-      <c r="BE89" s="7"/>
-      <c r="BF89" s="7"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0"/>
       <c r="B90" s="0"/>
-      <c r="C90" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>116</v>
+      <c r="C90" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -3215,43 +2483,144 @@
       <c r="BE90" s="0"/>
       <c r="BF90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>117</v>
-      </c>
+    <row r="91" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="12"/>
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="24"/>
+      <c r="F91" s="12"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="7"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="7"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
+      <c r="BF91" s="7"/>
+    </row>
+    <row r="92" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="E92" s="12"/>
-      <c r="F92" s="24"/>
+      <c r="F92" s="0"/>
       <c r="G92" s="12"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+      <c r="R92" s="0"/>
+      <c r="S92" s="0"/>
+      <c r="T92" s="0"/>
+      <c r="U92" s="0"/>
+      <c r="V92" s="0"/>
+      <c r="W92" s="0"/>
+      <c r="X92" s="0"/>
+      <c r="Y92" s="0"/>
+      <c r="Z92" s="0"/>
+      <c r="AA92" s="0"/>
+      <c r="AB92" s="0"/>
+      <c r="AC92" s="0"/>
+      <c r="AD92" s="0"/>
+      <c r="AE92" s="0"/>
+      <c r="AF92" s="0"/>
+      <c r="AG92" s="0"/>
+      <c r="AH92" s="0"/>
+      <c r="AI92" s="0"/>
+      <c r="AJ92" s="0"/>
+      <c r="AK92" s="0"/>
+      <c r="AL92" s="0"/>
+      <c r="AM92" s="0"/>
+      <c r="AN92" s="0"/>
+      <c r="AO92" s="0"/>
+      <c r="AP92" s="0"/>
+      <c r="AQ92" s="0"/>
+      <c r="AR92" s="0"/>
+      <c r="AS92" s="0"/>
+      <c r="AT92" s="0"/>
+      <c r="AU92" s="0"/>
+      <c r="AV92" s="0"/>
+      <c r="AW92" s="0"/>
+      <c r="AX92" s="0"/>
+      <c r="AY92" s="0"/>
+      <c r="AZ92" s="0"/>
+      <c r="BA92" s="0"/>
+      <c r="BB92" s="0"/>
+      <c r="BC92" s="0"/>
+      <c r="BD92" s="0"/>
+      <c r="BE92" s="0"/>
+      <c r="BF92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="29"/>
+      <c r="C93" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="E93" s="12"/>
-      <c r="F93" s="29"/>
       <c r="G93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="25"/>
@@ -3261,146 +2630,146 @@
       <c r="G94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="A95" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="12"/>
+      <c r="F95" s="29"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="A96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="12"/>
+      <c r="F96" s="24"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>122</v>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="E97" s="12"/>
-      <c r="F97" s="0"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="0"/>
-      <c r="N97" s="0"/>
-      <c r="O97" s="0"/>
-      <c r="P97" s="0"/>
-      <c r="Q97" s="0"/>
-      <c r="R97" s="0"/>
-      <c r="S97" s="0"/>
-      <c r="T97" s="0"/>
-      <c r="U97" s="0"/>
-      <c r="V97" s="0"/>
-      <c r="W97" s="0"/>
-      <c r="X97" s="0"/>
-      <c r="Y97" s="0"/>
-      <c r="Z97" s="0"/>
-      <c r="AA97" s="0"/>
-      <c r="AB97" s="0"/>
-      <c r="AC97" s="0"/>
-      <c r="AD97" s="0"/>
-      <c r="AE97" s="0"/>
-      <c r="AF97" s="0"/>
-      <c r="AG97" s="0"/>
-      <c r="AH97" s="0"/>
-      <c r="AI97" s="0"/>
-      <c r="AJ97" s="0"/>
-      <c r="AK97" s="0"/>
-      <c r="AL97" s="0"/>
-      <c r="AM97" s="0"/>
-      <c r="AN97" s="0"/>
-      <c r="AO97" s="0"/>
-      <c r="AP97" s="0"/>
-      <c r="AQ97" s="0"/>
-      <c r="AR97" s="0"/>
-      <c r="AS97" s="0"/>
-      <c r="AT97" s="0"/>
-      <c r="AU97" s="0"/>
-      <c r="AV97" s="0"/>
-      <c r="AW97" s="0"/>
-      <c r="AX97" s="0"/>
-      <c r="AY97" s="0"/>
-      <c r="AZ97" s="0"/>
-      <c r="BA97" s="0"/>
-      <c r="BB97" s="0"/>
-      <c r="BC97" s="0"/>
-      <c r="BD97" s="0"/>
-      <c r="BE97" s="0"/>
-      <c r="BF97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>123</v>
+      <c r="C98" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
       <c r="C99" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>124</v>
+        <v>56</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="E99" s="12"/>
+      <c r="F99" s="0"/>
       <c r="G99" s="12"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0"/>
+      <c r="U99" s="0"/>
+      <c r="V99" s="0"/>
+      <c r="W99" s="0"/>
+      <c r="X99" s="0"/>
+      <c r="Y99" s="0"/>
+      <c r="Z99" s="0"/>
+      <c r="AA99" s="0"/>
+      <c r="AB99" s="0"/>
+      <c r="AC99" s="0"/>
+      <c r="AD99" s="0"/>
+      <c r="AE99" s="0"/>
+      <c r="AF99" s="0"/>
+      <c r="AG99" s="0"/>
+      <c r="AH99" s="0"/>
+      <c r="AI99" s="0"/>
+      <c r="AJ99" s="0"/>
+      <c r="AK99" s="0"/>
+      <c r="AL99" s="0"/>
+      <c r="AM99" s="0"/>
+      <c r="AN99" s="0"/>
+      <c r="AO99" s="0"/>
+      <c r="AP99" s="0"/>
+      <c r="AQ99" s="0"/>
+      <c r="AR99" s="0"/>
+      <c r="AS99" s="0"/>
+      <c r="AT99" s="0"/>
+      <c r="AU99" s="0"/>
+      <c r="AV99" s="0"/>
+      <c r="AW99" s="0"/>
+      <c r="AX99" s="0"/>
+      <c r="AY99" s="0"/>
+      <c r="AZ99" s="0"/>
+      <c r="BA99" s="0"/>
+      <c r="BB99" s="0"/>
+      <c r="BC99" s="0"/>
+      <c r="BD99" s="0"/>
+      <c r="BE99" s="0"/>
+      <c r="BF99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>125</v>
+        <v>59</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="24"/>
+      <c r="C101" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="E101" s="12"/>
-      <c r="F101" s="24"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="29"/>
+      <c r="C102" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="E102" s="12"/>
-      <c r="F102" s="29"/>
       <c r="G102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="25"/>
@@ -3410,209 +2779,231 @@
       <c r="G103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>127</v>
-      </c>
+      <c r="A104" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="31"/>
+      <c r="D104" s="29"/>
       <c r="E104" s="12"/>
+      <c r="F104" s="29"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>128</v>
-      </c>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="12"/>
+      <c r="F105" s="24"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>129</v>
+        <v>34</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>130</v>
+        <v>62</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>136</v>
+      <c r="C112" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>137</v>
+      <c r="C113" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="24"/>
+      <c r="C115" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="E115" s="12"/>
-      <c r="F115" s="24"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="20" t="s">
         <v>139</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>140</v>
-      </c>
+      <c r="A117" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="24"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="12"/>
+      <c r="F117" s="24"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>141</v>
+      <c r="C118" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="24"/>
+      <c r="C119" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="E119" s="12"/>
-      <c r="F119" s="24"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>142</v>
+      <c r="C120" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>143</v>
-      </c>
+      <c r="A121" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="24"/>
       <c r="E121" s="12"/>
+      <c r="F121" s="24"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>144</v>
+      <c r="C122" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="24"/>
+      <c r="C123" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="E123" s="12"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="24"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="12"/>
+      <c r="G125" s="12"/>
+    </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3656,8 +3047,8 @@
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3675,7 +3066,7 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D105" r:id="rId1" display="https://mjbright.github.io/Talks"/>
+    <hyperlink ref="D107" r:id="rId1" display="https://mjbright.github.io/Talks"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3700,15 +3091,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,71 +3240,71 @@
         <v>6</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
@@ -3924,12 +3316,12 @@
         <v>0</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C14" s="19"/>
       <c r="E14" s="12"/>
@@ -3937,112 +3329,112 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -4053,10 +3445,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="26"/>
@@ -4064,10 +3456,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -4075,10 +3467,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -4086,10 +3478,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -4097,10 +3489,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -4108,20 +3500,20 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
@@ -4130,10 +3522,10 @@
       <c r="A31" s="0"/>
       <c r="B31" s="0"/>
       <c r="C31" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="0"/>
@@ -4141,50 +3533,50 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="26"/>
@@ -4192,7 +3584,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -4203,10 +3595,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
@@ -4215,10 +3607,10 @@
       <c r="A39" s="0"/>
       <c r="B39" s="0"/>
       <c r="C39" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="0"/>
@@ -4226,60 +3618,60 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E40" s="14"/>
       <c r="G40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -4288,10 +3680,10 @@
       <c r="A46" s="0"/>
       <c r="B46" s="0"/>
       <c r="C46" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="0"/>
@@ -4352,10 +3744,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -4415,10 +3807,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -4475,833 +3867,189 @@
       <c r="BE48" s="0"/>
       <c r="BF48" s="0"/>
     </row>
-    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
       <c r="D49" s="24"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="0"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="0"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="0"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0"/>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
-      <c r="AB49" s="0"/>
-      <c r="AC49" s="0"/>
-      <c r="AD49" s="0"/>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0"/>
-      <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
-      <c r="AM49" s="0"/>
-      <c r="AN49" s="0"/>
-      <c r="AO49" s="0"/>
-      <c r="AP49" s="0"/>
-      <c r="AQ49" s="0"/>
-      <c r="AR49" s="0"/>
-      <c r="AS49" s="0"/>
-      <c r="AT49" s="0"/>
-      <c r="AU49" s="0"/>
-      <c r="AV49" s="0"/>
-      <c r="AW49" s="0"/>
-      <c r="AX49" s="0"/>
-      <c r="AY49" s="0"/>
-      <c r="AZ49" s="0"/>
-      <c r="BA49" s="0"/>
-      <c r="BB49" s="0"/>
-      <c r="BC49" s="0"/>
-      <c r="BD49" s="0"/>
-      <c r="BE49" s="0"/>
-      <c r="BF49" s="0"/>
-    </row>
-    <row r="50" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="0"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="0"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0"/>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
-      <c r="AB50" s="0"/>
-      <c r="AC50" s="0"/>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
-      <c r="AM50" s="0"/>
-      <c r="AN50" s="0"/>
-      <c r="AO50" s="0"/>
-      <c r="AP50" s="0"/>
-      <c r="AQ50" s="0"/>
-      <c r="AR50" s="0"/>
-      <c r="AS50" s="0"/>
-      <c r="AT50" s="0"/>
-      <c r="AU50" s="0"/>
-      <c r="AV50" s="0"/>
-      <c r="AW50" s="0"/>
-      <c r="AX50" s="0"/>
-      <c r="AY50" s="0"/>
-      <c r="AZ50" s="0"/>
-      <c r="BA50" s="0"/>
-      <c r="BB50" s="0"/>
-      <c r="BC50" s="0"/>
-      <c r="BD50" s="0"/>
-      <c r="BE50" s="0"/>
-      <c r="BF50" s="0"/>
-    </row>
-    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="0"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="0"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
-      <c r="AB51" s="0"/>
-      <c r="AC51" s="0"/>
-      <c r="AD51" s="0"/>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AG51" s="0"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
-      <c r="AL51" s="0"/>
-      <c r="AM51" s="0"/>
-      <c r="AN51" s="0"/>
-      <c r="AO51" s="0"/>
-      <c r="AP51" s="0"/>
-      <c r="AQ51" s="0"/>
-      <c r="AR51" s="0"/>
-      <c r="AS51" s="0"/>
-      <c r="AT51" s="0"/>
-      <c r="AU51" s="0"/>
-      <c r="AV51" s="0"/>
-      <c r="AW51" s="0"/>
-      <c r="AX51" s="0"/>
-      <c r="AY51" s="0"/>
-      <c r="AZ51" s="0"/>
-      <c r="BA51" s="0"/>
-      <c r="BB51" s="0"/>
-      <c r="BC51" s="0"/>
-      <c r="BD51" s="0"/>
-      <c r="BE51" s="0"/>
-      <c r="BF51" s="0"/>
-    </row>
-    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E52" s="14"/>
-      <c r="F52" s="0"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
-      <c r="AO52" s="0"/>
-      <c r="AP52" s="0"/>
-      <c r="AQ52" s="0"/>
-      <c r="AR52" s="0"/>
-      <c r="AS52" s="0"/>
-      <c r="AT52" s="0"/>
-      <c r="AU52" s="0"/>
-      <c r="AV52" s="0"/>
-      <c r="AW52" s="0"/>
-      <c r="AX52" s="0"/>
-      <c r="AY52" s="0"/>
-      <c r="AZ52" s="0"/>
-      <c r="BA52" s="0"/>
-      <c r="BB52" s="0"/>
-      <c r="BC52" s="0"/>
-      <c r="BD52" s="0"/>
-      <c r="BE52" s="0"/>
-      <c r="BF52" s="0"/>
-    </row>
-    <row r="53" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E53" s="14"/>
-      <c r="F53" s="0"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="0"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0"/>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
-      <c r="AB53" s="0"/>
-      <c r="AC53" s="0"/>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0"/>
-      <c r="AI53" s="0"/>
-      <c r="AJ53" s="0"/>
-      <c r="AK53" s="0"/>
-      <c r="AL53" s="0"/>
-      <c r="AM53" s="0"/>
-      <c r="AN53" s="0"/>
-      <c r="AO53" s="0"/>
-      <c r="AP53" s="0"/>
-      <c r="AQ53" s="0"/>
-      <c r="AR53" s="0"/>
-      <c r="AS53" s="0"/>
-      <c r="AT53" s="0"/>
-      <c r="AU53" s="0"/>
-      <c r="AV53" s="0"/>
-      <c r="AW53" s="0"/>
-      <c r="AX53" s="0"/>
-      <c r="AY53" s="0"/>
-      <c r="AZ53" s="0"/>
-      <c r="BA53" s="0"/>
-      <c r="BB53" s="0"/>
-      <c r="BC53" s="0"/>
-      <c r="BD53" s="0"/>
-      <c r="BE53" s="0"/>
-      <c r="BF53" s="0"/>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E54" s="14"/>
-      <c r="F54" s="0"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="0"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
-      <c r="AB54" s="0"/>
-      <c r="AC54" s="0"/>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0"/>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
-      <c r="AK54" s="0"/>
-      <c r="AL54" s="0"/>
-      <c r="AM54" s="0"/>
-      <c r="AN54" s="0"/>
-      <c r="AO54" s="0"/>
-      <c r="AP54" s="0"/>
-      <c r="AQ54" s="0"/>
-      <c r="AR54" s="0"/>
-      <c r="AS54" s="0"/>
-      <c r="AT54" s="0"/>
-      <c r="AU54" s="0"/>
-      <c r="AV54" s="0"/>
-      <c r="AW54" s="0"/>
-      <c r="AX54" s="0"/>
-      <c r="AY54" s="0"/>
-      <c r="AZ54" s="0"/>
-      <c r="BA54" s="0"/>
-      <c r="BB54" s="0"/>
-      <c r="BC54" s="0"/>
-      <c r="BD54" s="0"/>
-      <c r="BE54" s="0"/>
-      <c r="BF54" s="0"/>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E55" s="14"/>
-      <c r="F55" s="0"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="0"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
-      <c r="AB55" s="0"/>
-      <c r="AC55" s="0"/>
-      <c r="AD55" s="0"/>
-      <c r="AE55" s="0"/>
-      <c r="AF55" s="0"/>
-      <c r="AG55" s="0"/>
-      <c r="AH55" s="0"/>
-      <c r="AI55" s="0"/>
-      <c r="AJ55" s="0"/>
-      <c r="AK55" s="0"/>
-      <c r="AL55" s="0"/>
-      <c r="AM55" s="0"/>
-      <c r="AN55" s="0"/>
-      <c r="AO55" s="0"/>
-      <c r="AP55" s="0"/>
-      <c r="AQ55" s="0"/>
-      <c r="AR55" s="0"/>
-      <c r="AS55" s="0"/>
-      <c r="AT55" s="0"/>
-      <c r="AU55" s="0"/>
-      <c r="AV55" s="0"/>
-      <c r="AW55" s="0"/>
-      <c r="AX55" s="0"/>
-      <c r="AY55" s="0"/>
-      <c r="AZ55" s="0"/>
-      <c r="BA55" s="0"/>
-      <c r="BB55" s="0"/>
-      <c r="BC55" s="0"/>
-      <c r="BD55" s="0"/>
-      <c r="BE55" s="0"/>
-      <c r="BF55" s="0"/>
-    </row>
-    <row r="56" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E56" s="14"/>
-      <c r="F56" s="0"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="0"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="0"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0"/>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
-      <c r="AB56" s="0"/>
-      <c r="AC56" s="0"/>
-      <c r="AD56" s="0"/>
-      <c r="AE56" s="0"/>
-      <c r="AF56" s="0"/>
-      <c r="AG56" s="0"/>
-      <c r="AH56" s="0"/>
-      <c r="AI56" s="0"/>
-      <c r="AJ56" s="0"/>
-      <c r="AK56" s="0"/>
-      <c r="AL56" s="0"/>
-      <c r="AM56" s="0"/>
-      <c r="AN56" s="0"/>
-      <c r="AO56" s="0"/>
-      <c r="AP56" s="0"/>
-      <c r="AQ56" s="0"/>
-      <c r="AR56" s="0"/>
-      <c r="AS56" s="0"/>
-      <c r="AT56" s="0"/>
-      <c r="AU56" s="0"/>
-      <c r="AV56" s="0"/>
-      <c r="AW56" s="0"/>
-      <c r="AX56" s="0"/>
-      <c r="AY56" s="0"/>
-      <c r="AZ56" s="0"/>
-      <c r="BA56" s="0"/>
-      <c r="BB56" s="0"/>
-      <c r="BC56" s="0"/>
-      <c r="BD56" s="0"/>
-      <c r="BE56" s="0"/>
-      <c r="BF56" s="0"/>
-    </row>
-    <row r="57" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E57" s="14"/>
-      <c r="F57" s="0"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="0"/>
-      <c r="V57" s="0"/>
-      <c r="W57" s="0"/>
-      <c r="X57" s="0"/>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AA57" s="0"/>
-      <c r="AB57" s="0"/>
-      <c r="AC57" s="0"/>
-      <c r="AD57" s="0"/>
-      <c r="AE57" s="0"/>
-      <c r="AF57" s="0"/>
-      <c r="AG57" s="0"/>
-      <c r="AH57" s="0"/>
-      <c r="AI57" s="0"/>
-      <c r="AJ57" s="0"/>
-      <c r="AK57" s="0"/>
-      <c r="AL57" s="0"/>
-      <c r="AM57" s="0"/>
-      <c r="AN57" s="0"/>
-      <c r="AO57" s="0"/>
-      <c r="AP57" s="0"/>
-      <c r="AQ57" s="0"/>
-      <c r="AR57" s="0"/>
-      <c r="AS57" s="0"/>
-      <c r="AT57" s="0"/>
-      <c r="AU57" s="0"/>
-      <c r="AV57" s="0"/>
-      <c r="AW57" s="0"/>
-      <c r="AX57" s="0"/>
-      <c r="AY57" s="0"/>
-      <c r="AZ57" s="0"/>
-      <c r="BA57" s="0"/>
-      <c r="BB57" s="0"/>
-      <c r="BC57" s="0"/>
-      <c r="BD57" s="0"/>
-      <c r="BE57" s="0"/>
-      <c r="BF57" s="0"/>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E58" s="14"/>
-      <c r="F58" s="0"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="0"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="0"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0"/>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
-      <c r="AB58" s="0"/>
-      <c r="AC58" s="0"/>
-      <c r="AD58" s="0"/>
-      <c r="AE58" s="0"/>
-      <c r="AF58" s="0"/>
-      <c r="AG58" s="0"/>
-      <c r="AH58" s="0"/>
-      <c r="AI58" s="0"/>
-      <c r="AJ58" s="0"/>
-      <c r="AK58" s="0"/>
-      <c r="AL58" s="0"/>
-      <c r="AM58" s="0"/>
-      <c r="AN58" s="0"/>
-      <c r="AO58" s="0"/>
-      <c r="AP58" s="0"/>
-      <c r="AQ58" s="0"/>
-      <c r="AR58" s="0"/>
-      <c r="AS58" s="0"/>
-      <c r="AT58" s="0"/>
-      <c r="AU58" s="0"/>
-      <c r="AV58" s="0"/>
-      <c r="AW58" s="0"/>
-      <c r="AX58" s="0"/>
-      <c r="AY58" s="0"/>
-      <c r="AZ58" s="0"/>
-      <c r="BA58" s="0"/>
-      <c r="BB58" s="0"/>
-      <c r="BC58" s="0"/>
-      <c r="BD58" s="0"/>
-      <c r="BE58" s="0"/>
-      <c r="BF58" s="0"/>
-    </row>
-    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E59" s="14"/>
-      <c r="F59" s="0"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="0"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="0"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0"/>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
-      <c r="AB59" s="0"/>
-      <c r="AC59" s="0"/>
-      <c r="AD59" s="0"/>
-      <c r="AE59" s="0"/>
-      <c r="AF59" s="0"/>
-      <c r="AG59" s="0"/>
-      <c r="AH59" s="0"/>
-      <c r="AI59" s="0"/>
-      <c r="AJ59" s="0"/>
-      <c r="AK59" s="0"/>
-      <c r="AL59" s="0"/>
-      <c r="AM59" s="0"/>
-      <c r="AN59" s="0"/>
-      <c r="AO59" s="0"/>
-      <c r="AP59" s="0"/>
-      <c r="AQ59" s="0"/>
-      <c r="AR59" s="0"/>
-      <c r="AS59" s="0"/>
-      <c r="AT59" s="0"/>
-      <c r="AU59" s="0"/>
-      <c r="AV59" s="0"/>
-      <c r="AW59" s="0"/>
-      <c r="AX59" s="0"/>
-      <c r="AY59" s="0"/>
-      <c r="AZ59" s="0"/>
-      <c r="BA59" s="0"/>
-      <c r="BB59" s="0"/>
-      <c r="BC59" s="0"/>
-      <c r="BD59" s="0"/>
-      <c r="BE59" s="0"/>
-      <c r="BF59" s="0"/>
-    </row>
-    <row r="60" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
       <c r="D60" s="24"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="0"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="0"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="0"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0"/>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
-      <c r="AB60" s="0"/>
-      <c r="AC60" s="0"/>
-      <c r="AD60" s="0"/>
-      <c r="AE60" s="0"/>
-      <c r="AF60" s="0"/>
-      <c r="AG60" s="0"/>
-      <c r="AH60" s="0"/>
-      <c r="AI60" s="0"/>
-      <c r="AJ60" s="0"/>
-      <c r="AK60" s="0"/>
-      <c r="AL60" s="0"/>
-      <c r="AM60" s="0"/>
-      <c r="AN60" s="0"/>
-      <c r="AO60" s="0"/>
-      <c r="AP60" s="0"/>
-      <c r="AQ60" s="0"/>
-      <c r="AR60" s="0"/>
-      <c r="AS60" s="0"/>
-      <c r="AT60" s="0"/>
-      <c r="AU60" s="0"/>
-      <c r="AV60" s="0"/>
-      <c r="AW60" s="0"/>
-      <c r="AX60" s="0"/>
-      <c r="AY60" s="0"/>
-      <c r="AZ60" s="0"/>
-      <c r="BA60" s="0"/>
-      <c r="BB60" s="0"/>
-      <c r="BC60" s="0"/>
-      <c r="BD60" s="0"/>
-      <c r="BE60" s="0"/>
-      <c r="BF60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -5311,57 +4059,57 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
@@ -5374,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="29"/>
@@ -5384,7 +4132,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
@@ -5394,37 +4142,37 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
@@ -5485,10 +4233,10 @@
       <c r="A80" s="0"/>
       <c r="B80" s="0"/>
       <c r="C80" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
@@ -5546,37 +4294,37 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="25"/>
@@ -5586,20 +4334,20 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -5608,10 +4356,10 @@
       <c r="A87" s="0"/>
       <c r="B87" s="0"/>
       <c r="C87" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -5670,7 +4418,7 @@
     </row>
     <row r="88" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="25"/>
@@ -5733,10 +4481,10 @@
       <c r="A89" s="0"/>
       <c r="B89" s="0"/>
       <c r="C89" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="0"/>
@@ -5795,17 +4543,17 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="25"/>
@@ -5819,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="29"/>
@@ -5829,7 +4577,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="25"/>
@@ -5840,20 +4588,20 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E94" s="12"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
@@ -5862,10 +4610,10 @@
       <c r="A96" s="0"/>
       <c r="B96" s="0"/>
       <c r="C96" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="0"/>
@@ -5924,37 +4672,37 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="25"/>
@@ -5968,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="29"/>
@@ -5978,7 +4726,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="25"/>
@@ -5989,117 +4737,117 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E103" s="12"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="25"/>
@@ -6110,37 +4858,37 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -6151,37 +4899,37 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="25"/>
@@ -6280,15 +5028,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,18 +5142,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,71 +5193,71 @@
         <v>6</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -6520,12 +5269,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="19"/>
       <c r="E15" s="12"/>
@@ -6533,111 +5282,111 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -6648,10 +5397,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -6659,10 +5408,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -6670,10 +5419,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -6681,10 +5430,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -6692,10 +5441,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
@@ -6703,20 +5452,20 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E31" s="14"/>
       <c r="G31" s="12"/>
@@ -6725,10 +5474,10 @@
       <c r="A32" s="0"/>
       <c r="B32" s="0"/>
       <c r="C32" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="0"/>
@@ -6736,50 +5485,50 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="26"/>
@@ -6787,7 +5536,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -6798,10 +5547,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="12"/>
@@ -6810,10 +5559,10 @@
       <c r="A40" s="0"/>
       <c r="B40" s="0"/>
       <c r="C40" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="0"/>
@@ -6821,60 +5570,60 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
@@ -6883,10 +5632,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -6947,10 +5696,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -7010,10 +5759,10 @@
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -7070,833 +5819,189 @@
       <c r="BE49" s="0"/>
       <c r="BF49" s="0"/>
     </row>
-    <row r="50" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="24"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="0"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="0"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0"/>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
-      <c r="AB50" s="0"/>
-      <c r="AC50" s="0"/>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
-      <c r="AM50" s="0"/>
-      <c r="AN50" s="0"/>
-      <c r="AO50" s="0"/>
-      <c r="AP50" s="0"/>
-      <c r="AQ50" s="0"/>
-      <c r="AR50" s="0"/>
-      <c r="AS50" s="0"/>
-      <c r="AT50" s="0"/>
-      <c r="AU50" s="0"/>
-      <c r="AV50" s="0"/>
-      <c r="AW50" s="0"/>
-      <c r="AX50" s="0"/>
-      <c r="AY50" s="0"/>
-      <c r="AZ50" s="0"/>
-      <c r="BA50" s="0"/>
-      <c r="BB50" s="0"/>
-      <c r="BC50" s="0"/>
-      <c r="BD50" s="0"/>
-      <c r="BE50" s="0"/>
-      <c r="BF50" s="0"/>
-    </row>
-    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="0"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="0"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
-      <c r="AB51" s="0"/>
-      <c r="AC51" s="0"/>
-      <c r="AD51" s="0"/>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AG51" s="0"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
-      <c r="AL51" s="0"/>
-      <c r="AM51" s="0"/>
-      <c r="AN51" s="0"/>
-      <c r="AO51" s="0"/>
-      <c r="AP51" s="0"/>
-      <c r="AQ51" s="0"/>
-      <c r="AR51" s="0"/>
-      <c r="AS51" s="0"/>
-      <c r="AT51" s="0"/>
-      <c r="AU51" s="0"/>
-      <c r="AV51" s="0"/>
-      <c r="AW51" s="0"/>
-      <c r="AX51" s="0"/>
-      <c r="AY51" s="0"/>
-      <c r="AZ51" s="0"/>
-      <c r="BA51" s="0"/>
-      <c r="BB51" s="0"/>
-      <c r="BC51" s="0"/>
-      <c r="BD51" s="0"/>
-      <c r="BE51" s="0"/>
-      <c r="BF51" s="0"/>
-    </row>
-    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E52" s="14"/>
-      <c r="F52" s="0"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
-      <c r="AO52" s="0"/>
-      <c r="AP52" s="0"/>
-      <c r="AQ52" s="0"/>
-      <c r="AR52" s="0"/>
-      <c r="AS52" s="0"/>
-      <c r="AT52" s="0"/>
-      <c r="AU52" s="0"/>
-      <c r="AV52" s="0"/>
-      <c r="AW52" s="0"/>
-      <c r="AX52" s="0"/>
-      <c r="AY52" s="0"/>
-      <c r="AZ52" s="0"/>
-      <c r="BA52" s="0"/>
-      <c r="BB52" s="0"/>
-      <c r="BC52" s="0"/>
-      <c r="BD52" s="0"/>
-      <c r="BE52" s="0"/>
-      <c r="BF52" s="0"/>
-    </row>
-    <row r="53" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E53" s="14"/>
-      <c r="F53" s="0"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="0"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0"/>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
-      <c r="AB53" s="0"/>
-      <c r="AC53" s="0"/>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0"/>
-      <c r="AI53" s="0"/>
-      <c r="AJ53" s="0"/>
-      <c r="AK53" s="0"/>
-      <c r="AL53" s="0"/>
-      <c r="AM53" s="0"/>
-      <c r="AN53" s="0"/>
-      <c r="AO53" s="0"/>
-      <c r="AP53" s="0"/>
-      <c r="AQ53" s="0"/>
-      <c r="AR53" s="0"/>
-      <c r="AS53" s="0"/>
-      <c r="AT53" s="0"/>
-      <c r="AU53" s="0"/>
-      <c r="AV53" s="0"/>
-      <c r="AW53" s="0"/>
-      <c r="AX53" s="0"/>
-      <c r="AY53" s="0"/>
-      <c r="AZ53" s="0"/>
-      <c r="BA53" s="0"/>
-      <c r="BB53" s="0"/>
-      <c r="BC53" s="0"/>
-      <c r="BD53" s="0"/>
-      <c r="BE53" s="0"/>
-      <c r="BF53" s="0"/>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E54" s="14"/>
-      <c r="F54" s="0"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="0"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
-      <c r="AB54" s="0"/>
-      <c r="AC54" s="0"/>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0"/>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
-      <c r="AK54" s="0"/>
-      <c r="AL54" s="0"/>
-      <c r="AM54" s="0"/>
-      <c r="AN54" s="0"/>
-      <c r="AO54" s="0"/>
-      <c r="AP54" s="0"/>
-      <c r="AQ54" s="0"/>
-      <c r="AR54" s="0"/>
-      <c r="AS54" s="0"/>
-      <c r="AT54" s="0"/>
-      <c r="AU54" s="0"/>
-      <c r="AV54" s="0"/>
-      <c r="AW54" s="0"/>
-      <c r="AX54" s="0"/>
-      <c r="AY54" s="0"/>
-      <c r="AZ54" s="0"/>
-      <c r="BA54" s="0"/>
-      <c r="BB54" s="0"/>
-      <c r="BC54" s="0"/>
-      <c r="BD54" s="0"/>
-      <c r="BE54" s="0"/>
-      <c r="BF54" s="0"/>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E55" s="14"/>
-      <c r="F55" s="0"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="0"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
-      <c r="AB55" s="0"/>
-      <c r="AC55" s="0"/>
-      <c r="AD55" s="0"/>
-      <c r="AE55" s="0"/>
-      <c r="AF55" s="0"/>
-      <c r="AG55" s="0"/>
-      <c r="AH55" s="0"/>
-      <c r="AI55" s="0"/>
-      <c r="AJ55" s="0"/>
-      <c r="AK55" s="0"/>
-      <c r="AL55" s="0"/>
-      <c r="AM55" s="0"/>
-      <c r="AN55" s="0"/>
-      <c r="AO55" s="0"/>
-      <c r="AP55" s="0"/>
-      <c r="AQ55" s="0"/>
-      <c r="AR55" s="0"/>
-      <c r="AS55" s="0"/>
-      <c r="AT55" s="0"/>
-      <c r="AU55" s="0"/>
-      <c r="AV55" s="0"/>
-      <c r="AW55" s="0"/>
-      <c r="AX55" s="0"/>
-      <c r="AY55" s="0"/>
-      <c r="AZ55" s="0"/>
-      <c r="BA55" s="0"/>
-      <c r="BB55" s="0"/>
-      <c r="BC55" s="0"/>
-      <c r="BD55" s="0"/>
-      <c r="BE55" s="0"/>
-      <c r="BF55" s="0"/>
-    </row>
-    <row r="56" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E56" s="14"/>
-      <c r="F56" s="0"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="0"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="0"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0"/>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
-      <c r="AB56" s="0"/>
-      <c r="AC56" s="0"/>
-      <c r="AD56" s="0"/>
-      <c r="AE56" s="0"/>
-      <c r="AF56" s="0"/>
-      <c r="AG56" s="0"/>
-      <c r="AH56" s="0"/>
-      <c r="AI56" s="0"/>
-      <c r="AJ56" s="0"/>
-      <c r="AK56" s="0"/>
-      <c r="AL56" s="0"/>
-      <c r="AM56" s="0"/>
-      <c r="AN56" s="0"/>
-      <c r="AO56" s="0"/>
-      <c r="AP56" s="0"/>
-      <c r="AQ56" s="0"/>
-      <c r="AR56" s="0"/>
-      <c r="AS56" s="0"/>
-      <c r="AT56" s="0"/>
-      <c r="AU56" s="0"/>
-      <c r="AV56" s="0"/>
-      <c r="AW56" s="0"/>
-      <c r="AX56" s="0"/>
-      <c r="AY56" s="0"/>
-      <c r="AZ56" s="0"/>
-      <c r="BA56" s="0"/>
-      <c r="BB56" s="0"/>
-      <c r="BC56" s="0"/>
-      <c r="BD56" s="0"/>
-      <c r="BE56" s="0"/>
-      <c r="BF56" s="0"/>
-    </row>
-    <row r="57" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E57" s="14"/>
-      <c r="F57" s="0"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="0"/>
-      <c r="V57" s="0"/>
-      <c r="W57" s="0"/>
-      <c r="X57" s="0"/>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AA57" s="0"/>
-      <c r="AB57" s="0"/>
-      <c r="AC57" s="0"/>
-      <c r="AD57" s="0"/>
-      <c r="AE57" s="0"/>
-      <c r="AF57" s="0"/>
-      <c r="AG57" s="0"/>
-      <c r="AH57" s="0"/>
-      <c r="AI57" s="0"/>
-      <c r="AJ57" s="0"/>
-      <c r="AK57" s="0"/>
-      <c r="AL57" s="0"/>
-      <c r="AM57" s="0"/>
-      <c r="AN57" s="0"/>
-      <c r="AO57" s="0"/>
-      <c r="AP57" s="0"/>
-      <c r="AQ57" s="0"/>
-      <c r="AR57" s="0"/>
-      <c r="AS57" s="0"/>
-      <c r="AT57" s="0"/>
-      <c r="AU57" s="0"/>
-      <c r="AV57" s="0"/>
-      <c r="AW57" s="0"/>
-      <c r="AX57" s="0"/>
-      <c r="AY57" s="0"/>
-      <c r="AZ57" s="0"/>
-      <c r="BA57" s="0"/>
-      <c r="BB57" s="0"/>
-      <c r="BC57" s="0"/>
-      <c r="BD57" s="0"/>
-      <c r="BE57" s="0"/>
-      <c r="BF57" s="0"/>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E58" s="14"/>
-      <c r="F58" s="0"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="0"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="0"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0"/>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
-      <c r="AB58" s="0"/>
-      <c r="AC58" s="0"/>
-      <c r="AD58" s="0"/>
-      <c r="AE58" s="0"/>
-      <c r="AF58" s="0"/>
-      <c r="AG58" s="0"/>
-      <c r="AH58" s="0"/>
-      <c r="AI58" s="0"/>
-      <c r="AJ58" s="0"/>
-      <c r="AK58" s="0"/>
-      <c r="AL58" s="0"/>
-      <c r="AM58" s="0"/>
-      <c r="AN58" s="0"/>
-      <c r="AO58" s="0"/>
-      <c r="AP58" s="0"/>
-      <c r="AQ58" s="0"/>
-      <c r="AR58" s="0"/>
-      <c r="AS58" s="0"/>
-      <c r="AT58" s="0"/>
-      <c r="AU58" s="0"/>
-      <c r="AV58" s="0"/>
-      <c r="AW58" s="0"/>
-      <c r="AX58" s="0"/>
-      <c r="AY58" s="0"/>
-      <c r="AZ58" s="0"/>
-      <c r="BA58" s="0"/>
-      <c r="BB58" s="0"/>
-      <c r="BC58" s="0"/>
-      <c r="BD58" s="0"/>
-      <c r="BE58" s="0"/>
-      <c r="BF58" s="0"/>
-    </row>
-    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E59" s="14"/>
-      <c r="F59" s="0"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="0"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="0"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0"/>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
-      <c r="AB59" s="0"/>
-      <c r="AC59" s="0"/>
-      <c r="AD59" s="0"/>
-      <c r="AE59" s="0"/>
-      <c r="AF59" s="0"/>
-      <c r="AG59" s="0"/>
-      <c r="AH59" s="0"/>
-      <c r="AI59" s="0"/>
-      <c r="AJ59" s="0"/>
-      <c r="AK59" s="0"/>
-      <c r="AL59" s="0"/>
-      <c r="AM59" s="0"/>
-      <c r="AN59" s="0"/>
-      <c r="AO59" s="0"/>
-      <c r="AP59" s="0"/>
-      <c r="AQ59" s="0"/>
-      <c r="AR59" s="0"/>
-      <c r="AS59" s="0"/>
-      <c r="AT59" s="0"/>
-      <c r="AU59" s="0"/>
-      <c r="AV59" s="0"/>
-      <c r="AW59" s="0"/>
-      <c r="AX59" s="0"/>
-      <c r="AY59" s="0"/>
-      <c r="AZ59" s="0"/>
-      <c r="BA59" s="0"/>
-      <c r="BB59" s="0"/>
-      <c r="BC59" s="0"/>
-      <c r="BD59" s="0"/>
-      <c r="BE59" s="0"/>
-      <c r="BF59" s="0"/>
-    </row>
-    <row r="60" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E60" s="14"/>
-      <c r="F60" s="0"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="0"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="0"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0"/>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
-      <c r="AB60" s="0"/>
-      <c r="AC60" s="0"/>
-      <c r="AD60" s="0"/>
-      <c r="AE60" s="0"/>
-      <c r="AF60" s="0"/>
-      <c r="AG60" s="0"/>
-      <c r="AH60" s="0"/>
-      <c r="AI60" s="0"/>
-      <c r="AJ60" s="0"/>
-      <c r="AK60" s="0"/>
-      <c r="AL60" s="0"/>
-      <c r="AM60" s="0"/>
-      <c r="AN60" s="0"/>
-      <c r="AO60" s="0"/>
-      <c r="AP60" s="0"/>
-      <c r="AQ60" s="0"/>
-      <c r="AR60" s="0"/>
-      <c r="AS60" s="0"/>
-      <c r="AT60" s="0"/>
-      <c r="AU60" s="0"/>
-      <c r="AV60" s="0"/>
-      <c r="AW60" s="0"/>
-      <c r="AX60" s="0"/>
-      <c r="AY60" s="0"/>
-      <c r="AZ60" s="0"/>
-      <c r="BA60" s="0"/>
-      <c r="BB60" s="0"/>
-      <c r="BC60" s="0"/>
-      <c r="BD60" s="0"/>
-      <c r="BE60" s="0"/>
-      <c r="BF60" s="0"/>
-    </row>
-    <row r="61" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="24"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="0"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="0"/>
-      <c r="N61" s="0"/>
-      <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-      <c r="U61" s="0"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
-      <c r="X61" s="0"/>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0"/>
-      <c r="AA61" s="0"/>
-      <c r="AB61" s="0"/>
-      <c r="AC61" s="0"/>
-      <c r="AD61" s="0"/>
-      <c r="AE61" s="0"/>
-      <c r="AF61" s="0"/>
-      <c r="AG61" s="0"/>
-      <c r="AH61" s="0"/>
-      <c r="AI61" s="0"/>
-      <c r="AJ61" s="0"/>
-      <c r="AK61" s="0"/>
-      <c r="AL61" s="0"/>
-      <c r="AM61" s="0"/>
-      <c r="AN61" s="0"/>
-      <c r="AO61" s="0"/>
-      <c r="AP61" s="0"/>
-      <c r="AQ61" s="0"/>
-      <c r="AR61" s="0"/>
-      <c r="AS61" s="0"/>
-      <c r="AT61" s="0"/>
-      <c r="AU61" s="0"/>
-      <c r="AV61" s="0"/>
-      <c r="AW61" s="0"/>
-      <c r="AX61" s="0"/>
-      <c r="AY61" s="0"/>
-      <c r="AZ61" s="0"/>
-      <c r="BA61" s="0"/>
-      <c r="BB61" s="0"/>
-      <c r="BC61" s="0"/>
-      <c r="BD61" s="0"/>
-      <c r="BE61" s="0"/>
-      <c r="BF61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -7906,57 +6011,57 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
@@ -7969,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="29"/>
@@ -7979,7 +6084,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
@@ -7989,37 +6094,37 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
     <row r="80" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
@@ -8080,10 +6185,10 @@
       <c r="A81" s="0"/>
       <c r="B81" s="0"/>
       <c r="C81" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -8141,37 +6246,37 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
@@ -8181,20 +6286,20 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
@@ -8203,10 +6308,10 @@
       <c r="A88" s="0"/>
       <c r="B88" s="0"/>
       <c r="C88" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -8265,7 +6370,7 @@
     </row>
     <row r="89" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="25"/>
@@ -8328,10 +6433,10 @@
       <c r="A90" s="0"/>
       <c r="B90" s="0"/>
       <c r="C90" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -8390,17 +6495,17 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="25"/>
@@ -8414,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="29"/>
@@ -8424,7 +6529,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="25"/>
@@ -8435,20 +6540,20 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E96" s="12"/>
       <c r="G96" s="12"/>
@@ -8457,10 +6562,10 @@
       <c r="A97" s="0"/>
       <c r="B97" s="0"/>
       <c r="C97" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="0"/>
@@ -8519,37 +6624,37 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="25"/>
@@ -8563,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C102" s="31"/>
       <c r="D102" s="29"/>
@@ -8573,7 +6678,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="25"/>
@@ -8584,117 +6689,117 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="25"/>
@@ -8705,37 +6810,37 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="25"/>
@@ -8746,37 +6851,37 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="25"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="174">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -181,400 +181,461 @@
     <t xml:space="preserve">WEBSITE</t>
   </si>
   <si>
+    <t xml:space="preserve">https://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:http://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:http://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINKEDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/mjbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking to work from Grenoble as Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:NFV Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLOYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical expert in areas of Cloud Native, Containers, Cloud, Virtualization, NFV, SDN, Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: 09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP CMS - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect/Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP OCBU - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech Lead/Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Research Labs - UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages and Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ. Of Hull,  UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Firth prize for electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startup Weekend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2012-Nov 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> place: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.archionline.com/</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running, cycling, Roller blading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://mjbright.github.io</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr:http://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:http://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINKEDIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.linkedin.com/in/mjbright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looking to work from Grenoble as Solution Architect around Cloud Native, Container technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:NFV Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLOYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECTIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical expert in areas of Cloud Native, Containers, Cloud, Virtualization, NFV, SDN, Networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPERIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: 09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP CMS - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect/Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP OCBU - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech Lead/Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of Technical Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Research Labs - UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
+    <t xml:space="preserve">Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE EG presales – Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloudNative in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (Container Orchestration, Docker, Unikernels)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on GCE, AWS, Azure, DigitalOcean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Evangelisme Conteneurs (Docker)</t>
   </si>
   <si>
     <t xml:space="preserve">PaaS Google App Engine, OpenShift, Heroku</t>
   </si>
   <si>
-    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages and Paradigms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
-  </si>
-  <si>
     <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi, BeagleBone</t>
   </si>
   <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Virtualization (vSphere/PySphere, KVM-Qemu, VirtualBox)</t>
   </si>
   <si>
-    <t xml:space="preserve">Foreign Languages</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fluency in French, basic fluency in Italian, Spanish.</t>
   </si>
   <si>
-    <t xml:space="preserve">EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Of Hull,  UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Firth prize for electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
-  </si>
-  <si>
     <t xml:space="preserve">#LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport / Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running, cycling, Roller blading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE EG presales – Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloudNative in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (Container Orchestration, Docker, Unikernels)  presentations and labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on GCE, AWS, Azure, DigitalOcean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Evangelisme Conteneurs (Docker)</t>
   </si>
   <si>
     <t xml:space="preserve">ATC</t>
@@ -616,7 +677,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="MMM\-YY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -676,6 +737,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -808,7 +883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -945,6 +1020,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1025,6 +1104,21 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="WeeklyCalendar"/>
+      <sheetName val="Formulas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Sport-06"/>
       <sheetName val="Sport"/>
       <sheetName val="KDO"/>
@@ -1100,21 +1194,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="WeeklyCalendar"/>
-      <sheetName val="Formulas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1123,21 +1202,21 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,7 +2891,7 @@
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="15" t="s">
         <v>62</v>
       </c>
@@ -2826,7 +2905,7 @@
       <c r="C108" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="34" t="s">
         <v>133</v>
       </c>
       <c r="E108" s="12"/>
@@ -2883,72 +2962,72 @@
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="D114" s="34" t="s">
-        <v>140</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D115" s="34" t="s">
-        <v>141</v>
+        <v>62</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>142</v>
+        <v>62</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="23" t="s">
+      <c r="C117" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="13" t="s">
+      <c r="B118" s="24"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D119" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>144</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>145</v>
+    <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -2969,7 +3048,7 @@
         <v>34</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>
@@ -2979,7 +3058,7 @@
         <v>62</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E123" s="12"/>
       <c r="G123" s="12"/>
@@ -2989,7 +3068,7 @@
         <v>62</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E124" s="12"/>
       <c r="G124" s="12"/>
@@ -3002,12 +3081,49 @@
       <c r="C125" s="25"/>
       <c r="D125" s="24"/>
       <c r="E125" s="12"/>
+      <c r="F125" s="24"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="12"/>
+      <c r="G129" s="12"/>
+    </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3049,10 +3165,10 @@
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3067,6 +3183,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D107" r:id="rId1" display="https://mjbright.github.io/Talks"/>
+    <hyperlink ref="D120" r:id="rId2" display="https://www.archionline.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3091,16 +3208,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3341,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
@@ -3332,7 +3449,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
@@ -3345,7 +3462,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="21" t="s">
@@ -3358,7 +3475,7 @@
         <v>53</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="15" t="s">
@@ -3397,7 +3514,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
@@ -3410,7 +3527,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -3423,11 +3540,11 @@
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -4155,7 +4272,7 @@
         <v>62</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
@@ -4317,7 +4434,7 @@
         <v>62</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -4359,7 +4476,7 @@
         <v>62</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -4546,7 +4663,7 @@
         <v>62</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -4760,7 +4877,7 @@
         <v>62</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
@@ -4770,7 +4887,7 @@
         <v>62</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
@@ -4780,7 +4897,7 @@
         <v>62</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
@@ -4790,7 +4907,7 @@
         <v>62</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
@@ -4800,7 +4917,7 @@
         <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
@@ -4810,16 +4927,16 @@
         <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D111" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="35" t="s">
         <v>140</v>
       </c>
       <c r="E111" s="12"/>
@@ -4827,9 +4944,9 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D112" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" s="35" t="s">
         <v>141</v>
       </c>
       <c r="E112" s="12"/>
@@ -4837,9 +4954,9 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D113" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="35" t="s">
         <v>142</v>
       </c>
       <c r="E113" s="12"/>
@@ -4861,7 +4978,7 @@
         <v>34</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
@@ -4871,7 +4988,7 @@
         <v>62</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
@@ -4881,7 +4998,7 @@
         <v>62</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -4902,7 +5019,7 @@
         <v>34</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
@@ -4912,7 +5029,7 @@
         <v>62</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -4922,7 +5039,7 @@
         <v>62</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -5028,16 +5145,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,18 +5259,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,7 +5294,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
@@ -5209,7 +5326,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
@@ -5257,7 +5374,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -5285,7 +5402,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
@@ -5298,7 +5415,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="21" t="s">
@@ -5311,7 +5428,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="15" t="s">
@@ -5350,7 +5467,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -5363,7 +5480,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -5376,11 +5493,11 @@
         <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -6107,7 +6224,7 @@
         <v>62</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -6269,7 +6386,7 @@
         <v>62</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -6311,7 +6428,7 @@
         <v>62</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -6498,7 +6615,7 @@
         <v>62</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -6712,7 +6829,7 @@
         <v>62</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
@@ -6722,7 +6839,7 @@
         <v>62</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
@@ -6732,7 +6849,7 @@
         <v>62</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
@@ -6742,7 +6859,7 @@
         <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
@@ -6752,7 +6869,7 @@
         <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
@@ -6762,16 +6879,16 @@
         <v>62</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D112" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" s="35" t="s">
         <v>140</v>
       </c>
       <c r="E112" s="12"/>
@@ -6779,9 +6896,9 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D113" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="35" t="s">
         <v>141</v>
       </c>
       <c r="E113" s="12"/>
@@ -6789,9 +6906,9 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D114" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D114" s="35" t="s">
         <v>142</v>
       </c>
       <c r="E114" s="12"/>
@@ -6813,7 +6930,7 @@
         <v>34</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
@@ -6823,7 +6940,7 @@
         <v>62</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -6833,7 +6950,7 @@
         <v>62</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
@@ -6854,7 +6971,7 @@
         <v>34</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -6864,7 +6981,7 @@
         <v>62</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -6874,7 +6991,7 @@
         <v>62</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -199,7 +199,7 @@
     <t xml:space="preserve">GOAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Looking to work from Grenoble as Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
+    <t xml:space="preserve">Objective - Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
   </si>
   <si>
     <t xml:space="preserve">Michael Bright</t>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -9,12 +9,13 @@
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CV.fails" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CV_2017-Mars_ATC" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CV_2017_Jul_RedHat_AnsibleSpecialiste" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CV.fails" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CV_2017-Mars_ATC" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" name="ampm" vbProcedure="false">[2]Formulas!$C$31:$C$72</definedName>
@@ -60,9 +61,9 @@
     <definedName function="false" hidden="false" name="WeekNo" vbProcedure="false">[2]Formulas!$A$21:$A$27</definedName>
     <definedName function="false" hidden="false" name="year" vbProcedure="false">[2]Formulas!$H$6</definedName>
     <definedName function="false" hidden="false" name="_DAY1" vbProcedure="false">[1]W1!$C$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="GAIN" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="GAIN2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MONINT" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="GAIN" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="GAIN2" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MONINT" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,7 +74,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="175">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -145,458 +146,424 @@
     <t xml:space="preserve">CERTIFICATION</t>
   </si>
   <si>
+    <t xml:space="preserve">CNCF Kubernetes CKA, RHCE, RHCSA, HPE Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:RHCE, RHCSA, HP Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:RHCE, RHCSA, HP Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+33 (0)672991647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:+33 (0)67299 1647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:+33 (0)67299 1647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv@mjbright.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:cv@mjbright.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:cv@mjbright.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBSITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:http://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:http://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINKEDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/mjbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective - Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:NFV Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLOYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical expert in areas of Cloud Native, Containers, Cloud, Virtualization, NFV, SDN, Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: 09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP CMS - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect/Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP OCBU - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech Lead/Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Research Labs - UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages and Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ. Of Hull,  UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Firth prize for electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startup Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-Nov 2nd place: https://www.archionline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running, cycling, Roller blading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
     <t xml:space="preserve">RHCE, RHCSA, HPE Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:RHCE, RHCSA, HP Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:RHCE, RHCSA, HP Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+33 (0)672991647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:+33 (0)67299 1647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:+33 (0)67299 1647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cv@mjbright.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:cv@mjbright.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:cv@mjbright.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBSITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:http://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:http://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINKEDIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.linkedin.com/in/mjbright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective - Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:NFV Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLOYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECTIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical expert in areas of Cloud Native, Containers, Cloud, Virtualization, NFV, SDN, Networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPERIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: 09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP CMS - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect/Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP OCBU - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech Lead/Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of Technical Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Research Labs - UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages and Paradigms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Of Hull,  UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Firth prize for electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Startup Weekend</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2012-Nov 2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> place: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.archionline.com/</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport / Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running, cycling, Roller blading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
   </si>
   <si>
     <t xml:space="preserve">http://mjbright.github.io</t>
@@ -677,7 +644,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="MMM\-YY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -744,13 +711,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -883,7 +843,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1028,6 +988,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1101,21 +1065,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="WeeklyCalendar"/>
-      <sheetName val="Formulas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1194,6 +1143,21 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="WeeklyCalendar"/>
+      <sheetName val="Formulas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1202,21 +1166,21 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,7 +2990,7 @@
       <c r="C120" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="36" t="s">
         <v>144</v>
       </c>
       <c r="E120" s="12"/>
@@ -3183,7 +3147,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D107" r:id="rId1" display="https://mjbright.github.io/Talks"/>
-    <hyperlink ref="D120" r:id="rId2" display="https://www.archionline.com/"/>
+    <hyperlink ref="D120" r:id="rId2" display="2012-Nov 2nd place: https://www.archionline.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3203,21 +3167,21 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,7 +3257,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -3341,7 +3305,2008 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="26"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="G31" s="26"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="G39" s="26"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
+      <c r="X49" s="0"/>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AF49" s="0"/>
+      <c r="AG49" s="0"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
+      <c r="AN49" s="0"/>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+      <c r="AU49" s="0"/>
+      <c r="AV49" s="0"/>
+      <c r="AW49" s="0"/>
+      <c r="AX49" s="0"/>
+      <c r="AY49" s="0"/>
+      <c r="AZ49" s="0"/>
+      <c r="BA49" s="0"/>
+      <c r="BB49" s="0"/>
+      <c r="BC49" s="0"/>
+      <c r="BD49" s="0"/>
+      <c r="BE49" s="0"/>
+      <c r="BF49" s="0"/>
+    </row>
+    <row r="50" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="0"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="7"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="7"/>
+      <c r="BF50" s="7"/>
+    </row>
+    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+      <c r="AE51" s="0"/>
+      <c r="AF51" s="0"/>
+      <c r="AG51" s="0"/>
+      <c r="AH51" s="0"/>
+      <c r="AI51" s="0"/>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="0"/>
+      <c r="AN51" s="0"/>
+      <c r="AO51" s="0"/>
+      <c r="AP51" s="0"/>
+      <c r="AQ51" s="0"/>
+      <c r="AR51" s="0"/>
+      <c r="AS51" s="0"/>
+      <c r="AT51" s="0"/>
+      <c r="AU51" s="0"/>
+      <c r="AV51" s="0"/>
+      <c r="AW51" s="0"/>
+      <c r="AX51" s="0"/>
+      <c r="AY51" s="0"/>
+      <c r="AZ51" s="0"/>
+      <c r="BA51" s="0"/>
+      <c r="BB51" s="0"/>
+      <c r="BC51" s="0"/>
+      <c r="BD51" s="0"/>
+      <c r="BE51" s="0"/>
+      <c r="BF51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="14"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="14"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="14"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="14"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="7"/>
+      <c r="AY82" s="7"/>
+      <c r="AZ82" s="7"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7"/>
+      <c r="BC82" s="7"/>
+      <c r="BD82" s="7"/>
+      <c r="BE82" s="7"/>
+      <c r="BF82" s="7"/>
+    </row>
+    <row r="83" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0"/>
+      <c r="B83" s="0"/>
+      <c r="C83" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="0"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0"/>
+      <c r="U83" s="0"/>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0"/>
+      <c r="X83" s="0"/>
+      <c r="Y83" s="0"/>
+      <c r="Z83" s="0"/>
+      <c r="AA83" s="0"/>
+      <c r="AB83" s="0"/>
+      <c r="AC83" s="0"/>
+      <c r="AD83" s="0"/>
+      <c r="AE83" s="0"/>
+      <c r="AF83" s="0"/>
+      <c r="AG83" s="0"/>
+      <c r="AH83" s="0"/>
+      <c r="AI83" s="0"/>
+      <c r="AJ83" s="0"/>
+      <c r="AK83" s="0"/>
+      <c r="AL83" s="0"/>
+      <c r="AM83" s="0"/>
+      <c r="AN83" s="0"/>
+      <c r="AO83" s="0"/>
+      <c r="AP83" s="0"/>
+      <c r="AQ83" s="0"/>
+      <c r="AR83" s="0"/>
+      <c r="AS83" s="0"/>
+      <c r="AT83" s="0"/>
+      <c r="AU83" s="0"/>
+      <c r="AV83" s="0"/>
+      <c r="AW83" s="0"/>
+      <c r="AX83" s="0"/>
+      <c r="AY83" s="0"/>
+      <c r="AZ83" s="0"/>
+      <c r="BA83" s="0"/>
+      <c r="BB83" s="0"/>
+      <c r="BC83" s="0"/>
+      <c r="BD83" s="0"/>
+      <c r="BE83" s="0"/>
+      <c r="BF83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="12"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="0"/>
+      <c r="C90" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="0"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="0"/>
+      <c r="I90" s="0"/>
+      <c r="J90" s="0"/>
+      <c r="K90" s="0"/>
+      <c r="L90" s="0"/>
+      <c r="M90" s="0"/>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
+      <c r="R90" s="0"/>
+      <c r="S90" s="0"/>
+      <c r="T90" s="0"/>
+      <c r="U90" s="0"/>
+      <c r="V90" s="0"/>
+      <c r="W90" s="0"/>
+      <c r="X90" s="0"/>
+      <c r="Y90" s="0"/>
+      <c r="Z90" s="0"/>
+      <c r="AA90" s="0"/>
+      <c r="AB90" s="0"/>
+      <c r="AC90" s="0"/>
+      <c r="AD90" s="0"/>
+      <c r="AE90" s="0"/>
+      <c r="AF90" s="0"/>
+      <c r="AG90" s="0"/>
+      <c r="AH90" s="0"/>
+      <c r="AI90" s="0"/>
+      <c r="AJ90" s="0"/>
+      <c r="AK90" s="0"/>
+      <c r="AL90" s="0"/>
+      <c r="AM90" s="0"/>
+      <c r="AN90" s="0"/>
+      <c r="AO90" s="0"/>
+      <c r="AP90" s="0"/>
+      <c r="AQ90" s="0"/>
+      <c r="AR90" s="0"/>
+      <c r="AS90" s="0"/>
+      <c r="AT90" s="0"/>
+      <c r="AU90" s="0"/>
+      <c r="AV90" s="0"/>
+      <c r="AW90" s="0"/>
+      <c r="AX90" s="0"/>
+      <c r="AY90" s="0"/>
+      <c r="AZ90" s="0"/>
+      <c r="BA90" s="0"/>
+      <c r="BB90" s="0"/>
+      <c r="BC90" s="0"/>
+      <c r="BD90" s="0"/>
+      <c r="BE90" s="0"/>
+      <c r="BF90" s="0"/>
+    </row>
+    <row r="91" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="7"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="7"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
+      <c r="BF91" s="7"/>
+    </row>
+    <row r="92" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+      <c r="R92" s="0"/>
+      <c r="S92" s="0"/>
+      <c r="T92" s="0"/>
+      <c r="U92" s="0"/>
+      <c r="V92" s="0"/>
+      <c r="W92" s="0"/>
+      <c r="X92" s="0"/>
+      <c r="Y92" s="0"/>
+      <c r="Z92" s="0"/>
+      <c r="AA92" s="0"/>
+      <c r="AB92" s="0"/>
+      <c r="AC92" s="0"/>
+      <c r="AD92" s="0"/>
+      <c r="AE92" s="0"/>
+      <c r="AF92" s="0"/>
+      <c r="AG92" s="0"/>
+      <c r="AH92" s="0"/>
+      <c r="AI92" s="0"/>
+      <c r="AJ92" s="0"/>
+      <c r="AK92" s="0"/>
+      <c r="AL92" s="0"/>
+      <c r="AM92" s="0"/>
+      <c r="AN92" s="0"/>
+      <c r="AO92" s="0"/>
+      <c r="AP92" s="0"/>
+      <c r="AQ92" s="0"/>
+      <c r="AR92" s="0"/>
+      <c r="AS92" s="0"/>
+      <c r="AT92" s="0"/>
+      <c r="AU92" s="0"/>
+      <c r="AV92" s="0"/>
+      <c r="AW92" s="0"/>
+      <c r="AX92" s="0"/>
+      <c r="AY92" s="0"/>
+      <c r="AZ92" s="0"/>
+      <c r="BA92" s="0"/>
+      <c r="BB92" s="0"/>
+      <c r="BC92" s="0"/>
+      <c r="BD92" s="0"/>
+      <c r="BE92" s="0"/>
+      <c r="BF92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0"/>
+      <c r="U99" s="0"/>
+      <c r="V99" s="0"/>
+      <c r="W99" s="0"/>
+      <c r="X99" s="0"/>
+      <c r="Y99" s="0"/>
+      <c r="Z99" s="0"/>
+      <c r="AA99" s="0"/>
+      <c r="AB99" s="0"/>
+      <c r="AC99" s="0"/>
+      <c r="AD99" s="0"/>
+      <c r="AE99" s="0"/>
+      <c r="AF99" s="0"/>
+      <c r="AG99" s="0"/>
+      <c r="AH99" s="0"/>
+      <c r="AI99" s="0"/>
+      <c r="AJ99" s="0"/>
+      <c r="AK99" s="0"/>
+      <c r="AL99" s="0"/>
+      <c r="AM99" s="0"/>
+      <c r="AN99" s="0"/>
+      <c r="AO99" s="0"/>
+      <c r="AP99" s="0"/>
+      <c r="AQ99" s="0"/>
+      <c r="AR99" s="0"/>
+      <c r="AS99" s="0"/>
+      <c r="AT99" s="0"/>
+      <c r="AU99" s="0"/>
+      <c r="AV99" s="0"/>
+      <c r="AW99" s="0"/>
+      <c r="AX99" s="0"/>
+      <c r="AY99" s="0"/>
+      <c r="AZ99" s="0"/>
+      <c r="BA99" s="0"/>
+      <c r="BB99" s="0"/>
+      <c r="BC99" s="0"/>
+      <c r="BD99" s="0"/>
+      <c r="BE99" s="0"/>
+      <c r="BF99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="31"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="24"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="12"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D107" r:id="rId1" display="https://mjbright.github.io/Talks"/>
+    <hyperlink ref="D120" r:id="rId2" display="2012-Nov 2nd place: https://www.archionline.com/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:BF65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>151</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
@@ -3449,7 +5414,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
@@ -3462,7 +5427,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="21" t="s">
@@ -3475,7 +5440,7 @@
         <v>53</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="15" t="s">
@@ -3514,7 +5479,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
@@ -3527,7 +5492,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -3540,11 +5505,11 @@
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -4272,7 +6237,7 @@
         <v>62</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
@@ -4434,7 +6399,7 @@
         <v>62</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -4476,7 +6441,7 @@
         <v>62</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -4663,7 +6628,7 @@
         <v>62</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -4934,7 +6899,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D111" s="35" t="s">
         <v>140</v>
@@ -4944,7 +6909,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D112" s="35" t="s">
         <v>141</v>
@@ -4954,7 +6919,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D113" s="35" t="s">
         <v>142</v>
@@ -5132,7 +7097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -5145,16 +7110,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,7 +7195,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -5259,18 +7224,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,7 +7259,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
@@ -5326,7 +7291,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
@@ -5374,7 +7339,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -5402,7 +7367,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
@@ -5415,7 +7380,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="21" t="s">
@@ -5428,7 +7393,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="15" t="s">
@@ -5467,7 +7432,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -5480,7 +7445,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -5493,11 +7458,11 @@
         <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -6224,7 +8189,7 @@
         <v>62</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -6386,7 +8351,7 @@
         <v>62</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -6428,7 +8393,7 @@
         <v>62</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -6615,7 +8580,7 @@
         <v>62</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -6886,7 +8851,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D112" s="35" t="s">
         <v>140</v>
@@ -6896,7 +8861,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D113" s="35" t="s">
         <v>141</v>
@@ -6906,7 +8871,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D114" s="35" t="s">
         <v>142</v>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="179">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">CERTIFICATION</t>
   </si>
   <si>
-    <t xml:space="preserve">CNCF Kubernetes CKA, RHCE, RHCSA, HPE Expert One SDN Apps</t>
+    <t xml:space="preserve">(2017) CNCF Kubernetes CKA, (2013) RHCE, RHCSA, (2015) HPE Expert One SDN Apps</t>
   </si>
   <si>
     <t xml:space="preserve">Fr:RHCE, RHCSA, HP Expert One SDN Apps</t>
@@ -200,370 +200,382 @@
     <t xml:space="preserve">GOAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective - Pre-sales Solution Architect or Technical Lead on Cloud Native, Container and Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:NFV Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLOYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical expert in areas of Cloud Native, Containers, Cloud, Virtualization, NFV, SDN, Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: 09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (CaaS, PaaS, Serverless, DevOps, u-services, Unikernel)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoC Management for with NFV partners, OpenStack hands-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GCE, AWS, Azure, Orchestration/Automation (Heat, Ansible, Vagrant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP CMS - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect/Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP OCBU - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech Lead/Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Research Labs - UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages and Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ. Of Hull,  UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Firth prize for electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startup Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-Nov 2nd place: https://www.archionline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running, cycling, Roller blading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHCE, RHCSA, HPE Expert One SDN Apps</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective - Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:NFV Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLOYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECTIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical expert in areas of Cloud Native, Containers, Cloud, Virtualization, NFV, SDN, Networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPERIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: 09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISTITEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
   </si>
   <si>
-    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP CMS - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect/Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP OCBU - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech Lead/Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of Technical Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Research Labs - UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages and Paradigms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Of Hull,  UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Firth prize for electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Startup Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-Nov 2nd place: https://www.archionline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport / Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running, cycling, Roller blading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHCE, RHCSA, HPE Expert One SDN Apps</t>
   </si>
   <si>
     <t xml:space="preserve">http://mjbright.github.io</t>
@@ -1166,7 +1178,7 @@
   <dimension ref="A1:BF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3333,7 +3345,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13"/>
@@ -3502,7 +3514,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -3525,7 +3537,7 @@
         <v>62</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="0" t="s">
@@ -3538,7 +3550,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5306,7 +5318,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
@@ -5414,7 +5426,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
@@ -5427,7 +5439,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="21" t="s">
@@ -5440,7 +5452,7 @@
         <v>53</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="15" t="s">
@@ -5479,7 +5491,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
@@ -5492,7 +5504,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -5505,11 +5517,11 @@
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -6237,7 +6249,7 @@
         <v>62</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
@@ -6399,7 +6411,7 @@
         <v>62</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -6441,7 +6453,7 @@
         <v>62</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -6628,7 +6640,7 @@
         <v>62</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -6899,7 +6911,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D111" s="35" t="s">
         <v>140</v>
@@ -6909,7 +6921,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D112" s="35" t="s">
         <v>141</v>
@@ -6919,7 +6931,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D113" s="35" t="s">
         <v>142</v>
@@ -7224,18 +7236,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,7 +7271,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
@@ -7291,7 +7303,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
@@ -7339,7 +7351,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -7367,7 +7379,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
@@ -7380,7 +7392,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="21" t="s">
@@ -7393,7 +7405,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="15" t="s">
@@ -7432,7 +7444,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -7445,7 +7457,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -7458,11 +7470,11 @@
         <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -8189,7 +8201,7 @@
         <v>62</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -8351,7 +8363,7 @@
         <v>62</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -8393,7 +8405,7 @@
         <v>62</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -8580,7 +8592,7 @@
         <v>62</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -8851,7 +8863,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D112" s="35" t="s">
         <v>140</v>
@@ -8861,7 +8873,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D113" s="35" t="s">
         <v>141</v>
@@ -8871,7 +8883,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D114" s="35" t="s">
         <v>142</v>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="188">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -146,15 +146,21 @@
     <t xml:space="preserve">CERTIFICATION</t>
   </si>
   <si>
+    <t xml:space="preserve">CNCF Kubernetes CKA, RHCE, RHCSA, HPE Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:RHCE, RHCSA, HP Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:RHCE, RHCSA, HP Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETAILS_CERTIFICATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">(2017) CNCF Kubernetes CKA, (2013) RHCE, RHCSA, (2015) HPE Expert One SDN Apps</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr:RHCE, RHCSA, HP Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:RHCE, RHCSA, HP Expert One SDN Apps</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHONE</t>
   </si>
   <si>
@@ -248,334 +254,355 @@
     <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
   </si>
   <si>
+    <t xml:space="preserve">EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: 09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (CaaS, PaaS, Serverless, DevOps, u-services, Unikernel)  presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoC Management with NFV partners, OpenStack hands-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCE, AWS, Azure, Orchestration/Automation (Heat, Ansible, Vagrant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP CMS - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM, TDD, Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect/Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP OCBU - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NG- service delivery, OSA/Parlay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead/Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Research Labs - UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 2017 CNCF Kubernetes Administration (CKA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2015 HPE Expert One, SDN Apps (HP0-Y48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 2013 RedHat RHCE/RHCSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages and Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ. Of Hull,  UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Firth prize for electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startup Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-Nov 2nd place: https://www.archionline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running, cycling, Roller blading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHCE, RHCSA, HPE Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective - Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
+  </si>
+  <si>
     <t xml:space="preserve">OBJECTIVE</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-sales technical expert in areas of Cloud Native, Containers, Cloud, Virtualization, NFV, SDN, Networking</t>
   </si>
   <si>
-    <t xml:space="preserve">EXPERIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: 09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (CaaS, PaaS, Serverless, DevOps, u-services, Unikernel)  presentations and labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoC Management for with NFV partners, OpenStack hands-on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GCE, AWS, Azure, Orchestration/Automation (Heat, Ansible, Vagrant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP CMS - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+    <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
   </si>
   <si>
     <t xml:space="preserve">--  Agile team (SCRUM/Continuous Integration)</t>
   </si>
   <si>
-    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Architect/Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP OCBU - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
-  </si>
-  <si>
     <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NextGen service delivery, OSA/Parlay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tech Lead/Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of Technical Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Research Labs - UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages and Paradigms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Of Hull,  UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Firth prize for electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Startup Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-Nov 2nd place: https://www.archionline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport / Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running, cycling, Roller blading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHCE, RHCSA, HPE Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective - Pre-sales Solution Architect around Cloud Native, Container and Automation technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (CaaS, PaaS, DevOps, micro-services)  presentations and labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hands-on OpenStack for NFV partners PoCs, GCE, AWS, Azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchestration/Automation (Heat, Ansible, Vagrant)</t>
   </si>
   <si>
     <t xml:space="preserve">http://mjbright.github.io</t>
@@ -916,10 +943,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -945,6 +968,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1175,10 +1202,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:BF65536"/>
+  <dimension ref="A1:BF135"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D83" activeCellId="0" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1288,56 +1315,60 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="13" t="s">
@@ -1353,102 +1384,102 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+    </row>
+    <row r="15" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+    <row r="16" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
       <c r="E16" s="12"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11" t="s">
@@ -1458,13 +1489,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="12"/>
@@ -1473,17 +1504,17 @@
       <c r="C19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -1496,7 +1527,7 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1509,7 +1540,7 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -1519,7 +1550,7 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1532,7 +1563,7 @@
       <c r="G23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -1545,7 +1576,7 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -1554,7 +1585,7 @@
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
         <v>49</v>
       </c>
@@ -1567,9 +1598,9 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="14"/>
@@ -1578,9 +1609,9 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="14"/>
@@ -1588,7 +1619,7 @@
       <c r="I28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -1599,7 +1630,7 @@
       <c r="I29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -1610,7 +1641,7 @@
       <c r="I30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1621,7 +1652,7 @@
       <c r="I31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -1631,7 +1662,7 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -1640,10 +1671,10 @@
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -1654,7 +1685,7 @@
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -1664,7 +1695,7 @@
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -1674,7 +1705,7 @@
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -1684,7 +1715,7 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -1694,7 +1725,7 @@
       <c r="G38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -1717,21 +1748,21 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
       <c r="B42" s="0"/>
       <c r="C42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E42" s="14"/>
@@ -1739,7 +1770,7 @@
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="28" t="s">
@@ -1749,7 +1780,7 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -1759,7 +1790,7 @@
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -1769,7 +1800,7 @@
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -1779,7 +1810,7 @@
       <c r="G46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -1789,22 +1820,22 @@
       <c r="G47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="14"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
-      <c r="C49" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="14"/>
@@ -1862,13 +1893,13 @@
       <c r="BE49" s="0"/>
       <c r="BF49" s="0"/>
     </row>
-    <row r="50" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
       <c r="B50" s="0"/>
-      <c r="C50" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="21" t="s">
+      <c r="C50" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="14"/>
@@ -1925,13 +1956,13 @@
       <c r="BE50" s="7"/>
       <c r="BF50" s="7"/>
     </row>
-    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
       <c r="B51" s="0"/>
-      <c r="C51" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="21" t="s">
+      <c r="C51" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="14"/>
@@ -2001,9 +2032,9 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="14"/>
@@ -2011,16 +2042,16 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E54" s="14"/>
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="28" t="s">
@@ -2030,7 +2061,7 @@
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="28" t="s">
@@ -2040,7 +2071,7 @@
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -2050,7 +2081,7 @@
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -2060,7 +2091,7 @@
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -2070,7 +2101,7 @@
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -2080,7 +2111,7 @@
       <c r="G60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -2090,7 +2121,7 @@
       <c r="G61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -2111,9 +2142,9 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>99</v>
       </c>
       <c r="E64" s="14"/>
@@ -2121,16 +2152,16 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D66" s="28" t="s">
@@ -2140,7 +2171,7 @@
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D67" s="28" t="s">
@@ -2150,20 +2181,20 @@
       <c r="G67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="21" t="s">
+      <c r="C68" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="21" t="s">
+      <c r="C69" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E69" s="14"/>
@@ -2181,9 +2212,9 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>104</v>
       </c>
       <c r="E71" s="14"/>
@@ -2191,16 +2222,16 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>105</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D73" s="28" t="s">
@@ -2210,7 +2241,7 @@
       <c r="G73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D74" s="28" t="s">
@@ -2220,10 +2251,10 @@
       <c r="G74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="21" t="s">
+      <c r="C75" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>108</v>
       </c>
       <c r="E75" s="14"/>
@@ -2249,7 +2280,7 @@
       <c r="C77" s="30"/>
       <c r="D77" s="29"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="16"/>
+      <c r="F77" s="15"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,36 +2294,2082 @@
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="20" t="s">
+      <c r="C79" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>110</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="21" t="s">
+      <c r="C80" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>111</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="21" t="s">
+      <c r="C81" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>112</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+      <c r="AT87" s="7"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="7"/>
+      <c r="AW87" s="7"/>
+      <c r="AX87" s="7"/>
+      <c r="AY87" s="7"/>
+      <c r="AZ87" s="7"/>
+      <c r="BA87" s="7"/>
+      <c r="BB87" s="7"/>
+      <c r="BC87" s="7"/>
+      <c r="BD87" s="7"/>
+      <c r="BE87" s="7"/>
+      <c r="BF87" s="7"/>
+    </row>
+    <row r="88" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="0"/>
+      <c r="C88" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
+      <c r="K88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="0"/>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
+      <c r="S88" s="0"/>
+      <c r="T88" s="0"/>
+      <c r="U88" s="0"/>
+      <c r="V88" s="0"/>
+      <c r="W88" s="0"/>
+      <c r="X88" s="0"/>
+      <c r="Y88" s="0"/>
+      <c r="Z88" s="0"/>
+      <c r="AA88" s="0"/>
+      <c r="AB88" s="0"/>
+      <c r="AC88" s="0"/>
+      <c r="AD88" s="0"/>
+      <c r="AE88" s="0"/>
+      <c r="AF88" s="0"/>
+      <c r="AG88" s="0"/>
+      <c r="AH88" s="0"/>
+      <c r="AI88" s="0"/>
+      <c r="AJ88" s="0"/>
+      <c r="AK88" s="0"/>
+      <c r="AL88" s="0"/>
+      <c r="AM88" s="0"/>
+      <c r="AN88" s="0"/>
+      <c r="AO88" s="0"/>
+      <c r="AP88" s="0"/>
+      <c r="AQ88" s="0"/>
+      <c r="AR88" s="0"/>
+      <c r="AS88" s="0"/>
+      <c r="AT88" s="0"/>
+      <c r="AU88" s="0"/>
+      <c r="AV88" s="0"/>
+      <c r="AW88" s="0"/>
+      <c r="AX88" s="0"/>
+      <c r="AY88" s="0"/>
+      <c r="AZ88" s="0"/>
+      <c r="BA88" s="0"/>
+      <c r="BB88" s="0"/>
+      <c r="BC88" s="0"/>
+      <c r="BD88" s="0"/>
+      <c r="BE88" s="0"/>
+      <c r="BF88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0"/>
+      <c r="B95" s="0"/>
+      <c r="C95" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
+      <c r="J95" s="0"/>
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="0"/>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+      <c r="R95" s="0"/>
+      <c r="S95" s="0"/>
+      <c r="T95" s="0"/>
+      <c r="U95" s="0"/>
+      <c r="V95" s="0"/>
+      <c r="W95" s="0"/>
+      <c r="X95" s="0"/>
+      <c r="Y95" s="0"/>
+      <c r="Z95" s="0"/>
+      <c r="AA95" s="0"/>
+      <c r="AB95" s="0"/>
+      <c r="AC95" s="0"/>
+      <c r="AD95" s="0"/>
+      <c r="AE95" s="0"/>
+      <c r="AF95" s="0"/>
+      <c r="AG95" s="0"/>
+      <c r="AH95" s="0"/>
+      <c r="AI95" s="0"/>
+      <c r="AJ95" s="0"/>
+      <c r="AK95" s="0"/>
+      <c r="AL95" s="0"/>
+      <c r="AM95" s="0"/>
+      <c r="AN95" s="0"/>
+      <c r="AO95" s="0"/>
+      <c r="AP95" s="0"/>
+      <c r="AQ95" s="0"/>
+      <c r="AR95" s="0"/>
+      <c r="AS95" s="0"/>
+      <c r="AT95" s="0"/>
+      <c r="AU95" s="0"/>
+      <c r="AV95" s="0"/>
+      <c r="AW95" s="0"/>
+      <c r="AX95" s="0"/>
+      <c r="AY95" s="0"/>
+      <c r="AZ95" s="0"/>
+      <c r="BA95" s="0"/>
+      <c r="BB95" s="0"/>
+      <c r="BC95" s="0"/>
+      <c r="BD95" s="0"/>
+      <c r="BE95" s="0"/>
+      <c r="BF95" s="0"/>
+    </row>
+    <row r="96" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="7"/>
+      <c r="AJ96" s="7"/>
+      <c r="AK96" s="7"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="7"/>
+      <c r="AS96" s="7"/>
+      <c r="AT96" s="7"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="7"/>
+      <c r="AW96" s="7"/>
+      <c r="AX96" s="7"/>
+      <c r="AY96" s="7"/>
+      <c r="AZ96" s="7"/>
+      <c r="BA96" s="7"/>
+      <c r="BB96" s="7"/>
+      <c r="BC96" s="7"/>
+      <c r="BD96" s="7"/>
+      <c r="BE96" s="7"/>
+      <c r="BF96" s="7"/>
+    </row>
+    <row r="97" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0"/>
+      <c r="U97" s="0"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0"/>
+      <c r="X97" s="0"/>
+      <c r="Y97" s="0"/>
+      <c r="Z97" s="0"/>
+      <c r="AA97" s="0"/>
+      <c r="AB97" s="0"/>
+      <c r="AC97" s="0"/>
+      <c r="AD97" s="0"/>
+      <c r="AE97" s="0"/>
+      <c r="AF97" s="0"/>
+      <c r="AG97" s="0"/>
+      <c r="AH97" s="0"/>
+      <c r="AI97" s="0"/>
+      <c r="AJ97" s="0"/>
+      <c r="AK97" s="0"/>
+      <c r="AL97" s="0"/>
+      <c r="AM97" s="0"/>
+      <c r="AN97" s="0"/>
+      <c r="AO97" s="0"/>
+      <c r="AP97" s="0"/>
+      <c r="AQ97" s="0"/>
+      <c r="AR97" s="0"/>
+      <c r="AS97" s="0"/>
+      <c r="AT97" s="0"/>
+      <c r="AU97" s="0"/>
+      <c r="AV97" s="0"/>
+      <c r="AW97" s="0"/>
+      <c r="AX97" s="0"/>
+      <c r="AY97" s="0"/>
+      <c r="AZ97" s="0"/>
+      <c r="BA97" s="0"/>
+      <c r="BB97" s="0"/>
+      <c r="BC97" s="0"/>
+      <c r="BD97" s="0"/>
+      <c r="BE97" s="0"/>
+      <c r="BF97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="30"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0"/>
+      <c r="B104" s="0"/>
+      <c r="C104" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="0"/>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0"/>
+      <c r="L104" s="0"/>
+      <c r="M104" s="0"/>
+      <c r="N104" s="0"/>
+      <c r="O104" s="0"/>
+      <c r="P104" s="0"/>
+      <c r="Q104" s="0"/>
+      <c r="R104" s="0"/>
+      <c r="S104" s="0"/>
+      <c r="T104" s="0"/>
+      <c r="U104" s="0"/>
+      <c r="V104" s="0"/>
+      <c r="W104" s="0"/>
+      <c r="X104" s="0"/>
+      <c r="Y104" s="0"/>
+      <c r="Z104" s="0"/>
+      <c r="AA104" s="0"/>
+      <c r="AB104" s="0"/>
+      <c r="AC104" s="0"/>
+      <c r="AD104" s="0"/>
+      <c r="AE104" s="0"/>
+      <c r="AF104" s="0"/>
+      <c r="AG104" s="0"/>
+      <c r="AH104" s="0"/>
+      <c r="AI104" s="0"/>
+      <c r="AJ104" s="0"/>
+      <c r="AK104" s="0"/>
+      <c r="AL104" s="0"/>
+      <c r="AM104" s="0"/>
+      <c r="AN104" s="0"/>
+      <c r="AO104" s="0"/>
+      <c r="AP104" s="0"/>
+      <c r="AQ104" s="0"/>
+      <c r="AR104" s="0"/>
+      <c r="AS104" s="0"/>
+      <c r="AT104" s="0"/>
+      <c r="AU104" s="0"/>
+      <c r="AV104" s="0"/>
+      <c r="AW104" s="0"/>
+      <c r="AX104" s="0"/>
+      <c r="AY104" s="0"/>
+      <c r="AZ104" s="0"/>
+      <c r="BA104" s="0"/>
+      <c r="BB104" s="0"/>
+      <c r="BC104" s="0"/>
+      <c r="BD104" s="0"/>
+      <c r="BE104" s="0"/>
+      <c r="BF104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="24"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="31"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="24"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" s="24"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="12"/>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D112" r:id="rId1" display="https://mjbright.github.io/Talks"/>
+    <hyperlink ref="D125" r:id="rId2" display="2012-Nov 2nd place: https://www.archionline.com/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:BF65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="26"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="G31" s="26"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="G39" s="26"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
+      <c r="X49" s="0"/>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AF49" s="0"/>
+      <c r="AG49" s="0"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
+      <c r="AN49" s="0"/>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+      <c r="AU49" s="0"/>
+      <c r="AV49" s="0"/>
+      <c r="AW49" s="0"/>
+      <c r="AX49" s="0"/>
+      <c r="AY49" s="0"/>
+      <c r="AZ49" s="0"/>
+      <c r="BA49" s="0"/>
+      <c r="BB49" s="0"/>
+      <c r="BC49" s="0"/>
+      <c r="BD49" s="0"/>
+      <c r="BE49" s="0"/>
+      <c r="BF49" s="0"/>
+    </row>
+    <row r="50" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="0"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="7"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="7"/>
+      <c r="BF50" s="7"/>
+    </row>
+    <row r="51" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+      <c r="AE51" s="0"/>
+      <c r="AF51" s="0"/>
+      <c r="AG51" s="0"/>
+      <c r="AH51" s="0"/>
+      <c r="AI51" s="0"/>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="0"/>
+      <c r="AN51" s="0"/>
+      <c r="AO51" s="0"/>
+      <c r="AP51" s="0"/>
+      <c r="AQ51" s="0"/>
+      <c r="AR51" s="0"/>
+      <c r="AS51" s="0"/>
+      <c r="AT51" s="0"/>
+      <c r="AU51" s="0"/>
+      <c r="AV51" s="0"/>
+      <c r="AW51" s="0"/>
+      <c r="AX51" s="0"/>
+      <c r="AY51" s="0"/>
+      <c r="AZ51" s="0"/>
+      <c r="BA51" s="0"/>
+      <c r="BB51" s="0"/>
+      <c r="BC51" s="0"/>
+      <c r="BD51" s="0"/>
+      <c r="BE51" s="0"/>
+      <c r="BF51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="14"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="14"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="14"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="14"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
         <v>49</v>
       </c>
@@ -2351,14 +4428,14 @@
       <c r="BE82" s="7"/>
       <c r="BF82" s="7"/>
     </row>
-    <row r="83" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
       <c r="B83" s="0"/>
-      <c r="C83" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>113</v>
+      <c r="C83" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -2415,31 +4492,31 @@
       <c r="BF83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>114</v>
+      <c r="C84" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>115</v>
+      <c r="C85" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>116</v>
+      <c r="C86" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -2455,33 +4532,33 @@
       <c r="G87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>117</v>
+      <c r="C88" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="E88" s="12"/>
       <c r="G88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>118</v>
+      <c r="C89" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="E89" s="12"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0"/>
       <c r="B90" s="0"/>
-      <c r="C90" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>119</v>
+      <c r="C90" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -2538,7 +4615,7 @@
       <c r="BE90" s="0"/>
       <c r="BF90" s="0"/>
     </row>
-    <row r="91" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
         <v>49</v>
       </c>
@@ -2599,14 +4676,14 @@
       <c r="BE91" s="7"/>
       <c r="BF91" s="7"/>
     </row>
-    <row r="92" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0"/>
       <c r="B92" s="0"/>
       <c r="C92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>120</v>
+        <v>36</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="0"/>
@@ -2664,11 +4741,11 @@
       <c r="BF92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>121</v>
+      <c r="C93" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="E93" s="12"/>
       <c r="G93" s="12"/>
@@ -2689,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="29"/>
@@ -2710,32 +4787,32 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0"/>
       <c r="B99" s="0"/>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="0"/>
@@ -2793,31 +4870,31 @@
       <c r="BF99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>128</v>
+      <c r="C101" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="E101" s="12"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>129</v>
+      <c r="C102" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="E102" s="12"/>
       <c r="G102" s="12"/>
@@ -2838,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C104" s="31"/>
       <c r="D104" s="29"/>
@@ -2858,91 +4935,91 @@
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="15" t="s">
-        <v>34</v>
+      <c r="C106" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
@@ -2952,7 +5029,7 @@
         <v>62</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
@@ -2962,7 +5039,7 @@
         <v>62</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
@@ -2972,7 +5049,7 @@
         <v>62</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -2990,10 +5067,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>143</v>
+        <v>36</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
@@ -3003,7 +5080,7 @@
         <v>62</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -3021,30 +5098,30 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>145</v>
+        <v>36</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>146</v>
+      <c r="C123" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="E123" s="12"/>
       <c r="G123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>147</v>
+      <c r="C124" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="E124" s="12"/>
       <c r="G124" s="12"/>
@@ -3062,2031 +5139,30 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>148</v>
+        <v>36</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="E126" s="12"/>
       <c r="G126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>149</v>
+      <c r="C127" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="E127" s="12"/>
       <c r="G127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E128" s="12"/>
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="12"/>
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D107" r:id="rId1" display="https://mjbright.github.io/Talks"/>
-    <hyperlink ref="D120" r:id="rId2" display="2012-Nov 2nd place: https://www.archionline.com/"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:BF65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="E16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C128" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="G27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="G28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="G29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="26"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="G31" s="26"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="G39" s="26"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="0"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="0"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0"/>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
-      <c r="AB49" s="0"/>
-      <c r="AC49" s="0"/>
-      <c r="AD49" s="0"/>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0"/>
-      <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
-      <c r="AM49" s="0"/>
-      <c r="AN49" s="0"/>
-      <c r="AO49" s="0"/>
-      <c r="AP49" s="0"/>
-      <c r="AQ49" s="0"/>
-      <c r="AR49" s="0"/>
-      <c r="AS49" s="0"/>
-      <c r="AT49" s="0"/>
-      <c r="AU49" s="0"/>
-      <c r="AV49" s="0"/>
-      <c r="AW49" s="0"/>
-      <c r="AX49" s="0"/>
-      <c r="AY49" s="0"/>
-      <c r="AZ49" s="0"/>
-      <c r="BA49" s="0"/>
-      <c r="BB49" s="0"/>
-      <c r="BC49" s="0"/>
-      <c r="BD49" s="0"/>
-      <c r="BE49" s="0"/>
-      <c r="BF49" s="0"/>
-    </row>
-    <row r="50" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="0"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7"/>
-      <c r="AR50" s="7"/>
-      <c r="AS50" s="7"/>
-      <c r="AT50" s="7"/>
-      <c r="AU50" s="7"/>
-      <c r="AV50" s="7"/>
-      <c r="AW50" s="7"/>
-      <c r="AX50" s="7"/>
-      <c r="AY50" s="7"/>
-      <c r="AZ50" s="7"/>
-      <c r="BA50" s="7"/>
-      <c r="BB50" s="7"/>
-      <c r="BC50" s="7"/>
-      <c r="BD50" s="7"/>
-      <c r="BE50" s="7"/>
-      <c r="BF50" s="7"/>
-    </row>
-    <row r="51" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="0"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
-      <c r="AB51" s="0"/>
-      <c r="AC51" s="0"/>
-      <c r="AD51" s="0"/>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AG51" s="0"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
-      <c r="AL51" s="0"/>
-      <c r="AM51" s="0"/>
-      <c r="AN51" s="0"/>
-      <c r="AO51" s="0"/>
-      <c r="AP51" s="0"/>
-      <c r="AQ51" s="0"/>
-      <c r="AR51" s="0"/>
-      <c r="AS51" s="0"/>
-      <c r="AT51" s="0"/>
-      <c r="AU51" s="0"/>
-      <c r="AV51" s="0"/>
-      <c r="AW51" s="0"/>
-      <c r="AX51" s="0"/>
-      <c r="AY51" s="0"/>
-      <c r="AZ51" s="0"/>
-      <c r="BA51" s="0"/>
-      <c r="BB51" s="0"/>
-      <c r="BC51" s="0"/>
-      <c r="BD51" s="0"/>
-      <c r="BE51" s="0"/>
-      <c r="BF51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="14"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="14"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="14"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="14"/>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="12"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="24"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="7"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="7"/>
-      <c r="AD82" s="7"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="7"/>
-      <c r="AG82" s="7"/>
-      <c r="AH82" s="7"/>
-      <c r="AI82" s="7"/>
-      <c r="AJ82" s="7"/>
-      <c r="AK82" s="7"/>
-      <c r="AL82" s="7"/>
-      <c r="AM82" s="7"/>
-      <c r="AN82" s="7"/>
-      <c r="AO82" s="7"/>
-      <c r="AP82" s="7"/>
-      <c r="AQ82" s="7"/>
-      <c r="AR82" s="7"/>
-      <c r="AS82" s="7"/>
-      <c r="AT82" s="7"/>
-      <c r="AU82" s="7"/>
-      <c r="AV82" s="7"/>
-      <c r="AW82" s="7"/>
-      <c r="AX82" s="7"/>
-      <c r="AY82" s="7"/>
-      <c r="AZ82" s="7"/>
-      <c r="BA82" s="7"/>
-      <c r="BB82" s="7"/>
-      <c r="BC82" s="7"/>
-      <c r="BD82" s="7"/>
-      <c r="BE82" s="7"/>
-      <c r="BF82" s="7"/>
-    </row>
-    <row r="83" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="0"/>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
-      <c r="Q83" s="0"/>
-      <c r="R83" s="0"/>
-      <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
-      <c r="U83" s="0"/>
-      <c r="V83" s="0"/>
-      <c r="W83" s="0"/>
-      <c r="X83" s="0"/>
-      <c r="Y83" s="0"/>
-      <c r="Z83" s="0"/>
-      <c r="AA83" s="0"/>
-      <c r="AB83" s="0"/>
-      <c r="AC83" s="0"/>
-      <c r="AD83" s="0"/>
-      <c r="AE83" s="0"/>
-      <c r="AF83" s="0"/>
-      <c r="AG83" s="0"/>
-      <c r="AH83" s="0"/>
-      <c r="AI83" s="0"/>
-      <c r="AJ83" s="0"/>
-      <c r="AK83" s="0"/>
-      <c r="AL83" s="0"/>
-      <c r="AM83" s="0"/>
-      <c r="AN83" s="0"/>
-      <c r="AO83" s="0"/>
-      <c r="AP83" s="0"/>
-      <c r="AQ83" s="0"/>
-      <c r="AR83" s="0"/>
-      <c r="AS83" s="0"/>
-      <c r="AT83" s="0"/>
-      <c r="AU83" s="0"/>
-      <c r="AV83" s="0"/>
-      <c r="AW83" s="0"/>
-      <c r="AX83" s="0"/>
-      <c r="AY83" s="0"/>
-      <c r="AZ83" s="0"/>
-      <c r="BA83" s="0"/>
-      <c r="BB83" s="0"/>
-      <c r="BC83" s="0"/>
-      <c r="BD83" s="0"/>
-      <c r="BE83" s="0"/>
-      <c r="BF83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="12"/>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0"/>
-      <c r="B90" s="0"/>
-      <c r="C90" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="0"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="0"/>
-      <c r="I90" s="0"/>
-      <c r="J90" s="0"/>
-      <c r="K90" s="0"/>
-      <c r="L90" s="0"/>
-      <c r="M90" s="0"/>
-      <c r="N90" s="0"/>
-      <c r="O90" s="0"/>
-      <c r="P90" s="0"/>
-      <c r="Q90" s="0"/>
-      <c r="R90" s="0"/>
-      <c r="S90" s="0"/>
-      <c r="T90" s="0"/>
-      <c r="U90" s="0"/>
-      <c r="V90" s="0"/>
-      <c r="W90" s="0"/>
-      <c r="X90" s="0"/>
-      <c r="Y90" s="0"/>
-      <c r="Z90" s="0"/>
-      <c r="AA90" s="0"/>
-      <c r="AB90" s="0"/>
-      <c r="AC90" s="0"/>
-      <c r="AD90" s="0"/>
-      <c r="AE90" s="0"/>
-      <c r="AF90" s="0"/>
-      <c r="AG90" s="0"/>
-      <c r="AH90" s="0"/>
-      <c r="AI90" s="0"/>
-      <c r="AJ90" s="0"/>
-      <c r="AK90" s="0"/>
-      <c r="AL90" s="0"/>
-      <c r="AM90" s="0"/>
-      <c r="AN90" s="0"/>
-      <c r="AO90" s="0"/>
-      <c r="AP90" s="0"/>
-      <c r="AQ90" s="0"/>
-      <c r="AR90" s="0"/>
-      <c r="AS90" s="0"/>
-      <c r="AT90" s="0"/>
-      <c r="AU90" s="0"/>
-      <c r="AV90" s="0"/>
-      <c r="AW90" s="0"/>
-      <c r="AX90" s="0"/>
-      <c r="AY90" s="0"/>
-      <c r="AZ90" s="0"/>
-      <c r="BA90" s="0"/>
-      <c r="BB90" s="0"/>
-      <c r="BC90" s="0"/>
-      <c r="BD90" s="0"/>
-      <c r="BE90" s="0"/>
-      <c r="BF90" s="0"/>
-    </row>
-    <row r="91" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="7"/>
-      <c r="AB91" s="7"/>
-      <c r="AC91" s="7"/>
-      <c r="AD91" s="7"/>
-      <c r="AE91" s="7"/>
-      <c r="AF91" s="7"/>
-      <c r="AG91" s="7"/>
-      <c r="AH91" s="7"/>
-      <c r="AI91" s="7"/>
-      <c r="AJ91" s="7"/>
-      <c r="AK91" s="7"/>
-      <c r="AL91" s="7"/>
-      <c r="AM91" s="7"/>
-      <c r="AN91" s="7"/>
-      <c r="AO91" s="7"/>
-      <c r="AP91" s="7"/>
-      <c r="AQ91" s="7"/>
-      <c r="AR91" s="7"/>
-      <c r="AS91" s="7"/>
-      <c r="AT91" s="7"/>
-      <c r="AU91" s="7"/>
-      <c r="AV91" s="7"/>
-      <c r="AW91" s="7"/>
-      <c r="AX91" s="7"/>
-      <c r="AY91" s="7"/>
-      <c r="AZ91" s="7"/>
-      <c r="BA91" s="7"/>
-      <c r="BB91" s="7"/>
-      <c r="BC91" s="7"/>
-      <c r="BD91" s="7"/>
-      <c r="BE91" s="7"/>
-      <c r="BF91" s="7"/>
-    </row>
-    <row r="92" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0"/>
-      <c r="B92" s="0"/>
-      <c r="C92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="0"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="0"/>
-      <c r="I92" s="0"/>
-      <c r="J92" s="0"/>
-      <c r="K92" s="0"/>
-      <c r="L92" s="0"/>
-      <c r="M92" s="0"/>
-      <c r="N92" s="0"/>
-      <c r="O92" s="0"/>
-      <c r="P92" s="0"/>
-      <c r="Q92" s="0"/>
-      <c r="R92" s="0"/>
-      <c r="S92" s="0"/>
-      <c r="T92" s="0"/>
-      <c r="U92" s="0"/>
-      <c r="V92" s="0"/>
-      <c r="W92" s="0"/>
-      <c r="X92" s="0"/>
-      <c r="Y92" s="0"/>
-      <c r="Z92" s="0"/>
-      <c r="AA92" s="0"/>
-      <c r="AB92" s="0"/>
-      <c r="AC92" s="0"/>
-      <c r="AD92" s="0"/>
-      <c r="AE92" s="0"/>
-      <c r="AF92" s="0"/>
-      <c r="AG92" s="0"/>
-      <c r="AH92" s="0"/>
-      <c r="AI92" s="0"/>
-      <c r="AJ92" s="0"/>
-      <c r="AK92" s="0"/>
-      <c r="AL92" s="0"/>
-      <c r="AM92" s="0"/>
-      <c r="AN92" s="0"/>
-      <c r="AO92" s="0"/>
-      <c r="AP92" s="0"/>
-      <c r="AQ92" s="0"/>
-      <c r="AR92" s="0"/>
-      <c r="AS92" s="0"/>
-      <c r="AT92" s="0"/>
-      <c r="AU92" s="0"/>
-      <c r="AV92" s="0"/>
-      <c r="AW92" s="0"/>
-      <c r="AX92" s="0"/>
-      <c r="AY92" s="0"/>
-      <c r="AZ92" s="0"/>
-      <c r="BA92" s="0"/>
-      <c r="BB92" s="0"/>
-      <c r="BC92" s="0"/>
-      <c r="BD92" s="0"/>
-      <c r="BE92" s="0"/>
-      <c r="BF92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="12"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0"/>
-      <c r="B99" s="0"/>
-      <c r="C99" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="0"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
-      <c r="K99" s="0"/>
-      <c r="L99" s="0"/>
-      <c r="M99" s="0"/>
-      <c r="N99" s="0"/>
-      <c r="O99" s="0"/>
-      <c r="P99" s="0"/>
-      <c r="Q99" s="0"/>
-      <c r="R99" s="0"/>
-      <c r="S99" s="0"/>
-      <c r="T99" s="0"/>
-      <c r="U99" s="0"/>
-      <c r="V99" s="0"/>
-      <c r="W99" s="0"/>
-      <c r="X99" s="0"/>
-      <c r="Y99" s="0"/>
-      <c r="Z99" s="0"/>
-      <c r="AA99" s="0"/>
-      <c r="AB99" s="0"/>
-      <c r="AC99" s="0"/>
-      <c r="AD99" s="0"/>
-      <c r="AE99" s="0"/>
-      <c r="AF99" s="0"/>
-      <c r="AG99" s="0"/>
-      <c r="AH99" s="0"/>
-      <c r="AI99" s="0"/>
-      <c r="AJ99" s="0"/>
-      <c r="AK99" s="0"/>
-      <c r="AL99" s="0"/>
-      <c r="AM99" s="0"/>
-      <c r="AN99" s="0"/>
-      <c r="AO99" s="0"/>
-      <c r="AP99" s="0"/>
-      <c r="AQ99" s="0"/>
-      <c r="AR99" s="0"/>
-      <c r="AS99" s="0"/>
-      <c r="AT99" s="0"/>
-      <c r="AU99" s="0"/>
-      <c r="AV99" s="0"/>
-      <c r="AW99" s="0"/>
-      <c r="AX99" s="0"/>
-      <c r="AY99" s="0"/>
-      <c r="AZ99" s="0"/>
-      <c r="BA99" s="0"/>
-      <c r="BB99" s="0"/>
-      <c r="BC99" s="0"/>
-      <c r="BD99" s="0"/>
-      <c r="BE99" s="0"/>
-      <c r="BF99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="12"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="G113" s="12"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="12"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E123" s="12"/>
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E124" s="12"/>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>150</v>
       </c>
       <c r="E128" s="12"/>
       <c r="G128" s="12"/>
@@ -5270,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -5283,50 +5359,50 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,99 +5410,99 @@
         <v>6</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>47</v>
+        <v>157</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+    <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="E14" s="12"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>157</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
@@ -5436,13 +5512,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>158</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="12"/>
@@ -5451,17 +5527,17 @@
       <c r="C17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>159</v>
+      <c r="D17" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -5474,7 +5550,7 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -5487,11 +5563,11 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
@@ -5500,11 +5576,11 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -5513,20 +5589,20 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
         <v>49</v>
       </c>
@@ -5539,9 +5615,9 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="14"/>
@@ -5550,9 +5626,9 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="14"/>
@@ -5560,7 +5636,7 @@
       <c r="I25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -5571,7 +5647,7 @@
       <c r="I26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -5582,7 +5658,7 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -5593,7 +5669,7 @@
       <c r="I28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -5603,7 +5679,7 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -5612,10 +5688,10 @@
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="0"/>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -5626,7 +5702,7 @@
       <c r="G31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -5636,17 +5712,17 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -5656,7 +5732,7 @@
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -5666,7 +5742,7 @@
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -5689,21 +5765,21 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="0"/>
       <c r="C39" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="14"/>
@@ -5711,7 +5787,7 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -5721,7 +5797,7 @@
       <c r="G40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -5731,7 +5807,7 @@
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -5741,17 +5817,17 @@
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -5761,22 +5837,22 @@
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="21" t="s">
+      <c r="C45" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>87</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
       <c r="B46" s="0"/>
-      <c r="C46" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E46" s="14"/>
@@ -5834,13 +5910,13 @@
       <c r="BE46" s="0"/>
       <c r="BF46" s="0"/>
     </row>
-    <row r="47" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
-      <c r="C47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="21" t="s">
+      <c r="C47" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="14"/>
@@ -5897,13 +5973,13 @@
       <c r="BE47" s="7"/>
       <c r="BF47" s="7"/>
     </row>
-    <row r="48" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
-      <c r="C48" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>90</v>
       </c>
       <c r="E48" s="14"/>
@@ -5973,26 +6049,26 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>91</v>
+        <v>36</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E50" s="14"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="28" t="s">
@@ -6002,7 +6078,7 @@
       <c r="G52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="28" t="s">
@@ -6012,7 +6088,7 @@
       <c r="G53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -6022,7 +6098,7 @@
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="13" t="s">
@@ -6032,7 +6108,7 @@
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -6042,7 +6118,7 @@
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -6052,7 +6128,7 @@
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -6062,7 +6138,7 @@
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -6083,9 +6159,9 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>99</v>
       </c>
       <c r="E61" s="14"/>
@@ -6093,16 +6169,16 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="28" t="s">
@@ -6112,7 +6188,7 @@
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D64" s="28" t="s">
@@ -6122,20 +6198,20 @@
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="21" t="s">
+      <c r="C65" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="21" t="s">
+      <c r="C66" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="14"/>
@@ -6153,9 +6229,9 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>104</v>
       </c>
       <c r="E68" s="14"/>
@@ -6163,16 +6239,16 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="19" t="s">
         <v>105</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D70" s="28" t="s">
@@ -6182,7 +6258,7 @@
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D71" s="28" t="s">
@@ -6192,10 +6268,10 @@
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="21" t="s">
+      <c r="C72" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="20" t="s">
         <v>108</v>
       </c>
       <c r="E72" s="14"/>
@@ -6221,7 +6297,7 @@
       <c r="C74" s="30"/>
       <c r="D74" s="29"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="16"/>
+      <c r="F74" s="15"/>
       <c r="G74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,36 +6311,36 @@
       <c r="G75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>110</v>
+      <c r="C76" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>164</v>
+      <c r="C77" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>112</v>
+      <c r="C78" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
         <v>49</v>
       </c>
@@ -6323,14 +6399,14 @@
       <c r="BE79" s="7"/>
       <c r="BF79" s="7"/>
     </row>
-    <row r="80" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
       <c r="B80" s="0"/>
-      <c r="C80" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>113</v>
+      <c r="C80" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
@@ -6387,31 +6463,31 @@
       <c r="BF80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>114</v>
+      <c r="C81" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>115</v>
+      <c r="C82" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>165</v>
+      <c r="C83" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -6427,33 +6503,33 @@
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>117</v>
+      <c r="C85" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>118</v>
+      <c r="C86" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
       <c r="B87" s="0"/>
-      <c r="C87" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>166</v>
+      <c r="C87" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -6510,7 +6586,7 @@
       <c r="BE87" s="0"/>
       <c r="BF87" s="0"/>
     </row>
-    <row r="88" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
         <v>49</v>
       </c>
@@ -6571,14 +6647,14 @@
       <c r="BE88" s="7"/>
       <c r="BF88" s="7"/>
     </row>
-    <row r="89" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
       <c r="B89" s="0"/>
       <c r="C89" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>120</v>
+        <v>36</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="0"/>
@@ -6636,11 +6712,11 @@
       <c r="BF89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>167</v>
+      <c r="C90" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -6661,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="29"/>
@@ -6682,32 +6758,32 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="E94" s="12"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0"/>
       <c r="B96" s="0"/>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="0"/>
@@ -6765,31 +6841,31 @@
       <c r="BF96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>128</v>
+      <c r="C98" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>129</v>
+      <c r="C99" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
@@ -6810,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="29"/>
@@ -6830,111 +6906,111 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="15" t="s">
-        <v>34</v>
+      <c r="C103" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E103" s="12"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
@@ -6952,30 +7028,30 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>145</v>
+        <v>36</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>146</v>
+      <c r="C116" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>147</v>
+      <c r="C117" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -6993,30 +7069,30 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>148</v>
+        <v>36</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>149</v>
+      <c r="C120" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>150</v>
+      <c r="C121" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -7207,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -7220,66 +7296,66 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,99 +7363,99 @@
         <v>6</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" s="16" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+    <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="E15" s="12"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>157</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
@@ -7389,13 +7465,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>175</v>
+        <v>44</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="12"/>
@@ -7404,17 +7480,17 @@
       <c r="C18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>176</v>
+      <c r="D18" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -7427,7 +7503,7 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -7440,11 +7516,11 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -7453,11 +7529,11 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -7466,19 +7542,19 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
@@ -7491,9 +7567,9 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="14"/>
@@ -7502,9 +7578,9 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="14"/>
@@ -7512,7 +7588,7 @@
       <c r="I26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -7523,7 +7599,7 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -7534,7 +7610,7 @@
       <c r="I28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -7545,7 +7621,7 @@
       <c r="I29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -7555,7 +7631,7 @@
       <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -7564,10 +7640,10 @@
       <c r="E31" s="14"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="0"/>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -7578,7 +7654,7 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -7588,17 +7664,17 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -7608,7 +7684,7 @@
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -7618,7 +7694,7 @@
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -7641,21 +7717,21 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
       <c r="B40" s="0"/>
       <c r="C40" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="14"/>
@@ -7663,7 +7739,7 @@
       <c r="G40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -7673,7 +7749,7 @@
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -7683,7 +7759,7 @@
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -7693,17 +7769,17 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -7713,22 +7789,22 @@
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
-      <c r="C47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="21" t="s">
+      <c r="C47" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E47" s="14"/>
@@ -7786,13 +7862,13 @@
       <c r="BE47" s="0"/>
       <c r="BF47" s="0"/>
     </row>
-    <row r="48" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
-      <c r="C48" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="14"/>
@@ -7849,13 +7925,13 @@
       <c r="BE48" s="7"/>
       <c r="BF48" s="7"/>
     </row>
-    <row r="49" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
-      <c r="C49" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="14"/>
@@ -7925,26 +8001,26 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>91</v>
+        <v>36</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D53" s="28" t="s">
@@ -7954,7 +8030,7 @@
       <c r="G53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="28" t="s">
@@ -7964,7 +8040,7 @@
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="13" t="s">
@@ -7974,7 +8050,7 @@
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -7984,7 +8060,7 @@
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -7994,7 +8070,7 @@
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -8004,7 +8080,7 @@
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -8014,7 +8090,7 @@
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -8035,9 +8111,9 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>99</v>
       </c>
       <c r="E62" s="14"/>
@@ -8045,16 +8121,16 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D64" s="28" t="s">
@@ -8064,7 +8140,7 @@
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D65" s="28" t="s">
@@ -8074,20 +8150,20 @@
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="21" t="s">
+      <c r="C66" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="21" t="s">
+      <c r="C67" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E67" s="14"/>
@@ -8105,9 +8181,9 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="19" t="s">
         <v>104</v>
       </c>
       <c r="E69" s="14"/>
@@ -8115,16 +8191,16 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>105</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D71" s="28" t="s">
@@ -8134,7 +8210,7 @@
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D72" s="28" t="s">
@@ -8144,10 +8220,10 @@
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="21" t="s">
+      <c r="C73" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="20" t="s">
         <v>108</v>
       </c>
       <c r="E73" s="14"/>
@@ -8173,7 +8249,7 @@
       <c r="C75" s="30"/>
       <c r="D75" s="29"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="16"/>
+      <c r="F75" s="15"/>
       <c r="G75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8187,36 +8263,36 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>110</v>
+      <c r="C77" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>164</v>
+      <c r="C78" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>112</v>
+      <c r="C79" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
         <v>49</v>
       </c>
@@ -8275,14 +8351,14 @@
       <c r="BE80" s="7"/>
       <c r="BF80" s="7"/>
     </row>
-    <row r="81" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
       <c r="B81" s="0"/>
-      <c r="C81" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>113</v>
+      <c r="C81" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -8339,31 +8415,31 @@
       <c r="BF81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>114</v>
+      <c r="C82" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>115</v>
+      <c r="C83" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>165</v>
+      <c r="C84" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -8379,33 +8455,33 @@
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>117</v>
+      <c r="C86" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>118</v>
+      <c r="C87" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
       <c r="B88" s="0"/>
-      <c r="C88" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>166</v>
+      <c r="C88" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -8462,7 +8538,7 @@
       <c r="BE88" s="0"/>
       <c r="BF88" s="0"/>
     </row>
-    <row r="89" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
         <v>49</v>
       </c>
@@ -8523,14 +8599,14 @@
       <c r="BE89" s="7"/>
       <c r="BF89" s="7"/>
     </row>
-    <row r="90" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0"/>
       <c r="B90" s="0"/>
       <c r="C90" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>120</v>
+        <v>36</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -8588,11 +8664,11 @@
       <c r="BF90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>167</v>
+      <c r="C91" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -8613,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="29"/>
@@ -8634,32 +8710,32 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="E96" s="12"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0"/>
       <c r="B97" s="0"/>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="0"/>
@@ -8717,31 +8793,31 @@
       <c r="BF97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>128</v>
+      <c r="C99" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>129</v>
+      <c r="C100" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
@@ -8762,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C102" s="31"/>
       <c r="D102" s="29"/>
@@ -8782,111 +8858,111 @@
       <c r="G103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="15" t="s">
-        <v>34</v>
+      <c r="C104" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
@@ -8904,30 +8980,30 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>145</v>
+        <v>36</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>146</v>
+      <c r="C117" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>147</v>
+      <c r="C118" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
@@ -8945,30 +9021,30 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>148</v>
+        <v>36</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>149</v>
+      <c r="C121" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>150</v>
+      <c r="C122" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="186">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -155,12 +155,6 @@
     <t xml:space="preserve">Es:RHCE, RHCSA, HP Expert One SDN Apps</t>
   </si>
   <si>
-    <t xml:space="preserve">DETAILS_CERTIFICATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2017) CNCF Kubernetes CKA, (2013) RHCE, RHCSA, (2015) HPE Expert One SDN Apps</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHONE</t>
   </si>
   <si>
@@ -443,7 +437,7 @@
     <t xml:space="preserve">Certifications</t>
   </si>
   <si>
-    <t xml:space="preserve">Aug 2017 CNCF Kubernetes Administration (CKA) </t>
+    <t xml:space="preserve">Sep 2017 CNCF Kubernetes Administration (CKA) </t>
   </si>
   <si>
     <t xml:space="preserve">May 2015 HPE Expert One, SDN Apps (HP0-Y48)</t>
@@ -1202,10 +1196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:BF135"/>
+  <dimension ref="A1:BF65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D83" activeCellId="0" sqref="D83"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1315,60 +1309,56 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="13" t="s">
@@ -1384,91 +1374,2126 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="G26" s="26"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="26"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="G38" s="26"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="0"/>
+      <c r="V48" s="0"/>
+      <c r="W48" s="0"/>
+      <c r="X48" s="0"/>
+      <c r="Y48" s="0"/>
+      <c r="Z48" s="0"/>
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+      <c r="AE48" s="0"/>
+      <c r="AF48" s="0"/>
+      <c r="AG48" s="0"/>
+      <c r="AH48" s="0"/>
+      <c r="AI48" s="0"/>
+      <c r="AJ48" s="0"/>
+      <c r="AK48" s="0"/>
+      <c r="AL48" s="0"/>
+      <c r="AM48" s="0"/>
+      <c r="AN48" s="0"/>
+      <c r="AO48" s="0"/>
+      <c r="AP48" s="0"/>
+      <c r="AQ48" s="0"/>
+      <c r="AR48" s="0"/>
+      <c r="AS48" s="0"/>
+      <c r="AT48" s="0"/>
+      <c r="AU48" s="0"/>
+      <c r="AV48" s="0"/>
+      <c r="AW48" s="0"/>
+      <c r="AX48" s="0"/>
+      <c r="AY48" s="0"/>
+      <c r="AZ48" s="0"/>
+      <c r="BA48" s="0"/>
+      <c r="BB48" s="0"/>
+      <c r="BC48" s="0"/>
+      <c r="BD48" s="0"/>
+      <c r="BE48" s="0"/>
+      <c r="BF48" s="0"/>
+    </row>
+    <row r="49" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="0"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7"/>
+      <c r="BC49" s="7"/>
+      <c r="BD49" s="7"/>
+      <c r="BE49" s="7"/>
+      <c r="BF49" s="7"/>
+    </row>
+    <row r="50" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0"/>
+      <c r="X50" s="0"/>
+      <c r="Y50" s="0"/>
+      <c r="Z50" s="0"/>
+      <c r="AA50" s="0"/>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+      <c r="AE50" s="0"/>
+      <c r="AF50" s="0"/>
+      <c r="AG50" s="0"/>
+      <c r="AH50" s="0"/>
+      <c r="AI50" s="0"/>
+      <c r="AJ50" s="0"/>
+      <c r="AK50" s="0"/>
+      <c r="AL50" s="0"/>
+      <c r="AM50" s="0"/>
+      <c r="AN50" s="0"/>
+      <c r="AO50" s="0"/>
+      <c r="AP50" s="0"/>
+      <c r="AQ50" s="0"/>
+      <c r="AR50" s="0"/>
+      <c r="AS50" s="0"/>
+      <c r="AT50" s="0"/>
+      <c r="AU50" s="0"/>
+      <c r="AV50" s="0"/>
+      <c r="AW50" s="0"/>
+      <c r="AX50" s="0"/>
+      <c r="AY50" s="0"/>
+      <c r="AZ50" s="0"/>
+      <c r="BA50" s="0"/>
+      <c r="BB50" s="0"/>
+      <c r="BC50" s="0"/>
+      <c r="BD50" s="0"/>
+      <c r="BE50" s="0"/>
+      <c r="BF50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="14"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="14"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="14"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="14"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="30"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="12"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+      <c r="AT86" s="7"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="7"/>
+      <c r="AW86" s="7"/>
+      <c r="AX86" s="7"/>
+      <c r="AY86" s="7"/>
+      <c r="AZ86" s="7"/>
+      <c r="BA86" s="7"/>
+      <c r="BB86" s="7"/>
+      <c r="BC86" s="7"/>
+      <c r="BD86" s="7"/>
+      <c r="BE86" s="7"/>
+      <c r="BF86" s="7"/>
+    </row>
+    <row r="87" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0"/>
+      <c r="B87" s="0"/>
+      <c r="C87" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="0"/>
+      <c r="I87" s="0"/>
+      <c r="J87" s="0"/>
+      <c r="K87" s="0"/>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
+      <c r="R87" s="0"/>
+      <c r="S87" s="0"/>
+      <c r="T87" s="0"/>
+      <c r="U87" s="0"/>
+      <c r="V87" s="0"/>
+      <c r="W87" s="0"/>
+      <c r="X87" s="0"/>
+      <c r="Y87" s="0"/>
+      <c r="Z87" s="0"/>
+      <c r="AA87" s="0"/>
+      <c r="AB87" s="0"/>
+      <c r="AC87" s="0"/>
+      <c r="AD87" s="0"/>
+      <c r="AE87" s="0"/>
+      <c r="AF87" s="0"/>
+      <c r="AG87" s="0"/>
+      <c r="AH87" s="0"/>
+      <c r="AI87" s="0"/>
+      <c r="AJ87" s="0"/>
+      <c r="AK87" s="0"/>
+      <c r="AL87" s="0"/>
+      <c r="AM87" s="0"/>
+      <c r="AN87" s="0"/>
+      <c r="AO87" s="0"/>
+      <c r="AP87" s="0"/>
+      <c r="AQ87" s="0"/>
+      <c r="AR87" s="0"/>
+      <c r="AS87" s="0"/>
+      <c r="AT87" s="0"/>
+      <c r="AU87" s="0"/>
+      <c r="AV87" s="0"/>
+      <c r="AW87" s="0"/>
+      <c r="AX87" s="0"/>
+      <c r="AY87" s="0"/>
+      <c r="AZ87" s="0"/>
+      <c r="BA87" s="0"/>
+      <c r="BB87" s="0"/>
+      <c r="BC87" s="0"/>
+      <c r="BD87" s="0"/>
+      <c r="BE87" s="0"/>
+      <c r="BF87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="12"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
+      <c r="B94" s="0"/>
+      <c r="C94" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="0"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="0"/>
+      <c r="I94" s="0"/>
+      <c r="J94" s="0"/>
+      <c r="K94" s="0"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="0"/>
+      <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
+      <c r="P94" s="0"/>
+      <c r="Q94" s="0"/>
+      <c r="R94" s="0"/>
+      <c r="S94" s="0"/>
+      <c r="T94" s="0"/>
+      <c r="U94" s="0"/>
+      <c r="V94" s="0"/>
+      <c r="W94" s="0"/>
+      <c r="X94" s="0"/>
+      <c r="Y94" s="0"/>
+      <c r="Z94" s="0"/>
+      <c r="AA94" s="0"/>
+      <c r="AB94" s="0"/>
+      <c r="AC94" s="0"/>
+      <c r="AD94" s="0"/>
+      <c r="AE94" s="0"/>
+      <c r="AF94" s="0"/>
+      <c r="AG94" s="0"/>
+      <c r="AH94" s="0"/>
+      <c r="AI94" s="0"/>
+      <c r="AJ94" s="0"/>
+      <c r="AK94" s="0"/>
+      <c r="AL94" s="0"/>
+      <c r="AM94" s="0"/>
+      <c r="AN94" s="0"/>
+      <c r="AO94" s="0"/>
+      <c r="AP94" s="0"/>
+      <c r="AQ94" s="0"/>
+      <c r="AR94" s="0"/>
+      <c r="AS94" s="0"/>
+      <c r="AT94" s="0"/>
+      <c r="AU94" s="0"/>
+      <c r="AV94" s="0"/>
+      <c r="AW94" s="0"/>
+      <c r="AX94" s="0"/>
+      <c r="AY94" s="0"/>
+      <c r="AZ94" s="0"/>
+      <c r="BA94" s="0"/>
+      <c r="BB94" s="0"/>
+      <c r="BC94" s="0"/>
+      <c r="BD94" s="0"/>
+      <c r="BE94" s="0"/>
+      <c r="BF94" s="0"/>
+    </row>
+    <row r="95" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="7"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="7"/>
+      <c r="AH95" s="7"/>
+      <c r="AI95" s="7"/>
+      <c r="AJ95" s="7"/>
+      <c r="AK95" s="7"/>
+      <c r="AL95" s="7"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="7"/>
+      <c r="AO95" s="7"/>
+      <c r="AP95" s="7"/>
+      <c r="AQ95" s="7"/>
+      <c r="AR95" s="7"/>
+      <c r="AS95" s="7"/>
+      <c r="AT95" s="7"/>
+      <c r="AU95" s="7"/>
+      <c r="AV95" s="7"/>
+      <c r="AW95" s="7"/>
+      <c r="AX95" s="7"/>
+      <c r="AY95" s="7"/>
+      <c r="AZ95" s="7"/>
+      <c r="BA95" s="7"/>
+      <c r="BB95" s="7"/>
+      <c r="BC95" s="7"/>
+      <c r="BD95" s="7"/>
+      <c r="BE95" s="7"/>
+      <c r="BF95" s="7"/>
+    </row>
+    <row r="96" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
+      <c r="B96" s="0"/>
+      <c r="C96" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="0"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="P96" s="0"/>
+      <c r="Q96" s="0"/>
+      <c r="R96" s="0"/>
+      <c r="S96" s="0"/>
+      <c r="T96" s="0"/>
+      <c r="U96" s="0"/>
+      <c r="V96" s="0"/>
+      <c r="W96" s="0"/>
+      <c r="X96" s="0"/>
+      <c r="Y96" s="0"/>
+      <c r="Z96" s="0"/>
+      <c r="AA96" s="0"/>
+      <c r="AB96" s="0"/>
+      <c r="AC96" s="0"/>
+      <c r="AD96" s="0"/>
+      <c r="AE96" s="0"/>
+      <c r="AF96" s="0"/>
+      <c r="AG96" s="0"/>
+      <c r="AH96" s="0"/>
+      <c r="AI96" s="0"/>
+      <c r="AJ96" s="0"/>
+      <c r="AK96" s="0"/>
+      <c r="AL96" s="0"/>
+      <c r="AM96" s="0"/>
+      <c r="AN96" s="0"/>
+      <c r="AO96" s="0"/>
+      <c r="AP96" s="0"/>
+      <c r="AQ96" s="0"/>
+      <c r="AR96" s="0"/>
+      <c r="AS96" s="0"/>
+      <c r="AT96" s="0"/>
+      <c r="AU96" s="0"/>
+      <c r="AV96" s="0"/>
+      <c r="AW96" s="0"/>
+      <c r="AX96" s="0"/>
+      <c r="AY96" s="0"/>
+      <c r="AZ96" s="0"/>
+      <c r="BA96" s="0"/>
+      <c r="BB96" s="0"/>
+      <c r="BC96" s="0"/>
+      <c r="BD96" s="0"/>
+      <c r="BE96" s="0"/>
+      <c r="BF96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="24"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="30"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0"/>
+      <c r="B103" s="0"/>
+      <c r="C103" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="0"/>
+      <c r="N103" s="0"/>
+      <c r="O103" s="0"/>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+      <c r="R103" s="0"/>
+      <c r="S103" s="0"/>
+      <c r="T103" s="0"/>
+      <c r="U103" s="0"/>
+      <c r="V103" s="0"/>
+      <c r="W103" s="0"/>
+      <c r="X103" s="0"/>
+      <c r="Y103" s="0"/>
+      <c r="Z103" s="0"/>
+      <c r="AA103" s="0"/>
+      <c r="AB103" s="0"/>
+      <c r="AC103" s="0"/>
+      <c r="AD103" s="0"/>
+      <c r="AE103" s="0"/>
+      <c r="AF103" s="0"/>
+      <c r="AG103" s="0"/>
+      <c r="AH103" s="0"/>
+      <c r="AI103" s="0"/>
+      <c r="AJ103" s="0"/>
+      <c r="AK103" s="0"/>
+      <c r="AL103" s="0"/>
+      <c r="AM103" s="0"/>
+      <c r="AN103" s="0"/>
+      <c r="AO103" s="0"/>
+      <c r="AP103" s="0"/>
+      <c r="AQ103" s="0"/>
+      <c r="AR103" s="0"/>
+      <c r="AS103" s="0"/>
+      <c r="AT103" s="0"/>
+      <c r="AU103" s="0"/>
+      <c r="AV103" s="0"/>
+      <c r="AW103" s="0"/>
+      <c r="AX103" s="0"/>
+      <c r="AY103" s="0"/>
+      <c r="AZ103" s="0"/>
+      <c r="BA103" s="0"/>
+      <c r="BB103" s="0"/>
+      <c r="BC103" s="0"/>
+      <c r="BD103" s="0"/>
+      <c r="BE103" s="0"/>
+      <c r="BF103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="31"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" s="24"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" s="24"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="12"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" s="24"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="12"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D111" r:id="rId1" display="https://mjbright.github.io/Talks"/>
+    <hyperlink ref="D124" r:id="rId2" display="2012-Nov 2nd place: https://www.archionline.com/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:BF65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>43</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
+        <v>155</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="F14" s="22"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18"/>
       <c r="E16" s="12"/>
@@ -1476,118 +3501,118 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -1598,10 +3623,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -1609,10 +3634,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -1620,10 +3645,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
@@ -1631,10 +3656,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="26"/>
@@ -1642,10 +3667,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="14"/>
       <c r="G31" s="26"/>
@@ -1653,20 +3678,20 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
@@ -1675,10 +3700,10 @@
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
       <c r="C34" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="0"/>
@@ -1686,50 +3711,50 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="26"/>
@@ -1737,7 +3762,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -1748,10 +3773,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
@@ -1760,10 +3785,10 @@
       <c r="A42" s="0"/>
       <c r="B42" s="0"/>
       <c r="C42" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="0"/>
@@ -1771,60 +3796,60 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47" s="14"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E48" s="14"/>
       <c r="G48" s="12"/>
@@ -1833,10 +3858,10 @@
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -1897,10 +3922,10 @@
       <c r="A50" s="0"/>
       <c r="B50" s="0"/>
       <c r="C50" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
@@ -1960,10 +3985,10 @@
       <c r="A51" s="0"/>
       <c r="B51" s="0"/>
       <c r="C51" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -2022,7 +4047,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -2032,107 +4057,107 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="E53" s="14"/>
       <c r="G53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E54" s="14"/>
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
@@ -2142,67 +4167,67 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
@@ -2212,57 +4237,57 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E74" s="14"/>
       <c r="G74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E75" s="14"/>
       <c r="G75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
@@ -2275,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="29"/>
@@ -2285,7 +4310,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
@@ -2295,2083 +4320,37 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="12"/>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="24"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="7"/>
-      <c r="AD87" s="7"/>
-      <c r="AE87" s="7"/>
-      <c r="AF87" s="7"/>
-      <c r="AG87" s="7"/>
-      <c r="AH87" s="7"/>
-      <c r="AI87" s="7"/>
-      <c r="AJ87" s="7"/>
-      <c r="AK87" s="7"/>
-      <c r="AL87" s="7"/>
-      <c r="AM87" s="7"/>
-      <c r="AN87" s="7"/>
-      <c r="AO87" s="7"/>
-      <c r="AP87" s="7"/>
-      <c r="AQ87" s="7"/>
-      <c r="AR87" s="7"/>
-      <c r="AS87" s="7"/>
-      <c r="AT87" s="7"/>
-      <c r="AU87" s="7"/>
-      <c r="AV87" s="7"/>
-      <c r="AW87" s="7"/>
-      <c r="AX87" s="7"/>
-      <c r="AY87" s="7"/>
-      <c r="AZ87" s="7"/>
-      <c r="BA87" s="7"/>
-      <c r="BB87" s="7"/>
-      <c r="BC87" s="7"/>
-      <c r="BD87" s="7"/>
-      <c r="BE87" s="7"/>
-      <c r="BF87" s="7"/>
-    </row>
-    <row r="88" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
-      <c r="C88" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="0"/>
-      <c r="I88" s="0"/>
-      <c r="J88" s="0"/>
-      <c r="K88" s="0"/>
-      <c r="L88" s="0"/>
-      <c r="M88" s="0"/>
-      <c r="N88" s="0"/>
-      <c r="O88" s="0"/>
-      <c r="P88" s="0"/>
-      <c r="Q88" s="0"/>
-      <c r="R88" s="0"/>
-      <c r="S88" s="0"/>
-      <c r="T88" s="0"/>
-      <c r="U88" s="0"/>
-      <c r="V88" s="0"/>
-      <c r="W88" s="0"/>
-      <c r="X88" s="0"/>
-      <c r="Y88" s="0"/>
-      <c r="Z88" s="0"/>
-      <c r="AA88" s="0"/>
-      <c r="AB88" s="0"/>
-      <c r="AC88" s="0"/>
-      <c r="AD88" s="0"/>
-      <c r="AE88" s="0"/>
-      <c r="AF88" s="0"/>
-      <c r="AG88" s="0"/>
-      <c r="AH88" s="0"/>
-      <c r="AI88" s="0"/>
-      <c r="AJ88" s="0"/>
-      <c r="AK88" s="0"/>
-      <c r="AL88" s="0"/>
-      <c r="AM88" s="0"/>
-      <c r="AN88" s="0"/>
-      <c r="AO88" s="0"/>
-      <c r="AP88" s="0"/>
-      <c r="AQ88" s="0"/>
-      <c r="AR88" s="0"/>
-      <c r="AS88" s="0"/>
-      <c r="AT88" s="0"/>
-      <c r="AU88" s="0"/>
-      <c r="AV88" s="0"/>
-      <c r="AW88" s="0"/>
-      <c r="AX88" s="0"/>
-      <c r="AY88" s="0"/>
-      <c r="AZ88" s="0"/>
-      <c r="BA88" s="0"/>
-      <c r="BB88" s="0"/>
-      <c r="BC88" s="0"/>
-      <c r="BD88" s="0"/>
-      <c r="BE88" s="0"/>
-      <c r="BF88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="12"/>
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
-      <c r="C95" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
-      <c r="K95" s="0"/>
-      <c r="L95" s="0"/>
-      <c r="M95" s="0"/>
-      <c r="N95" s="0"/>
-      <c r="O95" s="0"/>
-      <c r="P95" s="0"/>
-      <c r="Q95" s="0"/>
-      <c r="R95" s="0"/>
-      <c r="S95" s="0"/>
-      <c r="T95" s="0"/>
-      <c r="U95" s="0"/>
-      <c r="V95" s="0"/>
-      <c r="W95" s="0"/>
-      <c r="X95" s="0"/>
-      <c r="Y95" s="0"/>
-      <c r="Z95" s="0"/>
-      <c r="AA95" s="0"/>
-      <c r="AB95" s="0"/>
-      <c r="AC95" s="0"/>
-      <c r="AD95" s="0"/>
-      <c r="AE95" s="0"/>
-      <c r="AF95" s="0"/>
-      <c r="AG95" s="0"/>
-      <c r="AH95" s="0"/>
-      <c r="AI95" s="0"/>
-      <c r="AJ95" s="0"/>
-      <c r="AK95" s="0"/>
-      <c r="AL95" s="0"/>
-      <c r="AM95" s="0"/>
-      <c r="AN95" s="0"/>
-      <c r="AO95" s="0"/>
-      <c r="AP95" s="0"/>
-      <c r="AQ95" s="0"/>
-      <c r="AR95" s="0"/>
-      <c r="AS95" s="0"/>
-      <c r="AT95" s="0"/>
-      <c r="AU95" s="0"/>
-      <c r="AV95" s="0"/>
-      <c r="AW95" s="0"/>
-      <c r="AX95" s="0"/>
-      <c r="AY95" s="0"/>
-      <c r="AZ95" s="0"/>
-      <c r="BA95" s="0"/>
-      <c r="BB95" s="0"/>
-      <c r="BC95" s="0"/>
-      <c r="BD95" s="0"/>
-      <c r="BE95" s="0"/>
-      <c r="BF95" s="0"/>
-    </row>
-    <row r="96" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="7"/>
-      <c r="AD96" s="7"/>
-      <c r="AE96" s="7"/>
-      <c r="AF96" s="7"/>
-      <c r="AG96" s="7"/>
-      <c r="AH96" s="7"/>
-      <c r="AI96" s="7"/>
-      <c r="AJ96" s="7"/>
-      <c r="AK96" s="7"/>
-      <c r="AL96" s="7"/>
-      <c r="AM96" s="7"/>
-      <c r="AN96" s="7"/>
-      <c r="AO96" s="7"/>
-      <c r="AP96" s="7"/>
-      <c r="AQ96" s="7"/>
-      <c r="AR96" s="7"/>
-      <c r="AS96" s="7"/>
-      <c r="AT96" s="7"/>
-      <c r="AU96" s="7"/>
-      <c r="AV96" s="7"/>
-      <c r="AW96" s="7"/>
-      <c r="AX96" s="7"/>
-      <c r="AY96" s="7"/>
-      <c r="AZ96" s="7"/>
-      <c r="BA96" s="7"/>
-      <c r="BB96" s="7"/>
-      <c r="BC96" s="7"/>
-      <c r="BD96" s="7"/>
-      <c r="BE96" s="7"/>
-      <c r="BF96" s="7"/>
-    </row>
-    <row r="97" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="0"/>
-      <c r="N97" s="0"/>
-      <c r="O97" s="0"/>
-      <c r="P97" s="0"/>
-      <c r="Q97" s="0"/>
-      <c r="R97" s="0"/>
-      <c r="S97" s="0"/>
-      <c r="T97" s="0"/>
-      <c r="U97" s="0"/>
-      <c r="V97" s="0"/>
-      <c r="W97" s="0"/>
-      <c r="X97" s="0"/>
-      <c r="Y97" s="0"/>
-      <c r="Z97" s="0"/>
-      <c r="AA97" s="0"/>
-      <c r="AB97" s="0"/>
-      <c r="AC97" s="0"/>
-      <c r="AD97" s="0"/>
-      <c r="AE97" s="0"/>
-      <c r="AF97" s="0"/>
-      <c r="AG97" s="0"/>
-      <c r="AH97" s="0"/>
-      <c r="AI97" s="0"/>
-      <c r="AJ97" s="0"/>
-      <c r="AK97" s="0"/>
-      <c r="AL97" s="0"/>
-      <c r="AM97" s="0"/>
-      <c r="AN97" s="0"/>
-      <c r="AO97" s="0"/>
-      <c r="AP97" s="0"/>
-      <c r="AQ97" s="0"/>
-      <c r="AR97" s="0"/>
-      <c r="AS97" s="0"/>
-      <c r="AT97" s="0"/>
-      <c r="AU97" s="0"/>
-      <c r="AV97" s="0"/>
-      <c r="AW97" s="0"/>
-      <c r="AX97" s="0"/>
-      <c r="AY97" s="0"/>
-      <c r="AZ97" s="0"/>
-      <c r="BA97" s="0"/>
-      <c r="BB97" s="0"/>
-      <c r="BC97" s="0"/>
-      <c r="BD97" s="0"/>
-      <c r="BE97" s="0"/>
-      <c r="BF97" s="0"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0"/>
-      <c r="B104" s="0"/>
-      <c r="C104" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-      <c r="K104" s="0"/>
-      <c r="L104" s="0"/>
-      <c r="M104" s="0"/>
-      <c r="N104" s="0"/>
-      <c r="O104" s="0"/>
-      <c r="P104" s="0"/>
-      <c r="Q104" s="0"/>
-      <c r="R104" s="0"/>
-      <c r="S104" s="0"/>
-      <c r="T104" s="0"/>
-      <c r="U104" s="0"/>
-      <c r="V104" s="0"/>
-      <c r="W104" s="0"/>
-      <c r="X104" s="0"/>
-      <c r="Y104" s="0"/>
-      <c r="Z104" s="0"/>
-      <c r="AA104" s="0"/>
-      <c r="AB104" s="0"/>
-      <c r="AC104" s="0"/>
-      <c r="AD104" s="0"/>
-      <c r="AE104" s="0"/>
-      <c r="AF104" s="0"/>
-      <c r="AG104" s="0"/>
-      <c r="AH104" s="0"/>
-      <c r="AI104" s="0"/>
-      <c r="AJ104" s="0"/>
-      <c r="AK104" s="0"/>
-      <c r="AL104" s="0"/>
-      <c r="AM104" s="0"/>
-      <c r="AN104" s="0"/>
-      <c r="AO104" s="0"/>
-      <c r="AP104" s="0"/>
-      <c r="AQ104" s="0"/>
-      <c r="AR104" s="0"/>
-      <c r="AS104" s="0"/>
-      <c r="AT104" s="0"/>
-      <c r="AU104" s="0"/>
-      <c r="AV104" s="0"/>
-      <c r="AW104" s="0"/>
-      <c r="AX104" s="0"/>
-      <c r="AY104" s="0"/>
-      <c r="AZ104" s="0"/>
-      <c r="BA104" s="0"/>
-      <c r="BB104" s="0"/>
-      <c r="BC104" s="0"/>
-      <c r="BD104" s="0"/>
-      <c r="BE104" s="0"/>
-      <c r="BF104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="G113" s="12"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D121" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E121" s="12"/>
-      <c r="G121" s="12"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E124" s="12"/>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D125" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E125" s="12"/>
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E128" s="12"/>
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="12"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E131" s="12"/>
-      <c r="G131" s="12"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E132" s="12"/>
-      <c r="G132" s="12"/>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E133" s="12"/>
-      <c r="G133" s="12"/>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="12"/>
-      <c r="G134" s="12"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D112" r:id="rId1" display="https://mjbright.github.io/Talks"/>
-    <hyperlink ref="D125" r:id="rId2" display="2012-Nov 2nd place: https://www.archionline.com/"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:BF65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="E16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="G27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="G28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="G29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="26"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="G31" s="26"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="G39" s="26"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="0"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="0"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0"/>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
-      <c r="AB49" s="0"/>
-      <c r="AC49" s="0"/>
-      <c r="AD49" s="0"/>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0"/>
-      <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
-      <c r="AM49" s="0"/>
-      <c r="AN49" s="0"/>
-      <c r="AO49" s="0"/>
-      <c r="AP49" s="0"/>
-      <c r="AQ49" s="0"/>
-      <c r="AR49" s="0"/>
-      <c r="AS49" s="0"/>
-      <c r="AT49" s="0"/>
-      <c r="AU49" s="0"/>
-      <c r="AV49" s="0"/>
-      <c r="AW49" s="0"/>
-      <c r="AX49" s="0"/>
-      <c r="AY49" s="0"/>
-      <c r="AZ49" s="0"/>
-      <c r="BA49" s="0"/>
-      <c r="BB49" s="0"/>
-      <c r="BC49" s="0"/>
-      <c r="BD49" s="0"/>
-      <c r="BE49" s="0"/>
-      <c r="BF49" s="0"/>
-    </row>
-    <row r="50" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="0"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7"/>
-      <c r="AR50" s="7"/>
-      <c r="AS50" s="7"/>
-      <c r="AT50" s="7"/>
-      <c r="AU50" s="7"/>
-      <c r="AV50" s="7"/>
-      <c r="AW50" s="7"/>
-      <c r="AX50" s="7"/>
-      <c r="AY50" s="7"/>
-      <c r="AZ50" s="7"/>
-      <c r="BA50" s="7"/>
-      <c r="BB50" s="7"/>
-      <c r="BC50" s="7"/>
-      <c r="BD50" s="7"/>
-      <c r="BE50" s="7"/>
-      <c r="BF50" s="7"/>
-    </row>
-    <row r="51" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="0"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
-      <c r="AB51" s="0"/>
-      <c r="AC51" s="0"/>
-      <c r="AD51" s="0"/>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AG51" s="0"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
-      <c r="AL51" s="0"/>
-      <c r="AM51" s="0"/>
-      <c r="AN51" s="0"/>
-      <c r="AO51" s="0"/>
-      <c r="AP51" s="0"/>
-      <c r="AQ51" s="0"/>
-      <c r="AR51" s="0"/>
-      <c r="AS51" s="0"/>
-      <c r="AT51" s="0"/>
-      <c r="AU51" s="0"/>
-      <c r="AV51" s="0"/>
-      <c r="AW51" s="0"/>
-      <c r="AX51" s="0"/>
-      <c r="AY51" s="0"/>
-      <c r="AZ51" s="0"/>
-      <c r="BA51" s="0"/>
-      <c r="BB51" s="0"/>
-      <c r="BC51" s="0"/>
-      <c r="BD51" s="0"/>
-      <c r="BE51" s="0"/>
-      <c r="BF51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="14"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="14"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="14"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="14"/>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="12"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="G81" s="12"/>
-    </row>
     <row r="82" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
@@ -4432,10 +4411,10 @@
       <c r="A83" s="0"/>
       <c r="B83" s="0"/>
       <c r="C83" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -4493,37 +4472,37 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="25"/>
@@ -4533,20 +4512,20 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E88" s="12"/>
       <c r="G88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E89" s="12"/>
       <c r="G89" s="12"/>
@@ -4555,10 +4534,10 @@
       <c r="A90" s="0"/>
       <c r="B90" s="0"/>
       <c r="C90" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -4617,7 +4596,7 @@
     </row>
     <row r="91" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="25"/>
@@ -4680,10 +4659,10 @@
       <c r="A92" s="0"/>
       <c r="B92" s="0"/>
       <c r="C92" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="0"/>
@@ -4742,17 +4721,17 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E93" s="12"/>
       <c r="G93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="25"/>
@@ -4766,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="29"/>
@@ -4776,7 +4755,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="25"/>
@@ -4787,20 +4766,20 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
@@ -4809,10 +4788,10 @@
       <c r="A99" s="0"/>
       <c r="B99" s="0"/>
       <c r="C99" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="0"/>
@@ -4871,37 +4850,37 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E101" s="12"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E102" s="12"/>
       <c r="G102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="25"/>
@@ -4915,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C104" s="31"/>
       <c r="D104" s="29"/>
@@ -4925,7 +4904,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="25"/>
@@ -4936,127 +4915,127 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -5067,27 +5046,27 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="25"/>
@@ -5098,37 +5077,37 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E123" s="12"/>
       <c r="G123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E124" s="12"/>
       <c r="G124" s="12"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="25"/>
@@ -5139,37 +5118,37 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E126" s="12"/>
       <c r="G126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E127" s="12"/>
       <c r="G127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E128" s="12"/>
       <c r="G128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="25"/>
@@ -5346,7 +5325,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -5359,50 +5338,50 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,71 +5389,71 @@
         <v>6</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="22"/>
@@ -5486,12 +5465,12 @@
         <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="18"/>
       <c r="E14" s="12"/>
@@ -5499,112 +5478,112 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -5615,10 +5594,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="26"/>
@@ -5626,10 +5605,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -5637,10 +5616,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -5648,10 +5627,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -5659,10 +5638,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -5670,20 +5649,20 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
@@ -5692,10 +5671,10 @@
       <c r="A31" s="0"/>
       <c r="B31" s="0"/>
       <c r="C31" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="0"/>
@@ -5703,50 +5682,50 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="26"/>
@@ -5754,7 +5733,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -5765,10 +5744,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
@@ -5777,10 +5756,10 @@
       <c r="A39" s="0"/>
       <c r="B39" s="0"/>
       <c r="C39" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="0"/>
@@ -5788,60 +5767,60 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E40" s="14"/>
       <c r="G40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -5850,10 +5829,10 @@
       <c r="A46" s="0"/>
       <c r="B46" s="0"/>
       <c r="C46" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="0"/>
@@ -5914,10 +5893,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -5977,10 +5956,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -6039,7 +6018,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
@@ -6049,107 +6028,107 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E50" s="14"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E53" s="14"/>
       <c r="G53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E54" s="14"/>
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
@@ -6159,67 +6138,67 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -6229,57 +6208,57 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
@@ -6292,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="29"/>
@@ -6302,7 +6281,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
@@ -6312,37 +6291,37 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="25"/>
@@ -6403,10 +6382,10 @@
       <c r="A80" s="0"/>
       <c r="B80" s="0"/>
       <c r="C80" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
@@ -6464,37 +6443,37 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="25"/>
@@ -6504,20 +6483,20 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -6526,10 +6505,10 @@
       <c r="A87" s="0"/>
       <c r="B87" s="0"/>
       <c r="C87" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -6588,7 +6567,7 @@
     </row>
     <row r="88" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="25"/>
@@ -6651,10 +6630,10 @@
       <c r="A89" s="0"/>
       <c r="B89" s="0"/>
       <c r="C89" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="0"/>
@@ -6713,17 +6692,17 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="25"/>
@@ -6737,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="29"/>
@@ -6747,7 +6726,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="25"/>
@@ -6758,20 +6737,20 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E94" s="12"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
@@ -6780,10 +6759,10 @@
       <c r="A96" s="0"/>
       <c r="B96" s="0"/>
       <c r="C96" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="0"/>
@@ -6842,37 +6821,37 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="25"/>
@@ -6886,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="29"/>
@@ -6896,7 +6875,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="25"/>
@@ -6907,117 +6886,117 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E103" s="12"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="25"/>
@@ -7028,37 +7007,37 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -7069,37 +7048,37 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="25"/>
@@ -7283,7 +7262,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -7296,66 +7275,66 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,71 +7342,71 @@
         <v>6</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="22"/>
@@ -7439,12 +7418,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="18"/>
       <c r="E15" s="12"/>
@@ -7452,111 +7431,111 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -7567,10 +7546,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -7578,10 +7557,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -7589,10 +7568,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -7600,10 +7579,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -7611,10 +7590,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
@@ -7622,20 +7601,20 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="14"/>
       <c r="G31" s="12"/>
@@ -7644,10 +7623,10 @@
       <c r="A32" s="0"/>
       <c r="B32" s="0"/>
       <c r="C32" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="0"/>
@@ -7655,50 +7634,50 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="26"/>
@@ -7706,7 +7685,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -7717,10 +7696,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="12"/>
@@ -7729,10 +7708,10 @@
       <c r="A40" s="0"/>
       <c r="B40" s="0"/>
       <c r="C40" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="0"/>
@@ -7740,60 +7719,60 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
@@ -7802,10 +7781,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -7866,10 +7845,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -7929,10 +7908,10 @@
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -7991,7 +7970,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -8001,107 +7980,107 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E53" s="14"/>
       <c r="G53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54" s="14"/>
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
@@ -8111,67 +8090,67 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -8181,57 +8160,57 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
@@ -8244,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="29"/>
@@ -8254,7 +8233,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
@@ -8264,37 +8243,37 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
     <row r="80" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
@@ -8355,10 +8334,10 @@
       <c r="A81" s="0"/>
       <c r="B81" s="0"/>
       <c r="C81" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -8416,37 +8395,37 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
@@ -8456,20 +8435,20 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
@@ -8478,10 +8457,10 @@
       <c r="A88" s="0"/>
       <c r="B88" s="0"/>
       <c r="C88" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -8540,7 +8519,7 @@
     </row>
     <row r="89" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="25"/>
@@ -8603,10 +8582,10 @@
       <c r="A90" s="0"/>
       <c r="B90" s="0"/>
       <c r="C90" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -8665,17 +8644,17 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="25"/>
@@ -8689,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="29"/>
@@ -8699,7 +8678,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="25"/>
@@ -8710,20 +8689,20 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E96" s="12"/>
       <c r="G96" s="12"/>
@@ -8732,10 +8711,10 @@
       <c r="A97" s="0"/>
       <c r="B97" s="0"/>
       <c r="C97" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="0"/>
@@ -8794,37 +8773,37 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="25"/>
@@ -8838,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C102" s="31"/>
       <c r="D102" s="29"/>
@@ -8848,7 +8827,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="25"/>
@@ -8859,117 +8838,117 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="25"/>
@@ -8980,37 +8959,37 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="25"/>
@@ -9021,37 +9000,37 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="25"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -9,13 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CV_2017_Jul_RedHat_AnsibleSpecialiste" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CV.fails" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CV_2017-Mars_ATC" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CV_tmp_3Sep2017" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CV_2017_Jul_RedHat_AnsibleSpecialiste" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CV.fails" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CV_2017-Mars_ATC" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" name="ampm" vbProcedure="false">[2]Formulas!$C$31:$C$72</definedName>
@@ -61,9 +62,9 @@
     <definedName function="false" hidden="false" name="WeekNo" vbProcedure="false">[2]Formulas!$A$21:$A$27</definedName>
     <definedName function="false" hidden="false" name="year" vbProcedure="false">[2]Formulas!$H$6</definedName>
     <definedName function="false" hidden="false" name="_DAY1" vbProcedure="false">[1]W1!$C$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="GAIN" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="GAIN2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MONINT" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="GAIN" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="GAIN2" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="MONINT" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -74,7 +75,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="213">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -146,189 +147,462 @@
     <t xml:space="preserve">CERTIFICATION</t>
   </si>
   <si>
+    <t xml:space="preserve">CNCF Kubernetes CKA, RHCE, RHCSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:RHCE, RHCSA, HP Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:RHCE, RHCSA, HP Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+33 (0)672991647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:+33 (0)67299 1647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:+33 (0)67299 1647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv@mjbright.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:cv@mjbright.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:cv@mjbright.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBSITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:http://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:http://mjbright.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINKEDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/mjbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective  -  Pre-sales Solution Architect or Technical Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Michael Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:NFV Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLOYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales Solution Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:Solution Architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: 09/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Native (CaaS, PaaS, Serverless, DevOps, u-services, Unikernel)  presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery of Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoC Management with NFV partners, OpenStack hands-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCE, AWS, Azure, Orchestration/Automation (Heat, Ansible, Vagrant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP CMS - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics \&amp; service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM Master, TDD, Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Java, C++ development, unit \&amp; functional tests for SOAP \&amp; REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog \&amp; media creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, SDN, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Architect/Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP OCBU - Grenoble France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products \&amp; proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NG- service delivery, OSA/Parlay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact \&amp; ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KT, Tuja, DCC, FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments Korean VoIP benchtest, Japan IN, Ukraine Prepaid, France VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITSE or ITSM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSM Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for Hong-Kong Tel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead/Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design \&amp; implementation of SCE \&amp; SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network modelling (X.25, SS7, ethernet)  leading to PoC, demos \&amp; HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Transfer to divisions in Singapore, France, US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Research Labs - UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICAM digital audio subjective noise reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Z-filter design, simulation, bit-slice micro-processor coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- User subjectivity tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 2017 CNCF Kubernetes Administration (CKA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2015 HPE Expert One, SDN Apps (HP0-Y48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 2014 Mirantis OpenStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 2013 RedHat RHCE/RHCSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages and Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/C++, C\#, Java, Javascript, JQuery, Angular, Scala, LISP, Smalltalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ. Of Hull,  UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Firth prize for electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startup Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-Nov 2nd place: https://www.archionline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running, cycling, Roller blading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
     <t xml:space="preserve">CNCF Kubernetes CKA, RHCE, RHCSA, HPE Expert One SDN Apps</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr:RHCE, RHCSA, HP Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:RHCE, RHCSA, HP Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+33 (0)672991647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:+33 (0)67299 1647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:+33 (0)67299 1647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cv@mjbright.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:cv@mjbright.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:cv@mjbright.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBSITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:http://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:http://mjbright.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINKEDIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.linkedin.com/in/mjbright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objective - Pre-sales Solution Architect or Technical Lead on Cloud Native, Container and Automation</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Michael Bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte, adovcate conteneurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:NFV Solution Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:Grenoble, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLOYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es:HPE, Hewlett-Packard Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPERIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:Solution Architecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE Customer Innovation Center - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: HPE EG avant-vente - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native Solution Architect, HPE EG presales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr:NFV  in HPE Customer Innovation Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: 09/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISTITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Native (CaaS, PaaS, Serverless, DevOps, u-services, Unikernel)  presentations</t>
-  </si>
-  <si>
     <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fr: Creation de PoC NFV avec partenaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoC Management with NFV partners, OpenStack hands-on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr: OpenStack pour NFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCE, AWS, Azure, Orchestration/Automation (Heat, Ansible, Vagrant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP CMS - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU patent for Prepaid data charging [EP1720335A1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated installations of  AP4SaaS/IaaS cloud products for Telecom service providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Successful transfer to India/China development teams</t>
-  </si>
-  <si>
     <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
   </si>
   <si>
@@ -347,27 +621,12 @@
     <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
   </si>
   <si>
-    <t xml:space="preserve">Solution Architect/Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP OCBU - Grenoble France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/1998</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
   </si>
   <si>
-    <t xml:space="preserve">--  Prepaid voice/data charging, Voice over IP, IN, NG- service delivery, OSA/Parlay.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">--  Performance benchtesting, design win prototyping, PoCs, RFP responses</t>
-  </si>
-  <si>
     <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
   </si>
   <si>
@@ -377,196 +636,19 @@
     <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
   </si>
   <si>
-    <t xml:space="preserve">Technical Lead/Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Lead on Telecom IN products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Service Creation Environment project (IN SCE), 3rd-party editor integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Consulting, debug, training to 8-partner billing project for HDLC/X.25 networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
     <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
   </si>
   <si>
-    <t xml:space="preserve">--  Port of HP-UX 802.3 LAN driver to HP-RT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of Technical Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Research Labs - Bristol UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1985</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
   </si>
   <si>
-    <t xml:space="preserve">Parallel Processing research, AI/Qualitative reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Research Labs - UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/1984</t>
-  </si>
-  <si>
     <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
   </si>
   <si>
-    <t xml:space="preserve">SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2017 CNCF Kubernetes Administration (CKA) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2015 HPE Expert One, SDN Apps (HP0-Y48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2013 RedHat RHCE/RHCSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaaS OpenShift, Google App Engine, Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages and Paradigms</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
   </si>
   <si>
     <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Linux Kernel, Android, Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse, Git, svn, vim, maven, Jenkins, gdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluency in French, notions of Italian, Spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc/Dip.Eng in  Electronic Control and Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Of Hull,  UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Firth prize for electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year placement with BBC Research Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mjbright.github.io/Talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jul RMLL Docker-py, Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-May PyConUS Container Orchestration, Jupyter tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Apr DockerCon US Unikernels Lightning Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Mar HPE TES Unikernels, Container Orchestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb Snowcamp.io Unikernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Feb HPE TSS NFV, Docker Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Jan Devconf.cz  Unikernels The next big little thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Oct ContainerCon Europe, Container Orchestration (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-Jul Europython, Jupyter for Everything Else (pres+lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-Oct Pyconfr, Ipython vers Jupyter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Startup Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-Nov 2nd place: https://www.archionline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport / Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running, cycling, Roller blading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
   </si>
   <si>
     <t xml:space="preserve">RHCE, RHCSA, HPE Expert One SDN Apps</t>
@@ -677,7 +759,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="MMM\-YY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -730,6 +812,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E3436"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -876,7 +965,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1001,6 +1090,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1009,11 +1102,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1021,7 +1114,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1091,7 +1184,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF2E3436"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1196,10 +1289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:BF65536"/>
+  <dimension ref="A1:BF139"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D129" activeCellId="0" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1457,11 +1550,11 @@
         <v>34</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -1470,95 +1563,95 @@
         <v>42</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="12"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="12"/>
       <c r="G24" s="12"/>
@@ -1579,7 +1672,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -1590,7 +1683,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -1598,10 +1691,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -1609,212 +1702,214 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="G30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="14"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
       <c r="C32" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="14"/>
+      <c r="F32" s="0"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="0"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="G37" s="26"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="14"/>
-      <c r="G38" s="26"/>
-      <c r="I38" s="27"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="24"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
       <c r="C40" s="13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="14"/>
+      <c r="F40" s="0"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>80</v>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="0"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E43" s="14"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="26"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="14"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
+      <c r="A48" s="0" t="s">
+        <v>87</v>
+      </c>
       <c r="B48" s="0"/>
       <c r="C48" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -1872,13 +1967,15 @@
       <c r="BF48" s="0"/>
     </row>
     <row r="49" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
+      <c r="A49" s="0" t="s">
+        <v>89</v>
+      </c>
       <c r="B49" s="0"/>
       <c r="C49" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -1938,10 +2035,10 @@
       <c r="A50" s="0"/>
       <c r="B50" s="0"/>
       <c r="C50" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
@@ -2013,7 +2110,7 @@
         <v>34</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="12"/>
@@ -2030,17 +2127,17 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E54" s="14"/>
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>81</v>
@@ -2050,60 +2147,60 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
@@ -2123,7 +2220,7 @@
         <v>34</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
@@ -2133,47 +2230,2131 @@
         <v>42</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="14"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="14"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="12"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="24"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
+      <c r="AS90" s="7"/>
+      <c r="AT90" s="7"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="7"/>
+      <c r="AW90" s="7"/>
+      <c r="AX90" s="7"/>
+      <c r="AY90" s="7"/>
+      <c r="AZ90" s="7"/>
+      <c r="BA90" s="7"/>
+      <c r="BB90" s="7"/>
+      <c r="BC90" s="7"/>
+      <c r="BD90" s="7"/>
+      <c r="BE90" s="7"/>
+      <c r="BF90" s="7"/>
+    </row>
+    <row r="91" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
+      <c r="B91" s="0"/>
+      <c r="C91" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="0"/>
+      <c r="I91" s="0"/>
+      <c r="J91" s="0"/>
+      <c r="K91" s="0"/>
+      <c r="L91" s="0"/>
+      <c r="M91" s="0"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+      <c r="R91" s="0"/>
+      <c r="S91" s="0"/>
+      <c r="T91" s="0"/>
+      <c r="U91" s="0"/>
+      <c r="V91" s="0"/>
+      <c r="W91" s="0"/>
+      <c r="X91" s="0"/>
+      <c r="Y91" s="0"/>
+      <c r="Z91" s="0"/>
+      <c r="AA91" s="0"/>
+      <c r="AB91" s="0"/>
+      <c r="AC91" s="0"/>
+      <c r="AD91" s="0"/>
+      <c r="AE91" s="0"/>
+      <c r="AF91" s="0"/>
+      <c r="AG91" s="0"/>
+      <c r="AH91" s="0"/>
+      <c r="AI91" s="0"/>
+      <c r="AJ91" s="0"/>
+      <c r="AK91" s="0"/>
+      <c r="AL91" s="0"/>
+      <c r="AM91" s="0"/>
+      <c r="AN91" s="0"/>
+      <c r="AO91" s="0"/>
+      <c r="AP91" s="0"/>
+      <c r="AQ91" s="0"/>
+      <c r="AR91" s="0"/>
+      <c r="AS91" s="0"/>
+      <c r="AT91" s="0"/>
+      <c r="AU91" s="0"/>
+      <c r="AV91" s="0"/>
+      <c r="AW91" s="0"/>
+      <c r="AX91" s="0"/>
+      <c r="AY91" s="0"/>
+      <c r="AZ91" s="0"/>
+      <c r="BA91" s="0"/>
+      <c r="BB91" s="0"/>
+      <c r="BC91" s="0"/>
+      <c r="BD91" s="0"/>
+      <c r="BE91" s="0"/>
+      <c r="BF91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="12"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0"/>
+      <c r="U99" s="0"/>
+      <c r="V99" s="0"/>
+      <c r="W99" s="0"/>
+      <c r="X99" s="0"/>
+      <c r="Y99" s="0"/>
+      <c r="Z99" s="0"/>
+      <c r="AA99" s="0"/>
+      <c r="AB99" s="0"/>
+      <c r="AC99" s="0"/>
+      <c r="AD99" s="0"/>
+      <c r="AE99" s="0"/>
+      <c r="AF99" s="0"/>
+      <c r="AG99" s="0"/>
+      <c r="AH99" s="0"/>
+      <c r="AI99" s="0"/>
+      <c r="AJ99" s="0"/>
+      <c r="AK99" s="0"/>
+      <c r="AL99" s="0"/>
+      <c r="AM99" s="0"/>
+      <c r="AN99" s="0"/>
+      <c r="AO99" s="0"/>
+      <c r="AP99" s="0"/>
+      <c r="AQ99" s="0"/>
+      <c r="AR99" s="0"/>
+      <c r="AS99" s="0"/>
+      <c r="AT99" s="0"/>
+      <c r="AU99" s="0"/>
+      <c r="AV99" s="0"/>
+      <c r="AW99" s="0"/>
+      <c r="AX99" s="0"/>
+      <c r="AY99" s="0"/>
+      <c r="AZ99" s="0"/>
+      <c r="BA99" s="0"/>
+      <c r="BB99" s="0"/>
+      <c r="BC99" s="0"/>
+      <c r="BD99" s="0"/>
+      <c r="BE99" s="0"/>
+      <c r="BF99" s="0"/>
+    </row>
+    <row r="100" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7"/>
+      <c r="AJ100" s="7"/>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="7"/>
+      <c r="AS100" s="7"/>
+      <c r="AT100" s="7"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="7"/>
+      <c r="AW100" s="7"/>
+      <c r="AX100" s="7"/>
+      <c r="AY100" s="7"/>
+      <c r="AZ100" s="7"/>
+      <c r="BA100" s="7"/>
+      <c r="BB100" s="7"/>
+      <c r="BC100" s="7"/>
+      <c r="BD100" s="7"/>
+      <c r="BE100" s="7"/>
+      <c r="BF100" s="7"/>
+    </row>
+    <row r="101" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0"/>
+      <c r="B101" s="0"/>
+      <c r="C101" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="0"/>
+      <c r="N101" s="0"/>
+      <c r="O101" s="0"/>
+      <c r="P101" s="0"/>
+      <c r="Q101" s="0"/>
+      <c r="R101" s="0"/>
+      <c r="S101" s="0"/>
+      <c r="T101" s="0"/>
+      <c r="U101" s="0"/>
+      <c r="V101" s="0"/>
+      <c r="W101" s="0"/>
+      <c r="X101" s="0"/>
+      <c r="Y101" s="0"/>
+      <c r="Z101" s="0"/>
+      <c r="AA101" s="0"/>
+      <c r="AB101" s="0"/>
+      <c r="AC101" s="0"/>
+      <c r="AD101" s="0"/>
+      <c r="AE101" s="0"/>
+      <c r="AF101" s="0"/>
+      <c r="AG101" s="0"/>
+      <c r="AH101" s="0"/>
+      <c r="AI101" s="0"/>
+      <c r="AJ101" s="0"/>
+      <c r="AK101" s="0"/>
+      <c r="AL101" s="0"/>
+      <c r="AM101" s="0"/>
+      <c r="AN101" s="0"/>
+      <c r="AO101" s="0"/>
+      <c r="AP101" s="0"/>
+      <c r="AQ101" s="0"/>
+      <c r="AR101" s="0"/>
+      <c r="AS101" s="0"/>
+      <c r="AT101" s="0"/>
+      <c r="AU101" s="0"/>
+      <c r="AV101" s="0"/>
+      <c r="AW101" s="0"/>
+      <c r="AX101" s="0"/>
+      <c r="AY101" s="0"/>
+      <c r="AZ101" s="0"/>
+      <c r="BA101" s="0"/>
+      <c r="BB101" s="0"/>
+      <c r="BC101" s="0"/>
+      <c r="BD101" s="0"/>
+      <c r="BE101" s="0"/>
+      <c r="BF101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="30"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0"/>
+      <c r="B108" s="0"/>
+      <c r="C108" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="0"/>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
+      <c r="K108" s="0"/>
+      <c r="L108" s="0"/>
+      <c r="M108" s="0"/>
+      <c r="N108" s="0"/>
+      <c r="O108" s="0"/>
+      <c r="P108" s="0"/>
+      <c r="Q108" s="0"/>
+      <c r="R108" s="0"/>
+      <c r="S108" s="0"/>
+      <c r="T108" s="0"/>
+      <c r="U108" s="0"/>
+      <c r="V108" s="0"/>
+      <c r="W108" s="0"/>
+      <c r="X108" s="0"/>
+      <c r="Y108" s="0"/>
+      <c r="Z108" s="0"/>
+      <c r="AA108" s="0"/>
+      <c r="AB108" s="0"/>
+      <c r="AC108" s="0"/>
+      <c r="AD108" s="0"/>
+      <c r="AE108" s="0"/>
+      <c r="AF108" s="0"/>
+      <c r="AG108" s="0"/>
+      <c r="AH108" s="0"/>
+      <c r="AI108" s="0"/>
+      <c r="AJ108" s="0"/>
+      <c r="AK108" s="0"/>
+      <c r="AL108" s="0"/>
+      <c r="AM108" s="0"/>
+      <c r="AN108" s="0"/>
+      <c r="AO108" s="0"/>
+      <c r="AP108" s="0"/>
+      <c r="AQ108" s="0"/>
+      <c r="AR108" s="0"/>
+      <c r="AS108" s="0"/>
+      <c r="AT108" s="0"/>
+      <c r="AU108" s="0"/>
+      <c r="AV108" s="0"/>
+      <c r="AW108" s="0"/>
+      <c r="AX108" s="0"/>
+      <c r="AY108" s="0"/>
+      <c r="AZ108" s="0"/>
+      <c r="BA108" s="0"/>
+      <c r="BB108" s="0"/>
+      <c r="BC108" s="0"/>
+      <c r="BD108" s="0"/>
+      <c r="BE108" s="0"/>
+      <c r="BF108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="24"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="24"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="24"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="12"/>
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D116" r:id="rId1" display="https://mjbright.github.io/Talks"/>
+    <hyperlink ref="D129" r:id="rId2" display="2012-Nov 2nd place: https://www.archionline.com/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:BF65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="G26" s="26"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="26"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="G38" s="26"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="0"/>
+      <c r="V48" s="0"/>
+      <c r="W48" s="0"/>
+      <c r="X48" s="0"/>
+      <c r="Y48" s="0"/>
+      <c r="Z48" s="0"/>
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+      <c r="AE48" s="0"/>
+      <c r="AF48" s="0"/>
+      <c r="AG48" s="0"/>
+      <c r="AH48" s="0"/>
+      <c r="AI48" s="0"/>
+      <c r="AJ48" s="0"/>
+      <c r="AK48" s="0"/>
+      <c r="AL48" s="0"/>
+      <c r="AM48" s="0"/>
+      <c r="AN48" s="0"/>
+      <c r="AO48" s="0"/>
+      <c r="AP48" s="0"/>
+      <c r="AQ48" s="0"/>
+      <c r="AR48" s="0"/>
+      <c r="AS48" s="0"/>
+      <c r="AT48" s="0"/>
+      <c r="AU48" s="0"/>
+      <c r="AV48" s="0"/>
+      <c r="AW48" s="0"/>
+      <c r="AX48" s="0"/>
+      <c r="AY48" s="0"/>
+      <c r="AZ48" s="0"/>
+      <c r="BA48" s="0"/>
+      <c r="BB48" s="0"/>
+      <c r="BC48" s="0"/>
+      <c r="BD48" s="0"/>
+      <c r="BE48" s="0"/>
+      <c r="BF48" s="0"/>
+    </row>
+    <row r="49" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="0"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7"/>
+      <c r="BC49" s="7"/>
+      <c r="BD49" s="7"/>
+      <c r="BE49" s="7"/>
+      <c r="BF49" s="7"/>
+    </row>
+    <row r="50" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0"/>
+      <c r="X50" s="0"/>
+      <c r="Y50" s="0"/>
+      <c r="Z50" s="0"/>
+      <c r="AA50" s="0"/>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+      <c r="AE50" s="0"/>
+      <c r="AF50" s="0"/>
+      <c r="AG50" s="0"/>
+      <c r="AH50" s="0"/>
+      <c r="AI50" s="0"/>
+      <c r="AJ50" s="0"/>
+      <c r="AK50" s="0"/>
+      <c r="AL50" s="0"/>
+      <c r="AM50" s="0"/>
+      <c r="AN50" s="0"/>
+      <c r="AO50" s="0"/>
+      <c r="AP50" s="0"/>
+      <c r="AQ50" s="0"/>
+      <c r="AR50" s="0"/>
+      <c r="AS50" s="0"/>
+      <c r="AT50" s="0"/>
+      <c r="AU50" s="0"/>
+      <c r="AV50" s="0"/>
+      <c r="AW50" s="0"/>
+      <c r="AX50" s="0"/>
+      <c r="AY50" s="0"/>
+      <c r="AZ50" s="0"/>
+      <c r="BA50" s="0"/>
+      <c r="BB50" s="0"/>
+      <c r="BC50" s="0"/>
+      <c r="BD50" s="0"/>
+      <c r="BE50" s="0"/>
+      <c r="BF50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="14"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="14"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="D68" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
@@ -2193,7 +4374,7 @@
         <v>34</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
@@ -2203,37 +4384,37 @@
         <v>42</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E74" s="14"/>
       <c r="G74" s="12"/>
@@ -2253,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="29"/>
@@ -2276,37 +4457,37 @@
         <v>34</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -2326,27 +4507,27 @@
         <v>34</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
@@ -2417,7 +4598,7 @@
         <v>34</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
@@ -2475,30 +4656,30 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="E88" s="12"/>
       <c r="G88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E89" s="12"/>
       <c r="G89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -2518,17 +4699,17 @@
         <v>34</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E92" s="12"/>
       <c r="G92" s="12"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E93" s="12"/>
       <c r="G93" s="12"/>
@@ -2537,10 +4718,10 @@
       <c r="A94" s="0"/>
       <c r="B94" s="0"/>
       <c r="C94" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="0"/>
@@ -2665,7 +4846,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="0"/>
@@ -2724,10 +4905,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
@@ -2748,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C99" s="30"/>
       <c r="D99" s="29"/>
@@ -2772,17 +4953,17 @@
         <v>34</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E101" s="12"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E102" s="12"/>
       <c r="G102" s="12"/>
@@ -2791,10 +4972,10 @@
       <c r="A103" s="0"/>
       <c r="B103" s="0"/>
       <c r="C103" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="0"/>
@@ -2853,30 +5034,30 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
@@ -2897,9 +5078,9 @@
         <v>0</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="C108" s="32"/>
       <c r="D108" s="29"/>
       <c r="E108" s="12"/>
       <c r="F108" s="29"/>
@@ -2920,118 +5101,118 @@
       <c r="C110" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D110" s="32" t="s">
-        <v>133</v>
+      <c r="D110" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>134</v>
+        <v>61</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>135</v>
+        <v>61</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" s="35" t="s">
-        <v>142</v>
+        <v>61</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="35" t="s">
-        <v>143</v>
+        <v>61</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121" s="35" t="s">
-        <v>144</v>
+        <v>61</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -3052,17 +5233,17 @@
         <v>34</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E123" s="12"/>
       <c r="G123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="36" t="s">
-        <v>146</v>
+        <v>61</v>
+      </c>
+      <c r="D124" s="37" t="s">
+        <v>154</v>
       </c>
       <c r="E124" s="12"/>
       <c r="G124" s="12"/>
@@ -3083,27 +5264,27 @@
         <v>34</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E126" s="12"/>
       <c r="G126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E127" s="12"/>
       <c r="G127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E128" s="12"/>
       <c r="G128" s="12"/>
@@ -3124,27 +5305,27 @@
         <v>34</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E130" s="12"/>
       <c r="G130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E131" s="12"/>
       <c r="G131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E132" s="12"/>
       <c r="G132" s="12"/>
@@ -3226,7 +5407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -3324,7 +5505,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -3400,7 +5581,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13"/>
@@ -3473,10 +5654,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="13" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="22"/>
@@ -3508,7 +5689,7 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="12"/>
     </row>
@@ -3517,95 +5698,95 @@
         <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -3626,7 +5807,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -3637,7 +5818,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -3645,10 +5826,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
@@ -3656,10 +5837,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="26"/>
@@ -3667,10 +5848,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E31" s="14"/>
       <c r="G31" s="26"/>
@@ -3678,7 +5859,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>71</v>
@@ -3688,7 +5869,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>72</v>
@@ -3700,10 +5881,10 @@
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
       <c r="C34" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="0"/>
@@ -3711,50 +5892,50 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="26"/>
@@ -3796,7 +5977,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>81</v>
@@ -3806,50 +5987,50 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E47" s="14"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="14"/>
       <c r="G48" s="12"/>
@@ -3858,10 +6039,10 @@
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -3922,10 +6103,10 @@
       <c r="A50" s="0"/>
       <c r="B50" s="0"/>
       <c r="C50" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
@@ -3985,10 +6166,10 @@
       <c r="A51" s="0"/>
       <c r="B51" s="0"/>
       <c r="C51" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -4060,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E53" s="14"/>
       <c r="G53" s="12"/>
@@ -4077,17 +6258,17 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>81</v>
@@ -4097,60 +6278,60 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
@@ -4170,7 +6351,7 @@
         <v>34</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
@@ -4180,47 +6361,47 @@
         <v>42</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
@@ -4240,7 +6421,7 @@
         <v>34</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
@@ -4250,37 +6431,37 @@
         <v>42</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E74" s="14"/>
       <c r="G74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E75" s="14"/>
       <c r="G75" s="12"/>
@@ -4300,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="29"/>
@@ -4323,27 +6504,27 @@
         <v>34</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -4414,7 +6595,7 @@
         <v>34</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -4472,30 +6653,30 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -4515,17 +6696,17 @@
         <v>34</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E88" s="12"/>
       <c r="G88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E89" s="12"/>
       <c r="G89" s="12"/>
@@ -4534,10 +6715,10 @@
       <c r="A90" s="0"/>
       <c r="B90" s="0"/>
       <c r="C90" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -4662,7 +6843,7 @@
         <v>34</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="0"/>
@@ -4721,10 +6902,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E93" s="12"/>
       <c r="G93" s="12"/>
@@ -4745,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="29"/>
@@ -4769,17 +6950,17 @@
         <v>34</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
@@ -4788,10 +6969,10 @@
       <c r="A99" s="0"/>
       <c r="B99" s="0"/>
       <c r="C99" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="0"/>
@@ -4850,30 +7031,30 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E101" s="12"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E102" s="12"/>
       <c r="G102" s="12"/>
@@ -4894,9 +7075,9 @@
         <v>0</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="C104" s="32"/>
       <c r="D104" s="29"/>
       <c r="E104" s="12"/>
       <c r="F104" s="29"/>
@@ -4917,118 +7098,118 @@
       <c r="C106" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D106" s="32" t="s">
-        <v>133</v>
+      <c r="D106" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>134</v>
+        <v>61</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>135</v>
+        <v>61</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>142</v>
+        <v>61</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>143</v>
+        <v>61</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>144</v>
+        <v>61</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -5049,17 +7230,17 @@
         <v>34</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>146</v>
+        <v>61</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>154</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -5080,27 +7261,27 @@
         <v>34</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E123" s="12"/>
       <c r="G123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E124" s="12"/>
       <c r="G124" s="12"/>
@@ -5121,27 +7302,27 @@
         <v>34</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E126" s="12"/>
       <c r="G126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E127" s="12"/>
       <c r="G127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E128" s="12"/>
       <c r="G128" s="12"/>
@@ -5227,7 +7408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -5325,7 +7506,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -5373,7 +7554,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
@@ -5450,10 +7631,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="22"/>
@@ -5481,11 +7662,11 @@
         <v>34</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="12"/>
     </row>
@@ -5494,89 +7675,89 @@
         <v>42</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -5597,7 +7778,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="26"/>
@@ -5608,7 +7789,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -5616,10 +7797,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -5627,10 +7808,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -5638,10 +7819,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -5649,7 +7830,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>71</v>
@@ -5659,7 +7840,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>72</v>
@@ -5671,10 +7852,10 @@
       <c r="A31" s="0"/>
       <c r="B31" s="0"/>
       <c r="C31" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="0"/>
@@ -5682,50 +7863,50 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="26"/>
@@ -5767,7 +7948,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>81</v>
@@ -5777,50 +7958,50 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="14"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -5829,10 +8010,10 @@
       <c r="A46" s="0"/>
       <c r="B46" s="0"/>
       <c r="C46" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="0"/>
@@ -5893,10 +8074,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -5956,10 +8137,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -6031,7 +8212,7 @@
         <v>34</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E50" s="14"/>
       <c r="G50" s="12"/>
@@ -6048,17 +8229,17 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E52" s="14"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>81</v>
@@ -6068,60 +8249,60 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E54" s="14"/>
       <c r="G54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
@@ -6141,7 +8322,7 @@
         <v>34</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
@@ -6151,47 +8332,47 @@
         <v>42</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
@@ -6211,7 +8392,7 @@
         <v>34</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
@@ -6221,37 +8402,37 @@
         <v>42</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
@@ -6271,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="29"/>
@@ -6294,27 +8475,27 @@
         <v>34</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -6385,7 +8566,7 @@
         <v>34</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E80" s="12"/>
       <c r="G80" s="12"/>
@@ -6443,30 +8624,30 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -6486,17 +8667,17 @@
         <v>34</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
@@ -6505,10 +8686,10 @@
       <c r="A87" s="0"/>
       <c r="B87" s="0"/>
       <c r="C87" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -6633,7 +8814,7 @@
         <v>34</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="0"/>
@@ -6692,10 +8873,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -6716,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="29"/>
@@ -6740,17 +8921,17 @@
         <v>34</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E94" s="12"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
@@ -6759,10 +8940,10 @@
       <c r="A96" s="0"/>
       <c r="B96" s="0"/>
       <c r="C96" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="0"/>
@@ -6821,30 +9002,30 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
@@ -6865,9 +9046,9 @@
         <v>0</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="C101" s="32"/>
       <c r="D101" s="29"/>
       <c r="E101" s="12"/>
       <c r="F101" s="29"/>
@@ -6888,108 +9069,108 @@
       <c r="C103" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="32" t="s">
-        <v>133</v>
+      <c r="D103" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="E103" s="12"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>134</v>
+        <v>61</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D111" s="35" t="s">
-        <v>142</v>
+        <v>202</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>143</v>
+        <v>202</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="35" t="s">
-        <v>144</v>
+        <v>202</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
@@ -7010,27 +9191,27 @@
         <v>34</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E115" s="12"/>
       <c r="G115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
@@ -7051,27 +9232,27 @@
         <v>34</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -7164,7 +9345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -7262,7 +9443,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -7291,18 +9472,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,7 +9507,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
@@ -7358,7 +9539,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
@@ -7403,10 +9584,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="13" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="22"/>
@@ -7434,11 +9615,11 @@
         <v>34</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -7447,89 +9628,89 @@
         <v>42</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -7549,7 +9730,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="26"/>
@@ -7560,7 +9741,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="26"/>
@@ -7568,10 +9749,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="26"/>
@@ -7579,10 +9760,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="26"/>
@@ -7590,10 +9771,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="26"/>
@@ -7601,7 +9782,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>71</v>
@@ -7611,7 +9792,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>72</v>
@@ -7623,10 +9804,10 @@
       <c r="A32" s="0"/>
       <c r="B32" s="0"/>
       <c r="C32" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="0"/>
@@ -7634,50 +9815,50 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="26"/>
@@ -7719,7 +9900,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>81</v>
@@ -7729,50 +9910,50 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
@@ -7781,10 +9962,10 @@
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -7845,10 +10026,10 @@
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -7908,10 +10089,10 @@
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -7983,7 +10164,7 @@
         <v>34</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="12"/>
@@ -8000,17 +10181,17 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E53" s="14"/>
       <c r="G53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>81</v>
@@ -8020,60 +10201,60 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" s="12"/>
@@ -8093,7 +10274,7 @@
         <v>34</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="12"/>
@@ -8103,47 +10284,47 @@
         <v>42</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="12"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
@@ -8163,7 +10344,7 @@
         <v>34</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E69" s="14"/>
       <c r="G69" s="12"/>
@@ -8173,37 +10354,37 @@
         <v>42</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E70" s="14"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E71" s="14"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
@@ -8223,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="29"/>
@@ -8246,27 +10427,27 @@
         <v>34</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="12"/>
@@ -8337,7 +10518,7 @@
         <v>34</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -8395,30 +10576,30 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -8438,17 +10619,17 @@
         <v>34</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E87" s="12"/>
       <c r="G87" s="12"/>
@@ -8457,10 +10638,10 @@
       <c r="A88" s="0"/>
       <c r="B88" s="0"/>
       <c r="C88" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -8585,7 +10766,7 @@
         <v>34</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="0"/>
@@ -8644,10 +10825,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -8668,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="29"/>
@@ -8692,17 +10873,17 @@
         <v>34</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E96" s="12"/>
       <c r="G96" s="12"/>
@@ -8711,10 +10892,10 @@
       <c r="A97" s="0"/>
       <c r="B97" s="0"/>
       <c r="C97" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="0"/>
@@ -8773,30 +10954,30 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E98" s="12"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E100" s="12"/>
       <c r="G100" s="12"/>
@@ -8817,9 +10998,9 @@
         <v>0</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="C102" s="32"/>
       <c r="D102" s="29"/>
       <c r="E102" s="12"/>
       <c r="F102" s="29"/>
@@ -8840,108 +11021,108 @@
       <c r="C104" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="32" t="s">
-        <v>133</v>
+      <c r="D104" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="E104" s="12"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>134</v>
+        <v>61</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="E105" s="12"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E107" s="12"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E109" s="12"/>
       <c r="G109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E111" s="12"/>
       <c r="G111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>142</v>
+        <v>202</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="E112" s="12"/>
       <c r="G112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="35" t="s">
-        <v>143</v>
+        <v>202</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="E113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>144</v>
+        <v>202</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="E114" s="12"/>
       <c r="G114" s="12"/>
@@ -8962,27 +11143,27 @@
         <v>34</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E118" s="12"/>
       <c r="G118" s="12"/>
@@ -9003,27 +11184,27 @@
         <v>34</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="216">
   <si>
     <t xml:space="preserve">SECTION</t>
   </si>
@@ -585,70 +585,79 @@
     <t xml:space="preserve">Rock, Argentinian Tango, Salsa, Music, Cinema</t>
   </si>
   <si>
+    <t xml:space="preserve">Meetup Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Python User Group organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- https://www.meetup.com/Groupe-dutilisateurs-Python-Grenoble/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- https://www.meetup.com/Docker-Grenoble/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNCF Kubernetes CKA, RHCE, RHCSA, HPE Expert One SDN Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective - Pre-sales Solution Architect or Technical Lead on Cloud Native, Container and Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Agile team (SCRUM, TDD, Continuous Integration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
+  </si>
+  <si>
     <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Python User Group organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenoble Docker and FLOSS User Groups co-organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNCF Kubernetes CKA, RHCE, RHCSA, HPE Expert One SDN Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective - Pre-sales Solution Architect or Technical Lead on Cloud Native, Container and Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Orchestration Labs (Docker Swarm, Kubernetes, Apache Mesos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test frameworks for IaaS cloud product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile development of Data analytics and service profile platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Agile team (SCRUM, TDD, Continuous Integration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Software development, unit and functional tests for SOAP and REST frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed/implemented automated VideoXML dialog creation from PPT for MWC PoC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOCs in the areas of BigData, Software Defined Networks, Databases, Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-sales technical consulting on OpenCall products and proof of concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer/Partner contact and ITSM delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Deployments KT VoIP benchtest, Tuka IN, DCC Prepaid, FT VHE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  ITSE Workshop delivery (Bouygues prepaid, Polkomtel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Technical Lead for HKTel Y2K migration,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--  Design and implementation of SCE and SLEE modules (HA, Mib, MemoryHandler).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research into design and modeling of data/signalling networks (X.25, SS7, ethernet)  leading to PoC demos and HP products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z-filter design, simulation, bit-slice micro-processor coding and user subjectivity tests of NICAM digital audio subjective noise reduction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting languages (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</t>
   </si>
   <si>
     <t xml:space="preserve">RHCE, RHCSA, HPE Expert One SDN Apps</t>
@@ -1289,10 +1298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:BF139"/>
+  <dimension ref="A1:BF141"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D129" activeCellId="0" sqref="D129"/>
+      <selection pane="topLeft" activeCell="D136" activeCellId="0" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3297,17 +3306,35 @@
       <c r="G137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138" s="24"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="24"/>
+      <c r="C138" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="E138" s="12"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" s="24"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="12"/>
+      <c r="G140" s="12"/>
+    </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3351,6 +3378,8 @@
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
@@ -3470,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -3546,7 +3575,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13"/>
@@ -3713,7 +3742,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -3837,7 +3866,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="0"/>
@@ -3848,7 +3877,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
@@ -3858,7 +3887,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
@@ -3868,7 +3897,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
@@ -3878,7 +3907,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="12"/>
@@ -3888,7 +3917,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="26"/>
@@ -3953,7 +3982,7 @@
         <v>61</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
@@ -3973,7 +4002,7 @@
         <v>61</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
@@ -3995,7 +4024,7 @@
         <v>61</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -4059,7 +4088,7 @@
         <v>61</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -4122,7 +4151,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
@@ -4274,7 +4303,7 @@
         <v>61</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" s="12"/>
@@ -4344,7 +4373,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E67" s="14"/>
       <c r="G67" s="12"/>
@@ -4414,7 +4443,7 @@
         <v>61</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E74" s="14"/>
       <c r="G74" s="12"/>
@@ -4659,7 +4688,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E88" s="12"/>
       <c r="G88" s="12"/>
@@ -4669,7 +4698,7 @@
         <v>61</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E89" s="12"/>
       <c r="G89" s="12"/>
@@ -5305,7 +5334,7 @@
         <v>34</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E130" s="12"/>
       <c r="G130" s="12"/>
@@ -5325,7 +5354,7 @@
         <v>61</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E132" s="12"/>
       <c r="G132" s="12"/>
@@ -5505,7 +5534,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -5581,7 +5610,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13"/>
@@ -5654,10 +5683,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="22"/>
@@ -5750,7 +5779,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -5760,7 +5789,7 @@
         <v>61</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
@@ -5773,7 +5802,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="0" t="s">
@@ -5786,7 +5815,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E25" s="12"/>
       <c r="G25" s="12"/>
@@ -5884,7 +5913,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="0"/>
@@ -5895,7 +5924,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
@@ -5905,7 +5934,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
@@ -5915,7 +5944,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="12"/>
@@ -5925,7 +5954,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="12"/>
@@ -5935,7 +5964,7 @@
         <v>61</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E39" s="14"/>
       <c r="G39" s="26"/>
@@ -6000,7 +6029,7 @@
         <v>61</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -6010,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E46" s="14"/>
       <c r="G46" s="12"/>
@@ -6020,7 +6049,7 @@
         <v>61</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E47" s="14"/>
       <c r="G47" s="12"/>
@@ -6042,7 +6071,7 @@
         <v>61</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -6106,7 +6135,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="0"/>
@@ -6169,7 +6198,7 @@
         <v>61</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="0"/>
@@ -6241,7 +6270,7 @@
         <v>34</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E53" s="14"/>
       <c r="G53" s="12"/>
@@ -6321,7 +6350,7 @@
         <v>61</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="12"/>
@@ -6391,7 +6420,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E68" s="14"/>
       <c r="G68" s="12"/>
@@ -6461,7 +6490,7 @@
         <v>61</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E75" s="14"/>
       <c r="G75" s="12"/>
@@ -6656,7 +6685,7 @@
         <v>61</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -6666,7 +6695,7 @@
         <v>61</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="12"/>
@@ -7302,7 +7331,7 @@
         <v>34</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E126" s="12"/>
       <c r="G126" s="12"/>
@@ -7322,7 +7351,7 @@
         <v>61</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E128" s="12"/>
       <c r="G128" s="12"/>
@@ -7506,7 +7535,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -7554,7 +7583,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
@@ -7631,10 +7660,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="22"/>
@@ -7662,7 +7691,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
@@ -7675,7 +7704,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="20" t="s">
@@ -7688,7 +7717,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="22" t="s">
@@ -7727,7 +7756,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="0" t="s">
@@ -7740,7 +7769,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -7753,11 +7782,11 @@
         <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -7855,7 +7884,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="0"/>
@@ -7866,7 +7895,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="12"/>
@@ -7876,7 +7905,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
@@ -7886,7 +7915,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
@@ -7896,7 +7925,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
@@ -7906,7 +7935,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="26"/>
@@ -7971,7 +8000,7 @@
         <v>61</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E42" s="14"/>
       <c r="G42" s="12"/>
@@ -7981,7 +8010,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
@@ -7991,7 +8020,7 @@
         <v>61</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
@@ -8013,7 +8042,7 @@
         <v>61</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="0"/>
@@ -8077,7 +8106,7 @@
         <v>61</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -8140,7 +8169,7 @@
         <v>61</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -8212,7 +8241,7 @@
         <v>34</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E50" s="14"/>
       <c r="G50" s="12"/>
@@ -8292,7 +8321,7 @@
         <v>61</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="12"/>
@@ -8362,7 +8391,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E65" s="14"/>
       <c r="G65" s="12"/>
@@ -8432,7 +8461,7 @@
         <v>61</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E72" s="14"/>
       <c r="G72" s="12"/>
@@ -8485,7 +8514,7 @@
         <v>61</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="12"/>
@@ -8627,7 +8656,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="12"/>
@@ -8637,7 +8666,7 @@
         <v>61</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
@@ -8647,7 +8676,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -8689,7 +8718,7 @@
         <v>61</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="0"/>
@@ -8876,7 +8905,7 @@
         <v>61</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E90" s="12"/>
       <c r="G90" s="12"/>
@@ -9147,7 +9176,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D111" s="36" t="s">
         <v>150</v>
@@ -9157,7 +9186,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D112" s="36" t="s">
         <v>151</v>
@@ -9167,7 +9196,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D113" s="36" t="s">
         <v>152</v>
@@ -9232,7 +9261,7 @@
         <v>34</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E119" s="12"/>
       <c r="G119" s="12"/>
@@ -9252,7 +9281,7 @@
         <v>61</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E121" s="12"/>
       <c r="G121" s="12"/>
@@ -9443,7 +9472,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -9472,18 +9501,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9507,7 +9536,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
@@ -9539,7 +9568,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
@@ -9584,10 +9613,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="22"/>
@@ -9615,7 +9644,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11" t="s">
@@ -9628,7 +9657,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="20" t="s">
@@ -9641,7 +9670,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="22" t="s">
@@ -9680,7 +9709,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="0" t="s">
@@ -9693,7 +9722,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="0" t="s">
@@ -9706,11 +9735,11 @@
         <v>61</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -9807,7 +9836,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="0"/>
@@ -9818,7 +9847,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E33" s="14"/>
       <c r="G33" s="12"/>
@@ -9828,7 +9857,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E34" s="14"/>
       <c r="G34" s="12"/>
@@ -9838,7 +9867,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="12"/>
@@ -9848,7 +9877,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="12"/>
@@ -9858,7 +9887,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="26"/>
@@ -9923,7 +9952,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E43" s="14"/>
       <c r="G43" s="12"/>
@@ -9933,7 +9962,7 @@
         <v>61</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E44" s="14"/>
       <c r="G44" s="12"/>
@@ -9943,7 +9972,7 @@
         <v>61</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E45" s="14"/>
       <c r="G45" s="12"/>
@@ -9965,7 +9994,7 @@
         <v>61</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="0"/>
@@ -10029,7 +10058,7 @@
         <v>61</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="0"/>
@@ -10092,7 +10121,7 @@
         <v>61</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="0"/>
@@ -10164,7 +10193,7 @@
         <v>34</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E51" s="14"/>
       <c r="G51" s="12"/>
@@ -10244,7 +10273,7 @@
         <v>61</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E59" s="14"/>
       <c r="G59" s="12"/>
@@ -10314,7 +10343,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E66" s="14"/>
       <c r="G66" s="12"/>
@@ -10384,7 +10413,7 @@
         <v>61</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E73" s="14"/>
       <c r="G73" s="12"/>
@@ -10437,7 +10466,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="12"/>
@@ -10579,7 +10608,7 @@
         <v>61</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="12"/>
@@ -10589,7 +10618,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="12"/>
@@ -10599,7 +10628,7 @@
         <v>61</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="12"/>
@@ -10641,7 +10670,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="0"/>
@@ -10828,7 +10857,7 @@
         <v>61</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E91" s="12"/>
       <c r="G91" s="12"/>
@@ -11099,7 +11128,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D112" s="36" t="s">
         <v>150</v>
@@ -11109,7 +11138,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D113" s="36" t="s">
         <v>151</v>
@@ -11119,7 +11148,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D114" s="36" t="s">
         <v>152</v>
@@ -11184,7 +11213,7 @@
         <v>34</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E120" s="12"/>
       <c r="G120" s="12"/>
@@ -11204,7 +11233,7 @@
         <v>61</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E122" s="12"/>
       <c r="G122" s="12"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AD99F4-69D3-40EF-BF84-3EFA2EE14A81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D655BF2-2895-4B3C-963F-67655E3A1338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="222">
   <si>
     <t>SECTION</t>
   </si>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>+33 (0)652891534</t>
+  </si>
+  <si>
+    <t>06/2018</t>
+  </si>
+  <si>
+    <t>#COMMENT</t>
+  </si>
+  <si>
+    <t>2018-Nov: Community Security System</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1826,7 +1835,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" t="s">
@@ -1964,7 +1973,7 @@
     </row>
     <row r="41" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C41" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>72</v>
@@ -2000,7 +2009,7 @@
     </row>
     <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C44" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>75</v>
@@ -2010,7 +2019,7 @@
     </row>
     <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C45" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>76</v>
@@ -2108,7 +2117,7 @@
     </row>
     <row r="54" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C54" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>83</v>
@@ -2128,7 +2137,7 @@
     </row>
     <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C56" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>85</v>
@@ -2138,7 +2147,7 @@
     </row>
     <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C57" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>86</v>
@@ -2148,7 +2157,7 @@
     </row>
     <row r="58" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C58" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>87</v>
@@ -2164,7 +2173,7 @@
     </row>
     <row r="59" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C59" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>88</v>
@@ -2234,7 +2243,7 @@
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C66" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>92</v>
@@ -2244,7 +2253,7 @@
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C67" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>93</v>
@@ -2264,7 +2273,7 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C69" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>95</v>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C70" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>96</v>
@@ -2876,7 +2885,7 @@
         <v>60</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="E127" s="10"/>
       <c r="G127" s="10"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D655BF2-2895-4B3C-963F-67655E3A1338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136610F-4D7A-43EE-B47A-D21DDCC768AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="MONINT" localSheetId="2">#REF!</definedName>
     <definedName name="MONINT">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="227">
   <si>
     <t>SECTION</t>
   </si>
@@ -721,6 +721,21 @@
   </si>
   <si>
     <t>2018-Nov: Community Security System</t>
+  </si>
+  <si>
+    <t>CNCF Kubernetes CKA, CKAD, RedHat RHCE/RHCSA</t>
+  </si>
+  <si>
+    <t>Consulting - Kubernetes Implementation</t>
+  </si>
+  <si>
+    <t>Trainer, Consultant, Conference Speaker</t>
+  </si>
+  <si>
+    <t>Freelancing on Cloud Native - Docker, Kubernetes, Serverless</t>
+  </si>
+  <si>
+    <t>Creation of OpenShift Demo Platform</t>
   </si>
 </sst>
 </file>
@@ -1001,13 +1016,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1391,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1412,20 +1427,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
@@ -1478,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="11" t="s">
@@ -1493,7 +1508,7 @@
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>218</v>
       </c>
       <c r="E5" s="12"/>
@@ -1566,7 +1581,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -1594,7 +1609,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
@@ -1742,8 +1757,8 @@
       <c r="C22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>214</v>
+      <c r="D22" s="39" t="s">
+        <v>223</v>
       </c>
       <c r="E22" s="10"/>
       <c r="G22" s="10"/>
@@ -1753,117 +1768,114 @@
         <v>60</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="8" t="s">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="19" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="21" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C28" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C29" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>219</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>219</v>
       </c>
       <c r="E30" s="10"/>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>62</v>
+      <c r="D31" s="39" t="s">
+        <v>226</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1871,12 +1883,9 @@
         <v>60</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" t="s">
-        <v>65</v>
-      </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1884,67 +1893,71 @@
         <v>60</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C34" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="E35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C35" s="11" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="G35" s="25"/>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="G36" s="25"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C37" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="E37" s="12"/>
       <c r="G37" s="25"/>
       <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C38" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>55</v>
+      <c r="C38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E38" s="12"/>
       <c r="G38" s="25"/>
@@ -1952,175 +1965,177 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C39" s="21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="12"/>
       <c r="G39" s="25"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C40" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G40" s="25"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C41" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="25"/>
+      <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C42" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E42" s="12"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C43" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="12"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C44" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E44" s="12"/>
       <c r="G44" s="10"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C45" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E45" s="12"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C46" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="12"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C47" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C48" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C49" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="G47" s="25"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="E49" s="12"/>
+      <c r="G49" s="25"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C49" s="11" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C51" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D51" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C50" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-    </row>
-    <row r="51" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C51" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>81</v>
       </c>
       <c r="E51" s="12"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C52" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>69</v>
+    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E52" s="12"/>
       <c r="G52" s="10"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C53" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E53" s="12"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C54" s="21" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E54" s="12"/>
       <c r="G54" s="10"/>
@@ -2130,7 +2145,7 @@
         <v>60</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E55" s="12"/>
       <c r="G55" s="10"/>
@@ -2139,18 +2154,18 @@
       <c r="C56" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>85</v>
+      <c r="D56" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="E56" s="12"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C57" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="E57" s="12"/>
       <c r="G57" s="10"/>
@@ -2160,113 +2175,113 @@
         <v>220</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E58" s="12"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C59" s="21" t="s">
         <v>220</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E59" s="12"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="23"/>
+    <row r="60" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C60" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="E60" s="12"/>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C61" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>89</v>
+      <c r="G60" s="14"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C61" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="E61" s="12"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C62" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>80</v>
-      </c>
+    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="12"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C63" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>90</v>
+    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="E63" s="12"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C64" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>81</v>
+    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C64" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E64" s="12"/>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C65" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>91</v>
+        <v>54</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="E65" s="12"/>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C66" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>92</v>
+        <v>57</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E66" s="12"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C67" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E67" s="12"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C68" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E68" s="12"/>
       <c r="G68" s="10"/>
@@ -2276,310 +2291,310 @@
         <v>220</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E69" s="12"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C70" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E70" s="12"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="23"/>
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C71" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="E71" s="12"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C72" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>97</v>
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C72" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E72" s="12"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C73" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>98</v>
-      </c>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="12"/>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C74" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>99</v>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C74" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="E74" s="12"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C75" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>90</v>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="E75" s="12"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C76" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C77" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>101</v>
+        <v>57</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="23"/>
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C78" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="E78" s="12"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C79" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>102</v>
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C79" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C80" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>103</v>
-      </c>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="12"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C81" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>104</v>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C81" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E81" s="12"/>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C82" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>105</v>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C82" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C83" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>106</v>
+        <v>54</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="23"/>
+    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C84" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="E84" s="12"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="14"/>
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C85" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="12"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="24"/>
       <c r="D86" s="23"/>
-      <c r="E86" s="10"/>
+      <c r="E86" s="12"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C87" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>108</v>
-      </c>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="10"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C88" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>109</v>
-      </c>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="10"/>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C89" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>110</v>
+        <v>34</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="E89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C90" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E90" s="10"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="23"/>
+    <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C91" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="E91" s="10"/>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C92" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>112</v>
+        <v>60</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="E92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C93" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>113</v>
-      </c>
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="23"/>
       <c r="E93" s="10"/>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C94" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>114</v>
+        <v>34</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="E94" s="10"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+    <row r="95" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C95" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C96" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C96" s="21" t="s">
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+    </row>
+    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C98" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D98" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C97" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C98" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="E98" s="10"/>
+      <c r="F98" s="16"/>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2587,110 +2602,106 @@
         <v>60</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E99" s="10"/>
       <c r="G99" s="10"/>
     </row>
-    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="23"/>
+    <row r="100" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C100" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="E100" s="10"/>
       <c r="G100" s="10"/>
     </row>
-    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C101" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>119</v>
+        <v>60</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="E101" s="10"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C102" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>120</v>
-      </c>
+    <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="10"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C103" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>121</v>
+        <v>34</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="E103" s="10"/>
       <c r="G103" s="10"/>
     </row>
-    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="23"/>
+    <row r="104" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C104" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-    </row>
-    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C105" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>122</v>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C105" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="E105" s="10"/>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C106" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="19" t="s">
+    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C107" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C108" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="28"/>
       <c r="E108" s="10"/>
-      <c r="F108" s="28"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2704,88 +2715,88 @@
       <c r="F109" s="23"/>
       <c r="G109" s="10"/>
     </row>
-    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C110" s="11" t="s">
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C112" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D112" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C111" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C112" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="E112" s="10"/>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C113" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>129</v>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C113" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="E113" s="10"/>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C114" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>130</v>
+        <v>54</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E114" s="10"/>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C115" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>131</v>
+        <v>57</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E115" s="10"/>
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="23"/>
+    <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C116" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="23"/>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="28"/>
+    <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C117" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="E117" s="10"/>
-      <c r="F117" s="28"/>
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2800,31 +2811,35 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C119" s="21" t="s">
+      <c r="A119" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" s="30"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C121" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D121" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C120" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E120" s="10"/>
-      <c r="G120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C121" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>216</v>
       </c>
       <c r="E121" s="10"/>
       <c r="G121" s="10"/>
@@ -2833,110 +2848,110 @@
       <c r="C122" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>136</v>
+      <c r="D122" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="E122" s="10"/>
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C123" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>137</v>
+      <c r="C123" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="E123" s="10"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C124" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="34" t="s">
-        <v>138</v>
+      <c r="C124" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="E124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="23"/>
+    <row r="125" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C125" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="E125" s="10"/>
-      <c r="F125" s="23"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C126" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>139</v>
+        <v>60</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="E126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C127" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D127" s="35" t="s">
-        <v>221</v>
-      </c>
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="23"/>
       <c r="E127" s="10"/>
+      <c r="F127" s="23"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C128" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D128" s="35" t="s">
-        <v>141</v>
+        <v>34</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="E128" s="10"/>
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="23"/>
+    <row r="129" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>221</v>
+      </c>
       <c r="E129" s="10"/>
-      <c r="F129" s="23"/>
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C130" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>142</v>
+        <v>60</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="E130" s="10"/>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C131" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>143</v>
-      </c>
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="10"/>
+      <c r="F131" s="23"/>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C132" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>144</v>
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="E132" s="10"/>
       <c r="G132" s="10"/>
@@ -2946,48 +2961,48 @@
         <v>60</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E133" s="10"/>
       <c r="G133" s="10"/>
     </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="23"/>
+    <row r="134" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C134" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="E134" s="10"/>
-      <c r="F134" s="23"/>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C135" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>146</v>
+    <row r="135" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C135" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="E135" s="10"/>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C136" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>147</v>
-      </c>
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" s="23"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="10"/>
+      <c r="F136" s="23"/>
       <c r="G136" s="10"/>
     </row>
-    <row r="137" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C137" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>148</v>
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C137" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="E137" s="10"/>
       <c r="G137" s="10"/>
@@ -2997,20 +3012,40 @@
         <v>60</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E138" s="10"/>
       <c r="G138" s="10"/>
     </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="23"/>
+    <row r="139" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C139" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="E139" s="10"/>
       <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C140" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" s="23"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="10"/>
+      <c r="G141" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3022,7 +3057,7 @@
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{FECD6F66-D8B7-46BD-B870-678E17186243}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{E06E48E3-0BBE-425D-B2FE-65C4D9CF6DA0}"/>
-    <hyperlink ref="D120" r:id="rId3" xr:uid="{22FECDD5-2CC5-40AB-B1F4-9F8C8C9CB1EE}"/>
+    <hyperlink ref="D122" r:id="rId3" xr:uid="{22FECDD5-2CC5-40AB-B1F4-9F8C8C9CB1EE}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3050,20 +3085,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
@@ -4688,20 +4723,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
@@ -6218,20 +6253,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
@@ -8201,20 +8236,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
@@ -10146,20 +10181,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136610F-4D7A-43EE-B47A-D21DDCC768AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7EB93-4F34-4417-AB46-B78A57D2FAB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="228">
   <si>
     <t>SECTION</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>Creation of OpenShift Demo Platform</t>
+  </si>
+  <si>
+    <t>Controlplane.io accredited Kubernetes Instructor</t>
   </si>
 </sst>
 </file>
@@ -1406,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1767,8 +1770,8 @@
       <c r="C23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>214</v>
+      <c r="D23" s="39" t="s">
+        <v>227</v>
       </c>
       <c r="E23" s="10"/>
       <c r="G23" s="10"/>
@@ -1778,112 +1781,112 @@
         <v>60</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C27" s="8" t="s">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="19" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="21" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C30" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>219</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C31" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E31" s="10"/>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C32" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>61</v>
+      <c r="D32" s="39" t="s">
+        <v>226</v>
       </c>
       <c r="E32" s="10"/>
       <c r="G32" s="10"/>
@@ -1893,12 +1896,9 @@
         <v>60</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1906,11 +1906,11 @@
         <v>60</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G34" s="10"/>
     </row>
@@ -1919,56 +1919,58 @@
         <v>60</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="E36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C37" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="12"/>
-      <c r="G37" s="25"/>
-      <c r="I37" s="26"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C38" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="12"/>
       <c r="G38" s="25"/>
       <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C39" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>69</v>
+      <c r="C39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E39" s="12"/>
       <c r="G39" s="25"/>
@@ -1976,10 +1978,10 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C40" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E40" s="12"/>
       <c r="G40" s="25"/>
@@ -1987,67 +1989,68 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C41" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E41" s="12"/>
       <c r="G41" s="25"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C42" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="25"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C43" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="12"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C44" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="12"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C45" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="12"/>
       <c r="G45" s="10"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C46" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="12"/>
       <c r="G46" s="10"/>
@@ -2057,125 +2060,125 @@
         <v>220</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="12"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C48" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="12"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C49" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="G49" s="25"/>
-      <c r="I49" s="26"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="E50" s="12"/>
+      <c r="G50" s="25"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C51" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="12"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C52" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="12"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-    </row>
-    <row r="53" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C53" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>81</v>
+    </row>
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C53" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E53" s="12"/>
       <c r="G53" s="10"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C54" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E54" s="12"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C55" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E55" s="12"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C56" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="12"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C57" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" s="12"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C58" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="E58" s="12"/>
       <c r="G58" s="10"/>
@@ -2185,7 +2188,7 @@
         <v>220</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E59" s="12"/>
       <c r="G59" s="10"/>
@@ -2195,93 +2198,93 @@
         <v>220</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C61" s="21" t="s">
         <v>220</v>
       </c>
       <c r="D61" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C62" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="23"/>
       <c r="E62" s="12"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C63" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>89</v>
-      </c>
+    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="12"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C64" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E64" s="12"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C65" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>90</v>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E65" s="12"/>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C66" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E66" s="12"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C67" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E67" s="12"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C68" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="12"/>
       <c r="G68" s="10"/>
@@ -2291,27 +2294,27 @@
         <v>220</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69" s="12"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C70" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E70" s="12"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C71" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E71" s="12"/>
       <c r="G71" s="10"/>
@@ -2321,67 +2324,67 @@
         <v>220</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" s="12"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="23"/>
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C73" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="E73" s="12"/>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C74" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>97</v>
-      </c>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="12"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C75" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E75" s="12"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C76" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>99</v>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C76" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="E76" s="12"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C77" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E77" s="12"/>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C78" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="E78" s="12"/>
       <c r="G78" s="10"/>
@@ -2391,120 +2394,120 @@
         <v>60</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E79" s="12"/>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="23"/>
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C80" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="E80" s="12"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C81" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>102</v>
-      </c>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="12"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C82" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E82" s="12"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C83" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>104</v>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="E83" s="12"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C84" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84" s="12"/>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C85" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>106</v>
+        <v>57</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="E85" s="12"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="23"/>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C86" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="E86" s="12"/>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="12"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B88" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="C88" s="29"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="10"/>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C89" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>108</v>
-      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C90" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>109</v>
+        <v>34</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="E90" s="10"/>
       <c r="G90" s="10"/>
@@ -2514,7 +2517,7 @@
         <v>60</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E91" s="10"/>
       <c r="G91" s="10"/>
@@ -2524,37 +2527,37 @@
         <v>60</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="23"/>
+    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C93" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="E93" s="10"/>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C94" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>112</v>
-      </c>
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="10"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C95" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>113</v>
+        <v>34</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="E95" s="10"/>
       <c r="G95" s="10"/>
@@ -2564,47 +2567,47 @@
         <v>60</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E96" s="10"/>
       <c r="G96" s="10"/>
     </row>
-    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+    <row r="97" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C97" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C98" s="21" t="s">
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+    </row>
+    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C99" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D99" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C99" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>116</v>
-      </c>
       <c r="E99" s="10"/>
+      <c r="F99" s="16"/>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2612,7 +2615,7 @@
         <v>60</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E100" s="10"/>
       <c r="G100" s="10"/>
@@ -2622,37 +2625,37 @@
         <v>60</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E101" s="10"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="23"/>
+    <row r="102" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C102" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="E102" s="10"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C103" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>119</v>
-      </c>
+    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="23"/>
       <c r="E103" s="10"/>
       <c r="G103" s="10"/>
     </row>
-    <row r="104" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C104" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>120</v>
+        <v>34</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="E104" s="10"/>
       <c r="G104" s="10"/>
@@ -2662,129 +2665,129 @@
         <v>60</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E105" s="10"/>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+    <row r="106" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C106" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C107" s="11" t="s">
+      <c r="B107" s="23"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C108" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D108" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C108" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="E108" s="10"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+    <row r="109" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C109" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="28" t="s">
+      <c r="B110" s="23"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="28" t="s">
+      <c r="B111" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="29"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="C111" s="29"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C112" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>125</v>
-      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="10"/>
+      <c r="F112" s="23"/>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C113" s="11" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E113" s="10"/>
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C114" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>128</v>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C114" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="E114" s="10"/>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C115" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E115" s="10"/>
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C116" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>130</v>
+        <v>57</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E116" s="10"/>
       <c r="G116" s="10"/>
@@ -2794,62 +2797,62 @@
         <v>60</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E117" s="10"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+    <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C118" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="B119" s="23"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="B120" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
+      <c r="C120" s="30"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C121" s="21" t="s">
+      <c r="B121" s="23"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C122" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D122" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="E121" s="10"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C122" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122" s="37" t="s">
-        <v>134</v>
       </c>
       <c r="E122" s="10"/>
       <c r="G122" s="10"/>
@@ -2858,8 +2861,8 @@
       <c r="C123" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D123" s="33" t="s">
-        <v>216</v>
+      <c r="D123" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="E123" s="10"/>
       <c r="G123" s="10"/>
@@ -2868,18 +2871,18 @@
       <c r="C124" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>136</v>
+      <c r="D124" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="E124" s="10"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C125" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125" s="34" t="s">
-        <v>137</v>
+      <c r="C125" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="E125" s="10"/>
       <c r="G125" s="10"/>
@@ -2889,38 +2892,38 @@
         <v>60</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C127" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="10"/>
-    </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C128" s="11" t="s">
+      <c r="B128" s="23"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D129" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="E128" s="10"/>
-      <c r="G128" s="10"/>
-    </row>
-    <row r="129" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C129" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" s="35" t="s">
-        <v>221</v>
       </c>
       <c r="E129" s="10"/>
       <c r="G129" s="10"/>
@@ -2930,38 +2933,38 @@
         <v>60</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="E130" s="10"/>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
+    <row r="131" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="10"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C132" s="11" t="s">
+      <c r="B132" s="23"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D133" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="G132" s="10"/>
-    </row>
-    <row r="133" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C133" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="E133" s="10"/>
       <c r="G133" s="10"/>
@@ -2971,7 +2974,7 @@
         <v>60</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E134" s="10"/>
       <c r="G134" s="10"/>
@@ -2981,38 +2984,38 @@
         <v>60</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E135" s="10"/>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="22" t="s">
+    <row r="136" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C136" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="10"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C137" s="11" t="s">
+      <c r="B137" s="23"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C138" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D138" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="E137" s="10"/>
-      <c r="G137" s="10"/>
-    </row>
-    <row r="138" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C138" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="E138" s="10"/>
       <c r="G138" s="10"/>
@@ -3022,7 +3025,7 @@
         <v>60</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E139" s="10"/>
       <c r="G139" s="10"/>
@@ -3032,20 +3035,30 @@
         <v>60</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E140" s="10"/>
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B141" s="23"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="23"/>
+    <row r="141" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C141" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="E141" s="10"/>
       <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="23"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="10"/>
+      <c r="G142" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3057,7 +3070,7 @@
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{FECD6F66-D8B7-46BD-B870-678E17186243}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{E06E48E3-0BBE-425D-B2FE-65C4D9CF6DA0}"/>
-    <hyperlink ref="D122" r:id="rId3" xr:uid="{22FECDD5-2CC5-40AB-B1F4-9F8C8C9CB1EE}"/>
+    <hyperlink ref="D123" r:id="rId3" xr:uid="{22FECDD5-2CC5-40AB-B1F4-9F8C8C9CB1EE}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7EB93-4F34-4417-AB46-B78A57D2FAB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56FA244-BD57-4BAE-AC63-71E69E288785}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
-    <sheet name="CV_03Oct2018" sheetId="8" r:id="rId2"/>
-    <sheet name="CV_12Apr2018_AWS" sheetId="7" r:id="rId3"/>
-    <sheet name="CV_tmp_3Sep2017" sheetId="3" r:id="rId4"/>
-    <sheet name="CV_2017_Jul_RedHat_AnsibleSpeci" sheetId="4" r:id="rId5"/>
-    <sheet name="CV_2017-Mars_ATC" sheetId="6" r:id="rId6"/>
+    <sheet name="CV_03May2019" sheetId="9" r:id="rId2"/>
+    <sheet name="CV_03Oct2018" sheetId="8" r:id="rId3"/>
+    <sheet name="CV_12Apr2018_AWS" sheetId="7" r:id="rId4"/>
+    <sheet name="CV_tmp_3Sep2017" sheetId="3" r:id="rId5"/>
+    <sheet name="CV_2017_Jul_RedHat_AnsibleSpeci" sheetId="4" r:id="rId6"/>
+    <sheet name="CV_2017-Mars_ATC" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="GAIN" localSheetId="1">#REF!</definedName>
     <definedName name="GAIN" localSheetId="2">#REF!</definedName>
+    <definedName name="GAIN" localSheetId="3">#REF!</definedName>
     <definedName name="GAIN">#REF!</definedName>
     <definedName name="GAIN2" localSheetId="1">#REF!</definedName>
     <definedName name="GAIN2" localSheetId="2">#REF!</definedName>
+    <definedName name="GAIN2" localSheetId="3">#REF!</definedName>
     <definedName name="GAIN2">#REF!</definedName>
     <definedName name="HTML_CodePage">1252</definedName>
     <definedName name="HTML_Control">{"'ISP'!$A$1:$O$37"}</definedName>
@@ -43,6 +46,7 @@
     <definedName name="HTML_Title">"isplog"</definedName>
     <definedName name="MONINT" localSheetId="1">#REF!</definedName>
     <definedName name="MONINT" localSheetId="2">#REF!</definedName>
+    <definedName name="MONINT" localSheetId="3">#REF!</definedName>
     <definedName name="MONINT">#REF!</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
@@ -55,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="232">
   <si>
     <t>SECTION</t>
   </si>
@@ -739,6 +743,18 @@
   </si>
   <si>
     <t>Controlplane.io accredited Kubernetes Instructor</t>
+  </si>
+  <si>
+    <t>Fr:CNCF Kubernetes CKA, CKAD, RedHat RHCE/RHCSA</t>
+  </si>
+  <si>
+    <t>https://www.mjbright.net</t>
+  </si>
+  <si>
+    <t>Fr:https://www.mjbright.net</t>
+  </si>
+  <si>
+    <t>Fr: https://github.com/mjbright</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1428,7 @@
   <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1436,9 @@
     <col min="1" max="2" width="11.28515625"/>
     <col min="3" max="3" width="24.28515625"/>
     <col min="4" max="4" width="51.28515625"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="5" max="5" width="11.28515625"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1500,7 +1518,7 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="11" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
@@ -1543,12 +1561,12 @@
       <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>134</v>
+      <c r="D7" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="11" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11" t="s">
@@ -1563,7 +1581,9 @@
         <v>210</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
     </row>
@@ -2865,6 +2885,9 @@
         <v>134</v>
       </c>
       <c r="E123" s="10"/>
+      <c r="F123" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -3071,6 +3094,8 @@
     <hyperlink ref="D6" r:id="rId1" xr:uid="{FECD6F66-D8B7-46BD-B870-678E17186243}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{E06E48E3-0BBE-425D-B2FE-65C4D9CF6DA0}"/>
     <hyperlink ref="D123" r:id="rId3" xr:uid="{22FECDD5-2CC5-40AB-B1F4-9F8C8C9CB1EE}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{22A5A641-F2FA-46B6-93D1-F6ED2F1D0FE2}"/>
+    <hyperlink ref="F123" r:id="rId5" xr:uid="{2C4A759C-CD44-4E43-885C-10D7456A57A2}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3082,6 +3107,1674 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6F6D65-4BCE-46DF-8FAC-044E9429284D}">
+  <dimension ref="A1:M142"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C8" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C30" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C32" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C34" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="G38" s="25"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="G39" s="25"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="G40" s="25"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C41" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="G41" s="25"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C42" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="G42" s="25"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C43" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C44" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C45" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C46" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C47" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C48" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C49" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="G50" s="25"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C52" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C53" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C54" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C55" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C56" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C57" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C58" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C59" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C60" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C61" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C62" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="12"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C64" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C66" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C67" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C68" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C69" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C70" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C71" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C72" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C73" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="12"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C75" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C76" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C77" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C78" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C79" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C80" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="12"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C82" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C84" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C85" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C86" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="12"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C90" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C91" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C92" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C93" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C95" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C96" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C97" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+    </row>
+    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C99" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C100" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C101" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C102" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="10"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C104" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C105" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C106" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C108" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C109" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111" s="29"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C113" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C114" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C115" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C116" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C117" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C118" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" s="30"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C122" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C123" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C124" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C125" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C126" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C127" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C134" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C135" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C136" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" s="23"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C138" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C139" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C140" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C141" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="23"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="10"/>
+      <c r="G142" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{F8917AE4-EE95-405A-A66F-3BA7470B35D6}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{0AFF34C4-29E8-4220-BB0B-604FAAB00702}"/>
+    <hyperlink ref="D123" r:id="rId3" xr:uid="{A637AFBC-871B-4747-848A-BE6A0B5F6CEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14A4D44-E597-47FB-AE50-A7D0F4C9C4F6}">
   <dimension ref="A1:M139"/>
   <sheetViews>
@@ -4719,7 +6412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5113170-8CA0-45D1-987A-FD3CC2ABB440}">
   <dimension ref="A1:M130"/>
   <sheetViews>
@@ -6235,7 +7928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8218,7 +9911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10163,7 +11856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56FA244-BD57-4BAE-AC63-71E69E288785}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC116EB0-5CC1-4B30-9E8B-51D9CB662D7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,8 +49,14 @@
     <definedName name="MONINT" localSheetId="3">#REF!</definedName>
     <definedName name="MONINT">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -59,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="249">
   <si>
     <t>SECTION</t>
   </si>
@@ -745,16 +751,67 @@
     <t>Controlplane.io accredited Kubernetes Instructor</t>
   </si>
   <si>
-    <t>Fr:CNCF Kubernetes CKA, CKAD, RedHat RHCE/RHCSA</t>
-  </si>
-  <si>
     <t>https://www.mjbright.net</t>
   </si>
   <si>
-    <t>Fr:https://www.mjbright.net</t>
-  </si>
-  <si>
-    <t>Fr: https://github.com/mjbright</t>
+    <t>Freelance - formation/consulting sur Cloud Natif</t>
+  </si>
+  <si>
+    <t>Formateur/Consultant Cloud Natif</t>
+  </si>
+  <si>
+    <t>Formateur Cloud Natif</t>
+  </si>
+  <si>
+    <t>Consulting - Implementation Kubernetes</t>
+  </si>
+  <si>
+    <t>Accreditation Formateur Kubernetes pour ControlPlane.io</t>
+  </si>
+  <si>
+    <t>Creation, animation de formations Docker, Kubernetes, Serverless</t>
+  </si>
+  <si>
+    <t>Conferencier</t>
+  </si>
+  <si>
+    <t>Creations de demos OpenShift</t>
+  </si>
+  <si>
+    <t>Presentations clients Cloud Natifs (PaaS, Serverless, DevOps)</t>
+  </si>
+  <si>
+    <t>Animation de Labs Container Orchestration (Swarm, Kubernetes, Mesos)</t>
+  </si>
+  <si>
+    <t>Gestion de PoC NFV avec partenaires, OpenStack</t>
+  </si>
+  <si>
+    <t>Brevet EU pour "Prepaid data charging" [EP1720335A1]</t>
+  </si>
+  <si>
+    <t>Installations automises d'AP4SaaS/IaaS pour Telecom</t>
+  </si>
+  <si>
+    <t>- Transfert vers equipes de development en Inde et Chine</t>
+  </si>
+  <si>
+    <t>Frameworks de test automatises pour IaaS</t>
+  </si>
+  <si>
+    <t>Development agile d'un plateforme d'analyses de donnees</t>
+  </si>
+  <si>
+    <t>--  Equipe Agile(SCRUM, TDD, Integration Continu)</t>
+  </si>
+  <si>
+    <t>--  Development logiciel, tests unitaire et functionel pourr SOAP et REST.</t>
+  </si>
+  <si>
+    <t>Propose et implemente creation de dialog VoiceXML pour MWC PoC</t>
+  </si>
+  <si>
+    <t>MOOCs en BigData, SDN, DBs</t>
   </si>
 </sst>
 </file>
@@ -958,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,6 +1099,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1427,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1577,7 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
@@ -1533,8 +1592,9 @@
         <v>218</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>197</v>
+      <c r="F5" s="13" t="str">
+        <f>D5</f>
+        <v>+33 (0)652891534</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="11" t="s">
@@ -1549,8 +1609,9 @@
         <v>199</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
-        <v>200</v>
+      <c r="F6" s="43" t="str">
+        <f>D6</f>
+        <v>training@mjbright.net</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
@@ -1562,11 +1623,12 @@
         <v>23</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
-        <v>230</v>
+      <c r="F7" s="43" t="str">
+        <f>D7</f>
+        <v>https://www.mjbright.net</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11" t="s">
@@ -1581,8 +1643,9 @@
         <v>210</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
-        <v>231</v>
+      <c r="F8" s="43" t="str">
+        <f>D8</f>
+        <v>https://github.com/mjbright</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
@@ -1595,7 +1658,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="43" t="str">
+        <f>D9</f>
+        <v>https://www.linkedin.com/in/mjbright</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
     </row>
@@ -1607,7 +1673,9 @@
         <v>225</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
     </row>
@@ -1619,8 +1687,9 @@
         <v>31</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>32</v>
+      <c r="F11" s="13" t="str">
+        <f>D11</f>
+        <v>Michael Bright</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11" t="s">
@@ -1636,7 +1705,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="11" t="s">
@@ -1651,8 +1720,9 @@
         <v>39</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
-        <v>40</v>
+      <c r="F13" s="13" t="str">
+        <f>D13</f>
+        <v>Grenoble, France</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="11" t="s">
@@ -1667,8 +1737,9 @@
         <v>217</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="11" t="s">
-        <v>203</v>
+      <c r="F14" s="13" t="str">
+        <f>D14</f>
+        <v>mjbright Consulting</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="11" t="s">
@@ -1720,7 +1791,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="8" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -1732,8 +1803,9 @@
         <v>217</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="19" t="s">
-        <v>50</v>
+      <c r="F18" s="19" t="str">
+        <f>D18</f>
+        <v>mjbright Consulting</v>
       </c>
       <c r="G18" s="10"/>
     </row>
@@ -1745,8 +1817,8 @@
         <v>212</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="21" t="s">
-        <v>53</v>
+      <c r="F19" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -1758,8 +1830,9 @@
         <v>211</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" t="s">
-        <v>213</v>
+      <c r="F20" s="19" t="str">
+        <f>D20</f>
+        <v>07/2018</v>
       </c>
       <c r="G20" s="10"/>
     </row>
@@ -1771,8 +1844,9 @@
         <v>58</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" t="s">
-        <v>59</v>
+      <c r="F21" s="19" t="str">
+        <f>D21</f>
+        <v>Present</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -1784,6 +1858,9 @@
         <v>223</v>
       </c>
       <c r="E22" s="10"/>
+      <c r="F22" t="s">
+        <v>232</v>
+      </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1794,6 +1871,9 @@
         <v>227</v>
       </c>
       <c r="E23" s="10"/>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1804,6 +1884,9 @@
         <v>214</v>
       </c>
       <c r="E24" s="10"/>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1815,7 +1898,7 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -1844,8 +1927,9 @@
         <v>35</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="8" t="s">
-        <v>48</v>
+      <c r="F27" s="8" t="str">
+        <f>D27</f>
+        <v>Cloud Native Solution Architect</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -1857,8 +1941,9 @@
         <v>49</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="19" t="s">
-        <v>50</v>
+      <c r="F28" s="8" t="str">
+        <f>D28</f>
+        <v>HPE Customer Innovation Center - Grenoble France</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -1870,8 +1955,9 @@
         <v>52</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="21" t="s">
-        <v>53</v>
+      <c r="F29" s="8" t="str">
+        <f>D29</f>
+        <v>Cloud Native Solution Architect, HPE EG presales</v>
       </c>
       <c r="G29" s="10"/>
     </row>
@@ -1883,8 +1969,9 @@
         <v>55</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" t="s">
-        <v>56</v>
+      <c r="F30" s="8" t="str">
+        <f>D30</f>
+        <v>09/2013</v>
       </c>
       <c r="G30" s="10"/>
     </row>
@@ -1896,8 +1983,9 @@
         <v>219</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" t="s">
-        <v>59</v>
+      <c r="F31" s="8" t="str">
+        <f>D31</f>
+        <v>06/2018</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -1909,6 +1997,9 @@
         <v>226</v>
       </c>
       <c r="E32" s="10"/>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1919,6 +2010,9 @@
         <v>61</v>
       </c>
       <c r="E33" s="10"/>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -1930,7 +2024,7 @@
       </c>
       <c r="E34" s="10"/>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="G34" s="10"/>
     </row>
@@ -1943,7 +2037,7 @@
       </c>
       <c r="E35" s="10"/>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>239</v>
       </c>
       <c r="G35" s="10"/>
     </row>
@@ -1955,6 +2049,10 @@
         <v>66</v>
       </c>
       <c r="E36" s="10"/>
+      <c r="F36" t="str">
+        <f>D36</f>
+        <v>Cloud Automation (DigitalO, GCE, Azure, AWS, Terraform, Heat, Ansible, Vagrant)</v>
+      </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -1982,6 +2080,10 @@
         <v>67</v>
       </c>
       <c r="E38" s="12"/>
+      <c r="F38" t="str">
+        <f t="shared" ref="F38:F50" si="0">D38</f>
+        <v>Cloud Engineer</v>
+      </c>
       <c r="G38" s="25"/>
       <c r="I38" s="26"/>
     </row>
@@ -1993,6 +2095,10 @@
         <v>68</v>
       </c>
       <c r="E39" s="12"/>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>HP CMS - Grenoble France</v>
+      </c>
       <c r="G39" s="25"/>
       <c r="I39" s="26"/>
     </row>
@@ -2004,6 +2110,10 @@
         <v>69</v>
       </c>
       <c r="E40" s="12"/>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>09/2005</v>
+      </c>
       <c r="G40" s="25"/>
       <c r="I40" s="26"/>
     </row>
@@ -2015,6 +2125,10 @@
         <v>55</v>
       </c>
       <c r="E41" s="12"/>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>09/2013</v>
+      </c>
       <c r="G41" s="25"/>
       <c r="I41" s="26"/>
     </row>
@@ -2026,6 +2140,9 @@
         <v>70</v>
       </c>
       <c r="E42" s="12"/>
+      <c r="F42" t="s">
+        <v>240</v>
+      </c>
       <c r="G42" s="25"/>
       <c r="I42" s="26"/>
     </row>
@@ -2037,6 +2154,9 @@
         <v>71</v>
       </c>
       <c r="E43" s="12"/>
+      <c r="F43" t="s">
+        <v>241</v>
+      </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2047,6 +2167,9 @@
         <v>72</v>
       </c>
       <c r="E44" s="12"/>
+      <c r="F44" s="44" t="s">
+        <v>242</v>
+      </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2057,6 +2180,9 @@
         <v>73</v>
       </c>
       <c r="E45" s="12"/>
+      <c r="F45" t="s">
+        <v>243</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
@@ -2073,6 +2199,9 @@
         <v>74</v>
       </c>
       <c r="E46" s="12"/>
+      <c r="F46" t="s">
+        <v>244</v>
+      </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2083,6 +2212,9 @@
         <v>75</v>
       </c>
       <c r="E47" s="12"/>
+      <c r="F47" s="38" t="s">
+        <v>245</v>
+      </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2093,6 +2225,9 @@
         <v>76</v>
       </c>
       <c r="E48" s="12"/>
+      <c r="F48" s="38" t="s">
+        <v>246</v>
+      </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2103,6 +2238,9 @@
         <v>77</v>
       </c>
       <c r="E49" s="12"/>
+      <c r="F49" t="s">
+        <v>247</v>
+      </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
@@ -2113,6 +2251,9 @@
         <v>78</v>
       </c>
       <c r="E50" s="12"/>
+      <c r="F50" t="s">
+        <v>248</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="I50" s="26"/>
     </row>
@@ -2135,6 +2276,10 @@
         <v>79</v>
       </c>
       <c r="E52" s="12"/>
+      <c r="F52" t="str">
+        <f>D52</f>
+        <v>Solution Architect/Consultant</v>
+      </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -2145,6 +2290,10 @@
         <v>80</v>
       </c>
       <c r="E53" s="12"/>
+      <c r="F53" t="str">
+        <f t="shared" ref="F53:F55" si="1">D53</f>
+        <v>HP OCBU - Grenoble France</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
@@ -2161,6 +2310,10 @@
         <v>81</v>
       </c>
       <c r="E54" s="12"/>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>02/1998</v>
+      </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2171,6 +2324,10 @@
         <v>69</v>
       </c>
       <c r="E55" s="12"/>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>09/2005</v>
+      </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2257,6 +2414,7 @@
       <c r="C63" s="24"/>
       <c r="D63" s="23"/>
       <c r="E63" s="12"/>
+      <c r="F63" s="23"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -2267,6 +2425,10 @@
         <v>89</v>
       </c>
       <c r="E64" s="12"/>
+      <c r="F64" t="str">
+        <f>D64</f>
+        <v>Technical Lead/Software Engineer</v>
+      </c>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2277,6 +2439,10 @@
         <v>80</v>
       </c>
       <c r="E65" s="12"/>
+      <c r="F65" t="str">
+        <f t="shared" ref="F65:F67" si="2">D65</f>
+        <v>HP OCBU - Grenoble France</v>
+      </c>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2287,6 +2453,10 @@
         <v>90</v>
       </c>
       <c r="E66" s="12"/>
+      <c r="F66" t="str">
+        <f t="shared" si="2"/>
+        <v>05/1992</v>
+      </c>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2297,6 +2467,10 @@
         <v>81</v>
       </c>
       <c r="E67" s="12"/>
+      <c r="F67" t="str">
+        <f t="shared" si="2"/>
+        <v>02/1998</v>
+      </c>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2367,6 +2541,7 @@
       <c r="C74" s="24"/>
       <c r="D74" s="23"/>
       <c r="E74" s="12"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2377,6 +2552,10 @@
         <v>97</v>
       </c>
       <c r="E75" s="12"/>
+      <c r="F75" t="str">
+        <f>D75</f>
+        <v>Member of Technical Staff</v>
+      </c>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2387,6 +2566,10 @@
         <v>98</v>
       </c>
       <c r="E76" s="12"/>
+      <c r="F76" t="str">
+        <f t="shared" ref="F76:F78" si="3">D76</f>
+        <v>HP Research Labs - Bristol UK</v>
+      </c>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2397,6 +2580,10 @@
         <v>99</v>
       </c>
       <c r="E77" s="12"/>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>08/1985</v>
+      </c>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2407,6 +2594,10 @@
         <v>90</v>
       </c>
       <c r="E78" s="12"/>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>05/1992</v>
+      </c>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2437,6 +2628,7 @@
       <c r="C81" s="24"/>
       <c r="D81" s="23"/>
       <c r="E81" s="12"/>
+      <c r="F81" s="23"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2447,6 +2639,10 @@
         <v>102</v>
       </c>
       <c r="E82" s="12"/>
+      <c r="F82" t="str">
+        <f>D82</f>
+        <v>Research Trainee</v>
+      </c>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2457,6 +2653,10 @@
         <v>103</v>
       </c>
       <c r="E83" s="12"/>
+      <c r="F83" t="str">
+        <f t="shared" ref="F83:F85" si="4">D83</f>
+        <v>BBC Research Labs - UK</v>
+      </c>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2467,6 +2667,10 @@
         <v>104</v>
       </c>
       <c r="E84" s="12"/>
+      <c r="F84" t="str">
+        <f t="shared" si="4"/>
+        <v>09/1983</v>
+      </c>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2477,6 +2681,10 @@
         <v>105</v>
       </c>
       <c r="E85" s="12"/>
+      <c r="F85" t="str">
+        <f t="shared" si="4"/>
+        <v>08/1984</v>
+      </c>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2497,6 +2705,7 @@
       <c r="C87" s="24"/>
       <c r="D87" s="23"/>
       <c r="E87" s="12"/>
+      <c r="F87" s="23"/>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2520,6 +2729,7 @@
       <c r="C89" s="24"/>
       <c r="D89" s="23"/>
       <c r="E89" s="10"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2570,6 +2780,7 @@
       <c r="C94" s="24"/>
       <c r="D94" s="23"/>
       <c r="E94" s="10"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2610,7 +2821,7 @@
       <c r="C98" s="24"/>
       <c r="D98" s="23"/>
       <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="F98" s="23"/>
       <c r="G98" s="14"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -2627,7 +2838,6 @@
         <v>115</v>
       </c>
       <c r="E99" s="10"/>
-      <c r="F99" s="16"/>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2668,6 +2878,7 @@
       <c r="C103" s="24"/>
       <c r="D103" s="23"/>
       <c r="E103" s="10"/>
+      <c r="F103" s="23"/>
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -2708,7 +2919,7 @@
       <c r="C107" s="24"/>
       <c r="D107" s="23"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
+      <c r="F107" s="23"/>
       <c r="G107" s="14"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -3081,6 +3292,7 @@
       <c r="C142" s="24"/>
       <c r="D142" s="23"/>
       <c r="E142" s="10"/>
+      <c r="F142" s="23"/>
       <c r="G142" s="10"/>
     </row>
   </sheetData>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC116EB0-5CC1-4B30-9E8B-51D9CB662D7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C52C9-7020-4737-AD4F-7124855C7B65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,8 +64,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C2399582-17ED-4EE8-991C-1B13371D64F0}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C2399582-17ED-4EE8-991C-1B13371D64F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    NEW variables must be taken care of in csv2yaml.py, in csv_tex.py and in templates/*.tex ... and elsewhere?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="280">
   <si>
     <t>SECTION</t>
   </si>
@@ -754,12 +772,6 @@
     <t>https://www.mjbright.net</t>
   </si>
   <si>
-    <t>Freelance - formation/consulting sur Cloud Natif</t>
-  </si>
-  <si>
-    <t>Formateur/Consultant Cloud Natif</t>
-  </si>
-  <si>
     <t>Formateur Cloud Natif</t>
   </si>
   <si>
@@ -775,12 +787,6 @@
     <t>Conferencier</t>
   </si>
   <si>
-    <t>Creations de demos OpenShift</t>
-  </si>
-  <si>
-    <t>Presentations clients Cloud Natifs (PaaS, Serverless, DevOps)</t>
-  </si>
-  <si>
     <t>Animation de Labs Container Orchestration (Swarm, Kubernetes, Mesos)</t>
   </si>
   <si>
@@ -790,35 +796,140 @@
     <t>Brevet EU pour "Prepaid data charging" [EP1720335A1]</t>
   </si>
   <si>
-    <t>Installations automises d'AP4SaaS/IaaS pour Telecom</t>
-  </si>
-  <si>
     <t>- Transfert vers equipes de development en Inde et Chine</t>
   </si>
   <si>
-    <t>Frameworks de test automatises pour IaaS</t>
-  </si>
-  <si>
-    <t>Development agile d'un plateforme d'analyses de donnees</t>
-  </si>
-  <si>
     <t>--  Equipe Agile(SCRUM, TDD, Integration Continu)</t>
   </si>
   <si>
     <t>--  Development logiciel, tests unitaire et functionel pourr SOAP et REST.</t>
   </si>
   <si>
-    <t>Propose et implemente creation de dialog VoiceXML pour MWC PoC</t>
-  </si>
-  <si>
     <t>MOOCs en BigData, SDN, DBs</t>
+  </si>
+  <si>
+    <t>TALKS</t>
+  </si>
+  <si>
+    <t>Cloud Native - Docker, Kubernetes, Serverless</t>
+  </si>
+  <si>
+    <t>Freelance Trainer, Consultant, Conference Speaker</t>
+  </si>
+  <si>
+    <t>Freelance Formateur, Consultant, Conferencier</t>
+  </si>
+  <si>
+    <t>Cloud Natif - Docker, Kubernetes, Serverless</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @mjbright Consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $@$mjbright Consulting</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>OpenShift PoC Management</t>
+  </si>
+  <si>
+    <t>Gestion d'un PoC OpenShift</t>
+  </si>
+  <si>
+    <t>Development agile d'un plateforme d'analyses de donnees, profile utilisateur</t>
+  </si>
+  <si>
+    <t>Pr\'esentations clients Cloud Natifs (PaaS, Serverless, DevOps)</t>
+  </si>
+  <si>
+    <t>Frameworks de test automatis\'es pour IaaS</t>
+  </si>
+  <si>
+    <t>Installations automis\'es d'AP4SaaS/IaaS pour Telecom</t>
+  </si>
+  <si>
+    <t>Propos\'e et implement\'e cr\'eation de dialog VoiceXML pour MWC PoC</t>
+  </si>
+  <si>
+    <t>Conseil technique en avant-vente sur produits OpenCall et PoCs</t>
+  </si>
+  <si>
+    <t>Atelier ITSM  en avant-vente, clients et partenaire</t>
+  </si>
+  <si>
+    <t>Technical Lead sur prodiuts Telecom IN</t>
+  </si>
+  <si>
+    <t>Ingenieur Logiciel</t>
+  </si>
+  <si>
+    <t>Chercheur</t>
+  </si>
+  <si>
+    <t>Recherche modelizations de reseaux donnees/signalisation (X.25, Ethernet, SS7)</t>
+  </si>
+  <si>
+    <t>Recherche traitement en Parallele, IA/Raisonnement Qualitatif</t>
+  </si>
+  <si>
+    <t>Chercheur - Stagiaire</t>
+  </si>
+  <si>
+    <t>Conception Z-filter, bit-slice proc., tests de perception utilisateur NICAM audio numerique</t>
+  </si>
+  <si>
+    <t>Langages Scripte (Python/Perl/Ruby/PHP), C++/C, Java, Scala, JavaScript, JQuery, FP</t>
+  </si>
+  <si>
+    <t>Noyau Linux Embarqu\'e, Android, Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Outils</t>
+  </si>
+  <si>
+    <t>Langues Etrangeres</t>
+  </si>
+  <si>
+    <t>Fluent en Anglais, Francais, notions d'Italien, Espagnol.</t>
+  </si>
+  <si>
+    <t>University Of Hull,  UK</t>
+  </si>
+  <si>
+    <t>Prix 'Walter Firth' pour electronique</t>
+  </si>
+  <si>
+    <t>Placement d'un an aux Laboratoires de Recherche de la BBC</t>
+  </si>
+  <si>
+    <t>Course a pied, velo, roller</t>
+  </si>
+  <si>
+    <t>Rock, Argentinian Tango, Salsa, Musique, Cinema</t>
+  </si>
+  <si>
+    <t>Voluntaire au Supermarch\'e eco-responsable L'elefan</t>
+  </si>
+  <si>
+    <t>Technologie</t>
+  </si>
+  <si>
+    <t>Organisateur du Grenoble Python User Group</t>
+  </si>
+  <si>
+    <t>Organisateur du Grenoble Docker User Group</t>
+  </si>
+  <si>
+    <t>Apprentissage continu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -882,8 +993,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,6 +1041,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
         <bgColor rgb="FFD6DCE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1015,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1101,6 +1224,13 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1185,6 +1315,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Michael Bright" id="{34E52A3D-0500-47DA-ABCA-415301F9748D}" userId="1851055a07bfd4d4" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1482,12 +1618,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2019-05-12T18:19:34.42" personId="{34E52A3D-0500-47DA-ABCA-415301F9748D}" id="{C2399582-17ED-4EE8-991C-1B13371D64F0}">
+    <text>NEW variables must be taken care of in csv2yaml.py, in csv_tex.py and in templates/*.tex ... and elsewhere?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="B111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1568,311 +1712,315 @@
       <c r="E3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>218</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="13" t="str">
-        <f>D5</f>
-        <v>+33 (0)652891534</v>
+      <c r="F5" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="11" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>199</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>218</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="43" t="str">
         <f>D6</f>
-        <v>training@mjbright.net</v>
+        <v>+33 (0)652891534</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="43" t="str">
+      <c r="F7" s="45" t="str">
         <f>D7</f>
-        <v>https://www.mjbright.net</v>
+        <v>training@mjbright.net</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C8" s="11" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="43" t="str">
+      <c r="F8" s="45" t="str">
         <f>D8</f>
-        <v>https://github.com/mjbright</v>
+        <v>https://www.mjbright.net</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
+        <v>241</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="43" t="str">
+      <c r="F9" s="45" t="str">
         <f>D9</f>
-        <v>https://www.linkedin.com/in/mjbright</v>
+        <v>https://mjbright.github.io/Talks</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>225</v>
+        <v>209</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>210</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="11" t="s">
-        <v>229</v>
+      <c r="F10" s="45" t="str">
+        <f>D10</f>
+        <v>https://github.com/mjbright</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C11" s="11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="45" t="str">
         <f>D11</f>
-        <v>Michael Bright</v>
+        <v>https://www.linkedin.com/in/mjbright</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C13" s="11" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="13" t="str">
+      <c r="F13" s="45" t="str">
         <f>D13</f>
-        <v>Grenoble, France</v>
+        <v>Michael Bright</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>217</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="13" t="str">
-        <f>D14</f>
-        <v>mjbright Consulting</v>
+      <c r="F14" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="45" t="str">
+        <f>D15</f>
+        <v>Grenoble, France</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="45" t="str">
+        <f>D16</f>
+        <v xml:space="preserve"> @mjbright Consulting</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>217</v>
-      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="19" t="str">
-        <f>D18</f>
-        <v>mjbright Consulting</v>
-      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="10"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>212</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>211</v>
+      <c r="C20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>247</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="19" t="str">
+      <c r="F20" s="46" t="str">
         <f>D20</f>
-        <v>07/2018</v>
+        <v xml:space="preserve"> $@$mjbright Consulting</v>
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>58</v>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="19" t="str">
-        <f>D21</f>
-        <v>Present</v>
+      <c r="F21" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C22" s="21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" t="s">
-        <v>232</v>
+      <c r="F22" s="46" t="str">
+        <f>D22</f>
+        <v>07/2018</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C23" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" t="s">
-        <v>233</v>
+      <c r="F23" s="46" t="str">
+        <f>D23</f>
+        <v>Present</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -1880,12 +2028,12 @@
       <c r="C24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>214</v>
+      <c r="D24" s="39" t="s">
+        <v>223</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G24" s="10"/>
     </row>
@@ -1893,125 +2041,125 @@
       <c r="C25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>215</v>
+      <c r="D25" s="39" t="s">
+        <v>227</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8" t="str">
-        <f>D27</f>
-        <v>Cloud Native Solution Architect</v>
-      </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="8" t="str">
-        <f>D28</f>
-        <v>HPE Customer Innovation Center - Grenoble France</v>
-      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="10"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="47" t="str">
+        <f>D29</f>
+        <v>Cloud Native Solution Architect</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="47" t="str">
+        <f>D30</f>
+        <v>HPE Customer Innovation Center - Grenoble France</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8" t="str">
-        <f>D29</f>
+      <c r="E31" s="10"/>
+      <c r="F31" s="47" t="str">
+        <f>D31</f>
         <v>Cloud Native Solution Architect, HPE EG presales</v>
-      </c>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C30" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8" t="str">
-        <f>D30</f>
-        <v>09/2013</v>
-      </c>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C31" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8" t="str">
-        <f>D31</f>
-        <v>06/2018</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C32" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>226</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" t="s">
-        <v>236</v>
+      <c r="F32" s="47" t="str">
+        <f>D32</f>
+        <v>09/2013</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>219</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" t="s">
-        <v>237</v>
+      <c r="F33" s="47" t="str">
+        <f>D33</f>
+        <v>06/2018</v>
       </c>
       <c r="G33" s="10"/>
     </row>
@@ -2019,12 +2167,12 @@
       <c r="C34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>62</v>
+      <c r="D34" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G34" s="10"/>
     </row>
@@ -2033,11 +2181,11 @@
         <v>60</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G35" s="10"/>
     </row>
@@ -2046,308 +2194,314 @@
         <v>60</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C38" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" t="str">
-        <f>D36</f>
+      <c r="E38" s="10"/>
+      <c r="F38" t="str">
+        <f>D38</f>
         <v>Cloud Automation (DigitalO, GCE, Azure, AWS, Terraform, Heat, Ansible, Vagrant)</v>
       </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C38" s="11" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C40" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" t="str">
-        <f t="shared" ref="F38:F50" si="0">D38</f>
+      <c r="E40" s="12"/>
+      <c r="F40" s="48" t="str">
+        <f t="shared" ref="F40:F43" si="0">D40</f>
         <v>Cloud Engineer</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C39" s="11" t="s">
+      <c r="G40" s="25"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" t="str">
+      <c r="E41" s="12"/>
+      <c r="F41" s="48" t="str">
         <f t="shared" si="0"/>
         <v>HP CMS - Grenoble France</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C40" s="21" t="s">
+      <c r="G41" s="25"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" t="str">
+      <c r="E42" s="12"/>
+      <c r="F42" s="48" t="str">
         <f t="shared" si="0"/>
         <v>09/2005</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C41" s="21" t="s">
+      <c r="G42" s="25"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C43" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" t="str">
+      <c r="E43" s="12"/>
+      <c r="F43" s="48" t="str">
         <f t="shared" si="0"/>
         <v>09/2013</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C42" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="G43" s="25"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C44" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" s="25"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C43" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" t="s">
-        <v>241</v>
-      </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C44" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" s="10"/>
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C45" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C46" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" t="s">
-        <v>244</v>
+      <c r="F46" s="44" t="s">
+        <v>237</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C47" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="38" t="s">
-        <v>245</v>
+      <c r="F47" t="s">
+        <v>253</v>
       </c>
       <c r="G47" s="10"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C48" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="38" t="s">
-        <v>246</v>
+      <c r="F48" t="s">
+        <v>251</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C49" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C50" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C51" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C50" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C52" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" t="s">
-        <v>248</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="I50" s="26"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C52" s="11" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" t="str">
-        <f>D52</f>
+      <c r="E54" s="12"/>
+      <c r="F54" s="48" t="str">
+        <f>D54</f>
         <v>Solution Architect/Consultant</v>
       </c>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C53" s="11" t="s">
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C55" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" t="str">
-        <f t="shared" ref="F53:F55" si="1">D53</f>
+      <c r="E55" s="12"/>
+      <c r="F55" s="48" t="str">
+        <f t="shared" ref="F55:F57" si="1">D55</f>
         <v>HP OCBU - Grenoble France</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C54" s="21" t="s">
+      <c r="G55" s="10"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C56" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D56" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" t="str">
+      <c r="E56" s="12"/>
+      <c r="F56" s="48" t="str">
         <f t="shared" si="1"/>
         <v>02/1998</v>
       </c>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C55" s="21" t="s">
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C57" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D57" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" t="str">
+      <c r="E57" s="12"/>
+      <c r="F57" s="48" t="str">
         <f t="shared" si="1"/>
         <v>09/2005</v>
       </c>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C56" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C57" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="12"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2355,29 +2509,38 @@
         <v>60</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E58" s="12"/>
+      <c r="F58" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C59" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>85</v>
+      <c r="D59" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="E59" s="12"/>
+      <c r="F59" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C60" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="E60" s="12"/>
+      <c r="F60" s="11" t="s">
+        <v>257</v>
+      </c>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2385,132 +2548,150 @@
         <v>220</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E61" s="12"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="F61" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C62" s="21" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C63" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C64" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C64" s="11" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C66" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" t="str">
-        <f>D64</f>
+      <c r="E66" s="12"/>
+      <c r="F66" s="48" t="str">
+        <f>D66</f>
         <v>Technical Lead/Software Engineer</v>
       </c>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C65" s="11" t="s">
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C67" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D67" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" t="str">
-        <f t="shared" ref="F65:F67" si="2">D65</f>
+      <c r="E67" s="12"/>
+      <c r="F67" s="48" t="str">
+        <f t="shared" ref="F67:F69" si="2">D67</f>
         <v>HP OCBU - Grenoble France</v>
       </c>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C66" s="21" t="s">
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C68" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D68" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="12"/>
-      <c r="F66" t="str">
+      <c r="E68" s="12"/>
+      <c r="F68" s="48" t="str">
         <f t="shared" si="2"/>
         <v>05/1992</v>
       </c>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C67" s="21" t="s">
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C69" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D69" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" t="str">
+      <c r="E69" s="12"/>
+      <c r="F69" s="48" t="str">
         <f t="shared" si="2"/>
         <v>02/1998</v>
       </c>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C68" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C69" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="12"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C70" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E70" s="12"/>
+      <c r="F70" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C71" s="21" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E71" s="12"/>
+      <c r="F71" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2518,207 +2699,222 @@
         <v>220</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E72" s="12"/>
+      <c r="F72" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C73" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C74" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D74" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C75" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="G73" s="10"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="10"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C75" s="11" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C77" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D77" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" t="str">
-        <f>D75</f>
-        <v>Member of Technical Staff</v>
-      </c>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C76" s="11" t="s">
+      <c r="E77" s="12"/>
+      <c r="F77" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C78" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D78" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" t="str">
-        <f t="shared" ref="F76:F78" si="3">D76</f>
+      <c r="E78" s="12"/>
+      <c r="F78" s="48" t="str">
+        <f t="shared" ref="F78:F80" si="3">D78</f>
         <v>HP Research Labs - Bristol UK</v>
       </c>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C77" s="21" t="s">
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C79" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D79" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" t="str">
+      <c r="E79" s="12"/>
+      <c r="F79" s="48" t="str">
         <f t="shared" si="3"/>
         <v>08/1985</v>
       </c>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C78" s="21" t="s">
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C80" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D80" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="F78" t="str">
+      <c r="E80" s="12"/>
+      <c r="F80" s="48" t="str">
         <f t="shared" si="3"/>
         <v>05/1992</v>
       </c>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C79" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="19" t="s">
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C81" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C80" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="19" t="s">
+      <c r="E81" s="12"/>
+      <c r="F81" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C82" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C82" s="11" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C84" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D84" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" t="str">
-        <f>D82</f>
-        <v>Research Trainee</v>
-      </c>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C83" s="11" t="s">
+      <c r="E84" s="12"/>
+      <c r="F84" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C85" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D85" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="12"/>
-      <c r="F83" t="str">
-        <f t="shared" ref="F83:F85" si="4">D83</f>
+      <c r="E85" s="12"/>
+      <c r="F85" s="48" t="str">
+        <f t="shared" ref="F85:F87" si="4">D85</f>
         <v>BBC Research Labs - UK</v>
       </c>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C84" s="21" t="s">
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C86" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D86" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" t="str">
+      <c r="E86" s="12"/>
+      <c r="F86" s="48" t="str">
         <f t="shared" si="4"/>
         <v>09/1983</v>
       </c>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C85" s="21" t="s">
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C87" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D87" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" t="str">
+      <c r="E87" s="12"/>
+      <c r="F87" s="48" t="str">
         <f t="shared" si="4"/>
         <v>08/1984</v>
       </c>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C86" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="19" t="s">
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C88" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="14"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="19" t="s">
+        <v>264</v>
+      </c>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2728,38 +2924,46 @@
       <c r="B89" s="23"/>
       <c r="C89" s="24"/>
       <c r="D89" s="23"/>
-      <c r="E89" s="10"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="23"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C90" s="21" t="s">
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C92" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D92" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C91" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="10"/>
-      <c r="G91" s="10"/>
-    </row>
-    <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C92" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="E92" s="10"/>
+      <c r="F92" s="48" t="str">
+        <f>D92</f>
+        <v>Certifications</v>
+      </c>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2767,97 +2971,125 @@
         <v>60</v>
       </c>
       <c r="D93" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="48" t="str">
+        <f t="shared" ref="F93:F95" si="5">D93</f>
+        <v xml:space="preserve">Sep 2017 CNCF Kubernetes Administration (CKA) </v>
+      </c>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C94" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>May 2015 HPE Expert One, SDN Apps (HP0-Y48)</v>
+      </c>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C95" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="E95" s="10"/>
+      <c r="F95" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>Nov 2013 RedHat RHCE/RHCSA</v>
+      </c>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C95" s="21" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C97" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D97" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C96" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="19" t="s">
+      <c r="E97" s="10"/>
+      <c r="F97" s="48" t="str">
+        <f>D97</f>
+        <v>Cloud</v>
+      </c>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C98" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C97" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="19" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="48" t="str">
+        <f t="shared" ref="F98:F99" si="6">D98</f>
+        <v>PaaS OpenShift, Google App Engine, Heroku</v>
+      </c>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C99" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="E99" s="10"/>
+      <c r="F99" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</v>
+      </c>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-    </row>
-    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C99" s="21" t="s">
+      <c r="B100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+    </row>
+    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C101" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D101" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C100" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="G100" s="10"/>
-    </row>
-    <row r="101" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C101" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="E101" s="10"/>
+      <c r="F101" s="48" t="str">
+        <f t="shared" ref="F101:F104" si="7">D101</f>
+        <v>Languages and Paradigms</v>
+      </c>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
@@ -2865,111 +3097,134 @@
         <v>60</v>
       </c>
       <c r="D102" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C103" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</v>
+      </c>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C104" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="10"/>
-    </row>
-    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C104" s="21" t="s">
+      <c r="B105" s="23"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C106" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D106" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C105" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" s="19" t="s">
+      <c r="E106" s="10"/>
+      <c r="F106" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C107" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C106" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="19" t="s">
+      <c r="E107" s="10"/>
+      <c r="F107" s="48" t="str">
+        <f t="shared" ref="F106:F108" si="8">D107</f>
+        <v>Eclipse, Git, svn, vim, maven, Jenkins, gdb</v>
+      </c>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C108" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
+      <c r="E108" s="10"/>
+      <c r="F108" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</v>
+      </c>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C108" s="11" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C110" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D110" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C109" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D109" s="19" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C111" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="28"/>
       <c r="E111" s="10"/>
-      <c r="F111" s="28"/>
+      <c r="F111" s="19" t="s">
+        <v>269</v>
+      </c>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2983,88 +3238,110 @@
       <c r="F112" s="23"/>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C113" s="11" t="s">
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C115" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D115" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E113" s="10"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C114" s="11" t="s">
+      <c r="E115" s="10"/>
+      <c r="F115" s="48" t="str">
+        <f t="shared" ref="F115:F120" si="9">D115</f>
+        <v>B.Sc/Dip.Eng in  Electronic Control and Robotics</v>
+      </c>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C116" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E114" s="10"/>
-      <c r="G114" s="10"/>
-    </row>
-    <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C115" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C116" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>129</v>
+      <c r="D116" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="E116" s="10"/>
+      <c r="F116" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>University Of Hull,  UK</v>
+      </c>
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C117" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>130</v>
+        <v>54</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E117" s="10"/>
+      <c r="F117" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>10/1980</v>
+      </c>
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C118" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>07/1985</v>
+      </c>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C119" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C120" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="28"/>
       <c r="E120" s="10"/>
-      <c r="F120" s="28"/>
+      <c r="F120" s="19" t="s">
+        <v>272</v>
+      </c>
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3079,148 +3356,189 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C122" s="21" t="s">
+      <c r="A122" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="30"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C124" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D124" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C123" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C124" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>216</v>
-      </c>
       <c r="E124" s="10"/>
+      <c r="F124" s="48" t="str">
+        <f t="shared" ref="F124:F129" si="10">D124</f>
+        <v>Conference Talks</v>
+      </c>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C125" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>https://mjbright.github.io/Talks</v>
+      </c>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C126" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2018 FOSSCon (Pres+Lab), FOSS Asia (Pres+Lab), Code Europe, PyConfr</v>
+      </c>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C127" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="G125" s="10"/>
-    </row>
-    <row r="126" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C126" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D126" s="34" t="s">
+      <c r="E127" s="10"/>
+      <c r="F127" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2017 Devconf.cz, Snowcamp.io, HPE TSS, HPE TES, DockerConUS, RMLL, OSS EU (Pres+Lab)</v>
+      </c>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="G126" s="10"/>
-    </row>
-    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C127" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D127" s="34" t="s">
+      <c r="E128" s="10"/>
+      <c r="F128" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2016 Europython (Pres+Lab), ContainerCon Europe (Pres+Lab)</v>
+      </c>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="G127" s="10"/>
-    </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
+      <c r="E129" s="10"/>
+      <c r="F129" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2015 Pyconfr, Ipython vers Jupyter</v>
+      </c>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="10"/>
-    </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C129" s="11" t="s">
+      <c r="B130" s="23"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D131" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E129" s="10"/>
-      <c r="G129" s="10"/>
-    </row>
-    <row r="130" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C130" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D130" s="35" t="s">
+      <c r="E131" s="10"/>
+      <c r="F131" s="18" t="str">
+        <f t="shared" ref="F131:F133" si="11">D131</f>
+        <v>Startup Weekend</v>
+      </c>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="G130" s="10"/>
-    </row>
-    <row r="131" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C131" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D131" s="35" t="s">
+      <c r="E132" s="10"/>
+      <c r="F132" s="48" t="str">
+        <f t="shared" si="11"/>
+        <v>2018-Nov: Community Security System</v>
+      </c>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E131" s="10"/>
-      <c r="G131" s="10"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="22" t="s">
+      <c r="E133" s="10"/>
+      <c r="F133" s="48" t="str">
+        <f t="shared" si="11"/>
+        <v>2012-Nov 2nd place: https://www.archionline.com/</v>
+      </c>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="10"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C133" s="11" t="s">
+      <c r="B134" s="23"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C135" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D135" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E133" s="10"/>
-      <c r="G133" s="10"/>
-    </row>
-    <row r="134" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C134" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E134" s="10"/>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C135" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="E135" s="10"/>
+      <c r="F135" s="18" t="str">
+        <f t="shared" ref="F135:F138" si="12">D135</f>
+        <v>Miscellaneous</v>
+      </c>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -3228,50 +3546,62 @@
         <v>60</v>
       </c>
       <c r="D136" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C137" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C138" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="G136" s="10"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
+      <c r="E138" s="10"/>
+      <c r="F138" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="10"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="C138" s="11" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C140" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D140" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="G138" s="10"/>
-    </row>
-    <row r="139" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C139" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C140" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>148</v>
-      </c>
       <c r="E140" s="10"/>
+      <c r="F140" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -3279,21 +3609,50 @@
         <v>60</v>
       </c>
       <c r="D141" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C142" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C143" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D143" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E141" s="10"/>
-      <c r="G141" s="10"/>
-    </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="22" t="s">
+      <c r="E143" s="10"/>
+      <c r="F143" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="10"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3303,11 +3662,11 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{FECD6F66-D8B7-46BD-B870-678E17186243}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{E06E48E3-0BBE-425D-B2FE-65C4D9CF6DA0}"/>
-    <hyperlink ref="D123" r:id="rId3" xr:uid="{22FECDD5-2CC5-40AB-B1F4-9F8C8C9CB1EE}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{22A5A641-F2FA-46B6-93D1-F6ED2F1D0FE2}"/>
-    <hyperlink ref="F123" r:id="rId5" xr:uid="{2C4A759C-CD44-4E43-885C-10D7456A57A2}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{FECD6F66-D8B7-46BD-B870-678E17186243}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{E06E48E3-0BBE-425D-B2FE-65C4D9CF6DA0}"/>
+    <hyperlink ref="D125" r:id="rId3" xr:uid="{22FECDD5-2CC5-40AB-B1F4-9F8C8C9CB1EE}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{22A5A641-F2FA-46B6-93D1-F6ED2F1D0FE2}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{959B1FAB-C5B5-43D2-84B9-DE8D37B08A6A}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3315,6 +3674,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -8,27 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C52C9-7020-4737-AD4F-7124855C7B65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7567B5-5C3F-4D72-98D6-DA28D0E4FFE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
-    <sheet name="CV_03May2019" sheetId="9" r:id="rId2"/>
-    <sheet name="CV_03Oct2018" sheetId="8" r:id="rId3"/>
-    <sheet name="CV_12Apr2018_AWS" sheetId="7" r:id="rId4"/>
-    <sheet name="CV_tmp_3Sep2017" sheetId="3" r:id="rId5"/>
-    <sheet name="CV_2017_Jul_RedHat_AnsibleSpeci" sheetId="4" r:id="rId6"/>
-    <sheet name="CV_2017-Mars_ATC" sheetId="6" r:id="rId7"/>
+    <sheet name="CV_EN_FR_12May2019" sheetId="10" r:id="rId2"/>
+    <sheet name="CV_03May2019" sheetId="9" r:id="rId3"/>
+    <sheet name="CV_03Oct2018" sheetId="8" r:id="rId4"/>
+    <sheet name="CV_12Apr2018_AWS" sheetId="7" r:id="rId5"/>
+    <sheet name="CV_tmp_3Sep2017" sheetId="3" r:id="rId6"/>
+    <sheet name="CV_2017_Jul_RedHat_AnsibleSpeci" sheetId="4" r:id="rId7"/>
+    <sheet name="CV_2017-Mars_ATC" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="GAIN" localSheetId="1">#REF!</definedName>
     <definedName name="GAIN" localSheetId="2">#REF!</definedName>
     <definedName name="GAIN" localSheetId="3">#REF!</definedName>
+    <definedName name="GAIN" localSheetId="4">#REF!</definedName>
+    <definedName name="GAIN" localSheetId="1">#REF!</definedName>
     <definedName name="GAIN">#REF!</definedName>
-    <definedName name="GAIN2" localSheetId="1">#REF!</definedName>
     <definedName name="GAIN2" localSheetId="2">#REF!</definedName>
     <definedName name="GAIN2" localSheetId="3">#REF!</definedName>
+    <definedName name="GAIN2" localSheetId="4">#REF!</definedName>
+    <definedName name="GAIN2" localSheetId="1">#REF!</definedName>
     <definedName name="GAIN2">#REF!</definedName>
     <definedName name="HTML_CodePage">1252</definedName>
     <definedName name="HTML_Control">{"'ISP'!$A$1:$O$37"}</definedName>
@@ -44,9 +47,10 @@
     <definedName name="HTML_OS">0</definedName>
     <definedName name="HTML_PathFile">"E:\public_html\fy97org\isplog.htm"</definedName>
     <definedName name="HTML_Title">"isplog"</definedName>
-    <definedName name="MONINT" localSheetId="1">#REF!</definedName>
     <definedName name="MONINT" localSheetId="2">#REF!</definedName>
     <definedName name="MONINT" localSheetId="3">#REF!</definedName>
+    <definedName name="MONINT" localSheetId="4">#REF!</definedName>
+    <definedName name="MONINT" localSheetId="1">#REF!</definedName>
     <definedName name="MONINT">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -82,8 +86,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E6B6696E-E101-4792-95B9-FA56882EC233}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E6B6696E-E101-4792-95B9-FA56882EC233}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    NEW variables must be taken care of in csv2yaml.py, in csv_tex.py and in templates/*.tex ... and elsewhere?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="280">
   <si>
     <t>SECTION</t>
   </si>
@@ -1626,11 +1648,19 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2019-05-12T18:19:34.42" personId="{34E52A3D-0500-47DA-ABCA-415301F9748D}" id="{E6B6696E-E101-4792-95B9-FA56882EC233}">
+    <text>NEW variables must be taken care of in csv2yaml.py, in csv_tex.py and in templates/*.tex ... and elsewhere?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B111" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B111" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
@@ -3679,6 +3709,2053 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE271112-8313-456B-92F1-71D6C3DCE9AF}">
+  <dimension ref="A1:M144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="43" t="str">
+        <f>D6</f>
+        <v>+33 (0)652891534</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="45" t="str">
+        <f>D7</f>
+        <v>training@mjbright.net</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="45" t="str">
+        <f>D8</f>
+        <v>https://www.mjbright.net</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="45" t="str">
+        <f>D9</f>
+        <v>https://mjbright.github.io/Talks</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="45" t="str">
+        <f>D10</f>
+        <v>https://github.com/mjbright</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="45" t="str">
+        <f>D11</f>
+        <v>https://www.linkedin.com/in/mjbright</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="45" t="str">
+        <f>D13</f>
+        <v>Michael Bright</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="45" t="str">
+        <f>D15</f>
+        <v>Grenoble, France</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="45" t="str">
+        <f>D16</f>
+        <v xml:space="preserve"> @mjbright Consulting</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="46" t="str">
+        <f>D20</f>
+        <v xml:space="preserve"> $@$mjbright Consulting</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="46" t="str">
+        <f>D22</f>
+        <v>07/2018</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="46" t="str">
+        <f>D23</f>
+        <v>Present</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="47" t="str">
+        <f>D29</f>
+        <v>Cloud Native Solution Architect</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="47" t="str">
+        <f>D30</f>
+        <v>HPE Customer Innovation Center - Grenoble France</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="47" t="str">
+        <f>D31</f>
+        <v>Cloud Native Solution Architect, HPE EG presales</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="47" t="str">
+        <f>D32</f>
+        <v>09/2013</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C33" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="47" t="str">
+        <f>D33</f>
+        <v>06/2018</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C34" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C38" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" t="str">
+        <f>D38</f>
+        <v>Cloud Automation (DigitalO, GCE, Azure, AWS, Terraform, Heat, Ansible, Vagrant)</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="48" t="str">
+        <f t="shared" ref="F40:F43" si="0">D40</f>
+        <v>Cloud Engineer</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>HP CMS - Grenoble France</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C42" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>09/2005</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C43" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>09/2013</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C44" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C45" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C46" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C47" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C48" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" t="s">
+        <v>251</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C49" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C50" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C51" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C52" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="48" t="str">
+        <f>D54</f>
+        <v>Solution Architect/Consultant</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C55" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="48" t="str">
+        <f t="shared" ref="F55:F57" si="1">D55</f>
+        <v>HP OCBU - Grenoble France</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C56" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>02/1998</v>
+      </c>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C57" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>09/2005</v>
+      </c>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C58" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C59" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C60" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C61" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C62" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C63" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C64" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="48" t="str">
+        <f>D66</f>
+        <v>Technical Lead/Software Engineer</v>
+      </c>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C67" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="48" t="str">
+        <f t="shared" ref="F67:F69" si="2">D67</f>
+        <v>HP OCBU - Grenoble France</v>
+      </c>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C68" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>05/1992</v>
+      </c>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C69" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>02/1998</v>
+      </c>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C70" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C71" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C72" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C73" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C74" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C75" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C77" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C78" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="48" t="str">
+        <f t="shared" ref="F78:F80" si="3">D78</f>
+        <v>HP Research Labs - Bristol UK</v>
+      </c>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C79" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>08/1985</v>
+      </c>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C80" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>05/1992</v>
+      </c>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C81" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C82" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C84" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C85" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="48" t="str">
+        <f t="shared" ref="F85:F87" si="4">D85</f>
+        <v>BBC Research Labs - UK</v>
+      </c>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C86" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>09/1983</v>
+      </c>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C87" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>08/1984</v>
+      </c>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C88" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C92" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="48" t="str">
+        <f>D92</f>
+        <v>Certifications</v>
+      </c>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C93" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="48" t="str">
+        <f t="shared" ref="F93:F95" si="5">D93</f>
+        <v xml:space="preserve">Sep 2017 CNCF Kubernetes Administration (CKA) </v>
+      </c>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C94" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>May 2015 HPE Expert One, SDN Apps (HP0-Y48)</v>
+      </c>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C95" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>Nov 2013 RedHat RHCE/RHCSA</v>
+      </c>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C97" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="48" t="str">
+        <f>D97</f>
+        <v>Cloud</v>
+      </c>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C98" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="48" t="str">
+        <f t="shared" ref="F98:F99" si="6">D98</f>
+        <v>PaaS OpenShift, Google App Engine, Heroku</v>
+      </c>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C99" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</v>
+      </c>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+    </row>
+    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C101" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="48" t="str">
+        <f t="shared" ref="F101:F104" si="7">D101</f>
+        <v>Languages and Paradigms</v>
+      </c>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C102" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C103" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</v>
+      </c>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C104" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C106" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C107" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="48" t="str">
+        <f t="shared" ref="F107:F109" si="8">D107</f>
+        <v>Eclipse, Git, svn, vim, maven, Jenkins, gdb</v>
+      </c>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C108" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v>Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</v>
+      </c>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C110" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C111" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C115" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="48" t="str">
+        <f t="shared" ref="F115:F120" si="9">D115</f>
+        <v>B.Sc/Dip.Eng in  Electronic Control and Robotics</v>
+      </c>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C116" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>University Of Hull,  UK</v>
+      </c>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C117" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>10/1980</v>
+      </c>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C118" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v>07/1985</v>
+      </c>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C119" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C120" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="30"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C124" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="48" t="str">
+        <f t="shared" ref="F124:F129" si="10">D124</f>
+        <v>Conference Talks</v>
+      </c>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C125" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>https://mjbright.github.io/Talks</v>
+      </c>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C126" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2018 FOSSCon (Pres+Lab), FOSS Asia (Pres+Lab), Code Europe, PyConfr</v>
+      </c>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C127" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2017 Devconf.cz, Snowcamp.io, HPE TSS, HPE TES, DockerConUS, RMLL, OSS EU (Pres+Lab)</v>
+      </c>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2016 Europython (Pres+Lab), ContainerCon Europe (Pres+Lab)</v>
+      </c>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>2015 Pyconfr, Ipython vers Jupyter</v>
+      </c>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="18" t="str">
+        <f t="shared" ref="F131:F133" si="11">D131</f>
+        <v>Startup Weekend</v>
+      </c>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="48" t="str">
+        <f t="shared" si="11"/>
+        <v>2018-Nov: Community Security System</v>
+      </c>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="48" t="str">
+        <f t="shared" si="11"/>
+        <v>2012-Nov 2nd place: https://www.archionline.com/</v>
+      </c>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" s="23"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C135" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="18" t="str">
+        <f t="shared" ref="F135:F138" si="12">D135</f>
+        <v>Miscellaneous</v>
+      </c>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C136" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C137" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C138" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" s="23"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C140" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C141" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C142" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C143" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" s="23"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{D51FD02F-2DA6-4ABC-BF13-5426C418C97F}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{934CAD68-C6A7-41E6-9E62-A741A79CF6B2}"/>
+    <hyperlink ref="D125" r:id="rId3" xr:uid="{5168BA34-B279-4AD8-92C8-4D51073270E8}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{3FA3FE92-00D2-4CE9-B37D-29A41681B0E9}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{8445D70B-C4C5-4BE2-BCD9-C99A7F5B4CC3}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6F6D65-4BCE-46DF-8FAC-044E9429284D}">
   <dimension ref="A1:M142"/>
   <sheetViews>
@@ -5346,7 +7423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14A4D44-E597-47FB-AE50-A7D0F4C9C4F6}">
   <dimension ref="A1:M139"/>
   <sheetViews>
@@ -6984,7 +9061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5113170-8CA0-45D1-987A-FD3CC2ABB440}">
   <dimension ref="A1:M130"/>
   <sheetViews>
@@ -8500,7 +10577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10483,7 +12560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12428,7 +14505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/static/docs/src/CV.xlsx
+++ b/static/docs/src/CV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windo\Dropbox\z\www\mjbright.github.io\static\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7567B5-5C3F-4D72-98D6-DA28D0E4FFE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21FE4B3-68EF-4043-9CF4-CA05606FDA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <definedName name="MONINT" localSheetId="1">#REF!</definedName>
     <definedName name="MONINT">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="286">
   <si>
     <t>SECTION</t>
   </si>
@@ -945,13 +945,31 @@
   </si>
   <si>
     <t>Apprentissage continu</t>
+  </si>
+  <si>
+    <t>Technical Trainer, Consultant</t>
+  </si>
+  <si>
+    <t>Formateur, Consultant Technique</t>
+  </si>
+  <si>
+    <t>Kubernetes Instructor for LinuxFoundation, Controlplane.io</t>
+  </si>
+  <si>
+    <t>Consulting - Kubernetes Air-gapped Implementation</t>
+  </si>
+  <si>
+    <t>Creation, delivery of Docker, Kubernetes, Terraform trainings</t>
+  </si>
+  <si>
+    <t>Creation Ansible, Serverless trainings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1013,12 +1031,6 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1238,12 +1250,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1253,6 +1259,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1681,20 +1693,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
@@ -1781,8 +1793,8 @@
         <v>218</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="43" t="str">
-        <f>D6</f>
+      <c r="F6" s="41" t="str">
+        <f t="shared" ref="F6:F11" si="0">D6</f>
         <v>+33 (0)652891534</v>
       </c>
       <c r="G6" s="12"/>
@@ -1798,8 +1810,8 @@
         <v>199</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="45" t="str">
-        <f>D7</f>
+      <c r="F7" s="43" t="str">
+        <f t="shared" si="0"/>
         <v>training@mjbright.net</v>
       </c>
       <c r="G7" s="12"/>
@@ -1815,8 +1827,8 @@
         <v>228</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="45" t="str">
-        <f>D8</f>
+      <c r="F8" s="43" t="str">
+        <f t="shared" si="0"/>
         <v>https://www.mjbright.net</v>
       </c>
       <c r="G8" s="12"/>
@@ -1832,8 +1844,8 @@
         <v>134</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="45" t="str">
-        <f>D9</f>
+      <c r="F9" s="43" t="str">
+        <f t="shared" si="0"/>
         <v>https://mjbright.github.io/Talks</v>
       </c>
       <c r="G9" s="12"/>
@@ -1847,8 +1859,8 @@
         <v>210</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="45" t="str">
-        <f>D10</f>
+      <c r="F10" s="43" t="str">
+        <f t="shared" si="0"/>
         <v>https://github.com/mjbright</v>
       </c>
       <c r="G10" s="12"/>
@@ -1862,8 +1874,8 @@
         <v>28</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="45" t="str">
-        <f>D11</f>
+      <c r="F11" s="43" t="str">
+        <f t="shared" si="0"/>
         <v>https://www.linkedin.com/in/mjbright</v>
       </c>
       <c r="G11" s="12"/>
@@ -1891,7 +1903,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="45" t="str">
+      <c r="F13" s="43" t="str">
         <f>D13</f>
         <v>Michael Bright</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="45" t="str">
+      <c r="F15" s="43" t="str">
         <f>D15</f>
         <v>Grenoble, France</v>
       </c>
@@ -1941,7 +1953,7 @@
         <v>246</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="45" t="str">
+      <c r="F16" s="43" t="str">
         <f>D16</f>
         <v xml:space="preserve"> @mjbright Consulting</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>247</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="46" t="str">
+      <c r="F20" s="44" t="str">
         <f>D20</f>
         <v xml:space="preserve"> $@$mjbright Consulting</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>211</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="46" t="str">
+      <c r="F22" s="44" t="str">
         <f>D22</f>
         <v>07/2018</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="46" t="str">
+      <c r="F23" s="44" t="str">
         <f>D23</f>
         <v>Present</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="47" t="str">
+      <c r="F29" s="45" t="str">
         <f>D29</f>
         <v>Cloud Native Solution Architect</v>
       </c>
@@ -2145,7 +2157,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="47" t="str">
+      <c r="F30" s="45" t="str">
         <f>D30</f>
         <v>HPE Customer Innovation Center - Grenoble France</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="47" t="str">
+      <c r="F31" s="45" t="str">
         <f>D31</f>
         <v>Cloud Native Solution Architect, HPE EG presales</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="47" t="str">
+      <c r="F32" s="45" t="str">
         <f>D32</f>
         <v>09/2013</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>219</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="47" t="str">
+      <c r="F33" s="45" t="str">
         <f>D33</f>
         <v>06/2018</v>
       </c>
@@ -2284,8 +2296,8 @@
         <v>67</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="48" t="str">
-        <f t="shared" ref="F40:F43" si="0">D40</f>
+      <c r="F40" s="46" t="str">
+        <f t="shared" ref="F40:F43" si="1">D40</f>
         <v>Cloud Engineer</v>
       </c>
       <c r="G40" s="25"/>
@@ -2299,8 +2311,8 @@
         <v>68</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="48" t="str">
-        <f t="shared" si="0"/>
+      <c r="F41" s="46" t="str">
+        <f t="shared" si="1"/>
         <v>HP CMS - Grenoble France</v>
       </c>
       <c r="G41" s="25"/>
@@ -2314,8 +2326,8 @@
         <v>69</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="48" t="str">
-        <f t="shared" si="0"/>
+      <c r="F42" s="46" t="str">
+        <f t="shared" si="1"/>
         <v>09/2005</v>
       </c>
       <c r="G42" s="25"/>
@@ -2329,8 +2341,8 @@
         <v>55</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="48" t="str">
-        <f t="shared" si="0"/>
+      <c r="F43" s="46" t="str">
+        <f t="shared" si="1"/>
         <v>09/2013</v>
       </c>
       <c r="G43" s="25"/>
@@ -2371,7 +2383,7 @@
         <v>72</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="42" t="s">
         <v>237</v>
       </c>
       <c r="G46" s="10"/>
@@ -2480,7 +2492,7 @@
         <v>79</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="48" t="str">
+      <c r="F54" s="46" t="str">
         <f>D54</f>
         <v>Solution Architect/Consultant</v>
       </c>
@@ -2494,8 +2506,8 @@
         <v>80</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="48" t="str">
-        <f t="shared" ref="F55:F57" si="1">D55</f>
+      <c r="F55" s="46" t="str">
+        <f t="shared" ref="F55:F57" si="2">D55</f>
         <v>HP OCBU - Grenoble France</v>
       </c>
       <c r="G55" s="10"/>
@@ -2514,8 +2526,8 @@
         <v>81</v>
       </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="48" t="str">
-        <f t="shared" si="1"/>
+      <c r="F56" s="46" t="str">
+        <f t="shared" si="2"/>
         <v>02/1998</v>
       </c>
       <c r="G56" s="10"/>
@@ -2528,8 +2540,8 @@
         <v>69</v>
       </c>
       <c r="E57" s="12"/>
-      <c r="F57" s="48" t="str">
-        <f t="shared" si="1"/>
+      <c r="F57" s="46" t="str">
+        <f t="shared" si="2"/>
         <v>09/2005</v>
       </c>
       <c r="G57" s="10"/>
@@ -2650,7 +2662,7 @@
         <v>89</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="48" t="str">
+      <c r="F66" s="46" t="str">
         <f>D66</f>
         <v>Technical Lead/Software Engineer</v>
       </c>
@@ -2664,8 +2676,8 @@
         <v>80</v>
       </c>
       <c r="E67" s="12"/>
-      <c r="F67" s="48" t="str">
-        <f t="shared" ref="F67:F69" si="2">D67</f>
+      <c r="F67" s="46" t="str">
+        <f t="shared" ref="F67:F69" si="3">D67</f>
         <v>HP OCBU - Grenoble France</v>
       </c>
       <c r="G67" s="10"/>
@@ -2678,8 +2690,8 @@
         <v>90</v>
       </c>
       <c r="E68" s="12"/>
-      <c r="F68" s="48" t="str">
-        <f t="shared" si="2"/>
+      <c r="F68" s="46" t="str">
+        <f t="shared" si="3"/>
         <v>05/1992</v>
       </c>
       <c r="G68" s="10"/>
@@ -2692,8 +2704,8 @@
         <v>81</v>
       </c>
       <c r="E69" s="12"/>
-      <c r="F69" s="48" t="str">
-        <f t="shared" si="2"/>
+      <c r="F69" s="46" t="str">
+        <f t="shared" si="3"/>
         <v>02/1998</v>
       </c>
       <c r="G69" s="10"/>
@@ -2795,7 +2807,7 @@
         <v>97</v>
       </c>
       <c r="E77" s="12"/>
-      <c r="F77" s="49" t="s">
+      <c r="F77" s="47" t="s">
         <v>260</v>
       </c>
       <c r="G77" s="10"/>
@@ -2808,8 +2820,8 @@
         <v>98</v>
       </c>
       <c r="E78" s="12"/>
-      <c r="F78" s="48" t="str">
-        <f t="shared" ref="F78:F80" si="3">D78</f>
+      <c r="F78" s="46" t="str">
+        <f t="shared" ref="F78:F80" si="4">D78</f>
         <v>HP Research Labs - Bristol UK</v>
       </c>
       <c r="G78" s="10"/>
@@ -2822,8 +2834,8 @@
         <v>99</v>
       </c>
       <c r="E79" s="12"/>
-      <c r="F79" s="48" t="str">
-        <f t="shared" si="3"/>
+      <c r="F79" s="46" t="str">
+        <f t="shared" si="4"/>
         <v>08/1985</v>
       </c>
       <c r="G79" s="10"/>
@@ -2836,8 +2848,8 @@
         <v>90</v>
       </c>
       <c r="E80" s="12"/>
-      <c r="F80" s="48" t="str">
-        <f t="shared" si="3"/>
+      <c r="F80" s="46" t="str">
+        <f t="shared" si="4"/>
         <v>05/1992</v>
       </c>
       <c r="G80" s="10"/>
@@ -2887,7 +2899,7 @@
         <v>102</v>
       </c>
       <c r="E84" s="12"/>
-      <c r="F84" s="49" t="s">
+      <c r="F84" s="47" t="s">
         <v>263</v>
       </c>
       <c r="G84" s="10"/>
@@ -2900,8 +2912,8 @@
         <v>103</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="48" t="str">
-        <f t="shared" ref="F85:F87" si="4">D85</f>
+      <c r="F85" s="46" t="str">
+        <f t="shared" ref="F85:F87" si="5">D85</f>
         <v>BBC Research Labs - UK</v>
       </c>
       <c r="G85" s="10"/>
@@ -2914,8 +2926,8 @@
         <v>104</v>
       </c>
       <c r="E86" s="12"/>
-      <c r="F86" s="48" t="str">
-        <f t="shared" si="4"/>
+      <c r="F86" s="46" t="str">
+        <f t="shared" si="5"/>
         <v>09/1983</v>
       </c>
       <c r="G86" s="10"/>
@@ -2928,8 +2940,8 @@
         <v>105</v>
       </c>
       <c r="E87" s="12"/>
-      <c r="F87" s="48" t="str">
-        <f t="shared" si="4"/>
+      <c r="F87" s="46" t="str">
+        <f t="shared" si="5"/>
         <v>08/1984</v>
       </c>
       <c r="G87" s="10"/>
@@ -2990,7 +3002,7 @@
         <v>108</v>
       </c>
       <c r="E92" s="10"/>
-      <c r="F92" s="48" t="str">
+      <c r="F92" s="46" t="str">
         <f>D92</f>
         <v>Certifications</v>
       </c>
@@ -3004,8 +3016,8 @@
         <v>109</v>
       </c>
       <c r="E93" s="10"/>
-      <c r="F93" s="48" t="str">
-        <f t="shared" ref="F93:F95" si="5">D93</f>
+      <c r="F93" s="46" t="str">
+        <f t="shared" ref="F93:F95" si="6">D93</f>
         <v xml:space="preserve">Sep 2017 CNCF Kubernetes Administration (CKA) </v>
       </c>
       <c r="G93" s="10"/>
@@ -3018,8 +3030,8 @@
         <v>110</v>
       </c>
       <c r="E94" s="10"/>
-      <c r="F94" s="48" t="str">
-        <f t="shared" si="5"/>
+      <c r="F94" s="46" t="str">
+        <f t="shared" si="6"/>
         <v>May 2015 HPE Expert One, SDN Apps (HP0-Y48)</v>
       </c>
       <c r="G94" s="10"/>
@@ -3032,8 +3044,8 @@
         <v>111</v>
       </c>
       <c r="E95" s="10"/>
-      <c r="F95" s="48" t="str">
-        <f t="shared" si="5"/>
+      <c r="F95" s="46" t="str">
+        <f t="shared" si="6"/>
         <v>Nov 2013 RedHat RHCE/RHCSA</v>
       </c>
       <c r="G95" s="10"/>
@@ -3057,7 +3069,7 @@
         <v>112</v>
       </c>
       <c r="E97" s="10"/>
-      <c r="F97" s="48" t="str">
+      <c r="F97" s="46" t="str">
         <f>D97</f>
         <v>Cloud</v>
       </c>
@@ -3071,8 +3083,8 @@
         <v>113</v>
       </c>
       <c r="E98" s="10"/>
-      <c r="F98" s="48" t="str">
-        <f t="shared" ref="F98:F99" si="6">D98</f>
+      <c r="F98" s="46" t="str">
+        <f t="shared" ref="F98:F99" si="7">D98</f>
         <v>PaaS OpenShift, Google App Engine, Heroku</v>
       </c>
       <c r="G98" s="10"/>
@@ -3085,8 +3097,8 @@
         <v>114</v>
       </c>
       <c r="E99" s="10"/>
-      <c r="F99" s="48" t="str">
-        <f t="shared" si="6"/>
+      <c r="F99" s="46" t="str">
+        <f t="shared" si="7"/>
         <v>IaaS Azure, AWS, OpenStack, CloudStack, SDN (OpenDaylight), Docker</v>
       </c>
       <c r="G99" s="10"/>
@@ -3116,8 +3128,8 @@
         <v>115</v>
       </c>
       <c r="E101" s="10"/>
-      <c r="F101" s="48" t="str">
-        <f t="shared" ref="F101:F104" si="7">D101</f>
+      <c r="F101" s="46" t="str">
+        <f t="shared" ref="F101:F103" si="8">D101</f>
         <v>Languages and Paradigms</v>
       </c>
       <c r="G101" s="10"/>
@@ -3143,8 +3155,8 @@
         <v>117</v>
       </c>
       <c r="E103" s="10"/>
-      <c r="F103" s="48" t="str">
-        <f t="shared" si="7"/>
+      <c r="F103" s="46" t="str">
+        <f t="shared" si="8"/>
         <v>SQL, NoSQL (MongoDB, Couchbase), Map Reduce. Ruby on Rails, Django</v>
       </c>
       <c r="G103" s="10"/>
@@ -3194,8 +3206,8 @@
         <v>120</v>
       </c>
       <c r="E107" s="10"/>
-      <c r="F107" s="48" t="str">
-        <f t="shared" ref="F106:F108" si="8">D107</f>
+      <c r="F107" s="46" t="str">
+        <f t="shared" ref="F107:F108" si="9">D107</f>
         <v>Eclipse, Git, svn, vim, maven, Jenkins, gdb</v>
       </c>
       <c r="G107" s="10"/>
@@ -3208,8 +3220,8 @@
         <v>121</v>
       </c>
       <c r="E108" s="10"/>
-      <c r="F108" s="48" t="str">
-        <f t="shared" si="8"/>
+      <c r="F108" s="46" t="str">
+        <f t="shared" si="9"/>
         <v>Virtualization (vSphere/Pyvmomi, KVM-Qemu, VirtualBox)</v>
       </c>
       <c r="G108" s="10"/>
@@ -3300,8 +3312,8 @@
         <v>125</v>
       </c>
       <c r="E115" s="10"/>
-      <c r="F115" s="48" t="str">
-        <f t="shared" ref="F115:F120" si="9">D115</f>
+      <c r="F115" s="46" t="str">
+        <f t="shared" ref="F115:F118" si="10">D115</f>
         <v>B.Sc/Dip.Eng in  Electronic Control and Robotics</v>
       </c>
       <c r="G115" s="10"/>
@@ -3314,8 +3326,8 @@
         <v>270</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="48" t="str">
-        <f t="shared" si="9"/>
+      <c r="F116" s="46" t="str">
+        <f t="shared" si="10"/>
         <v>University Of Hull,  UK</v>
       </c>
       <c r="G116" s="10"/>
@@ -3328,8 +3340,8 @@
         <v>128</v>
       </c>
       <c r="E117" s="10"/>
-      <c r="F117" s="48" t="str">
-        <f t="shared" si="9"/>
+      <c r="F117" s="46" t="str">
+        <f t="shared" si="10"/>
         <v>10/1980</v>
       </c>
       <c r="G117" s="10"/>
@@ -3342,8 +3354,8 @@
         <v>129</v>
       </c>
       <c r="E118" s="10"/>
-      <c r="F118" s="48" t="str">
-        <f t="shared" si="9"/>
+      <c r="F118" s="46" t="str">
+        <f t="shared" si="10"/>
         <v>07/1985</v>
       </c>
       <c r="G118" s="10"/>
@@ -3417,8 +3429,8 @@
         <v>133</v>
       </c>
       <c r="E124" s="10"/>
-      <c r="F124" s="48" t="str">
-        <f t="shared" ref="F124:F129" si="10">D124</f>
+      <c r="F124" s="46" t="str">
+        <f t="shared" ref="F124:F129" si="11">D124</f>
         <v>Conference Talks</v>
       </c>
       <c r="G124" s="10"/>
@@ -3431,8 +3443,8 @@
         <v>134</v>
       </c>
       <c r="E125" s="10"/>
-      <c r="F125" s="48" t="str">
-        <f t="shared" si="10"/>
+      <c r="F125" s="46" t="str">
+        <f t="shared" si="11"/>
         <v>https://mjbright.github.io/Talks</v>
       </c>
       <c r="G125" s="10"/>
@@ -3445,8 +3457,8 @@
         <v>216</v>
       </c>
       <c r="E126" s="10"/>
-      <c r="F126" s="48" t="str">
-        <f t="shared" si="10"/>
+      <c r="F126" s="46" t="str">
+        <f t="shared" si="11"/>
         <v>2018 FOSSCon (Pres+Lab), FOSS Asia (Pres+Lab), Code Europe, PyConfr</v>
       </c>
       <c r="G126" s="10"/>
@@ -3459,8 +3471,8 @@
         <v>136</v>
       </c>
       <c r="E127" s="10"/>
-      <c r="F127" s="48" t="str">
-        <f t="shared" si="10"/>
+      <c r="F127" s="46" t="str">
+        <f t="shared" si="11"/>
         <v>2017 Devconf.cz, Snowcamp.io, HPE TSS, HPE TES, DockerConUS, RMLL, OSS EU (Pres+Lab)</v>
       </c>
       <c r="G127" s="10"/>
@@ -3473,8 +3485,8 @@
         <v>137</v>
       </c>
       <c r="E128" s="10"/>
-  